--- a/Stocks/PLTR/HighLow.xlsx
+++ b/Stocks/PLTR/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2562 +417,2582 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>22.94000053405762</v>
+        <v>19.13999938964844</v>
       </c>
       <c r="B2">
-        <v>23.51000022888184</v>
+        <v>19.46999931335449</v>
       </c>
       <c r="C2">
-        <v>22.51000022888184</v>
+        <v>17.81999969482422</v>
       </c>
       <c r="D2">
-        <v>22.86000061035156</v>
+        <v>18.3700008392334</v>
       </c>
       <c r="E2">
-        <v>22.86000061035156</v>
+        <v>18.3700008392334</v>
       </c>
       <c r="F2">
-        <v>51346400</v>
+        <v>87811600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>22.88999938964844</v>
+        <v>18.81999969482422</v>
       </c>
       <c r="B3">
-        <v>23.54999923706055</v>
+        <v>20.20000076293945</v>
       </c>
       <c r="C3">
-        <v>22.73999977111816</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="D3">
-        <v>23.40999984741211</v>
+        <v>20.07999992370605</v>
       </c>
       <c r="E3">
-        <v>23.40999984741211</v>
+        <v>20.07999992370605</v>
       </c>
       <c r="F3">
-        <v>32052800</v>
+        <v>79409500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>23.69000053405762</v>
+        <v>19.72999954223633</v>
       </c>
       <c r="B4">
-        <v>24.26000022888184</v>
+        <v>20.48999977111816</v>
       </c>
       <c r="C4">
-        <v>23.45999908447266</v>
+        <v>19.6299991607666</v>
       </c>
       <c r="D4">
-        <v>24.11000061035156</v>
+        <v>20.45999908447266</v>
       </c>
       <c r="E4">
-        <v>24.11000061035156</v>
+        <v>20.45999908447266</v>
       </c>
       <c r="F4">
-        <v>33667600</v>
+        <v>50039600</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>24.17000007629395</v>
+        <v>20.52000045776367</v>
       </c>
       <c r="B5">
-        <v>24.26000022888184</v>
+        <v>21.6200008392334</v>
       </c>
       <c r="C5">
-        <v>23.56999969482422</v>
+        <v>20.26000022888184</v>
       </c>
       <c r="D5">
-        <v>23.8799991607666</v>
+        <v>21.23999977111816</v>
       </c>
       <c r="E5">
-        <v>23.8799991607666</v>
+        <v>21.23999977111816</v>
       </c>
       <c r="F5">
-        <v>27678300</v>
+        <v>59672400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>23.67000007629395</v>
+        <v>20.10000038146973</v>
       </c>
       <c r="B6">
-        <v>24.17000007629395</v>
+        <v>21.03499984741211</v>
       </c>
       <c r="C6">
-        <v>23.42000007629395</v>
+        <v>19.94000053405762</v>
       </c>
       <c r="D6">
-        <v>23.85000038146973</v>
+        <v>20.67000007629395</v>
       </c>
       <c r="E6">
-        <v>23.85000038146973</v>
+        <v>20.67000007629395</v>
       </c>
       <c r="F6">
-        <v>22068100</v>
+        <v>45314000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>23.8700008392334</v>
+        <v>20.75</v>
       </c>
       <c r="B7">
-        <v>24.13999938964844</v>
+        <v>20.80999946594238</v>
       </c>
       <c r="C7">
-        <v>22.80999946594238</v>
+        <v>20.28000068664551</v>
       </c>
       <c r="D7">
-        <v>23.3700008392334</v>
+        <v>20.61000061035156</v>
       </c>
       <c r="E7">
-        <v>23.3700008392334</v>
+        <v>20.61000061035156</v>
       </c>
       <c r="F7">
-        <v>36770100</v>
+        <v>46302400</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>23.18000030517578</v>
+        <v>20.84000015258789</v>
       </c>
       <c r="B8">
-        <v>23.54999923706055</v>
+        <v>21.15999984741211</v>
       </c>
       <c r="C8">
-        <v>22.84000015258789</v>
+        <v>20.46999931335449</v>
       </c>
       <c r="D8">
-        <v>23.04000091552734</v>
+        <v>20.75</v>
       </c>
       <c r="E8">
-        <v>23.04000091552734</v>
+        <v>20.75</v>
       </c>
       <c r="F8">
-        <v>24717300</v>
+        <v>35372900</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>23.01000022888184</v>
+        <v>21.05999946594238</v>
       </c>
       <c r="B9">
-        <v>23.07999992370605</v>
+        <v>21.52000045776367</v>
       </c>
       <c r="C9">
-        <v>22.20999908447266</v>
+        <v>20.67499923706055</v>
       </c>
       <c r="D9">
-        <v>22.29999923706055</v>
+        <v>21.21999931335449</v>
       </c>
       <c r="E9">
-        <v>22.29999923706055</v>
+        <v>21.21999931335449</v>
       </c>
       <c r="F9">
-        <v>33934400</v>
+        <v>46596800</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>21.94000053405762</v>
+        <v>21.42000007629395</v>
       </c>
       <c r="B10">
-        <v>22.20000076293945</v>
+        <v>22.11000061035156</v>
       </c>
       <c r="C10">
-        <v>20.8700008392334</v>
+        <v>21.28000068664551</v>
       </c>
       <c r="D10">
-        <v>21.63999938964844</v>
+        <v>21.47999954223633</v>
       </c>
       <c r="E10">
-        <v>21.63999938964844</v>
+        <v>21.47999954223633</v>
       </c>
       <c r="F10">
-        <v>63429600</v>
+        <v>49890800</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>21.80999946594238</v>
+        <v>21.57999992370605</v>
       </c>
       <c r="B11">
-        <v>21.94000053405762</v>
+        <v>22.23999977111816</v>
       </c>
       <c r="C11">
-        <v>20.96999931335449</v>
+        <v>21.48999977111816</v>
       </c>
       <c r="D11">
-        <v>21.14999961853027</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="E11">
-        <v>21.14999961853027</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="F11">
-        <v>39134700</v>
+        <v>42958300</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>21.02000045776367</v>
+        <v>22.01000022888184</v>
       </c>
       <c r="B12">
-        <v>21.02000045776367</v>
+        <v>22.70000076293945</v>
       </c>
       <c r="C12">
-        <v>19.40999984741211</v>
+        <v>21.64999961853027</v>
       </c>
       <c r="D12">
-        <v>20.09000015258789</v>
+        <v>22.70000076293945</v>
       </c>
       <c r="E12">
-        <v>20.09000015258789</v>
+        <v>22.70000076293945</v>
       </c>
       <c r="F12">
-        <v>92201100</v>
+        <v>76230500</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20.29999923706055</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>20.75</v>
+        <v>24.75</v>
       </c>
       <c r="C13">
-        <v>19.57999992370605</v>
+        <v>22.76000022888184</v>
       </c>
       <c r="D13">
-        <v>19.75</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="E13">
-        <v>19.75</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="F13">
-        <v>63725500</v>
+        <v>111846000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19.28000068664551</v>
+        <v>23.19000053405762</v>
       </c>
       <c r="B14">
-        <v>19.29999923706055</v>
+        <v>23.35000038146973</v>
       </c>
       <c r="C14">
-        <v>18.18000030517578</v>
+        <v>22.36000061035156</v>
       </c>
       <c r="D14">
-        <v>18.46999931335449</v>
+        <v>23.05999946594238</v>
       </c>
       <c r="E14">
-        <v>18.46999931335449</v>
+        <v>23.05999946594238</v>
       </c>
       <c r="F14">
-        <v>104670500</v>
+        <v>52695500</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>17.20000076293945</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="B15">
-        <v>20.29999923706055</v>
+        <v>24.84000015258789</v>
       </c>
       <c r="C15">
-        <v>17.05500030517578</v>
+        <v>22.81999969482422</v>
       </c>
       <c r="D15">
-        <v>20.20999908447266</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="E15">
-        <v>20.20999908447266</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="F15">
-        <v>203230500</v>
+        <v>86473200</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20</v>
+        <v>24.13999938964844</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="C16">
-        <v>18.51000022888184</v>
+        <v>23.34000015258789</v>
       </c>
       <c r="D16">
-        <v>18.88999938964844</v>
+        <v>23.6299991607666</v>
       </c>
       <c r="E16">
-        <v>18.88999938964844</v>
+        <v>23.6299991607666</v>
       </c>
       <c r="F16">
-        <v>128281500</v>
+        <v>48164200</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19.13999938964844</v>
+        <v>23.70999908447266</v>
       </c>
       <c r="B17">
-        <v>19.46999931335449</v>
+        <v>24.48999977111816</v>
       </c>
       <c r="C17">
-        <v>17.81999969482422</v>
+        <v>23.5</v>
       </c>
       <c r="D17">
-        <v>18.3700008392334</v>
+        <v>24.03000068664551</v>
       </c>
       <c r="E17">
-        <v>18.3700008392334</v>
+        <v>24.03000068664551</v>
       </c>
       <c r="F17">
-        <v>87811600</v>
+        <v>42537600</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18.81999969482422</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>20.20000076293945</v>
+        <v>24.76000022888184</v>
       </c>
       <c r="C18">
-        <v>18.53000068664551</v>
+        <v>23.79000091552734</v>
       </c>
       <c r="D18">
-        <v>20.07999992370605</v>
+        <v>24.45999908447266</v>
       </c>
       <c r="E18">
-        <v>20.07999992370605</v>
+        <v>24.45999908447266</v>
       </c>
       <c r="F18">
-        <v>79409500</v>
+        <v>49641000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19.72999954223633</v>
+        <v>24.85000038146973</v>
       </c>
       <c r="B19">
-        <v>20.48999977111816</v>
+        <v>25.22999954223633</v>
       </c>
       <c r="C19">
-        <v>19.6299991607666</v>
+        <v>23.93000030517578</v>
       </c>
       <c r="D19">
-        <v>20.45999908447266</v>
+        <v>24.3799991607666</v>
       </c>
       <c r="E19">
-        <v>20.45999908447266</v>
+        <v>24.3799991607666</v>
       </c>
       <c r="F19">
-        <v>50039600</v>
+        <v>53488600</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20.52000045776367</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="B20">
-        <v>21.6200008392334</v>
+        <v>24.73999977111816</v>
       </c>
       <c r="C20">
-        <v>20.26000022888184</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="D20">
-        <v>21.23999977111816</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="E20">
-        <v>21.23999977111816</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="F20">
-        <v>59672400</v>
+        <v>36006200</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20.10000038146973</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>21.03499984741211</v>
+        <v>24.38999938964844</v>
       </c>
       <c r="C21">
-        <v>19.94000053405762</v>
+        <v>23.44000053405762</v>
       </c>
       <c r="D21">
-        <v>20.67000007629395</v>
+        <v>24.13999938964844</v>
       </c>
       <c r="E21">
-        <v>20.67000007629395</v>
+        <v>24.13999938964844</v>
       </c>
       <c r="F21">
-        <v>45314000</v>
+        <v>35482900</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20.75</v>
+        <v>24.1200008392334</v>
       </c>
       <c r="B22">
-        <v>20.80999946594238</v>
+        <v>24.70999908447266</v>
       </c>
       <c r="C22">
-        <v>20.28000068664551</v>
+        <v>24.03000068664551</v>
       </c>
       <c r="D22">
-        <v>20.61000061035156</v>
+        <v>24.67000007629395</v>
       </c>
       <c r="E22">
-        <v>20.61000061035156</v>
+        <v>24.67000007629395</v>
       </c>
       <c r="F22">
-        <v>46302400</v>
+        <v>33113100</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20.84000015258789</v>
+        <v>24.72999954223633</v>
       </c>
       <c r="B23">
-        <v>21.15999984741211</v>
+        <v>25.14999961853027</v>
       </c>
       <c r="C23">
-        <v>20.46999931335449</v>
+        <v>24.46999931335449</v>
       </c>
       <c r="D23">
-        <v>20.75</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>20.75</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>35372900</v>
+        <v>51801500</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>21.05999946594238</v>
+        <v>25.03000068664551</v>
       </c>
       <c r="B24">
-        <v>21.52000045776367</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="C24">
-        <v>20.67499923706055</v>
+        <v>24.38999938964844</v>
       </c>
       <c r="D24">
-        <v>21.21999931335449</v>
+        <v>24.40999984741211</v>
       </c>
       <c r="E24">
-        <v>21.21999931335449</v>
+        <v>24.40999984741211</v>
       </c>
       <c r="F24">
-        <v>46596800</v>
+        <v>46693200</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>21.42000007629395</v>
+        <v>24.09000015258789</v>
       </c>
       <c r="B25">
-        <v>22.11000061035156</v>
+        <v>24.94000053405762</v>
       </c>
       <c r="C25">
-        <v>21.28000068664551</v>
+        <v>23.86000061035156</v>
       </c>
       <c r="D25">
-        <v>21.47999954223633</v>
+        <v>24.79999923706055</v>
       </c>
       <c r="E25">
-        <v>21.47999954223633</v>
+        <v>24.79999923706055</v>
       </c>
       <c r="F25">
-        <v>49890800</v>
+        <v>58452600</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>21.57999992370605</v>
+        <v>24.68000030517578</v>
       </c>
       <c r="B26">
-        <v>22.23999977111816</v>
+        <v>25.45999908447266</v>
       </c>
       <c r="C26">
-        <v>21.48999977111816</v>
+        <v>24.54999923706055</v>
       </c>
       <c r="D26">
-        <v>22.1200008392334</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="E26">
-        <v>22.1200008392334</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="F26">
-        <v>42958300</v>
+        <v>64408400</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>22.01000022888184</v>
+        <v>25.59000015258789</v>
       </c>
       <c r="B27">
-        <v>22.70000076293945</v>
+        <v>25.94000053405762</v>
       </c>
       <c r="C27">
-        <v>21.64999961853027</v>
+        <v>25.02000045776367</v>
       </c>
       <c r="D27">
-        <v>22.70000076293945</v>
+        <v>25.3700008392334</v>
       </c>
       <c r="E27">
-        <v>22.70000076293945</v>
+        <v>25.3700008392334</v>
       </c>
       <c r="F27">
-        <v>76230500</v>
+        <v>65852600</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>23</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="B28">
-        <v>24.75</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="C28">
-        <v>22.76000022888184</v>
+        <v>24.51000022888184</v>
       </c>
       <c r="D28">
-        <v>22.95000076293945</v>
+        <v>25.42000007629395</v>
       </c>
       <c r="E28">
-        <v>22.95000076293945</v>
+        <v>25.42000007629395</v>
       </c>
       <c r="F28">
-        <v>111846000</v>
+        <v>54805000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>23.19000053405762</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="B29">
-        <v>23.35000038146973</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="C29">
-        <v>22.36000061035156</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="D29">
-        <v>23.05999946594238</v>
+        <v>25.39999961853027</v>
       </c>
       <c r="E29">
-        <v>23.05999946594238</v>
+        <v>25.39999961853027</v>
       </c>
       <c r="F29">
-        <v>52695500</v>
+        <v>46171100</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>23.02000045776367</v>
+        <v>25.45999908447266</v>
       </c>
       <c r="B30">
-        <v>24.84000015258789</v>
+        <v>26.35000038146973</v>
       </c>
       <c r="C30">
-        <v>22.81999969482422</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="D30">
-        <v>24.45000076293945</v>
+        <v>26.27000045776367</v>
       </c>
       <c r="E30">
-        <v>24.45000076293945</v>
+        <v>26.27000045776367</v>
       </c>
       <c r="F30">
-        <v>86473200</v>
+        <v>53362200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>24.13999938964844</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="B31">
-        <v>24.26000022888184</v>
+        <v>26.70999908447266</v>
       </c>
       <c r="C31">
-        <v>23.34000015258789</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="D31">
-        <v>23.6299991607666</v>
+        <v>26.53000068664551</v>
       </c>
       <c r="E31">
-        <v>23.6299991607666</v>
+        <v>26.53000068664551</v>
       </c>
       <c r="F31">
-        <v>48164200</v>
+        <v>48419400</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>23.70999908447266</v>
+        <v>26.57999992370605</v>
       </c>
       <c r="B32">
-        <v>24.48999977111816</v>
+        <v>27.01000022888184</v>
       </c>
       <c r="C32">
-        <v>23.5</v>
+        <v>26.2450008392334</v>
       </c>
       <c r="D32">
-        <v>24.03000068664551</v>
+        <v>26.78000068664551</v>
       </c>
       <c r="E32">
-        <v>24.03000068664551</v>
+        <v>26.78000068664551</v>
       </c>
       <c r="F32">
-        <v>42537600</v>
+        <v>140832700</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>24</v>
+        <v>26.97999954223633</v>
       </c>
       <c r="B33">
-        <v>24.76000022888184</v>
+        <v>27.5</v>
       </c>
       <c r="C33">
-        <v>23.79000091552734</v>
+        <v>26.86000061035156</v>
       </c>
       <c r="D33">
-        <v>24.45999908447266</v>
+        <v>27.3799991607666</v>
       </c>
       <c r="E33">
-        <v>24.45999908447266</v>
+        <v>27.3799991607666</v>
       </c>
       <c r="F33">
-        <v>49641000</v>
+        <v>42184600</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>24.85000038146973</v>
+        <v>27.3799991607666</v>
       </c>
       <c r="B34">
-        <v>25.22999954223633</v>
+        <v>27.44000053405762</v>
       </c>
       <c r="C34">
-        <v>23.93000030517578</v>
+        <v>26.44000053405762</v>
       </c>
       <c r="D34">
-        <v>24.3799991607666</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="E34">
-        <v>24.3799991607666</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="F34">
-        <v>53488600</v>
+        <v>38478900</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>24.45000076293945</v>
+        <v>26.47999954223633</v>
       </c>
       <c r="B35">
-        <v>24.73999977111816</v>
+        <v>26.92000007629395</v>
       </c>
       <c r="C35">
-        <v>24.17000007629395</v>
+        <v>26.20999908447266</v>
       </c>
       <c r="D35">
-        <v>24.17000007629395</v>
+        <v>26.36000061035156</v>
       </c>
       <c r="E35">
-        <v>24.17000007629395</v>
+        <v>26.36000061035156</v>
       </c>
       <c r="F35">
-        <v>36006200</v>
+        <v>28957100</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>24</v>
+        <v>26.10000038146973</v>
       </c>
       <c r="B36">
-        <v>24.38999938964844</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="C36">
-        <v>23.44000053405762</v>
+        <v>24.59000015258789</v>
       </c>
       <c r="D36">
-        <v>24.13999938964844</v>
+        <v>24.71999931335449</v>
       </c>
       <c r="E36">
-        <v>24.13999938964844</v>
+        <v>24.71999931335449</v>
       </c>
       <c r="F36">
-        <v>35482900</v>
+        <v>55429800</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>24.1200008392334</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>24.70999908447266</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="C37">
-        <v>24.03000068664551</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="D37">
-        <v>24.67000007629395</v>
+        <v>24.44000053405762</v>
       </c>
       <c r="E37">
-        <v>24.67000007629395</v>
+        <v>24.44000053405762</v>
       </c>
       <c r="F37">
-        <v>33113100</v>
+        <v>29389500</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>24.72999954223633</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="B38">
-        <v>25.14999961853027</v>
+        <v>25.20000076293945</v>
       </c>
       <c r="C38">
         <v>24.46999931335449</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>24.68000030517578</v>
       </c>
       <c r="E38">
-        <v>25</v>
+        <v>24.68000030517578</v>
       </c>
       <c r="F38">
-        <v>51801500</v>
+        <v>28764500</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>25.03000068664551</v>
+        <v>24.22999954223633</v>
       </c>
       <c r="B39">
-        <v>25.54999923706055</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="C39">
-        <v>24.38999938964844</v>
+        <v>22.71999931335449</v>
       </c>
       <c r="D39">
-        <v>24.40999984741211</v>
+        <v>22.88999938964844</v>
       </c>
       <c r="E39">
-        <v>24.40999984741211</v>
+        <v>22.88999938964844</v>
       </c>
       <c r="F39">
-        <v>46693200</v>
+        <v>66937300</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>24.09000015258789</v>
+        <v>22.43000030517578</v>
       </c>
       <c r="B40">
-        <v>24.94000053405762</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="C40">
-        <v>23.86000061035156</v>
+        <v>22.25</v>
       </c>
       <c r="D40">
-        <v>24.79999923706055</v>
+        <v>23.07999992370605</v>
       </c>
       <c r="E40">
-        <v>24.79999923706055</v>
+        <v>23.07999992370605</v>
       </c>
       <c r="F40">
-        <v>58452600</v>
+        <v>34612600</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>24.68000030517578</v>
+        <v>22.95999908447266</v>
       </c>
       <c r="B41">
-        <v>25.45999908447266</v>
+        <v>23.38999938964844</v>
       </c>
       <c r="C41">
-        <v>24.54999923706055</v>
+        <v>22.76000022888184</v>
       </c>
       <c r="D41">
-        <v>25.45000076293945</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="E41">
-        <v>25.45000076293945</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="F41">
-        <v>64408400</v>
+        <v>22492400</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>25.59000015258789</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="B42">
-        <v>25.94000053405762</v>
+        <v>23.4950008392334</v>
       </c>
       <c r="C42">
-        <v>25.02000045776367</v>
+        <v>22.8799991607666</v>
       </c>
       <c r="D42">
-        <v>25.3700008392334</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="E42">
-        <v>25.3700008392334</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="F42">
-        <v>65852600</v>
+        <v>23457200</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>25.10000038146973</v>
+        <v>22.97999954223633</v>
       </c>
       <c r="B43">
-        <v>25.54999923706055</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="C43">
-        <v>24.51000022888184</v>
+        <v>22.42000007629395</v>
       </c>
       <c r="D43">
-        <v>25.42000007629395</v>
+        <v>22.45000076293945</v>
       </c>
       <c r="E43">
-        <v>25.42000007629395</v>
+        <v>22.45000076293945</v>
       </c>
       <c r="F43">
-        <v>54805000</v>
+        <v>24748800</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>25.38999938964844</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="B44">
-        <v>25.52000045776367</v>
+        <v>22.6200008392334</v>
       </c>
       <c r="C44">
-        <v>24.95999908447266</v>
+        <v>21.51000022888184</v>
       </c>
       <c r="D44">
-        <v>25.39999961853027</v>
+        <v>21.55999946594238</v>
       </c>
       <c r="E44">
-        <v>25.39999961853027</v>
+        <v>21.55999946594238</v>
       </c>
       <c r="F44">
-        <v>46171100</v>
+        <v>33796200</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>25.45999908447266</v>
+        <v>21.71999931335449</v>
       </c>
       <c r="B45">
-        <v>26.35000038146973</v>
+        <v>22.05500030517578</v>
       </c>
       <c r="C45">
-        <v>25.34000015258789</v>
+        <v>21.01000022888184</v>
       </c>
       <c r="D45">
-        <v>26.27000045776367</v>
+        <v>21.46999931335449</v>
       </c>
       <c r="E45">
-        <v>26.27000045776367</v>
+        <v>21.46999931335449</v>
       </c>
       <c r="F45">
-        <v>53362200</v>
+        <v>31871000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>26.48999977111816</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="B46">
-        <v>26.70999908447266</v>
+        <v>21.70999908447266</v>
       </c>
       <c r="C46">
-        <v>26.17000007629395</v>
+        <v>21.23999977111816</v>
       </c>
       <c r="D46">
-        <v>26.53000068664551</v>
+        <v>21.3700008392334</v>
       </c>
       <c r="E46">
-        <v>26.53000068664551</v>
+        <v>21.3700008392334</v>
       </c>
       <c r="F46">
-        <v>48419400</v>
+        <v>19503100</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>26.57999992370605</v>
+        <v>20.96999931335449</v>
       </c>
       <c r="B47">
-        <v>27.01000022888184</v>
+        <v>21.69000053405762</v>
       </c>
       <c r="C47">
-        <v>26.2450008392334</v>
+        <v>20.54999923706055</v>
       </c>
       <c r="D47">
-        <v>26.78000068664551</v>
+        <v>21.54000091552734</v>
       </c>
       <c r="E47">
-        <v>26.78000068664551</v>
+        <v>21.54000091552734</v>
       </c>
       <c r="F47">
-        <v>140832700</v>
+        <v>30314400</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>26.97999954223633</v>
+        <v>21.6299991607666</v>
       </c>
       <c r="B48">
-        <v>27.5</v>
+        <v>22.35000038146973</v>
       </c>
       <c r="C48">
-        <v>26.86000061035156</v>
+        <v>21.21999931335449</v>
       </c>
       <c r="D48">
-        <v>27.3799991607666</v>
+        <v>22.18000030517578</v>
       </c>
       <c r="E48">
-        <v>27.3799991607666</v>
+        <v>22.18000030517578</v>
       </c>
       <c r="F48">
-        <v>42184600</v>
+        <v>22954000</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>27.3799991607666</v>
+        <v>22.27000045776367</v>
       </c>
       <c r="B49">
-        <v>27.44000053405762</v>
+        <v>22.68000030517578</v>
       </c>
       <c r="C49">
-        <v>26.44000053405762</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="D49">
-        <v>26.6299991607666</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="E49">
-        <v>26.6299991607666</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="F49">
-        <v>38478900</v>
+        <v>20437300</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>26.47999954223633</v>
+        <v>22.54999923706055</v>
       </c>
       <c r="B50">
-        <v>26.92000007629395</v>
+        <v>22.67000007629395</v>
       </c>
       <c r="C50">
-        <v>26.20999908447266</v>
+        <v>21.8799991607666</v>
       </c>
       <c r="D50">
-        <v>26.36000061035156</v>
+        <v>22.06999969482422</v>
       </c>
       <c r="E50">
-        <v>26.36000061035156</v>
+        <v>22.06999969482422</v>
       </c>
       <c r="F50">
-        <v>28957100</v>
+        <v>17468900</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>26.10000038146973</v>
+        <v>22.01000022888184</v>
       </c>
       <c r="B51">
-        <v>26.1299991607666</v>
+        <v>22.07999992370605</v>
       </c>
       <c r="C51">
-        <v>24.59000015258789</v>
+        <v>21.51000022888184</v>
       </c>
       <c r="D51">
-        <v>24.71999931335449</v>
+        <v>21.80999946594238</v>
       </c>
       <c r="E51">
-        <v>24.71999931335449</v>
+        <v>21.80999946594238</v>
       </c>
       <c r="F51">
-        <v>55429800</v>
+        <v>17653300</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>25</v>
+        <v>21.79999923706055</v>
       </c>
       <c r="B52">
-        <v>25.34000015258789</v>
+        <v>22.29999923706055</v>
       </c>
       <c r="C52">
-        <v>24.32999992370605</v>
+        <v>21.47999954223633</v>
       </c>
       <c r="D52">
-        <v>24.44000053405762</v>
+        <v>22.1299991607666</v>
       </c>
       <c r="E52">
-        <v>24.44000053405762</v>
+        <v>22.1299991607666</v>
       </c>
       <c r="F52">
-        <v>29389500</v>
+        <v>16267900</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>24.60000038146973</v>
+        <v>21.95999908447266</v>
       </c>
       <c r="B53">
-        <v>25.20000076293945</v>
+        <v>22.11000061035156</v>
       </c>
       <c r="C53">
-        <v>24.46999931335449</v>
+        <v>21.09000015258789</v>
       </c>
       <c r="D53">
-        <v>24.68000030517578</v>
+        <v>21.68000030517578</v>
       </c>
       <c r="E53">
-        <v>24.68000030517578</v>
+        <v>21.68000030517578</v>
       </c>
       <c r="F53">
-        <v>28764500</v>
+        <v>23078700</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>24.22999954223633</v>
+        <v>21.75</v>
       </c>
       <c r="B54">
-        <v>24.26000022888184</v>
+        <v>22.61499977111816</v>
       </c>
       <c r="C54">
-        <v>22.71999931335449</v>
+        <v>21.69000053405762</v>
       </c>
       <c r="D54">
-        <v>22.88999938964844</v>
+        <v>22.55999946594238</v>
       </c>
       <c r="E54">
-        <v>22.88999938964844</v>
+        <v>22.55999946594238</v>
       </c>
       <c r="F54">
-        <v>66937300</v>
+        <v>25073600</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>22.43000030517578</v>
+        <v>22.78000068664551</v>
       </c>
       <c r="B55">
-        <v>23.20999908447266</v>
+        <v>22.85000038146973</v>
       </c>
       <c r="C55">
-        <v>22.25</v>
+        <v>22.13999938964844</v>
       </c>
       <c r="D55">
-        <v>23.07999992370605</v>
+        <v>22.18000030517578</v>
       </c>
       <c r="E55">
-        <v>23.07999992370605</v>
+        <v>22.18000030517578</v>
       </c>
       <c r="F55">
-        <v>34612600</v>
+        <v>19219100</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>22.95999908447266</v>
+        <v>21.85000038146973</v>
       </c>
       <c r="B56">
-        <v>23.38999938964844</v>
+        <v>22.4060001373291</v>
       </c>
       <c r="C56">
-        <v>22.76000022888184</v>
+        <v>21.70999908447266</v>
       </c>
       <c r="D56">
-        <v>23.29000091552734</v>
+        <v>21.70999908447266</v>
       </c>
       <c r="E56">
-        <v>23.29000091552734</v>
+        <v>21.70999908447266</v>
       </c>
       <c r="F56">
-        <v>22492400</v>
+        <v>15821000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>23.26000022888184</v>
+        <v>21.90999984741211</v>
       </c>
       <c r="B57">
-        <v>23.4950008392334</v>
+        <v>22.3700008392334</v>
       </c>
       <c r="C57">
-        <v>22.8799991607666</v>
+        <v>21.47999954223633</v>
       </c>
       <c r="D57">
-        <v>22.95000076293945</v>
+        <v>22.10000038146973</v>
       </c>
       <c r="E57">
-        <v>22.95000076293945</v>
+        <v>22.10000038146973</v>
       </c>
       <c r="F57">
-        <v>23457200</v>
+        <v>21372900</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>22.97999954223633</v>
+        <v>22.03000068664551</v>
       </c>
       <c r="B58">
-        <v>22.98999977111816</v>
+        <v>22.27000045776367</v>
       </c>
       <c r="C58">
-        <v>22.42000007629395</v>
+        <v>21.70999908447266</v>
       </c>
       <c r="D58">
-        <v>22.45000076293945</v>
+        <v>22.23999977111816</v>
       </c>
       <c r="E58">
-        <v>22.45000076293945</v>
+        <v>22.23999977111816</v>
       </c>
       <c r="F58">
-        <v>24748800</v>
+        <v>17040100</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>22.48999977111816</v>
+        <v>22.20000076293945</v>
       </c>
       <c r="B59">
-        <v>22.6200008392334</v>
+        <v>22.54000091552734</v>
       </c>
       <c r="C59">
-        <v>21.51000022888184</v>
+        <v>22.06999969482422</v>
       </c>
       <c r="D59">
-        <v>21.55999946594238</v>
+        <v>22.29999923706055</v>
       </c>
       <c r="E59">
-        <v>21.55999946594238</v>
+        <v>22.29999923706055</v>
       </c>
       <c r="F59">
-        <v>33796200</v>
+        <v>15537400</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>21.71999931335449</v>
+        <v>22.21999931335449</v>
       </c>
       <c r="B60">
-        <v>22.05500030517578</v>
+        <v>22.77000045776367</v>
       </c>
       <c r="C60">
-        <v>21.01000022888184</v>
+        <v>22.02000045776367</v>
       </c>
       <c r="D60">
-        <v>21.46999931335449</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="E60">
-        <v>21.46999931335449</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="F60">
-        <v>31871000</v>
+        <v>18575200</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>21.60000038146973</v>
+        <v>22.63999938964844</v>
       </c>
       <c r="B61">
-        <v>21.70999908447266</v>
+        <v>22.69000053405762</v>
       </c>
       <c r="C61">
-        <v>21.23999977111816</v>
+        <v>21.79000091552734</v>
       </c>
       <c r="D61">
-        <v>21.3700008392334</v>
+        <v>21.81999969482422</v>
       </c>
       <c r="E61">
-        <v>21.3700008392334</v>
+        <v>21.81999969482422</v>
       </c>
       <c r="F61">
-        <v>19503100</v>
+        <v>24107900</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20.96999931335449</v>
+        <v>21.85000038146973</v>
       </c>
       <c r="B62">
-        <v>21.69000053405762</v>
+        <v>23.28000068664551</v>
       </c>
       <c r="C62">
-        <v>20.54999923706055</v>
+        <v>21.79999923706055</v>
       </c>
       <c r="D62">
-        <v>21.54000091552734</v>
+        <v>22.93000030517578</v>
       </c>
       <c r="E62">
-        <v>21.54000091552734</v>
+        <v>22.93000030517578</v>
       </c>
       <c r="F62">
-        <v>30314400</v>
+        <v>35611100</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>21.6299991607666</v>
+        <v>23.01000022888184</v>
       </c>
       <c r="B63">
-        <v>22.35000038146973</v>
+        <v>23.52000045776367</v>
       </c>
       <c r="C63">
-        <v>21.21999931335449</v>
+        <v>22.78000068664551</v>
       </c>
       <c r="D63">
-        <v>22.18000030517578</v>
+        <v>22.92000007629395</v>
       </c>
       <c r="E63">
-        <v>22.18000030517578</v>
+        <v>22.92000007629395</v>
       </c>
       <c r="F63">
-        <v>22954000</v>
+        <v>25947900</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>22.27000045776367</v>
+        <v>23.06999969482422</v>
       </c>
       <c r="B64">
-        <v>22.68000030517578</v>
+        <v>23.19000053405762</v>
       </c>
       <c r="C64">
-        <v>22.1200008392334</v>
+        <v>22.09000015258789</v>
       </c>
       <c r="D64">
-        <v>22.52000045776367</v>
+        <v>22.35000038146973</v>
       </c>
       <c r="E64">
-        <v>22.52000045776367</v>
+        <v>22.35000038146973</v>
       </c>
       <c r="F64">
-        <v>20437300</v>
+        <v>34679000</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>22.54999923706055</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="B65">
-        <v>22.67000007629395</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="C65">
-        <v>21.8799991607666</v>
+        <v>23.58499908447266</v>
       </c>
       <c r="D65">
-        <v>22.06999969482422</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="E65">
-        <v>22.06999969482422</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="F65">
-        <v>17468900</v>
+        <v>189287200</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>22.01000022888184</v>
+        <v>25</v>
       </c>
       <c r="B66">
-        <v>22.07999992370605</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="C66">
-        <v>21.51000022888184</v>
+        <v>24.30999946594238</v>
       </c>
       <c r="D66">
-        <v>21.80999946594238</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="E66">
-        <v>21.80999946594238</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="F66">
-        <v>17653300</v>
+        <v>52242400</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>21.79999923706055</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="B67">
-        <v>22.29999923706055</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="C67">
-        <v>21.47999954223633</v>
+        <v>23.77000045776367</v>
       </c>
       <c r="D67">
-        <v>22.1299991607666</v>
+        <v>24.5</v>
       </c>
       <c r="E67">
-        <v>22.1299991607666</v>
+        <v>24.5</v>
       </c>
       <c r="F67">
-        <v>16267900</v>
+        <v>45907300</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>21.95999908447266</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="B68">
-        <v>22.11000061035156</v>
+        <v>24.59000015258789</v>
       </c>
       <c r="C68">
-        <v>21.09000015258789</v>
+        <v>23.73999977111816</v>
       </c>
       <c r="D68">
-        <v>21.68000030517578</v>
+        <v>23.96999931335449</v>
       </c>
       <c r="E68">
-        <v>21.68000030517578</v>
+        <v>23.96999931335449</v>
       </c>
       <c r="F68">
-        <v>23078700</v>
+        <v>35348300</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>21.75</v>
+        <v>24.06999969482422</v>
       </c>
       <c r="B69">
-        <v>22.61499977111816</v>
+        <v>25.94000053405762</v>
       </c>
       <c r="C69">
-        <v>21.69000053405762</v>
+        <v>23.68000030517578</v>
       </c>
       <c r="D69">
-        <v>22.55999946594238</v>
+        <v>25.28000068664551</v>
       </c>
       <c r="E69">
-        <v>22.55999946594238</v>
+        <v>25.28000068664551</v>
       </c>
       <c r="F69">
-        <v>25073600</v>
+        <v>92065600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>22.78000068664551</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="B70">
-        <v>22.85000038146973</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="C70">
-        <v>22.13999938964844</v>
+        <v>24.13999938964844</v>
       </c>
       <c r="D70">
-        <v>22.18000030517578</v>
+        <v>24.15999984741211</v>
       </c>
       <c r="E70">
-        <v>22.18000030517578</v>
+        <v>24.15999984741211</v>
       </c>
       <c r="F70">
-        <v>19219100</v>
+        <v>67605600</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>21.85000038146973</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="B71">
-        <v>22.4060001373291</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="C71">
-        <v>21.70999908447266</v>
+        <v>23.65999984741211</v>
       </c>
       <c r="D71">
-        <v>21.70999908447266</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="E71">
-        <v>21.70999908447266</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="F71">
-        <v>15821000</v>
+        <v>51982200</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>21.90999984741211</v>
+        <v>24.02000045776367</v>
       </c>
       <c r="B72">
-        <v>22.3700008392334</v>
+        <v>24.93000030517578</v>
       </c>
       <c r="C72">
-        <v>21.47999954223633</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="D72">
-        <v>22.10000038146973</v>
+        <v>24.81999969482422</v>
       </c>
       <c r="E72">
-        <v>22.10000038146973</v>
+        <v>24.81999969482422</v>
       </c>
       <c r="F72">
-        <v>21372900</v>
+        <v>35705300</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>22.03000068664551</v>
+        <v>25</v>
       </c>
       <c r="B73">
-        <v>22.27000045776367</v>
+        <v>25.35000038146973</v>
       </c>
       <c r="C73">
-        <v>21.70999908447266</v>
+        <v>24.76000022888184</v>
       </c>
       <c r="D73">
-        <v>22.23999977111816</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="E73">
-        <v>22.23999977111816</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="F73">
-        <v>17040100</v>
+        <v>37227400</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>22.20000076293945</v>
+        <v>25.1200008392334</v>
       </c>
       <c r="B74">
-        <v>22.54000091552734</v>
+        <v>25.19000053405762</v>
       </c>
       <c r="C74">
-        <v>22.06999969482422</v>
+        <v>24.06999969482422</v>
       </c>
       <c r="D74">
-        <v>22.29999923706055</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="E74">
-        <v>22.29999923706055</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="F74">
-        <v>15537400</v>
+        <v>54678500</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>22.21999931335449</v>
+        <v>24.39999961853027</v>
       </c>
       <c r="B75">
-        <v>22.77000045776367</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="C75">
-        <v>22.02000045776367</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="D75">
-        <v>22.52000045776367</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="E75">
-        <v>22.52000045776367</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="F75">
-        <v>18575200</v>
+        <v>46179400</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>22.63999938964844</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="B76">
-        <v>22.69000053405762</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="C76">
-        <v>21.79000091552734</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="D76">
-        <v>21.81999969482422</v>
+        <v>25.70999908447266</v>
       </c>
       <c r="E76">
-        <v>21.81999969482422</v>
+        <v>25.70999908447266</v>
       </c>
       <c r="F76">
-        <v>24107900</v>
+        <v>52186500</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>21.85000038146973</v>
+        <v>25.73999977111816</v>
       </c>
       <c r="B77">
-        <v>23.28000068664551</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="C77">
-        <v>21.79999923706055</v>
+        <v>25.6200008392334</v>
       </c>
       <c r="D77">
-        <v>22.93000030517578</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="E77">
-        <v>22.93000030517578</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="F77">
-        <v>35611100</v>
+        <v>44139300</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>23.01000022888184</v>
+        <v>25.79000091552734</v>
       </c>
       <c r="B78">
-        <v>23.52000045776367</v>
+        <v>26.36000061035156</v>
       </c>
       <c r="C78">
-        <v>22.78000068664551</v>
+        <v>25.65999984741211</v>
       </c>
       <c r="D78">
-        <v>22.92000007629395</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="E78">
-        <v>22.92000007629395</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="F78">
-        <v>25947900</v>
+        <v>93168600</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>23.06999969482422</v>
+        <v>26.45999908447266</v>
       </c>
       <c r="B79">
-        <v>23.19000053405762</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="C79">
-        <v>22.09000015258789</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="D79">
-        <v>22.35000038146973</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="E79">
-        <v>22.35000038146973</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="F79">
-        <v>34679000</v>
+        <v>34417200</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>24.45000076293945</v>
+        <v>26.20999908447266</v>
       </c>
       <c r="B80">
-        <v>25.76000022888184</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="C80">
-        <v>23.58499908447266</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="D80">
-        <v>24.88999938964844</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="E80">
-        <v>24.88999938964844</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="F80">
-        <v>189287200</v>
+        <v>38460100</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>25</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="B81">
-        <v>25.10000038146973</v>
+        <v>26.75</v>
       </c>
       <c r="C81">
-        <v>24.30999946594238</v>
+        <v>26.21999931335449</v>
       </c>
       <c r="D81">
-        <v>24.89999961853027</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="E81">
-        <v>24.89999961853027</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="F81">
-        <v>52242400</v>
+        <v>26609500</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>24.89999961853027</v>
+        <v>26.79000091552734</v>
       </c>
       <c r="B82">
-        <v>24.89999961853027</v>
+        <v>26.8799991607666</v>
       </c>
       <c r="C82">
-        <v>23.77000045776367</v>
+        <v>26.27000045776367</v>
       </c>
       <c r="D82">
-        <v>24.5</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="E82">
-        <v>24.5</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="F82">
-        <v>45907300</v>
+        <v>35835100</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>23.89999961853027</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="B83">
-        <v>24.59000015258789</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="C83">
-        <v>23.73999977111816</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="D83">
-        <v>23.96999931335449</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="E83">
-        <v>23.96999931335449</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="F83">
-        <v>35348300</v>
+        <v>54394400</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>24.06999969482422</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="B84">
-        <v>25.94000053405762</v>
+        <v>26.23999977111816</v>
       </c>
       <c r="C84">
-        <v>23.68000030517578</v>
+        <v>25.29000091552734</v>
       </c>
       <c r="D84">
-        <v>25.28000068664551</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="E84">
-        <v>25.28000068664551</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="F84">
-        <v>92065600</v>
+        <v>34190800</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>25.01000022888184</v>
+        <v>26.18000030517578</v>
       </c>
       <c r="B85">
-        <v>25.63999938964844</v>
+        <v>26.72999954223633</v>
       </c>
       <c r="C85">
-        <v>24.13999938964844</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="D85">
-        <v>24.15999984741211</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="E85">
-        <v>24.15999984741211</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="F85">
-        <v>67605600</v>
+        <v>37215800</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>24.21999931335449</v>
+        <v>26.14999961853027</v>
       </c>
       <c r="B86">
-        <v>24.47999954223633</v>
+        <v>26.23900032043457</v>
       </c>
       <c r="C86">
-        <v>23.65999984741211</v>
+        <v>25.03000068664551</v>
       </c>
       <c r="D86">
-        <v>24.01000022888184</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="E86">
-        <v>24.01000022888184</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="F86">
-        <v>51982200</v>
+        <v>42372300</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>24.02000045776367</v>
+        <v>25.96999931335449</v>
       </c>
       <c r="B87">
-        <v>24.93000030517578</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="C87">
-        <v>23.89999961853027</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="D87">
-        <v>24.81999969482422</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="E87">
-        <v>24.81999969482422</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="F87">
-        <v>35705300</v>
+        <v>34569000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>25</v>
+        <v>26.29999923706055</v>
       </c>
       <c r="B88">
-        <v>25.35000038146973</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="C88">
-        <v>24.76000022888184</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="D88">
-        <v>25.10000038146973</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="E88">
-        <v>25.10000038146973</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="F88">
-        <v>37227400</v>
+        <v>49555500</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>25.1200008392334</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="B89">
-        <v>25.19000053405762</v>
+        <v>28.79000091552734</v>
       </c>
       <c r="C89">
-        <v>24.06999969482422</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="D89">
-        <v>24.35000038146973</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="E89">
-        <v>24.35000038146973</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="F89">
-        <v>54678500</v>
+        <v>109992000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>24.39999961853027</v>
+        <v>28.65999984741211</v>
       </c>
       <c r="B90">
-        <v>25.40999984741211</v>
+        <v>29.29000091552734</v>
       </c>
       <c r="C90">
-        <v>24.36000061035156</v>
+        <v>28.06999969482422</v>
       </c>
       <c r="D90">
-        <v>24.8700008392334</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="E90">
-        <v>24.8700008392334</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="F90">
-        <v>46179400</v>
+        <v>182052600</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>25.04999923706055</v>
+        <v>27.56999969482422</v>
       </c>
       <c r="B91">
-        <v>26.09000015258789</v>
+        <v>28.10000038146973</v>
       </c>
       <c r="C91">
-        <v>24.90999984741211</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="D91">
-        <v>25.70999908447266</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="E91">
-        <v>25.70999908447266</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="F91">
-        <v>52186500</v>
+        <v>89413500</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>25.73999977111816</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="B92">
-        <v>26.60000038146973</v>
+        <v>27.14900016784668</v>
       </c>
       <c r="C92">
-        <v>25.6200008392334</v>
+        <v>26.07999992370605</v>
       </c>
       <c r="D92">
-        <v>25.76000022888184</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="E92">
-        <v>25.76000022888184</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="F92">
-        <v>44139300</v>
+        <v>50933600</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>25.79000091552734</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="B93">
-        <v>26.36000061035156</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="C93">
-        <v>25.65999984741211</v>
+        <v>26.58200073242188</v>
       </c>
       <c r="D93">
-        <v>26.34000015258789</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="E93">
-        <v>26.34000015258789</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="F93">
-        <v>93168600</v>
+        <v>44308100</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>26.45999908447266</v>
+        <v>27.70999908447266</v>
       </c>
       <c r="B94">
-        <v>26.51000022888184</v>
+        <v>29.19000053405762</v>
       </c>
       <c r="C94">
-        <v>26.03000068664551</v>
+        <v>27.67000007629395</v>
       </c>
       <c r="D94">
-        <v>26.20000076293945</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="E94">
-        <v>26.20000076293945</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="F94">
-        <v>34417200</v>
+        <v>60028600</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>26.20999908447266</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="B95">
-        <v>26.8700008392334</v>
+        <v>28.76000022888184</v>
       </c>
       <c r="C95">
-        <v>26.09000015258789</v>
+        <v>27.90099906921387</v>
       </c>
       <c r="D95">
-        <v>26.51000022888184</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="E95">
-        <v>26.51000022888184</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="F95">
-        <v>38460100</v>
+        <v>40309700</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>26.48999977111816</v>
+        <v>28.22999954223633</v>
       </c>
       <c r="B96">
-        <v>26.75</v>
+        <v>28.3799991607666</v>
       </c>
       <c r="C96">
-        <v>26.21999931335449</v>
+        <v>27.22999954223633</v>
       </c>
       <c r="D96">
-        <v>26.63999938964844</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="E96">
-        <v>26.63999938964844</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="F96">
-        <v>26609500</v>
+        <v>44102800</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>26.79000091552734</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="B97">
-        <v>26.8799991607666</v>
+        <v>27.1299991607666</v>
       </c>
       <c r="C97">
-        <v>26.27000045776367</v>
+        <v>25.20999908447266</v>
       </c>
       <c r="D97">
-        <v>26.70000076293945</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="E97">
-        <v>26.70000076293945</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="F97">
-        <v>35835100</v>
+        <v>64206200</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>26.60000038146973</v>
+        <v>25.61000061035156</v>
       </c>
       <c r="B98">
-        <v>26.61000061035156</v>
+        <v>25.70000076293945</v>
       </c>
       <c r="C98">
-        <v>24.95999908447266</v>
+        <v>24.42000007629395</v>
       </c>
       <c r="D98">
-        <v>25.57999992370605</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="E98">
-        <v>25.57999992370605</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="F98">
-        <v>54394400</v>
+        <v>46164500</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>25.38999938964844</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="B99">
-        <v>26.23999977111816</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="C99">
-        <v>25.29000091552734</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="D99">
-        <v>26.1299991607666</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="E99">
-        <v>26.1299991607666</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="F99">
-        <v>34190800</v>
+        <v>59505600</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>26.18000030517578</v>
+        <v>24.20999908447266</v>
       </c>
       <c r="B100">
-        <v>26.72999954223633</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="C100">
-        <v>26.17000007629395</v>
+        <v>23.71999931335449</v>
       </c>
       <c r="D100">
-        <v>26.28000068664551</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="E100">
-        <v>26.28000068664551</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="F100">
-        <v>37215800</v>
+        <v>32778000</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>26.14999961853027</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="B101">
-        <v>26.23900032043457</v>
+        <v>24.04999923706055</v>
       </c>
       <c r="C101">
-        <v>25.03000068664551</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="D101">
-        <v>25.82999992370605</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="E101">
-        <v>25.82999992370605</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="F101">
-        <v>42372300</v>
+        <v>46789700</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>25.96999931335449</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="B102">
-        <v>26.70000076293945</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="C102">
-        <v>25.89999961853027</v>
+        <v>23.06999969482422</v>
       </c>
       <c r="D102">
-        <v>26.26000022888184</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="E102">
-        <v>26.26000022888184</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="F102">
-        <v>34569000</v>
+        <v>56574800</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>26.29999923706055</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="B103">
-        <v>27.14999961853027</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="C103">
-        <v>26.03000068664551</v>
+        <v>23.35000038146973</v>
       </c>
       <c r="D103">
-        <v>27.07999992370605</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="E103">
-        <v>27.07999992370605</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="F103">
-        <v>49555500</v>
+        <v>125175700</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>27.20000076293945</v>
+        <v>23.70999908447266</v>
       </c>
       <c r="B104">
-        <v>28.79000091552734</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="C104">
-        <v>27.02000045776367</v>
+        <v>23.54000091552734</v>
       </c>
       <c r="D104">
-        <v>28.6299991607666</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="E104">
-        <v>28.6299991607666</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="F104">
-        <v>109992000</v>
+        <v>38873700</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>28.65999984741211</v>
+        <v>23.86000061035156</v>
       </c>
       <c r="B105">
-        <v>29.29000091552734</v>
+        <v>24.09600067138672</v>
       </c>
       <c r="C105">
-        <v>28.06999969482422</v>
+        <v>23.11000061035156</v>
       </c>
       <c r="D105">
-        <v>28.70999908447266</v>
+        <v>23.5</v>
       </c>
       <c r="E105">
-        <v>28.70999908447266</v>
+        <v>23.5</v>
       </c>
       <c r="F105">
-        <v>182052600</v>
+        <v>39630400</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>27.56999969482422</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="B106">
-        <v>28.10000038146973</v>
+        <v>23.97999954223633</v>
       </c>
       <c r="C106">
-        <v>26.05999946594238</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="D106">
-        <v>26.54999923706055</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="E106">
-        <v>26.54999923706055</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="F106">
-        <v>89413500</v>
+        <v>23971700</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>26.88999938964844</v>
+        <v>23.54999923706055</v>
       </c>
       <c r="B107">
-        <v>27.14900016784668</v>
+        <v>23.80999946594238</v>
       </c>
       <c r="C107">
-        <v>26.07999992370605</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="D107">
-        <v>26.6200008392334</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="E107">
-        <v>26.6200008392334</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="F107">
-        <v>50933600</v>
+        <v>26280000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>26.61000061035156</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="B108">
-        <v>27.77000045776367</v>
+        <v>24.30999946594238</v>
       </c>
       <c r="C108">
-        <v>26.58200073242188</v>
+        <v>23.79000091552734</v>
       </c>
       <c r="D108">
-        <v>27.43000030517578</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="E108">
-        <v>27.43000030517578</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="F108">
-        <v>44308100</v>
+        <v>28494000</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>27.70999908447266</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="B109">
-        <v>29.19000053405762</v>
+        <v>24.70999908447266</v>
       </c>
       <c r="C109">
-        <v>27.67000007629395</v>
+        <v>24.20499992370605</v>
       </c>
       <c r="D109">
-        <v>28.77000045776367</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="E109">
-        <v>28.77000045776367</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="F109">
-        <v>60028600</v>
+        <v>26106700</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>28.27000045776367</v>
+        <v>24.5</v>
       </c>
       <c r="B110">
-        <v>28.76000022888184</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="C110">
-        <v>27.90099906921387</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="D110">
-        <v>28.55999946594238</v>
+        <v>24</v>
       </c>
       <c r="E110">
-        <v>28.55999946594238</v>
+        <v>24</v>
       </c>
       <c r="F110">
-        <v>40309700</v>
+        <v>24275000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>28.22999954223633</v>
+        <v>24</v>
       </c>
       <c r="B111">
-        <v>28.3799991607666</v>
+        <v>24.38999938964844</v>
       </c>
       <c r="C111">
-        <v>27.22999954223633</v>
+        <v>23.92000007629395</v>
       </c>
       <c r="D111">
-        <v>27.46999931335449</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="E111">
-        <v>27.46999931335449</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="F111">
-        <v>44102800</v>
+        <v>25609900</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>27.02000045776367</v>
+        <v>24.5</v>
       </c>
       <c r="B112">
-        <v>27.1299991607666</v>
+        <v>25.20000076293945</v>
       </c>
       <c r="C112">
-        <v>25.20999908447266</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="D112">
-        <v>25.34000015258789</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="E112">
-        <v>25.34000015258789</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="F112">
-        <v>64206200</v>
+        <v>29393900</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>25.61000061035156</v>
+        <v>24.79000091552734</v>
       </c>
       <c r="B113">
-        <v>25.70000076293945</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="C113">
-        <v>24.42000007629395</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="D113">
-        <v>24.52000045776367</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="E113">
-        <v>24.52000045776367</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="F113">
-        <v>46164500</v>
+        <v>24248000</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>24.69000053405762</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="B114">
-        <v>25.04999923706055</v>
+        <v>24.93000030517578</v>
       </c>
       <c r="C114">
-        <v>23.8799991607666</v>
+        <v>24.07999992370605</v>
       </c>
       <c r="D114">
-        <v>24.04000091552734</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="E114">
-        <v>24.04000091552734</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="F114">
-        <v>59505600</v>
+        <v>23976600</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>24.20999908447266</v>
+        <v>24.48999977111816</v>
       </c>
       <c r="B115">
-        <v>24.36000061035156</v>
+        <v>24.85000038146973</v>
       </c>
       <c r="C115">
-        <v>23.71999931335449</v>
+        <v>24.25</v>
       </c>
       <c r="D115">
-        <v>24.32999992370605</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="E115">
-        <v>24.32999992370605</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="F115">
-        <v>32778000</v>
+        <v>20166800</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>24.01000022888184</v>
+        <v>24.5</v>
       </c>
       <c r="B116">
-        <v>24.04999923706055</v>
+        <v>25.54000091552734</v>
       </c>
       <c r="C116">
-        <v>23.02000045776367</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="D116">
-        <v>23.17000007629395</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="E116">
-        <v>23.17000007629395</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="F116">
-        <v>46789700</v>
+        <v>33962100</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>23.20999908447266</v>
+        <v>25.98999977111816</v>
       </c>
       <c r="B117">
-        <v>23.8799991607666</v>
+        <v>26.75</v>
       </c>
       <c r="C117">
-        <v>23.06999969482422</v>
+        <v>25.25</v>
       </c>
       <c r="D117">
-        <v>23.20999908447266</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="E117">
-        <v>23.20999908447266</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="F117">
-        <v>56574800</v>
+        <v>56767000</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>24.90999984741211</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="B118">
-        <v>25.01000022888184</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="C118">
-        <v>23.35000038146973</v>
+        <v>25.02000045776367</v>
       </c>
       <c r="D118">
-        <v>23.57999992370605</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="E118">
-        <v>23.57999992370605</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="F118">
-        <v>125175700</v>
+        <v>24157200</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>23.70999908447266</v>
+        <v>25.29999923706055</v>
       </c>
       <c r="B119">
-        <v>24.1299991607666</v>
+        <v>25.79500007629395</v>
       </c>
       <c r="C119">
-        <v>23.54000091552734</v>
+        <v>25.1200008392334</v>
       </c>
       <c r="D119">
-        <v>23.72999954223633</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="E119">
-        <v>23.72999954223633</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="F119">
-        <v>38873700</v>
+        <v>21203000</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>23.86000061035156</v>
+        <v>25.5</v>
       </c>
       <c r="B120">
-        <v>24.09600067138672</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="C120">
-        <v>23.11000061035156</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="D120">
-        <v>23.5</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="E120">
-        <v>23.5</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="F120">
-        <v>39630400</v>
+        <v>21910300</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>23.26000022888184</v>
+        <v>26.11000061035156</v>
       </c>
       <c r="B121">
-        <v>23.97999954223633</v>
+        <v>26.64500045776367</v>
       </c>
       <c r="C121">
-        <v>23.26000022888184</v>
+        <v>25.88299942016602</v>
       </c>
       <c r="D121">
-        <v>23.53000068664551</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="E121">
-        <v>23.53000068664551</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="F121">
-        <v>23971700</v>
+        <v>26684700</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>23.54999923706055</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="B122">
-        <v>23.80999946594238</v>
+        <v>26.71999931335449</v>
       </c>
       <c r="C122">
-        <v>23.29000091552734</v>
+        <v>25.55500030517578</v>
       </c>
       <c r="D122">
-        <v>23.69000053405762</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="E122">
-        <v>23.69000053405762</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="F122">
-        <v>26280000</v>
+        <v>30794600</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>23.82999992370605</v>
+        <v>25.88999938964844</v>
       </c>
       <c r="B123">
-        <v>24.30999946594238</v>
+        <v>26.23500061035156</v>
       </c>
       <c r="C123">
-        <v>23.79000091552734</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="D123">
-        <v>24.1299991607666</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="E123">
-        <v>24.1299991607666</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="F123">
-        <v>28494000</v>
+        <v>25244200</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>24.43000030517578</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="B124">
-        <v>24.70999908447266</v>
+        <v>26.56999969482422</v>
       </c>
       <c r="C124">
-        <v>24.20499992370605</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="D124">
-        <v>24.35000038146973</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="E124">
-        <v>24.35000038146973</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="F124">
-        <v>26106700</v>
+        <v>25029700</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>24.5</v>
+        <v>26.45000076293945</v>
       </c>
       <c r="B125">
-        <v>24.52000045776367</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="C125">
-        <v>23.82999992370605</v>
+        <v>25.71999931335449</v>
       </c>
       <c r="D125">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E125">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F125">
-        <v>24275000</v>
+        <v>25929900</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>24</v>
+        <v>26.25</v>
       </c>
       <c r="B126">
-        <v>24.38999938964844</v>
+        <v>27.11000061035156</v>
       </c>
       <c r="C126">
-        <v>23.92000007629395</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="D126">
-        <v>24.26000022888184</v>
+        <v>26.75</v>
       </c>
       <c r="E126">
-        <v>24.26000022888184</v>
+        <v>26.75</v>
       </c>
       <c r="F126">
-        <v>25609900</v>
+        <v>41359600</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>24.5</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="B127">
-        <v>25.20000076293945</v>
+        <v>25.97999954223633</v>
       </c>
       <c r="C127">
-        <v>24.36000061035156</v>
+        <v>23.95000076293945</v>
       </c>
       <c r="D127">
-        <v>24.69000053405762</v>
+        <v>24.25</v>
       </c>
       <c r="E127">
-        <v>24.69000053405762</v>
+        <v>24.25</v>
       </c>
       <c r="F127">
-        <v>29393900</v>
+        <v>117540200</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>24.79000091552734</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="B128">
-        <v>24.95999908447266</v>
+        <v>23.63999938964844</v>
       </c>
       <c r="C128">
-        <v>24.17000007629395</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="D128">
-        <v>24.21999931335449</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="E128">
-        <v>24.21999931335449</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="F128">
-        <v>24248000</v>
+        <v>94860100</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>24.1299991607666</v>
+        <v>23.04000091552734</v>
       </c>
       <c r="B129">
-        <v>24.93000030517578</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="C129">
-        <v>24.07999992370605</v>
+        <v>22.66500091552734</v>
       </c>
       <c r="D129">
-        <v>24.78000068664551</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="E129">
-        <v>24.78000068664551</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="F129">
-        <v>23865400</v>
+        <v>43381500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>23.02000045776367</v>
+      </c>
+      <c r="B130">
+        <v>23.22500038146973</v>
+      </c>
+      <c r="C130">
+        <v>22.3799991607666</v>
+      </c>
+      <c r="D130">
+        <v>22.82999992370605</v>
+      </c>
+      <c r="E130">
+        <v>22.82999992370605</v>
+      </c>
+      <c r="F130">
+        <v>53440300</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/PLTR/HighLow.xlsx
+++ b/Stocks/PLTR/HighLow.xlsx
@@ -417,2582 +417,2582 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19.13999938964844</v>
+        <v>20.75</v>
       </c>
       <c r="B2">
-        <v>19.46999931335449</v>
+        <v>20.80999946594238</v>
       </c>
       <c r="C2">
-        <v>17.81999969482422</v>
+        <v>20.28000068664551</v>
       </c>
       <c r="D2">
-        <v>18.3700008392334</v>
+        <v>20.61000061035156</v>
       </c>
       <c r="E2">
-        <v>18.3700008392334</v>
+        <v>20.61000061035156</v>
       </c>
       <c r="F2">
-        <v>87811600</v>
+        <v>46302400</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18.81999969482422</v>
+        <v>20.84000015258789</v>
       </c>
       <c r="B3">
-        <v>20.20000076293945</v>
+        <v>21.15999984741211</v>
       </c>
       <c r="C3">
-        <v>18.53000068664551</v>
+        <v>20.46999931335449</v>
       </c>
       <c r="D3">
-        <v>20.07999992370605</v>
+        <v>20.75</v>
       </c>
       <c r="E3">
-        <v>20.07999992370605</v>
+        <v>20.75</v>
       </c>
       <c r="F3">
-        <v>79409500</v>
+        <v>35372900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19.72999954223633</v>
+        <v>21.05999946594238</v>
       </c>
       <c r="B4">
-        <v>20.48999977111816</v>
+        <v>21.52000045776367</v>
       </c>
       <c r="C4">
-        <v>19.6299991607666</v>
+        <v>20.67499923706055</v>
       </c>
       <c r="D4">
-        <v>20.45999908447266</v>
+        <v>21.21999931335449</v>
       </c>
       <c r="E4">
-        <v>20.45999908447266</v>
+        <v>21.21999931335449</v>
       </c>
       <c r="F4">
-        <v>50039600</v>
+        <v>46596800</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20.52000045776367</v>
+        <v>21.42000007629395</v>
       </c>
       <c r="B5">
-        <v>21.6200008392334</v>
+        <v>22.11000061035156</v>
       </c>
       <c r="C5">
-        <v>20.26000022888184</v>
+        <v>21.28000068664551</v>
       </c>
       <c r="D5">
-        <v>21.23999977111816</v>
+        <v>21.47999954223633</v>
       </c>
       <c r="E5">
-        <v>21.23999977111816</v>
+        <v>21.47999954223633</v>
       </c>
       <c r="F5">
-        <v>59672400</v>
+        <v>49890800</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20.10000038146973</v>
+        <v>21.57999992370605</v>
       </c>
       <c r="B6">
-        <v>21.03499984741211</v>
+        <v>22.23999977111816</v>
       </c>
       <c r="C6">
-        <v>19.94000053405762</v>
+        <v>21.48999977111816</v>
       </c>
       <c r="D6">
-        <v>20.67000007629395</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="E6">
-        <v>20.67000007629395</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="F6">
-        <v>45314000</v>
+        <v>42958300</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20.75</v>
+        <v>22.01000022888184</v>
       </c>
       <c r="B7">
-        <v>20.80999946594238</v>
+        <v>22.70000076293945</v>
       </c>
       <c r="C7">
-        <v>20.28000068664551</v>
+        <v>21.64999961853027</v>
       </c>
       <c r="D7">
-        <v>20.61000061035156</v>
+        <v>22.70000076293945</v>
       </c>
       <c r="E7">
-        <v>20.61000061035156</v>
+        <v>22.70000076293945</v>
       </c>
       <c r="F7">
-        <v>46302400</v>
+        <v>76230500</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20.84000015258789</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>21.15999984741211</v>
+        <v>24.75</v>
       </c>
       <c r="C8">
-        <v>20.46999931335449</v>
+        <v>22.76000022888184</v>
       </c>
       <c r="D8">
-        <v>20.75</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="E8">
-        <v>20.75</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="F8">
-        <v>35372900</v>
+        <v>111846000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>21.05999946594238</v>
+        <v>23.19000053405762</v>
       </c>
       <c r="B9">
-        <v>21.52000045776367</v>
+        <v>23.35000038146973</v>
       </c>
       <c r="C9">
-        <v>20.67499923706055</v>
+        <v>22.36000061035156</v>
       </c>
       <c r="D9">
-        <v>21.21999931335449</v>
+        <v>23.05999946594238</v>
       </c>
       <c r="E9">
-        <v>21.21999931335449</v>
+        <v>23.05999946594238</v>
       </c>
       <c r="F9">
-        <v>46596800</v>
+        <v>52695500</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>21.42000007629395</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="B10">
-        <v>22.11000061035156</v>
+        <v>24.84000015258789</v>
       </c>
       <c r="C10">
-        <v>21.28000068664551</v>
+        <v>22.81999969482422</v>
       </c>
       <c r="D10">
-        <v>21.47999954223633</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="E10">
-        <v>21.47999954223633</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="F10">
-        <v>49890800</v>
+        <v>86473200</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>21.57999992370605</v>
+        <v>24.13999938964844</v>
       </c>
       <c r="B11">
-        <v>22.23999977111816</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="C11">
-        <v>21.48999977111816</v>
+        <v>23.34000015258789</v>
       </c>
       <c r="D11">
-        <v>22.1200008392334</v>
+        <v>23.6299991607666</v>
       </c>
       <c r="E11">
-        <v>22.1200008392334</v>
+        <v>23.6299991607666</v>
       </c>
       <c r="F11">
-        <v>42958300</v>
+        <v>48164200</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>22.01000022888184</v>
+        <v>23.70999908447266</v>
       </c>
       <c r="B12">
-        <v>22.70000076293945</v>
+        <v>24.48999977111816</v>
       </c>
       <c r="C12">
-        <v>21.64999961853027</v>
+        <v>23.5</v>
       </c>
       <c r="D12">
-        <v>22.70000076293945</v>
+        <v>24.03000068664551</v>
       </c>
       <c r="E12">
-        <v>22.70000076293945</v>
+        <v>24.03000068664551</v>
       </c>
       <c r="F12">
-        <v>76230500</v>
+        <v>42537600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>24.75</v>
+        <v>24.76000022888184</v>
       </c>
       <c r="C13">
-        <v>22.76000022888184</v>
+        <v>23.79000091552734</v>
       </c>
       <c r="D13">
-        <v>22.95000076293945</v>
+        <v>24.45999908447266</v>
       </c>
       <c r="E13">
-        <v>22.95000076293945</v>
+        <v>24.45999908447266</v>
       </c>
       <c r="F13">
-        <v>111846000</v>
+        <v>49641000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>23.19000053405762</v>
+        <v>24.85000038146973</v>
       </c>
       <c r="B14">
-        <v>23.35000038146973</v>
+        <v>25.22999954223633</v>
       </c>
       <c r="C14">
-        <v>22.36000061035156</v>
+        <v>23.93000030517578</v>
       </c>
       <c r="D14">
-        <v>23.05999946594238</v>
+        <v>24.3799991607666</v>
       </c>
       <c r="E14">
-        <v>23.05999946594238</v>
+        <v>24.3799991607666</v>
       </c>
       <c r="F14">
-        <v>52695500</v>
+        <v>53488600</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>23.02000045776367</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="B15">
-        <v>24.84000015258789</v>
+        <v>24.73999977111816</v>
       </c>
       <c r="C15">
-        <v>22.81999969482422</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="D15">
-        <v>24.45000076293945</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="E15">
-        <v>24.45000076293945</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="F15">
-        <v>86473200</v>
+        <v>36006200</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>24.38999938964844</v>
+      </c>
+      <c r="C16">
+        <v>23.44000053405762</v>
+      </c>
+      <c r="D16">
         <v>24.13999938964844</v>
       </c>
-      <c r="B16">
-        <v>24.26000022888184</v>
-      </c>
-      <c r="C16">
-        <v>23.34000015258789</v>
-      </c>
-      <c r="D16">
-        <v>23.6299991607666</v>
-      </c>
       <c r="E16">
-        <v>23.6299991607666</v>
+        <v>24.13999938964844</v>
       </c>
       <c r="F16">
-        <v>48164200</v>
+        <v>35482900</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>23.70999908447266</v>
+        <v>24.1200008392334</v>
       </c>
       <c r="B17">
-        <v>24.48999977111816</v>
+        <v>24.70999908447266</v>
       </c>
       <c r="C17">
-        <v>23.5</v>
+        <v>24.03000068664551</v>
       </c>
       <c r="D17">
-        <v>24.03000068664551</v>
+        <v>24.67000007629395</v>
       </c>
       <c r="E17">
-        <v>24.03000068664551</v>
+        <v>24.67000007629395</v>
       </c>
       <c r="F17">
-        <v>42537600</v>
+        <v>33113100</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>24</v>
+        <v>24.72999954223633</v>
       </c>
       <c r="B18">
-        <v>24.76000022888184</v>
+        <v>25.14999961853027</v>
       </c>
       <c r="C18">
-        <v>23.79000091552734</v>
+        <v>24.46999931335449</v>
       </c>
       <c r="D18">
-        <v>24.45999908447266</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>24.45999908447266</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>49641000</v>
+        <v>51801500</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>24.85000038146973</v>
+        <v>25.03000068664551</v>
       </c>
       <c r="B19">
-        <v>25.22999954223633</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="C19">
-        <v>23.93000030517578</v>
+        <v>24.38999938964844</v>
       </c>
       <c r="D19">
-        <v>24.3799991607666</v>
+        <v>24.40999984741211</v>
       </c>
       <c r="E19">
-        <v>24.3799991607666</v>
+        <v>24.40999984741211</v>
       </c>
       <c r="F19">
-        <v>53488600</v>
+        <v>46693200</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>24.45000076293945</v>
+        <v>24.09000015258789</v>
       </c>
       <c r="B20">
-        <v>24.73999977111816</v>
+        <v>24.94000053405762</v>
       </c>
       <c r="C20">
-        <v>24.17000007629395</v>
+        <v>23.86000061035156</v>
       </c>
       <c r="D20">
-        <v>24.17000007629395</v>
+        <v>24.79999923706055</v>
       </c>
       <c r="E20">
-        <v>24.17000007629395</v>
+        <v>24.79999923706055</v>
       </c>
       <c r="F20">
-        <v>36006200</v>
+        <v>58452600</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>24</v>
+        <v>24.68000030517578</v>
       </c>
       <c r="B21">
-        <v>24.38999938964844</v>
+        <v>25.45999908447266</v>
       </c>
       <c r="C21">
-        <v>23.44000053405762</v>
+        <v>24.54999923706055</v>
       </c>
       <c r="D21">
-        <v>24.13999938964844</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="E21">
-        <v>24.13999938964844</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="F21">
-        <v>35482900</v>
+        <v>64408400</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>24.1200008392334</v>
+        <v>25.59000015258789</v>
       </c>
       <c r="B22">
-        <v>24.70999908447266</v>
+        <v>25.94000053405762</v>
       </c>
       <c r="C22">
-        <v>24.03000068664551</v>
+        <v>25.02000045776367</v>
       </c>
       <c r="D22">
-        <v>24.67000007629395</v>
+        <v>25.3700008392334</v>
       </c>
       <c r="E22">
-        <v>24.67000007629395</v>
+        <v>25.3700008392334</v>
       </c>
       <c r="F22">
-        <v>33113100</v>
+        <v>65852600</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>24.72999954223633</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="B23">
-        <v>25.14999961853027</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="C23">
-        <v>24.46999931335449</v>
+        <v>24.51000022888184</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>25.42000007629395</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>25.42000007629395</v>
       </c>
       <c r="F23">
-        <v>51801500</v>
+        <v>54805000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>25.03000068664551</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="B24">
-        <v>25.54999923706055</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="C24">
-        <v>24.38999938964844</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="D24">
-        <v>24.40999984741211</v>
+        <v>25.39999961853027</v>
       </c>
       <c r="E24">
-        <v>24.40999984741211</v>
+        <v>25.39999961853027</v>
       </c>
       <c r="F24">
-        <v>46693200</v>
+        <v>46171100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>24.09000015258789</v>
+        <v>25.45999908447266</v>
       </c>
       <c r="B25">
-        <v>24.94000053405762</v>
+        <v>26.35000038146973</v>
       </c>
       <c r="C25">
-        <v>23.86000061035156</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="D25">
-        <v>24.79999923706055</v>
+        <v>26.27000045776367</v>
       </c>
       <c r="E25">
-        <v>24.79999923706055</v>
+        <v>26.27000045776367</v>
       </c>
       <c r="F25">
-        <v>58452600</v>
+        <v>53362200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>24.68000030517578</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="B26">
-        <v>25.45999908447266</v>
+        <v>26.70999908447266</v>
       </c>
       <c r="C26">
-        <v>24.54999923706055</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="D26">
-        <v>25.45000076293945</v>
+        <v>26.53000068664551</v>
       </c>
       <c r="E26">
-        <v>25.45000076293945</v>
+        <v>26.53000068664551</v>
       </c>
       <c r="F26">
-        <v>64408400</v>
+        <v>48419400</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>25.59000015258789</v>
+        <v>26.57999992370605</v>
       </c>
       <c r="B27">
-        <v>25.94000053405762</v>
+        <v>27.01000022888184</v>
       </c>
       <c r="C27">
-        <v>25.02000045776367</v>
+        <v>26.2450008392334</v>
       </c>
       <c r="D27">
-        <v>25.3700008392334</v>
+        <v>26.78000068664551</v>
       </c>
       <c r="E27">
-        <v>25.3700008392334</v>
+        <v>26.78000068664551</v>
       </c>
       <c r="F27">
-        <v>65852600</v>
+        <v>140832700</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>25.10000038146973</v>
+        <v>26.97999954223633</v>
       </c>
       <c r="B28">
-        <v>25.54999923706055</v>
+        <v>27.5</v>
       </c>
       <c r="C28">
-        <v>24.51000022888184</v>
+        <v>26.86000061035156</v>
       </c>
       <c r="D28">
-        <v>25.42000007629395</v>
+        <v>27.3799991607666</v>
       </c>
       <c r="E28">
-        <v>25.42000007629395</v>
+        <v>27.3799991607666</v>
       </c>
       <c r="F28">
-        <v>54805000</v>
+        <v>42184600</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>25.38999938964844</v>
+        <v>27.3799991607666</v>
       </c>
       <c r="B29">
-        <v>25.52000045776367</v>
+        <v>27.44000053405762</v>
       </c>
       <c r="C29">
-        <v>24.95999908447266</v>
+        <v>26.44000053405762</v>
       </c>
       <c r="D29">
-        <v>25.39999961853027</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="E29">
-        <v>25.39999961853027</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="F29">
-        <v>46171100</v>
+        <v>38478900</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>25.45999908447266</v>
+        <v>26.47999954223633</v>
       </c>
       <c r="B30">
-        <v>26.35000038146973</v>
+        <v>26.92000007629395</v>
       </c>
       <c r="C30">
-        <v>25.34000015258789</v>
+        <v>26.20999908447266</v>
       </c>
       <c r="D30">
-        <v>26.27000045776367</v>
+        <v>26.36000061035156</v>
       </c>
       <c r="E30">
-        <v>26.27000045776367</v>
+        <v>26.36000061035156</v>
       </c>
       <c r="F30">
-        <v>53362200</v>
+        <v>28957100</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>26.48999977111816</v>
+        <v>26.10000038146973</v>
       </c>
       <c r="B31">
-        <v>26.70999908447266</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="C31">
-        <v>26.17000007629395</v>
+        <v>24.59000015258789</v>
       </c>
       <c r="D31">
-        <v>26.53000068664551</v>
+        <v>24.71999931335449</v>
       </c>
       <c r="E31">
-        <v>26.53000068664551</v>
+        <v>24.71999931335449</v>
       </c>
       <c r="F31">
-        <v>48419400</v>
+        <v>55429800</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>26.57999992370605</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>27.01000022888184</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="C32">
-        <v>26.2450008392334</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="D32">
-        <v>26.78000068664551</v>
+        <v>24.44000053405762</v>
       </c>
       <c r="E32">
-        <v>26.78000068664551</v>
+        <v>24.44000053405762</v>
       </c>
       <c r="F32">
-        <v>140832700</v>
+        <v>29389500</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>26.97999954223633</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="B33">
-        <v>27.5</v>
+        <v>25.20000076293945</v>
       </c>
       <c r="C33">
-        <v>26.86000061035156</v>
+        <v>24.46999931335449</v>
       </c>
       <c r="D33">
-        <v>27.3799991607666</v>
+        <v>24.68000030517578</v>
       </c>
       <c r="E33">
-        <v>27.3799991607666</v>
+        <v>24.68000030517578</v>
       </c>
       <c r="F33">
-        <v>42184600</v>
+        <v>28764500</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>27.3799991607666</v>
+        <v>24.22999954223633</v>
       </c>
       <c r="B34">
-        <v>27.44000053405762</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="C34">
-        <v>26.44000053405762</v>
+        <v>22.71999931335449</v>
       </c>
       <c r="D34">
-        <v>26.6299991607666</v>
+        <v>22.88999938964844</v>
       </c>
       <c r="E34">
-        <v>26.6299991607666</v>
+        <v>22.88999938964844</v>
       </c>
       <c r="F34">
-        <v>38478900</v>
+        <v>66937300</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>26.47999954223633</v>
+        <v>22.43000030517578</v>
       </c>
       <c r="B35">
-        <v>26.92000007629395</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="C35">
-        <v>26.20999908447266</v>
+        <v>22.25</v>
       </c>
       <c r="D35">
-        <v>26.36000061035156</v>
+        <v>23.07999992370605</v>
       </c>
       <c r="E35">
-        <v>26.36000061035156</v>
+        <v>23.07999992370605</v>
       </c>
       <c r="F35">
-        <v>28957100</v>
+        <v>34612600</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>26.10000038146973</v>
+        <v>22.95999908447266</v>
       </c>
       <c r="B36">
-        <v>26.1299991607666</v>
+        <v>23.38999938964844</v>
       </c>
       <c r="C36">
-        <v>24.59000015258789</v>
+        <v>22.76000022888184</v>
       </c>
       <c r="D36">
-        <v>24.71999931335449</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="E36">
-        <v>24.71999931335449</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="F36">
-        <v>55429800</v>
+        <v>22492400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>25</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="B37">
-        <v>25.34000015258789</v>
+        <v>23.4950008392334</v>
       </c>
       <c r="C37">
-        <v>24.32999992370605</v>
+        <v>22.8799991607666</v>
       </c>
       <c r="D37">
-        <v>24.44000053405762</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="E37">
-        <v>24.44000053405762</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="F37">
-        <v>29389500</v>
+        <v>23457200</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>24.60000038146973</v>
+        <v>22.97999954223633</v>
       </c>
       <c r="B38">
-        <v>25.20000076293945</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="C38">
-        <v>24.46999931335449</v>
+        <v>22.42000007629395</v>
       </c>
       <c r="D38">
-        <v>24.68000030517578</v>
+        <v>22.45000076293945</v>
       </c>
       <c r="E38">
-        <v>24.68000030517578</v>
+        <v>22.45000076293945</v>
       </c>
       <c r="F38">
-        <v>28764500</v>
+        <v>24748800</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>24.22999954223633</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="B39">
-        <v>24.26000022888184</v>
+        <v>22.6200008392334</v>
       </c>
       <c r="C39">
-        <v>22.71999931335449</v>
+        <v>21.51000022888184</v>
       </c>
       <c r="D39">
-        <v>22.88999938964844</v>
+        <v>21.55999946594238</v>
       </c>
       <c r="E39">
-        <v>22.88999938964844</v>
+        <v>21.55999946594238</v>
       </c>
       <c r="F39">
-        <v>66937300</v>
+        <v>33796200</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>22.43000030517578</v>
+        <v>21.71999931335449</v>
       </c>
       <c r="B40">
-        <v>23.20999908447266</v>
+        <v>22.05500030517578</v>
       </c>
       <c r="C40">
-        <v>22.25</v>
+        <v>21.01000022888184</v>
       </c>
       <c r="D40">
-        <v>23.07999992370605</v>
+        <v>21.46999931335449</v>
       </c>
       <c r="E40">
-        <v>23.07999992370605</v>
+        <v>21.46999931335449</v>
       </c>
       <c r="F40">
-        <v>34612600</v>
+        <v>31871000</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>22.95999908447266</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="B41">
-        <v>23.38999938964844</v>
+        <v>21.70999908447266</v>
       </c>
       <c r="C41">
-        <v>22.76000022888184</v>
+        <v>21.23999977111816</v>
       </c>
       <c r="D41">
-        <v>23.29000091552734</v>
+        <v>21.3700008392334</v>
       </c>
       <c r="E41">
-        <v>23.29000091552734</v>
+        <v>21.3700008392334</v>
       </c>
       <c r="F41">
-        <v>22492400</v>
+        <v>19503100</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>23.26000022888184</v>
+        <v>20.96999931335449</v>
       </c>
       <c r="B42">
-        <v>23.4950008392334</v>
+        <v>21.69000053405762</v>
       </c>
       <c r="C42">
-        <v>22.8799991607666</v>
+        <v>20.54999923706055</v>
       </c>
       <c r="D42">
-        <v>22.95000076293945</v>
+        <v>21.54000091552734</v>
       </c>
       <c r="E42">
-        <v>22.95000076293945</v>
+        <v>21.54000091552734</v>
       </c>
       <c r="F42">
-        <v>23457200</v>
+        <v>30314400</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>22.97999954223633</v>
+        <v>21.6299991607666</v>
       </c>
       <c r="B43">
-        <v>22.98999977111816</v>
+        <v>22.35000038146973</v>
       </c>
       <c r="C43">
-        <v>22.42000007629395</v>
+        <v>21.21999931335449</v>
       </c>
       <c r="D43">
-        <v>22.45000076293945</v>
+        <v>22.18000030517578</v>
       </c>
       <c r="E43">
-        <v>22.45000076293945</v>
+        <v>22.18000030517578</v>
       </c>
       <c r="F43">
-        <v>24748800</v>
+        <v>22954000</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>22.48999977111816</v>
+        <v>22.27000045776367</v>
       </c>
       <c r="B44">
-        <v>22.6200008392334</v>
+        <v>22.68000030517578</v>
       </c>
       <c r="C44">
-        <v>21.51000022888184</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="D44">
-        <v>21.55999946594238</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="E44">
-        <v>21.55999946594238</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="F44">
-        <v>33796200</v>
+        <v>20437300</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>21.71999931335449</v>
+        <v>22.54999923706055</v>
       </c>
       <c r="B45">
-        <v>22.05500030517578</v>
+        <v>22.67000007629395</v>
       </c>
       <c r="C45">
-        <v>21.01000022888184</v>
+        <v>21.8799991607666</v>
       </c>
       <c r="D45">
-        <v>21.46999931335449</v>
+        <v>22.06999969482422</v>
       </c>
       <c r="E45">
-        <v>21.46999931335449</v>
+        <v>22.06999969482422</v>
       </c>
       <c r="F45">
-        <v>31871000</v>
+        <v>17468900</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>21.60000038146973</v>
+        <v>22.01000022888184</v>
       </c>
       <c r="B46">
-        <v>21.70999908447266</v>
+        <v>22.07999992370605</v>
       </c>
       <c r="C46">
-        <v>21.23999977111816</v>
+        <v>21.51000022888184</v>
       </c>
       <c r="D46">
-        <v>21.3700008392334</v>
+        <v>21.80999946594238</v>
       </c>
       <c r="E46">
-        <v>21.3700008392334</v>
+        <v>21.80999946594238</v>
       </c>
       <c r="F46">
-        <v>19503100</v>
+        <v>17653300</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20.96999931335449</v>
+        <v>21.79999923706055</v>
       </c>
       <c r="B47">
-        <v>21.69000053405762</v>
+        <v>22.29999923706055</v>
       </c>
       <c r="C47">
-        <v>20.54999923706055</v>
+        <v>21.47999954223633</v>
       </c>
       <c r="D47">
-        <v>21.54000091552734</v>
+        <v>22.1299991607666</v>
       </c>
       <c r="E47">
-        <v>21.54000091552734</v>
+        <v>22.1299991607666</v>
       </c>
       <c r="F47">
-        <v>30314400</v>
+        <v>16267900</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>21.6299991607666</v>
+        <v>21.95999908447266</v>
       </c>
       <c r="B48">
-        <v>22.35000038146973</v>
+        <v>22.11000061035156</v>
       </c>
       <c r="C48">
-        <v>21.21999931335449</v>
+        <v>21.09000015258789</v>
       </c>
       <c r="D48">
-        <v>22.18000030517578</v>
+        <v>21.68000030517578</v>
       </c>
       <c r="E48">
-        <v>22.18000030517578</v>
+        <v>21.68000030517578</v>
       </c>
       <c r="F48">
-        <v>22954000</v>
+        <v>23078700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>22.27000045776367</v>
+        <v>21.75</v>
       </c>
       <c r="B49">
-        <v>22.68000030517578</v>
+        <v>22.61499977111816</v>
       </c>
       <c r="C49">
-        <v>22.1200008392334</v>
+        <v>21.69000053405762</v>
       </c>
       <c r="D49">
-        <v>22.52000045776367</v>
+        <v>22.55999946594238</v>
       </c>
       <c r="E49">
-        <v>22.52000045776367</v>
+        <v>22.55999946594238</v>
       </c>
       <c r="F49">
-        <v>20437300</v>
+        <v>25073600</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>22.54999923706055</v>
+        <v>22.78000068664551</v>
       </c>
       <c r="B50">
-        <v>22.67000007629395</v>
+        <v>22.85000038146973</v>
       </c>
       <c r="C50">
-        <v>21.8799991607666</v>
+        <v>22.13999938964844</v>
       </c>
       <c r="D50">
-        <v>22.06999969482422</v>
+        <v>22.18000030517578</v>
       </c>
       <c r="E50">
-        <v>22.06999969482422</v>
+        <v>22.18000030517578</v>
       </c>
       <c r="F50">
-        <v>17468900</v>
+        <v>19219100</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>22.01000022888184</v>
+        <v>21.85000038146973</v>
       </c>
       <c r="B51">
-        <v>22.07999992370605</v>
+        <v>22.4060001373291</v>
       </c>
       <c r="C51">
-        <v>21.51000022888184</v>
+        <v>21.70999908447266</v>
       </c>
       <c r="D51">
-        <v>21.80999946594238</v>
+        <v>21.70999908447266</v>
       </c>
       <c r="E51">
-        <v>21.80999946594238</v>
+        <v>21.70999908447266</v>
       </c>
       <c r="F51">
-        <v>17653300</v>
+        <v>15821000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>21.79999923706055</v>
+        <v>21.90999984741211</v>
       </c>
       <c r="B52">
-        <v>22.29999923706055</v>
+        <v>22.3700008392334</v>
       </c>
       <c r="C52">
         <v>21.47999954223633</v>
       </c>
       <c r="D52">
-        <v>22.1299991607666</v>
+        <v>22.10000038146973</v>
       </c>
       <c r="E52">
-        <v>22.1299991607666</v>
+        <v>22.10000038146973</v>
       </c>
       <c r="F52">
-        <v>16267900</v>
+        <v>21372900</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>21.95999908447266</v>
+        <v>22.03000068664551</v>
       </c>
       <c r="B53">
-        <v>22.11000061035156</v>
+        <v>22.27000045776367</v>
       </c>
       <c r="C53">
-        <v>21.09000015258789</v>
+        <v>21.70999908447266</v>
       </c>
       <c r="D53">
-        <v>21.68000030517578</v>
+        <v>22.23999977111816</v>
       </c>
       <c r="E53">
-        <v>21.68000030517578</v>
+        <v>22.23999977111816</v>
       </c>
       <c r="F53">
-        <v>23078700</v>
+        <v>17040100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>21.75</v>
+        <v>22.20000076293945</v>
       </c>
       <c r="B54">
-        <v>22.61499977111816</v>
+        <v>22.54000091552734</v>
       </c>
       <c r="C54">
-        <v>21.69000053405762</v>
+        <v>22.06999969482422</v>
       </c>
       <c r="D54">
-        <v>22.55999946594238</v>
+        <v>22.29999923706055</v>
       </c>
       <c r="E54">
-        <v>22.55999946594238</v>
+        <v>22.29999923706055</v>
       </c>
       <c r="F54">
-        <v>25073600</v>
+        <v>15537400</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>22.78000068664551</v>
+        <v>22.21999931335449</v>
       </c>
       <c r="B55">
-        <v>22.85000038146973</v>
+        <v>22.77000045776367</v>
       </c>
       <c r="C55">
-        <v>22.13999938964844</v>
+        <v>22.02000045776367</v>
       </c>
       <c r="D55">
-        <v>22.18000030517578</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="E55">
-        <v>22.18000030517578</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="F55">
-        <v>19219100</v>
+        <v>18575200</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>21.85000038146973</v>
+        <v>22.63999938964844</v>
       </c>
       <c r="B56">
-        <v>22.4060001373291</v>
+        <v>22.69000053405762</v>
       </c>
       <c r="C56">
-        <v>21.70999908447266</v>
+        <v>21.79000091552734</v>
       </c>
       <c r="D56">
-        <v>21.70999908447266</v>
+        <v>21.81999969482422</v>
       </c>
       <c r="E56">
-        <v>21.70999908447266</v>
+        <v>21.81999969482422</v>
       </c>
       <c r="F56">
-        <v>15821000</v>
+        <v>24107900</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>21.90999984741211</v>
+        <v>21.85000038146973</v>
       </c>
       <c r="B57">
-        <v>22.3700008392334</v>
+        <v>23.28000068664551</v>
       </c>
       <c r="C57">
-        <v>21.47999954223633</v>
+        <v>21.79999923706055</v>
       </c>
       <c r="D57">
-        <v>22.10000038146973</v>
+        <v>22.93000030517578</v>
       </c>
       <c r="E57">
-        <v>22.10000038146973</v>
+        <v>22.93000030517578</v>
       </c>
       <c r="F57">
-        <v>21372900</v>
+        <v>35611100</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>22.03000068664551</v>
+        <v>23.01000022888184</v>
       </c>
       <c r="B58">
-        <v>22.27000045776367</v>
+        <v>23.52000045776367</v>
       </c>
       <c r="C58">
-        <v>21.70999908447266</v>
+        <v>22.78000068664551</v>
       </c>
       <c r="D58">
-        <v>22.23999977111816</v>
+        <v>22.92000007629395</v>
       </c>
       <c r="E58">
-        <v>22.23999977111816</v>
+        <v>22.92000007629395</v>
       </c>
       <c r="F58">
-        <v>17040100</v>
+        <v>25947900</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>22.20000076293945</v>
+        <v>23.06999969482422</v>
       </c>
       <c r="B59">
-        <v>22.54000091552734</v>
+        <v>23.19000053405762</v>
       </c>
       <c r="C59">
-        <v>22.06999969482422</v>
+        <v>22.09000015258789</v>
       </c>
       <c r="D59">
-        <v>22.29999923706055</v>
+        <v>22.35000038146973</v>
       </c>
       <c r="E59">
-        <v>22.29999923706055</v>
+        <v>22.35000038146973</v>
       </c>
       <c r="F59">
-        <v>15537400</v>
+        <v>34679000</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>22.21999931335449</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="B60">
-        <v>22.77000045776367</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="C60">
-        <v>22.02000045776367</v>
+        <v>23.58499908447266</v>
       </c>
       <c r="D60">
-        <v>22.52000045776367</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="E60">
-        <v>22.52000045776367</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="F60">
-        <v>18575200</v>
+        <v>189287200</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>22.63999938964844</v>
+        <v>25</v>
       </c>
       <c r="B61">
-        <v>22.69000053405762</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="C61">
-        <v>21.79000091552734</v>
+        <v>24.30999946594238</v>
       </c>
       <c r="D61">
-        <v>21.81999969482422</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="E61">
-        <v>21.81999969482422</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="F61">
-        <v>24107900</v>
+        <v>52242400</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>21.85000038146973</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="B62">
-        <v>23.28000068664551</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="C62">
-        <v>21.79999923706055</v>
+        <v>23.77000045776367</v>
       </c>
       <c r="D62">
-        <v>22.93000030517578</v>
+        <v>24.5</v>
       </c>
       <c r="E62">
-        <v>22.93000030517578</v>
+        <v>24.5</v>
       </c>
       <c r="F62">
-        <v>35611100</v>
+        <v>45907300</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>23.01000022888184</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="B63">
-        <v>23.52000045776367</v>
+        <v>24.59000015258789</v>
       </c>
       <c r="C63">
-        <v>22.78000068664551</v>
+        <v>23.73999977111816</v>
       </c>
       <c r="D63">
-        <v>22.92000007629395</v>
+        <v>23.96999931335449</v>
       </c>
       <c r="E63">
-        <v>22.92000007629395</v>
+        <v>23.96999931335449</v>
       </c>
       <c r="F63">
-        <v>25947900</v>
+        <v>35348300</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>23.06999969482422</v>
+        <v>24.06999969482422</v>
       </c>
       <c r="B64">
-        <v>23.19000053405762</v>
+        <v>25.94000053405762</v>
       </c>
       <c r="C64">
-        <v>22.09000015258789</v>
+        <v>23.68000030517578</v>
       </c>
       <c r="D64">
-        <v>22.35000038146973</v>
+        <v>25.28000068664551</v>
       </c>
       <c r="E64">
-        <v>22.35000038146973</v>
+        <v>25.28000068664551</v>
       </c>
       <c r="F64">
-        <v>34679000</v>
+        <v>92065600</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>24.45000076293945</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="B65">
-        <v>25.76000022888184</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="C65">
-        <v>23.58499908447266</v>
+        <v>24.13999938964844</v>
       </c>
       <c r="D65">
-        <v>24.88999938964844</v>
+        <v>24.15999984741211</v>
       </c>
       <c r="E65">
-        <v>24.88999938964844</v>
+        <v>24.15999984741211</v>
       </c>
       <c r="F65">
-        <v>189287200</v>
+        <v>67605600</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>25</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="B66">
-        <v>25.10000038146973</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="C66">
-        <v>24.30999946594238</v>
+        <v>23.65999984741211</v>
       </c>
       <c r="D66">
-        <v>24.89999961853027</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="E66">
-        <v>24.89999961853027</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="F66">
-        <v>52242400</v>
+        <v>51982200</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>24.89999961853027</v>
+        <v>24.02000045776367</v>
       </c>
       <c r="B67">
-        <v>24.89999961853027</v>
+        <v>24.93000030517578</v>
       </c>
       <c r="C67">
-        <v>23.77000045776367</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="D67">
-        <v>24.5</v>
+        <v>24.81999969482422</v>
       </c>
       <c r="E67">
-        <v>24.5</v>
+        <v>24.81999969482422</v>
       </c>
       <c r="F67">
-        <v>45907300</v>
+        <v>35705300</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>23.89999961853027</v>
+        <v>25</v>
       </c>
       <c r="B68">
-        <v>24.59000015258789</v>
+        <v>25.35000038146973</v>
       </c>
       <c r="C68">
-        <v>23.73999977111816</v>
+        <v>24.76000022888184</v>
       </c>
       <c r="D68">
-        <v>23.96999931335449</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="E68">
-        <v>23.96999931335449</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="F68">
-        <v>35348300</v>
+        <v>37227400</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
+        <v>25.1200008392334</v>
+      </c>
+      <c r="B69">
+        <v>25.19000053405762</v>
+      </c>
+      <c r="C69">
         <v>24.06999969482422</v>
       </c>
-      <c r="B69">
-        <v>25.94000053405762</v>
-      </c>
-      <c r="C69">
-        <v>23.68000030517578</v>
-      </c>
       <c r="D69">
-        <v>25.28000068664551</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="E69">
-        <v>25.28000068664551</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="F69">
-        <v>92065600</v>
+        <v>54678500</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>25.01000022888184</v>
+        <v>24.39999961853027</v>
       </c>
       <c r="B70">
-        <v>25.63999938964844</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="C70">
-        <v>24.13999938964844</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="D70">
-        <v>24.15999984741211</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="E70">
-        <v>24.15999984741211</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="F70">
-        <v>67605600</v>
+        <v>46179400</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>24.21999931335449</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="B71">
-        <v>24.47999954223633</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="C71">
-        <v>23.65999984741211</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="D71">
-        <v>24.01000022888184</v>
+        <v>25.70999908447266</v>
       </c>
       <c r="E71">
-        <v>24.01000022888184</v>
+        <v>25.70999908447266</v>
       </c>
       <c r="F71">
-        <v>51982200</v>
+        <v>52186500</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>24.02000045776367</v>
+        <v>25.73999977111816</v>
       </c>
       <c r="B72">
-        <v>24.93000030517578</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="C72">
-        <v>23.89999961853027</v>
+        <v>25.6200008392334</v>
       </c>
       <c r="D72">
-        <v>24.81999969482422</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="E72">
-        <v>24.81999969482422</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="F72">
-        <v>35705300</v>
+        <v>44139300</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>25</v>
+        <v>25.79000091552734</v>
       </c>
       <c r="B73">
-        <v>25.35000038146973</v>
+        <v>26.36000061035156</v>
       </c>
       <c r="C73">
-        <v>24.76000022888184</v>
+        <v>25.65999984741211</v>
       </c>
       <c r="D73">
-        <v>25.10000038146973</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="E73">
-        <v>25.10000038146973</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="F73">
-        <v>37227400</v>
+        <v>93168600</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>25.1200008392334</v>
+        <v>26.45999908447266</v>
       </c>
       <c r="B74">
-        <v>25.19000053405762</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="C74">
-        <v>24.06999969482422</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="D74">
-        <v>24.35000038146973</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="E74">
-        <v>24.35000038146973</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="F74">
-        <v>54678500</v>
+        <v>34417200</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>24.39999961853027</v>
+        <v>26.20999908447266</v>
       </c>
       <c r="B75">
-        <v>25.40999984741211</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="C75">
-        <v>24.36000061035156</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="D75">
-        <v>24.8700008392334</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="E75">
-        <v>24.8700008392334</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="F75">
-        <v>46179400</v>
+        <v>38460100</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>25.04999923706055</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="B76">
-        <v>26.09000015258789</v>
+        <v>26.75</v>
       </c>
       <c r="C76">
-        <v>24.90999984741211</v>
+        <v>26.21999931335449</v>
       </c>
       <c r="D76">
-        <v>25.70999908447266</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="E76">
-        <v>25.70999908447266</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="F76">
-        <v>52186500</v>
+        <v>26609500</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>25.73999977111816</v>
+        <v>26.79000091552734</v>
       </c>
       <c r="B77">
-        <v>26.60000038146973</v>
+        <v>26.8799991607666</v>
       </c>
       <c r="C77">
-        <v>25.6200008392334</v>
+        <v>26.27000045776367</v>
       </c>
       <c r="D77">
-        <v>25.76000022888184</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="E77">
-        <v>25.76000022888184</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="F77">
-        <v>44139300</v>
+        <v>35835100</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>25.79000091552734</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="B78">
-        <v>26.36000061035156</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="C78">
-        <v>25.65999984741211</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="D78">
-        <v>26.34000015258789</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="E78">
-        <v>26.34000015258789</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="F78">
-        <v>93168600</v>
+        <v>54394400</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>26.45999908447266</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="B79">
-        <v>26.51000022888184</v>
+        <v>26.23999977111816</v>
       </c>
       <c r="C79">
-        <v>26.03000068664551</v>
+        <v>25.29000091552734</v>
       </c>
       <c r="D79">
-        <v>26.20000076293945</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="E79">
-        <v>26.20000076293945</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="F79">
-        <v>34417200</v>
+        <v>34190800</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>26.20999908447266</v>
+        <v>26.18000030517578</v>
       </c>
       <c r="B80">
-        <v>26.8700008392334</v>
+        <v>26.72999954223633</v>
       </c>
       <c r="C80">
-        <v>26.09000015258789</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="D80">
-        <v>26.51000022888184</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="E80">
-        <v>26.51000022888184</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="F80">
-        <v>38460100</v>
+        <v>37215800</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>26.48999977111816</v>
+        <v>26.14999961853027</v>
       </c>
       <c r="B81">
-        <v>26.75</v>
+        <v>26.23900032043457</v>
       </c>
       <c r="C81">
-        <v>26.21999931335449</v>
+        <v>25.03000068664551</v>
       </c>
       <c r="D81">
-        <v>26.63999938964844</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="E81">
-        <v>26.63999938964844</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="F81">
-        <v>26609500</v>
+        <v>42372300</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>26.79000091552734</v>
+        <v>25.96999931335449</v>
       </c>
       <c r="B82">
-        <v>26.8799991607666</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="C82">
-        <v>26.27000045776367</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="D82">
-        <v>26.70000076293945</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="E82">
-        <v>26.70000076293945</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="F82">
-        <v>35835100</v>
+        <v>34569000</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>26.60000038146973</v>
+        <v>26.29999923706055</v>
       </c>
       <c r="B83">
-        <v>26.61000061035156</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="C83">
-        <v>24.95999908447266</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="D83">
-        <v>25.57999992370605</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="E83">
-        <v>25.57999992370605</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="F83">
-        <v>54394400</v>
+        <v>49555500</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>25.38999938964844</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="B84">
-        <v>26.23999977111816</v>
+        <v>28.79000091552734</v>
       </c>
       <c r="C84">
-        <v>25.29000091552734</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="D84">
-        <v>26.1299991607666</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="E84">
-        <v>26.1299991607666</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="F84">
-        <v>34190800</v>
+        <v>109992000</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>26.18000030517578</v>
+        <v>28.65999984741211</v>
       </c>
       <c r="B85">
-        <v>26.72999954223633</v>
+        <v>29.29000091552734</v>
       </c>
       <c r="C85">
-        <v>26.17000007629395</v>
+        <v>28.06999969482422</v>
       </c>
       <c r="D85">
-        <v>26.28000068664551</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="E85">
-        <v>26.28000068664551</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="F85">
-        <v>37215800</v>
+        <v>182052600</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>26.14999961853027</v>
+        <v>27.56999969482422</v>
       </c>
       <c r="B86">
-        <v>26.23900032043457</v>
+        <v>28.10000038146973</v>
       </c>
       <c r="C86">
-        <v>25.03000068664551</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="D86">
-        <v>25.82999992370605</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="E86">
-        <v>25.82999992370605</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="F86">
-        <v>42372300</v>
+        <v>89413500</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>25.96999931335449</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="B87">
-        <v>26.70000076293945</v>
+        <v>27.14900016784668</v>
       </c>
       <c r="C87">
-        <v>25.89999961853027</v>
+        <v>26.07999992370605</v>
       </c>
       <c r="D87">
-        <v>26.26000022888184</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="E87">
-        <v>26.26000022888184</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="F87">
-        <v>34569000</v>
+        <v>50933600</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>26.29999923706055</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="B88">
-        <v>27.14999961853027</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="C88">
-        <v>26.03000068664551</v>
+        <v>26.58200073242188</v>
       </c>
       <c r="D88">
-        <v>27.07999992370605</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="E88">
-        <v>27.07999992370605</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="F88">
-        <v>49555500</v>
+        <v>44308100</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>27.20000076293945</v>
+        <v>27.70999908447266</v>
       </c>
       <c r="B89">
-        <v>28.79000091552734</v>
+        <v>29.19000053405762</v>
       </c>
       <c r="C89">
-        <v>27.02000045776367</v>
+        <v>27.67000007629395</v>
       </c>
       <c r="D89">
-        <v>28.6299991607666</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="E89">
-        <v>28.6299991607666</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="F89">
-        <v>109992000</v>
+        <v>60028600</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>28.65999984741211</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="B90">
-        <v>29.29000091552734</v>
+        <v>28.76000022888184</v>
       </c>
       <c r="C90">
-        <v>28.06999969482422</v>
+        <v>27.90099906921387</v>
       </c>
       <c r="D90">
-        <v>28.70999908447266</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="E90">
-        <v>28.70999908447266</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="F90">
-        <v>182052600</v>
+        <v>40309700</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>27.56999969482422</v>
+        <v>28.22999954223633</v>
       </c>
       <c r="B91">
-        <v>28.10000038146973</v>
+        <v>28.3799991607666</v>
       </c>
       <c r="C91">
-        <v>26.05999946594238</v>
+        <v>27.22999954223633</v>
       </c>
       <c r="D91">
-        <v>26.54999923706055</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="E91">
-        <v>26.54999923706055</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="F91">
-        <v>89413500</v>
+        <v>44102800</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>26.88999938964844</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="B92">
-        <v>27.14900016784668</v>
+        <v>27.1299991607666</v>
       </c>
       <c r="C92">
-        <v>26.07999992370605</v>
+        <v>25.20999908447266</v>
       </c>
       <c r="D92">
-        <v>26.6200008392334</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="E92">
-        <v>26.6200008392334</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="F92">
-        <v>50933600</v>
+        <v>64206200</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>26.61000061035156</v>
+        <v>25.61000061035156</v>
       </c>
       <c r="B93">
-        <v>27.77000045776367</v>
+        <v>25.70000076293945</v>
       </c>
       <c r="C93">
-        <v>26.58200073242188</v>
+        <v>24.42000007629395</v>
       </c>
       <c r="D93">
-        <v>27.43000030517578</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="E93">
-        <v>27.43000030517578</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="F93">
-        <v>44308100</v>
+        <v>46164500</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>27.70999908447266</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="B94">
-        <v>29.19000053405762</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="C94">
-        <v>27.67000007629395</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="D94">
-        <v>28.77000045776367</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="E94">
-        <v>28.77000045776367</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="F94">
-        <v>60028600</v>
+        <v>59505600</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>28.27000045776367</v>
+        <v>24.20999908447266</v>
       </c>
       <c r="B95">
-        <v>28.76000022888184</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="C95">
-        <v>27.90099906921387</v>
+        <v>23.71999931335449</v>
       </c>
       <c r="D95">
-        <v>28.55999946594238</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="E95">
-        <v>28.55999946594238</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="F95">
-        <v>40309700</v>
+        <v>32778000</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>28.22999954223633</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="B96">
-        <v>28.3799991607666</v>
+        <v>24.04999923706055</v>
       </c>
       <c r="C96">
-        <v>27.22999954223633</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="D96">
-        <v>27.46999931335449</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="E96">
-        <v>27.46999931335449</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="F96">
-        <v>44102800</v>
+        <v>46789700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>27.02000045776367</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="B97">
-        <v>27.1299991607666</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="C97">
-        <v>25.20999908447266</v>
+        <v>23.06999969482422</v>
       </c>
       <c r="D97">
-        <v>25.34000015258789</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="E97">
-        <v>25.34000015258789</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="F97">
-        <v>64206200</v>
+        <v>56574800</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>25.61000061035156</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="B98">
-        <v>25.70000076293945</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="C98">
-        <v>24.42000007629395</v>
+        <v>23.35000038146973</v>
       </c>
       <c r="D98">
-        <v>24.52000045776367</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="E98">
-        <v>24.52000045776367</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="F98">
-        <v>46164500</v>
+        <v>125175700</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>24.69000053405762</v>
+        <v>23.70999908447266</v>
       </c>
       <c r="B99">
-        <v>25.04999923706055</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="C99">
-        <v>23.8799991607666</v>
+        <v>23.54000091552734</v>
       </c>
       <c r="D99">
-        <v>24.04000091552734</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="E99">
-        <v>24.04000091552734</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="F99">
-        <v>59505600</v>
+        <v>38873700</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>24.20999908447266</v>
+        <v>23.86000061035156</v>
       </c>
       <c r="B100">
-        <v>24.36000061035156</v>
+        <v>24.09600067138672</v>
       </c>
       <c r="C100">
-        <v>23.71999931335449</v>
+        <v>23.11000061035156</v>
       </c>
       <c r="D100">
-        <v>24.32999992370605</v>
+        <v>23.5</v>
       </c>
       <c r="E100">
-        <v>24.32999992370605</v>
+        <v>23.5</v>
       </c>
       <c r="F100">
-        <v>32778000</v>
+        <v>39630400</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>24.01000022888184</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="B101">
-        <v>24.04999923706055</v>
+        <v>23.97999954223633</v>
       </c>
       <c r="C101">
-        <v>23.02000045776367</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="D101">
-        <v>23.17000007629395</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="E101">
-        <v>23.17000007629395</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="F101">
-        <v>46789700</v>
+        <v>23971700</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>23.20999908447266</v>
+        <v>23.54999923706055</v>
       </c>
       <c r="B102">
-        <v>23.8799991607666</v>
+        <v>23.80999946594238</v>
       </c>
       <c r="C102">
-        <v>23.06999969482422</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="D102">
-        <v>23.20999908447266</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="E102">
-        <v>23.20999908447266</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="F102">
-        <v>56574800</v>
+        <v>26280000</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>24.90999984741211</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="B103">
-        <v>25.01000022888184</v>
+        <v>24.30999946594238</v>
       </c>
       <c r="C103">
-        <v>23.35000038146973</v>
+        <v>23.79000091552734</v>
       </c>
       <c r="D103">
-        <v>23.57999992370605</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="E103">
-        <v>23.57999992370605</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="F103">
-        <v>125175700</v>
+        <v>28494000</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>23.70999908447266</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="B104">
-        <v>24.1299991607666</v>
+        <v>24.70999908447266</v>
       </c>
       <c r="C104">
-        <v>23.54000091552734</v>
+        <v>24.20499992370605</v>
       </c>
       <c r="D104">
-        <v>23.72999954223633</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="E104">
-        <v>23.72999954223633</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="F104">
-        <v>38873700</v>
+        <v>26106700</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>23.86000061035156</v>
+        <v>24.5</v>
       </c>
       <c r="B105">
-        <v>24.09600067138672</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="C105">
-        <v>23.11000061035156</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="D105">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="E105">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="F105">
-        <v>39630400</v>
+        <v>24275000</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>23.26000022888184</v>
+        <v>24</v>
       </c>
       <c r="B106">
-        <v>23.97999954223633</v>
+        <v>24.38999938964844</v>
       </c>
       <c r="C106">
-        <v>23.26000022888184</v>
+        <v>23.92000007629395</v>
       </c>
       <c r="D106">
-        <v>23.53000068664551</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="E106">
-        <v>23.53000068664551</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="F106">
-        <v>23971700</v>
+        <v>25609900</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>23.54999923706055</v>
+        <v>24.5</v>
       </c>
       <c r="B107">
-        <v>23.80999946594238</v>
+        <v>25.20000076293945</v>
       </c>
       <c r="C107">
-        <v>23.29000091552734</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="D107">
-        <v>23.69000053405762</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="E107">
-        <v>23.69000053405762</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="F107">
-        <v>26280000</v>
+        <v>29393900</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>23.82999992370605</v>
+        <v>24.79000091552734</v>
       </c>
       <c r="B108">
-        <v>24.30999946594238</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="C108">
-        <v>23.79000091552734</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="D108">
-        <v>24.1299991607666</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="E108">
-        <v>24.1299991607666</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="F108">
-        <v>28494000</v>
+        <v>24248000</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>24.43000030517578</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="B109">
-        <v>24.70999908447266</v>
+        <v>24.93000030517578</v>
       </c>
       <c r="C109">
-        <v>24.20499992370605</v>
+        <v>24.07999992370605</v>
       </c>
       <c r="D109">
-        <v>24.35000038146973</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="E109">
-        <v>24.35000038146973</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="F109">
-        <v>26106700</v>
+        <v>23976600</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>24.5</v>
+        <v>24.48999977111816</v>
       </c>
       <c r="B110">
-        <v>24.52000045776367</v>
+        <v>24.85000038146973</v>
       </c>
       <c r="C110">
-        <v>23.82999992370605</v>
+        <v>24.25</v>
       </c>
       <c r="D110">
-        <v>24</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="E110">
-        <v>24</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="F110">
-        <v>24275000</v>
+        <v>20166800</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="B111">
-        <v>24.38999938964844</v>
+        <v>25.54000091552734</v>
       </c>
       <c r="C111">
-        <v>23.92000007629395</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="D111">
-        <v>24.26000022888184</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="E111">
-        <v>24.26000022888184</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="F111">
-        <v>25609900</v>
+        <v>33962100</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>24.5</v>
+        <v>25.98999977111816</v>
       </c>
       <c r="B112">
-        <v>25.20000076293945</v>
+        <v>26.75</v>
       </c>
       <c r="C112">
-        <v>24.36000061035156</v>
+        <v>25.25</v>
       </c>
       <c r="D112">
-        <v>24.69000053405762</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="E112">
-        <v>24.69000053405762</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="F112">
-        <v>29393900</v>
+        <v>56767000</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>24.79000091552734</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="B113">
-        <v>24.95999908447266</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="C113">
-        <v>24.17000007629395</v>
+        <v>25.02000045776367</v>
       </c>
       <c r="D113">
-        <v>24.21999931335449</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="E113">
-        <v>24.21999931335449</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="F113">
-        <v>24248000</v>
+        <v>24157200</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>24.1299991607666</v>
+        <v>25.29999923706055</v>
       </c>
       <c r="B114">
-        <v>24.93000030517578</v>
+        <v>25.79500007629395</v>
       </c>
       <c r="C114">
-        <v>24.07999992370605</v>
+        <v>25.1200008392334</v>
       </c>
       <c r="D114">
-        <v>24.78000068664551</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="E114">
-        <v>24.78000068664551</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="F114">
-        <v>23976600</v>
+        <v>21203000</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>24.48999977111816</v>
+        <v>25.5</v>
       </c>
       <c r="B115">
-        <v>24.85000038146973</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="C115">
-        <v>24.25</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="D115">
-        <v>24.43000030517578</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="E115">
-        <v>24.43000030517578</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="F115">
-        <v>20166800</v>
+        <v>21910300</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>24.5</v>
+        <v>26.11000061035156</v>
       </c>
       <c r="B116">
-        <v>25.54000091552734</v>
+        <v>26.64500045776367</v>
       </c>
       <c r="C116">
-        <v>24.47999954223633</v>
+        <v>25.88299942016602</v>
       </c>
       <c r="D116">
-        <v>25.40999984741211</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="E116">
-        <v>25.40999984741211</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="F116">
-        <v>33962100</v>
+        <v>26684700</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>25.98999977111816</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="B117">
-        <v>26.75</v>
+        <v>26.71999931335449</v>
       </c>
       <c r="C117">
-        <v>25.25</v>
+        <v>25.55500030517578</v>
       </c>
       <c r="D117">
-        <v>25.52000045776367</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="E117">
-        <v>25.52000045776367</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="F117">
-        <v>56767000</v>
+        <v>30794600</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>25.63999938964844</v>
+        <v>25.88999938964844</v>
       </c>
       <c r="B118">
-        <v>25.89999961853027</v>
+        <v>26.23500061035156</v>
       </c>
       <c r="C118">
-        <v>25.02000045776367</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="D118">
-        <v>25.05999946594238</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="E118">
-        <v>25.05999946594238</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="F118">
-        <v>24157200</v>
+        <v>25244200</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>25.29999923706055</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="B119">
-        <v>25.79500007629395</v>
+        <v>26.56999969482422</v>
       </c>
       <c r="C119">
-        <v>25.1200008392334</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="D119">
-        <v>25.63999938964844</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="E119">
-        <v>25.63999938964844</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="F119">
-        <v>21203000</v>
+        <v>25029700</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>25.5</v>
+        <v>26.45000076293945</v>
       </c>
       <c r="B120">
-        <v>26.1200008392334</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="C120">
-        <v>25.45000076293945</v>
+        <v>25.71999931335449</v>
       </c>
       <c r="D120">
-        <v>25.8799991607666</v>
+        <v>26</v>
       </c>
       <c r="E120">
-        <v>25.8799991607666</v>
+        <v>26</v>
       </c>
       <c r="F120">
-        <v>21910300</v>
+        <v>25929900</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>26.11000061035156</v>
+        <v>26.25</v>
       </c>
       <c r="B121">
-        <v>26.64500045776367</v>
+        <v>27.11000061035156</v>
       </c>
       <c r="C121">
-        <v>25.88299942016602</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="D121">
-        <v>26.55999946594238</v>
+        <v>26.75</v>
       </c>
       <c r="E121">
-        <v>26.55999946594238</v>
+        <v>26.75</v>
       </c>
       <c r="F121">
-        <v>26684700</v>
+        <v>41359600</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>26.55999946594238</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="B122">
-        <v>26.71999931335449</v>
+        <v>25.97999954223633</v>
       </c>
       <c r="C122">
-        <v>25.55500030517578</v>
+        <v>23.95000076293945</v>
       </c>
       <c r="D122">
-        <v>25.92000007629395</v>
+        <v>24.25</v>
       </c>
       <c r="E122">
-        <v>25.92000007629395</v>
+        <v>24.25</v>
       </c>
       <c r="F122">
-        <v>30794600</v>
+        <v>117540200</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>25.88999938964844</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="B123">
-        <v>26.23500061035156</v>
+        <v>23.63999938964844</v>
       </c>
       <c r="C123">
-        <v>25.17000007629395</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="D123">
-        <v>26.1200008392334</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="E123">
-        <v>26.1200008392334</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="F123">
-        <v>25244200</v>
+        <v>94860100</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>26.26000022888184</v>
+        <v>23.04000091552734</v>
       </c>
       <c r="B124">
-        <v>26.56999969482422</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="C124">
-        <v>25.8700008392334</v>
+        <v>22.66500091552734</v>
       </c>
       <c r="D124">
-        <v>26.46999931335449</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="E124">
-        <v>26.46999931335449</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="F124">
-        <v>25029700</v>
+        <v>43381500</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>26.45000076293945</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="B125">
-        <v>26.6299991607666</v>
+        <v>23.22500038146973</v>
       </c>
       <c r="C125">
-        <v>25.71999931335449</v>
+        <v>22.3799991607666</v>
       </c>
       <c r="D125">
-        <v>26</v>
+        <v>22.82999992370605</v>
       </c>
       <c r="E125">
-        <v>26</v>
+        <v>22.82999992370605</v>
       </c>
       <c r="F125">
-        <v>25929900</v>
+        <v>53440300</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>26.25</v>
+        <v>23</v>
       </c>
       <c r="B126">
-        <v>27.11000061035156</v>
+        <v>23.52000045776367</v>
       </c>
       <c r="C126">
-        <v>26.1200008392334</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="D126">
-        <v>26.75</v>
+        <v>23.40999984741211</v>
       </c>
       <c r="E126">
-        <v>26.75</v>
+        <v>23.40999984741211</v>
       </c>
       <c r="F126">
-        <v>41359600</v>
+        <v>33225700</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>25.89999961853027</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="B127">
-        <v>25.97999954223633</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="C127">
-        <v>23.95000076293945</v>
+        <v>22.61000061035156</v>
       </c>
       <c r="D127">
-        <v>24.25</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="E127">
-        <v>24.25</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="F127">
-        <v>117540200</v>
+        <v>31574800</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>23.60000038146973</v>
+        <v>23.04999923706055</v>
       </c>
       <c r="B128">
-        <v>23.63999938964844</v>
+        <v>23.2189998626709</v>
       </c>
       <c r="C128">
-        <v>22.1200008392334</v>
+        <v>22.39999961853027</v>
       </c>
       <c r="D128">
-        <v>22.52000045776367</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="E128">
-        <v>22.52000045776367</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="F128">
-        <v>94860100</v>
+        <v>27994100</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>23.04000091552734</v>
+        <v>22.5</v>
       </c>
       <c r="B129">
-        <v>23.1299991607666</v>
+        <v>22.54999923706055</v>
       </c>
       <c r="C129">
-        <v>22.66500091552734</v>
+        <v>21.34199905395508</v>
       </c>
       <c r="D129">
-        <v>22.98999977111816</v>
+        <v>21.5</v>
       </c>
       <c r="E129">
-        <v>22.98999977111816</v>
+        <v>21.5</v>
       </c>
       <c r="F129">
-        <v>43381500</v>
+        <v>51039900</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>23.02000045776367</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="B130">
-        <v>23.22500038146973</v>
+        <v>21.95999908447266</v>
       </c>
       <c r="C130">
-        <v>22.3799991607666</v>
+        <v>21.29999923706055</v>
       </c>
       <c r="D130">
-        <v>22.82999992370605</v>
+        <v>21.40999984741211</v>
       </c>
       <c r="E130">
-        <v>22.82999992370605</v>
+        <v>21.40999984741211</v>
       </c>
       <c r="F130">
-        <v>53440300</v>
+        <v>29866300</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/PLTR/HighLow.xlsx
+++ b/Stocks/PLTR/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2582 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20.75</v>
+        <v>22.21999931335449</v>
       </c>
       <c r="B2">
-        <v>20.80999946594238</v>
+        <v>22.77000045776367</v>
       </c>
       <c r="C2">
-        <v>20.28000068664551</v>
+        <v>22.02000045776367</v>
       </c>
       <c r="D2">
-        <v>20.61000061035156</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="E2">
-        <v>20.61000061035156</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="F2">
-        <v>46302400</v>
+        <v>18575200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20.84000015258789</v>
+        <v>22.63999938964844</v>
       </c>
       <c r="B3">
-        <v>21.15999984741211</v>
+        <v>22.69000053405762</v>
       </c>
       <c r="C3">
-        <v>20.46999931335449</v>
+        <v>21.79000091552734</v>
       </c>
       <c r="D3">
-        <v>20.75</v>
+        <v>21.81999969482422</v>
       </c>
       <c r="E3">
-        <v>20.75</v>
+        <v>21.81999969482422</v>
       </c>
       <c r="F3">
-        <v>35372900</v>
+        <v>24107900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>21.05999946594238</v>
+        <v>21.85000038146973</v>
       </c>
       <c r="B4">
-        <v>21.52000045776367</v>
+        <v>23.28000068664551</v>
       </c>
       <c r="C4">
-        <v>20.67499923706055</v>
+        <v>21.79999923706055</v>
       </c>
       <c r="D4">
-        <v>21.21999931335449</v>
+        <v>22.93000030517578</v>
       </c>
       <c r="E4">
-        <v>21.21999931335449</v>
+        <v>22.93000030517578</v>
       </c>
       <c r="F4">
-        <v>46596800</v>
+        <v>35611100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>21.42000007629395</v>
+        <v>23.01000022888184</v>
       </c>
       <c r="B5">
-        <v>22.11000061035156</v>
+        <v>23.52000045776367</v>
       </c>
       <c r="C5">
-        <v>21.28000068664551</v>
+        <v>22.78000068664551</v>
       </c>
       <c r="D5">
-        <v>21.47999954223633</v>
+        <v>22.92000007629395</v>
       </c>
       <c r="E5">
-        <v>21.47999954223633</v>
+        <v>22.92000007629395</v>
       </c>
       <c r="F5">
-        <v>49890800</v>
+        <v>25947900</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>21.57999992370605</v>
+        <v>23.06999969482422</v>
       </c>
       <c r="B6">
-        <v>22.23999977111816</v>
+        <v>23.19000053405762</v>
       </c>
       <c r="C6">
-        <v>21.48999977111816</v>
+        <v>22.09000015258789</v>
       </c>
       <c r="D6">
-        <v>22.1200008392334</v>
+        <v>22.35000038146973</v>
       </c>
       <c r="E6">
-        <v>22.1200008392334</v>
+        <v>22.35000038146973</v>
       </c>
       <c r="F6">
-        <v>42958300</v>
+        <v>34679000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>22.01000022888184</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="B7">
-        <v>22.70000076293945</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="C7">
-        <v>21.64999961853027</v>
+        <v>23.58499908447266</v>
       </c>
       <c r="D7">
-        <v>22.70000076293945</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="E7">
-        <v>22.70000076293945</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="F7">
-        <v>76230500</v>
+        <v>189287200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>24.75</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="C8">
-        <v>22.76000022888184</v>
+        <v>24.30999946594238</v>
       </c>
       <c r="D8">
-        <v>22.95000076293945</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="E8">
-        <v>22.95000076293945</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="F8">
-        <v>111846000</v>
+        <v>52242400</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>23.19000053405762</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="B9">
-        <v>23.35000038146973</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="C9">
-        <v>22.36000061035156</v>
+        <v>23.77000045776367</v>
       </c>
       <c r="D9">
-        <v>23.05999946594238</v>
+        <v>24.5</v>
       </c>
       <c r="E9">
-        <v>23.05999946594238</v>
+        <v>24.5</v>
       </c>
       <c r="F9">
-        <v>52695500</v>
+        <v>45907300</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>23.02000045776367</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="B10">
-        <v>24.84000015258789</v>
+        <v>24.59000015258789</v>
       </c>
       <c r="C10">
-        <v>22.81999969482422</v>
+        <v>23.73999977111816</v>
       </c>
       <c r="D10">
-        <v>24.45000076293945</v>
+        <v>23.96999931335449</v>
       </c>
       <c r="E10">
-        <v>24.45000076293945</v>
+        <v>23.96999931335449</v>
       </c>
       <c r="F10">
-        <v>86473200</v>
+        <v>35348300</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>24.13999938964844</v>
+        <v>24.06999969482422</v>
       </c>
       <c r="B11">
-        <v>24.26000022888184</v>
+        <v>25.94000053405762</v>
       </c>
       <c r="C11">
-        <v>23.34000015258789</v>
+        <v>23.68000030517578</v>
       </c>
       <c r="D11">
-        <v>23.6299991607666</v>
+        <v>25.28000068664551</v>
       </c>
       <c r="E11">
-        <v>23.6299991607666</v>
+        <v>25.28000068664551</v>
       </c>
       <c r="F11">
-        <v>48164200</v>
+        <v>92065600</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>23.70999908447266</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="B12">
-        <v>24.48999977111816</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="C12">
-        <v>23.5</v>
+        <v>24.13999938964844</v>
       </c>
       <c r="D12">
-        <v>24.03000068664551</v>
+        <v>24.15999984741211</v>
       </c>
       <c r="E12">
-        <v>24.03000068664551</v>
+        <v>24.15999984741211</v>
       </c>
       <c r="F12">
-        <v>42537600</v>
+        <v>67605600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>24</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="B13">
-        <v>24.76000022888184</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="C13">
-        <v>23.79000091552734</v>
+        <v>23.65999984741211</v>
       </c>
       <c r="D13">
-        <v>24.45999908447266</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="E13">
-        <v>24.45999908447266</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="F13">
-        <v>49641000</v>
+        <v>51982200</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>24.85000038146973</v>
+        <v>24.02000045776367</v>
       </c>
       <c r="B14">
-        <v>25.22999954223633</v>
+        <v>24.93000030517578</v>
       </c>
       <c r="C14">
-        <v>23.93000030517578</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="D14">
-        <v>24.3799991607666</v>
+        <v>24.81999969482422</v>
       </c>
       <c r="E14">
-        <v>24.3799991607666</v>
+        <v>24.81999969482422</v>
       </c>
       <c r="F14">
-        <v>53488600</v>
+        <v>35705300</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>24.45000076293945</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>24.73999977111816</v>
+        <v>25.35000038146973</v>
       </c>
       <c r="C15">
-        <v>24.17000007629395</v>
+        <v>24.76000022888184</v>
       </c>
       <c r="D15">
-        <v>24.17000007629395</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="E15">
-        <v>24.17000007629395</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="F15">
-        <v>36006200</v>
+        <v>37227400</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>24</v>
+        <v>25.1200008392334</v>
       </c>
       <c r="B16">
-        <v>24.38999938964844</v>
+        <v>25.19000053405762</v>
       </c>
       <c r="C16">
-        <v>23.44000053405762</v>
+        <v>24.06999969482422</v>
       </c>
       <c r="D16">
-        <v>24.13999938964844</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="E16">
-        <v>24.13999938964844</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="F16">
-        <v>35482900</v>
+        <v>54678500</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>24.1200008392334</v>
+        <v>24.39999961853027</v>
       </c>
       <c r="B17">
-        <v>24.70999908447266</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="C17">
-        <v>24.03000068664551</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="D17">
-        <v>24.67000007629395</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="E17">
-        <v>24.67000007629395</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="F17">
-        <v>33113100</v>
+        <v>46179400</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>24.72999954223633</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="B18">
-        <v>25.14999961853027</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="C18">
-        <v>24.46999931335449</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>25.70999908447266</v>
       </c>
       <c r="E18">
-        <v>25</v>
+        <v>25.70999908447266</v>
       </c>
       <c r="F18">
-        <v>51801500</v>
+        <v>52186500</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>25.03000068664551</v>
+        <v>25.73999977111816</v>
       </c>
       <c r="B19">
-        <v>25.54999923706055</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="C19">
-        <v>24.38999938964844</v>
+        <v>25.6200008392334</v>
       </c>
       <c r="D19">
-        <v>24.40999984741211</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="E19">
-        <v>24.40999984741211</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="F19">
-        <v>46693200</v>
+        <v>44139300</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>24.09000015258789</v>
+        <v>25.79000091552734</v>
       </c>
       <c r="B20">
-        <v>24.94000053405762</v>
+        <v>26.36000061035156</v>
       </c>
       <c r="C20">
-        <v>23.86000061035156</v>
+        <v>25.65999984741211</v>
       </c>
       <c r="D20">
-        <v>24.79999923706055</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="E20">
-        <v>24.79999923706055</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="F20">
-        <v>58452600</v>
+        <v>93168600</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>24.68000030517578</v>
+        <v>26.45999908447266</v>
       </c>
       <c r="B21">
-        <v>25.45999908447266</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="C21">
-        <v>24.54999923706055</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="D21">
-        <v>25.45000076293945</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="E21">
-        <v>25.45000076293945</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="F21">
-        <v>64408400</v>
+        <v>34417200</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>25.59000015258789</v>
+        <v>26.20999908447266</v>
       </c>
       <c r="B22">
-        <v>25.94000053405762</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="C22">
-        <v>25.02000045776367</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="D22">
-        <v>25.3700008392334</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="E22">
-        <v>25.3700008392334</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="F22">
-        <v>65852600</v>
+        <v>38460100</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>25.10000038146973</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="B23">
-        <v>25.54999923706055</v>
+        <v>26.75</v>
       </c>
       <c r="C23">
-        <v>24.51000022888184</v>
+        <v>26.21999931335449</v>
       </c>
       <c r="D23">
-        <v>25.42000007629395</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="E23">
-        <v>25.42000007629395</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="F23">
-        <v>54805000</v>
+        <v>26609500</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>25.38999938964844</v>
+        <v>26.79000091552734</v>
       </c>
       <c r="B24">
-        <v>25.52000045776367</v>
+        <v>26.8799991607666</v>
       </c>
       <c r="C24">
-        <v>24.95999908447266</v>
+        <v>26.27000045776367</v>
       </c>
       <c r="D24">
-        <v>25.39999961853027</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="E24">
-        <v>25.39999961853027</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="F24">
-        <v>46171100</v>
+        <v>35835100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>25.45999908447266</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="B25">
-        <v>26.35000038146973</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="C25">
-        <v>25.34000015258789</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="D25">
-        <v>26.27000045776367</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="E25">
-        <v>26.27000045776367</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="F25">
-        <v>53362200</v>
+        <v>54394400</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>26.48999977111816</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="B26">
-        <v>26.70999908447266</v>
+        <v>26.23999977111816</v>
       </c>
       <c r="C26">
-        <v>26.17000007629395</v>
+        <v>25.29000091552734</v>
       </c>
       <c r="D26">
-        <v>26.53000068664551</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="E26">
-        <v>26.53000068664551</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="F26">
-        <v>48419400</v>
+        <v>34190800</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>26.57999992370605</v>
+        <v>26.18000030517578</v>
       </c>
       <c r="B27">
-        <v>27.01000022888184</v>
+        <v>26.72999954223633</v>
       </c>
       <c r="C27">
-        <v>26.2450008392334</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="D27">
-        <v>26.78000068664551</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="E27">
-        <v>26.78000068664551</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="F27">
-        <v>140832700</v>
+        <v>37215800</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>26.97999954223633</v>
+        <v>26.14999961853027</v>
       </c>
       <c r="B28">
-        <v>27.5</v>
+        <v>26.23900032043457</v>
       </c>
       <c r="C28">
-        <v>26.86000061035156</v>
+        <v>25.03000068664551</v>
       </c>
       <c r="D28">
-        <v>27.3799991607666</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="E28">
-        <v>27.3799991607666</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="F28">
-        <v>42184600</v>
+        <v>42372300</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>27.3799991607666</v>
+        <v>25.96999931335449</v>
       </c>
       <c r="B29">
-        <v>27.44000053405762</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="C29">
-        <v>26.44000053405762</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="D29">
-        <v>26.6299991607666</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="E29">
-        <v>26.6299991607666</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="F29">
-        <v>38478900</v>
+        <v>34569000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>26.47999954223633</v>
+        <v>26.29999923706055</v>
       </c>
       <c r="B30">
-        <v>26.92000007629395</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="C30">
-        <v>26.20999908447266</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="D30">
-        <v>26.36000061035156</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="E30">
-        <v>26.36000061035156</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="F30">
-        <v>28957100</v>
+        <v>49555500</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>26.10000038146973</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="B31">
-        <v>26.1299991607666</v>
+        <v>28.79000091552734</v>
       </c>
       <c r="C31">
-        <v>24.59000015258789</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="D31">
-        <v>24.71999931335449</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="E31">
-        <v>24.71999931335449</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="F31">
-        <v>55429800</v>
+        <v>109992000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>25</v>
+        <v>28.65999984741211</v>
       </c>
       <c r="B32">
-        <v>25.34000015258789</v>
+        <v>29.29000091552734</v>
       </c>
       <c r="C32">
-        <v>24.32999992370605</v>
+        <v>28.06999969482422</v>
       </c>
       <c r="D32">
-        <v>24.44000053405762</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="E32">
-        <v>24.44000053405762</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="F32">
-        <v>29389500</v>
+        <v>182052600</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>24.60000038146973</v>
+        <v>27.56999969482422</v>
       </c>
       <c r="B33">
-        <v>25.20000076293945</v>
+        <v>28.10000038146973</v>
       </c>
       <c r="C33">
-        <v>24.46999931335449</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="D33">
-        <v>24.68000030517578</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="E33">
-        <v>24.68000030517578</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="F33">
-        <v>28764500</v>
+        <v>89413500</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>24.22999954223633</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="B34">
-        <v>24.26000022888184</v>
+        <v>27.14900016784668</v>
       </c>
       <c r="C34">
-        <v>22.71999931335449</v>
+        <v>26.07999992370605</v>
       </c>
       <c r="D34">
-        <v>22.88999938964844</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="E34">
-        <v>22.88999938964844</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="F34">
-        <v>66937300</v>
+        <v>50933600</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>22.43000030517578</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="B35">
-        <v>23.20999908447266</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="C35">
-        <v>22.25</v>
+        <v>26.58200073242188</v>
       </c>
       <c r="D35">
-        <v>23.07999992370605</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="E35">
-        <v>23.07999992370605</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="F35">
-        <v>34612600</v>
+        <v>44308100</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>22.95999908447266</v>
+        <v>27.70999908447266</v>
       </c>
       <c r="B36">
-        <v>23.38999938964844</v>
+        <v>29.19000053405762</v>
       </c>
       <c r="C36">
-        <v>22.76000022888184</v>
+        <v>27.67000007629395</v>
       </c>
       <c r="D36">
-        <v>23.29000091552734</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="E36">
-        <v>23.29000091552734</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="F36">
-        <v>22492400</v>
+        <v>60028600</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>23.26000022888184</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="B37">
-        <v>23.4950008392334</v>
+        <v>28.76000022888184</v>
       </c>
       <c r="C37">
-        <v>22.8799991607666</v>
+        <v>27.90099906921387</v>
       </c>
       <c r="D37">
-        <v>22.95000076293945</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="E37">
-        <v>22.95000076293945</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="F37">
-        <v>23457200</v>
+        <v>40309700</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>22.97999954223633</v>
+        <v>28.22999954223633</v>
       </c>
       <c r="B38">
-        <v>22.98999977111816</v>
+        <v>28.3799991607666</v>
       </c>
       <c r="C38">
-        <v>22.42000007629395</v>
+        <v>27.22999954223633</v>
       </c>
       <c r="D38">
-        <v>22.45000076293945</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="E38">
-        <v>22.45000076293945</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="F38">
-        <v>24748800</v>
+        <v>44102800</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>22.48999977111816</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="B39">
-        <v>22.6200008392334</v>
+        <v>27.1299991607666</v>
       </c>
       <c r="C39">
-        <v>21.51000022888184</v>
+        <v>25.20999908447266</v>
       </c>
       <c r="D39">
-        <v>21.55999946594238</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="E39">
-        <v>21.55999946594238</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="F39">
-        <v>33796200</v>
+        <v>64206200</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>21.71999931335449</v>
+        <v>25.61000061035156</v>
       </c>
       <c r="B40">
-        <v>22.05500030517578</v>
+        <v>25.70000076293945</v>
       </c>
       <c r="C40">
-        <v>21.01000022888184</v>
+        <v>24.42000007629395</v>
       </c>
       <c r="D40">
-        <v>21.46999931335449</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="E40">
-        <v>21.46999931335449</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="F40">
-        <v>31871000</v>
+        <v>46164500</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>21.60000038146973</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="B41">
-        <v>21.70999908447266</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="C41">
-        <v>21.23999977111816</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="D41">
-        <v>21.3700008392334</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="E41">
-        <v>21.3700008392334</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="F41">
-        <v>19503100</v>
+        <v>59505600</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20.96999931335449</v>
+        <v>24.20999908447266</v>
       </c>
       <c r="B42">
-        <v>21.69000053405762</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="C42">
-        <v>20.54999923706055</v>
+        <v>23.71999931335449</v>
       </c>
       <c r="D42">
-        <v>21.54000091552734</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="E42">
-        <v>21.54000091552734</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="F42">
-        <v>30314400</v>
+        <v>32778000</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>21.6299991607666</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="B43">
-        <v>22.35000038146973</v>
+        <v>24.04999923706055</v>
       </c>
       <c r="C43">
-        <v>21.21999931335449</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="D43">
-        <v>22.18000030517578</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="E43">
-        <v>22.18000030517578</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="F43">
-        <v>22954000</v>
+        <v>46789700</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>22.27000045776367</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="B44">
-        <v>22.68000030517578</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="C44">
-        <v>22.1200008392334</v>
+        <v>23.06999969482422</v>
       </c>
       <c r="D44">
-        <v>22.52000045776367</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="E44">
-        <v>22.52000045776367</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="F44">
-        <v>20437300</v>
+        <v>56574800</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>22.54999923706055</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="B45">
-        <v>22.67000007629395</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="C45">
-        <v>21.8799991607666</v>
+        <v>23.35000038146973</v>
       </c>
       <c r="D45">
-        <v>22.06999969482422</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="E45">
-        <v>22.06999969482422</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="F45">
-        <v>17468900</v>
+        <v>125175700</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>22.01000022888184</v>
+        <v>23.70999908447266</v>
       </c>
       <c r="B46">
-        <v>22.07999992370605</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="C46">
-        <v>21.51000022888184</v>
+        <v>23.54000091552734</v>
       </c>
       <c r="D46">
-        <v>21.80999946594238</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="E46">
-        <v>21.80999946594238</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="F46">
-        <v>17653300</v>
+        <v>38873700</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>21.79999923706055</v>
+        <v>23.86000061035156</v>
       </c>
       <c r="B47">
-        <v>22.29999923706055</v>
+        <v>24.09600067138672</v>
       </c>
       <c r="C47">
-        <v>21.47999954223633</v>
+        <v>23.11000061035156</v>
       </c>
       <c r="D47">
-        <v>22.1299991607666</v>
+        <v>23.5</v>
       </c>
       <c r="E47">
-        <v>22.1299991607666</v>
+        <v>23.5</v>
       </c>
       <c r="F47">
-        <v>16267900</v>
+        <v>39630400</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>21.95999908447266</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="B48">
-        <v>22.11000061035156</v>
+        <v>23.97999954223633</v>
       </c>
       <c r="C48">
-        <v>21.09000015258789</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="D48">
-        <v>21.68000030517578</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="E48">
-        <v>21.68000030517578</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="F48">
-        <v>23078700</v>
+        <v>23971700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>21.75</v>
+        <v>23.54999923706055</v>
       </c>
       <c r="B49">
-        <v>22.61499977111816</v>
+        <v>23.80999946594238</v>
       </c>
       <c r="C49">
-        <v>21.69000053405762</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="D49">
-        <v>22.55999946594238</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="E49">
-        <v>22.55999946594238</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="F49">
-        <v>25073600</v>
+        <v>26280000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>22.78000068664551</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="B50">
-        <v>22.85000038146973</v>
+        <v>24.30999946594238</v>
       </c>
       <c r="C50">
-        <v>22.13999938964844</v>
+        <v>23.79000091552734</v>
       </c>
       <c r="D50">
-        <v>22.18000030517578</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="E50">
-        <v>22.18000030517578</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="F50">
-        <v>19219100</v>
+        <v>28494000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>21.85000038146973</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="B51">
-        <v>22.4060001373291</v>
+        <v>24.70999908447266</v>
       </c>
       <c r="C51">
-        <v>21.70999908447266</v>
+        <v>24.20499992370605</v>
       </c>
       <c r="D51">
-        <v>21.70999908447266</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="E51">
-        <v>21.70999908447266</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="F51">
-        <v>15821000</v>
+        <v>26106700</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>21.90999984741211</v>
+        <v>24.5</v>
       </c>
       <c r="B52">
-        <v>22.3700008392334</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="C52">
-        <v>21.47999954223633</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="D52">
-        <v>22.10000038146973</v>
+        <v>24</v>
       </c>
       <c r="E52">
-        <v>22.10000038146973</v>
+        <v>24</v>
       </c>
       <c r="F52">
-        <v>21372900</v>
+        <v>24275000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>22.03000068664551</v>
+        <v>24</v>
       </c>
       <c r="B53">
-        <v>22.27000045776367</v>
+        <v>24.38999938964844</v>
       </c>
       <c r="C53">
-        <v>21.70999908447266</v>
+        <v>23.92000007629395</v>
       </c>
       <c r="D53">
-        <v>22.23999977111816</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="E53">
-        <v>22.23999977111816</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="F53">
-        <v>17040100</v>
+        <v>25609900</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>22.20000076293945</v>
+        <v>24.5</v>
       </c>
       <c r="B54">
-        <v>22.54000091552734</v>
+        <v>25.20000076293945</v>
       </c>
       <c r="C54">
-        <v>22.06999969482422</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="D54">
-        <v>22.29999923706055</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="E54">
-        <v>22.29999923706055</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="F54">
-        <v>15537400</v>
+        <v>29393900</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>22.21999931335449</v>
+        <v>24.79000091552734</v>
       </c>
       <c r="B55">
-        <v>22.77000045776367</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="C55">
-        <v>22.02000045776367</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="D55">
-        <v>22.52000045776367</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="E55">
-        <v>22.52000045776367</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="F55">
-        <v>18575200</v>
+        <v>24248000</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>22.63999938964844</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="B56">
-        <v>22.69000053405762</v>
+        <v>24.93000030517578</v>
       </c>
       <c r="C56">
-        <v>21.79000091552734</v>
+        <v>24.07999992370605</v>
       </c>
       <c r="D56">
-        <v>21.81999969482422</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="E56">
-        <v>21.81999969482422</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="F56">
-        <v>24107900</v>
+        <v>23976600</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>21.85000038146973</v>
+        <v>24.48999977111816</v>
       </c>
       <c r="B57">
-        <v>23.28000068664551</v>
+        <v>24.85000038146973</v>
       </c>
       <c r="C57">
-        <v>21.79999923706055</v>
+        <v>24.25</v>
       </c>
       <c r="D57">
-        <v>22.93000030517578</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="E57">
-        <v>22.93000030517578</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="F57">
-        <v>35611100</v>
+        <v>20166800</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>23.01000022888184</v>
+        <v>24.5</v>
       </c>
       <c r="B58">
-        <v>23.52000045776367</v>
+        <v>25.54000091552734</v>
       </c>
       <c r="C58">
-        <v>22.78000068664551</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="D58">
-        <v>22.92000007629395</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="E58">
-        <v>22.92000007629395</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="F58">
-        <v>25947900</v>
+        <v>33962100</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>23.06999969482422</v>
+        <v>25.98999977111816</v>
       </c>
       <c r="B59">
-        <v>23.19000053405762</v>
+        <v>26.75</v>
       </c>
       <c r="C59">
-        <v>22.09000015258789</v>
+        <v>25.25</v>
       </c>
       <c r="D59">
-        <v>22.35000038146973</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="E59">
-        <v>22.35000038146973</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="F59">
-        <v>34679000</v>
+        <v>56767000</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>24.45000076293945</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="B60">
-        <v>25.76000022888184</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="C60">
-        <v>23.58499908447266</v>
+        <v>25.02000045776367</v>
       </c>
       <c r="D60">
-        <v>24.88999938964844</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="E60">
-        <v>24.88999938964844</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="F60">
-        <v>189287200</v>
+        <v>24157200</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>25</v>
+        <v>25.29999923706055</v>
       </c>
       <c r="B61">
-        <v>25.10000038146973</v>
+        <v>25.79500007629395</v>
       </c>
       <c r="C61">
-        <v>24.30999946594238</v>
+        <v>25.1200008392334</v>
       </c>
       <c r="D61">
-        <v>24.89999961853027</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="E61">
-        <v>24.89999961853027</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="F61">
-        <v>52242400</v>
+        <v>21203000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>24.89999961853027</v>
+        <v>25.5</v>
       </c>
       <c r="B62">
-        <v>24.89999961853027</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="C62">
-        <v>23.77000045776367</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="D62">
-        <v>24.5</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="E62">
-        <v>24.5</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="F62">
-        <v>45907300</v>
+        <v>21910300</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>23.89999961853027</v>
+        <v>26.11000061035156</v>
       </c>
       <c r="B63">
-        <v>24.59000015258789</v>
+        <v>26.64500045776367</v>
       </c>
       <c r="C63">
-        <v>23.73999977111816</v>
+        <v>25.88299942016602</v>
       </c>
       <c r="D63">
-        <v>23.96999931335449</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="E63">
-        <v>23.96999931335449</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="F63">
-        <v>35348300</v>
+        <v>26684700</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>24.06999969482422</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="B64">
-        <v>25.94000053405762</v>
+        <v>26.71999931335449</v>
       </c>
       <c r="C64">
-        <v>23.68000030517578</v>
+        <v>25.55500030517578</v>
       </c>
       <c r="D64">
-        <v>25.28000068664551</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="E64">
-        <v>25.28000068664551</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="F64">
-        <v>92065600</v>
+        <v>30794600</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>25.01000022888184</v>
+        <v>25.88999938964844</v>
       </c>
       <c r="B65">
-        <v>25.63999938964844</v>
+        <v>26.23500061035156</v>
       </c>
       <c r="C65">
-        <v>24.13999938964844</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="D65">
-        <v>24.15999984741211</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="E65">
-        <v>24.15999984741211</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="F65">
-        <v>67605600</v>
+        <v>25244200</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>24.21999931335449</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="B66">
-        <v>24.47999954223633</v>
+        <v>26.56999969482422</v>
       </c>
       <c r="C66">
-        <v>23.65999984741211</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="D66">
-        <v>24.01000022888184</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="E66">
-        <v>24.01000022888184</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="F66">
-        <v>51982200</v>
+        <v>25029700</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>24.02000045776367</v>
+        <v>26.45000076293945</v>
       </c>
       <c r="B67">
-        <v>24.93000030517578</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="C67">
-        <v>23.89999961853027</v>
+        <v>25.71999931335449</v>
       </c>
       <c r="D67">
-        <v>24.81999969482422</v>
+        <v>26</v>
       </c>
       <c r="E67">
-        <v>24.81999969482422</v>
+        <v>26</v>
       </c>
       <c r="F67">
-        <v>35705300</v>
+        <v>25929900</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>25</v>
+        <v>26.25</v>
       </c>
       <c r="B68">
-        <v>25.35000038146973</v>
+        <v>27.11000061035156</v>
       </c>
       <c r="C68">
-        <v>24.76000022888184</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="D68">
-        <v>25.10000038146973</v>
+        <v>26.75</v>
       </c>
       <c r="E68">
-        <v>25.10000038146973</v>
+        <v>26.75</v>
       </c>
       <c r="F68">
-        <v>37227400</v>
+        <v>41359600</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>25.1200008392334</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="B69">
-        <v>25.19000053405762</v>
+        <v>25.97999954223633</v>
       </c>
       <c r="C69">
-        <v>24.06999969482422</v>
+        <v>23.95000076293945</v>
       </c>
       <c r="D69">
-        <v>24.35000038146973</v>
+        <v>24.25</v>
       </c>
       <c r="E69">
-        <v>24.35000038146973</v>
+        <v>24.25</v>
       </c>
       <c r="F69">
-        <v>54678500</v>
+        <v>117540200</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>24.39999961853027</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="B70">
-        <v>25.40999984741211</v>
+        <v>23.63999938964844</v>
       </c>
       <c r="C70">
-        <v>24.36000061035156</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="D70">
-        <v>24.8700008392334</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="E70">
-        <v>24.8700008392334</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="F70">
-        <v>46179400</v>
+        <v>94860100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>25.04999923706055</v>
+        <v>23.04000091552734</v>
       </c>
       <c r="B71">
-        <v>26.09000015258789</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="C71">
-        <v>24.90999984741211</v>
+        <v>22.66500091552734</v>
       </c>
       <c r="D71">
-        <v>25.70999908447266</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="E71">
-        <v>25.70999908447266</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="F71">
-        <v>52186500</v>
+        <v>43381500</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>25.73999977111816</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="B72">
-        <v>26.60000038146973</v>
+        <v>23.22500038146973</v>
       </c>
       <c r="C72">
-        <v>25.6200008392334</v>
+        <v>22.3799991607666</v>
       </c>
       <c r="D72">
-        <v>25.76000022888184</v>
+        <v>22.82999992370605</v>
       </c>
       <c r="E72">
-        <v>25.76000022888184</v>
+        <v>22.82999992370605</v>
       </c>
       <c r="F72">
-        <v>44139300</v>
+        <v>53440300</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>25.79000091552734</v>
+        <v>23</v>
       </c>
       <c r="B73">
-        <v>26.36000061035156</v>
+        <v>23.52000045776367</v>
       </c>
       <c r="C73">
-        <v>25.65999984741211</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="D73">
-        <v>26.34000015258789</v>
+        <v>23.40999984741211</v>
       </c>
       <c r="E73">
-        <v>26.34000015258789</v>
+        <v>23.40999984741211</v>
       </c>
       <c r="F73">
-        <v>93168600</v>
+        <v>33225700</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>26.45999908447266</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="B74">
-        <v>26.51000022888184</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="C74">
-        <v>26.03000068664551</v>
+        <v>22.61000061035156</v>
       </c>
       <c r="D74">
-        <v>26.20000076293945</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="E74">
-        <v>26.20000076293945</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="F74">
-        <v>34417200</v>
+        <v>31574800</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>26.20999908447266</v>
+        <v>23.04999923706055</v>
       </c>
       <c r="B75">
-        <v>26.8700008392334</v>
+        <v>23.2189998626709</v>
       </c>
       <c r="C75">
-        <v>26.09000015258789</v>
+        <v>22.39999961853027</v>
       </c>
       <c r="D75">
-        <v>26.51000022888184</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="E75">
-        <v>26.51000022888184</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="F75">
-        <v>38460100</v>
+        <v>27994100</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>26.48999977111816</v>
+        <v>22.5</v>
       </c>
       <c r="B76">
-        <v>26.75</v>
+        <v>22.54999923706055</v>
       </c>
       <c r="C76">
-        <v>26.21999931335449</v>
+        <v>21.34199905395508</v>
       </c>
       <c r="D76">
-        <v>26.63999938964844</v>
+        <v>21.5</v>
       </c>
       <c r="E76">
-        <v>26.63999938964844</v>
+        <v>21.5</v>
       </c>
       <c r="F76">
-        <v>26609500</v>
+        <v>51039900</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>26.79000091552734</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="B77">
-        <v>26.8799991607666</v>
+        <v>21.95999908447266</v>
       </c>
       <c r="C77">
-        <v>26.27000045776367</v>
+        <v>21.29999923706055</v>
       </c>
       <c r="D77">
-        <v>26.70000076293945</v>
+        <v>21.40999984741211</v>
       </c>
       <c r="E77">
-        <v>26.70000076293945</v>
+        <v>21.40999984741211</v>
       </c>
       <c r="F77">
-        <v>35835100</v>
+        <v>30013100</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>26.60000038146973</v>
+        <v>21.53000068664551</v>
       </c>
       <c r="B78">
-        <v>26.61000061035156</v>
+        <v>21.56999969482422</v>
       </c>
       <c r="C78">
-        <v>24.95999908447266</v>
+        <v>20.18000030517578</v>
       </c>
       <c r="D78">
-        <v>25.57999992370605</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="E78">
-        <v>25.57999992370605</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="F78">
-        <v>54394400</v>
+        <v>59899100</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>25.38999938964844</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="B79">
-        <v>26.23999977111816</v>
+        <v>21.04999923706055</v>
       </c>
       <c r="C79">
-        <v>25.29000091552734</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="D79">
-        <v>26.1299991607666</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="E79">
-        <v>26.1299991607666</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="F79">
-        <v>34190800</v>
+        <v>44588000</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>26.18000030517578</v>
+        <v>20.35000038146973</v>
       </c>
       <c r="B80">
-        <v>26.72999954223633</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="C80">
-        <v>26.17000007629395</v>
+        <v>20.05999946594238</v>
       </c>
       <c r="D80">
-        <v>26.28000068664551</v>
+        <v>21.11000061035156</v>
       </c>
       <c r="E80">
-        <v>26.28000068664551</v>
+        <v>21.11000061035156</v>
       </c>
       <c r="F80">
-        <v>37215800</v>
+        <v>35233900</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>26.14999961853027</v>
+        <v>20.40999984741211</v>
       </c>
       <c r="B81">
-        <v>26.23900032043457</v>
+        <v>21.09000015258789</v>
       </c>
       <c r="C81">
-        <v>25.03000068664551</v>
+        <v>20.34900093078613</v>
       </c>
       <c r="D81">
-        <v>25.82999992370605</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="E81">
-        <v>25.82999992370605</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="F81">
-        <v>42372300</v>
+        <v>20691200</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>25.96999931335449</v>
+        <v>21.19000053405762</v>
       </c>
       <c r="B82">
-        <v>26.70000076293945</v>
+        <v>21.39999961853027</v>
       </c>
       <c r="C82">
-        <v>25.89999961853027</v>
+        <v>20.55999946594238</v>
       </c>
       <c r="D82">
-        <v>26.26000022888184</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="E82">
-        <v>26.26000022888184</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="F82">
-        <v>34569000</v>
+        <v>29114000</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>26.29999923706055</v>
+        <v>20.95000076293945</v>
       </c>
       <c r="B83">
-        <v>27.14999961853027</v>
+        <v>21.25</v>
       </c>
       <c r="C83">
-        <v>26.03000068664551</v>
+        <v>20.11000061035156</v>
       </c>
       <c r="D83">
-        <v>27.07999992370605</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="E83">
-        <v>27.07999992370605</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="F83">
-        <v>49555500</v>
+        <v>38196400</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>27.20000076293945</v>
+        <v>20.53000068664551</v>
       </c>
       <c r="B84">
-        <v>28.79000091552734</v>
+        <v>20.88999938964844</v>
       </c>
       <c r="C84">
-        <v>27.02000045776367</v>
+        <v>19.29000091552734</v>
       </c>
       <c r="D84">
-        <v>28.6299991607666</v>
+        <v>19.3799991607666</v>
       </c>
       <c r="E84">
-        <v>28.6299991607666</v>
+        <v>19.3799991607666</v>
       </c>
       <c r="F84">
-        <v>109992000</v>
+        <v>48283700</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>28.65999984741211</v>
+        <v>19.29999923706055</v>
       </c>
       <c r="B85">
-        <v>29.29000091552734</v>
+        <v>19.90999984741211</v>
       </c>
       <c r="C85">
-        <v>28.06999969482422</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="D85">
-        <v>28.70999908447266</v>
+        <v>19.69000053405762</v>
       </c>
       <c r="E85">
-        <v>28.70999908447266</v>
+        <v>19.69000053405762</v>
       </c>
       <c r="F85">
-        <v>182052600</v>
+        <v>45802900</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>27.56999969482422</v>
+        <v>19.5</v>
       </c>
       <c r="B86">
-        <v>28.10000038146973</v>
+        <v>19.53000068664551</v>
       </c>
       <c r="C86">
-        <v>26.05999946594238</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="D86">
-        <v>26.54999923706055</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="E86">
-        <v>26.54999923706055</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="F86">
-        <v>89413500</v>
+        <v>55926700</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>26.88999938964844</v>
+        <v>18.54000091552734</v>
       </c>
       <c r="B87">
-        <v>27.14900016784668</v>
+        <v>18.96999931335449</v>
       </c>
       <c r="C87">
-        <v>26.07999992370605</v>
+        <v>18.07500076293945</v>
       </c>
       <c r="D87">
-        <v>26.6200008392334</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="E87">
-        <v>26.6200008392334</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="F87">
-        <v>50933600</v>
+        <v>56459800</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>26.61000061035156</v>
+        <v>19.26000022888184</v>
       </c>
       <c r="B88">
-        <v>27.77000045776367</v>
+        <v>19.85499954223633</v>
       </c>
       <c r="C88">
-        <v>26.58200073242188</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="D88">
-        <v>27.43000030517578</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="E88">
-        <v>27.43000030517578</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="F88">
-        <v>44308100</v>
+        <v>35129000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>27.70999908447266</v>
+        <v>19.51000022888184</v>
       </c>
       <c r="B89">
-        <v>29.19000053405762</v>
+        <v>19.82500076293945</v>
       </c>
       <c r="C89">
-        <v>27.67000007629395</v>
+        <v>19.03000068664551</v>
       </c>
       <c r="D89">
-        <v>28.77000045776367</v>
+        <v>19.81999969482422</v>
       </c>
       <c r="E89">
-        <v>28.77000045776367</v>
+        <v>19.81999969482422</v>
       </c>
       <c r="F89">
-        <v>60028600</v>
+        <v>28425900</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>28.27000045776367</v>
+        <v>19.95000076293945</v>
       </c>
       <c r="B90">
-        <v>28.76000022888184</v>
+        <v>20.14999961853027</v>
       </c>
       <c r="C90">
-        <v>27.90099906921387</v>
+        <v>19.04000091552734</v>
       </c>
       <c r="D90">
-        <v>28.55999946594238</v>
+        <v>19.20999908447266</v>
       </c>
       <c r="E90">
-        <v>28.55999946594238</v>
+        <v>19.20999908447266</v>
       </c>
       <c r="F90">
-        <v>40309700</v>
+        <v>30354700</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>28.22999954223633</v>
+        <v>19.28000068664551</v>
       </c>
       <c r="B91">
-        <v>28.3799991607666</v>
+        <v>19.57999992370605</v>
       </c>
       <c r="C91">
-        <v>27.22999954223633</v>
+        <v>18.70000076293945</v>
       </c>
       <c r="D91">
-        <v>27.46999931335449</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="E91">
-        <v>27.46999931335449</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="F91">
-        <v>44102800</v>
+        <v>27550300</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>27.02000045776367</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="B92">
-        <v>27.1299991607666</v>
+        <v>19.07500076293945</v>
       </c>
       <c r="C92">
-        <v>25.20999908447266</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="D92">
-        <v>25.34000015258789</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="E92">
-        <v>25.34000015258789</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="F92">
-        <v>64206200</v>
+        <v>38376000</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>25.61000061035156</v>
+        <v>18</v>
       </c>
       <c r="B93">
-        <v>25.70000076293945</v>
+        <v>18.85899925231934</v>
       </c>
       <c r="C93">
-        <v>24.42000007629395</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="D93">
-        <v>24.52000045776367</v>
+        <v>18.63999938964844</v>
       </c>
       <c r="E93">
-        <v>24.52000045776367</v>
+        <v>18.63999938964844</v>
       </c>
       <c r="F93">
-        <v>46164500</v>
+        <v>38864800</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>24.69000053405762</v>
+        <v>18.3700008392334</v>
       </c>
       <c r="B94">
-        <v>25.04999923706055</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="C94">
-        <v>23.8799991607666</v>
+        <v>17.9950008392334</v>
       </c>
       <c r="D94">
-        <v>24.04000091552734</v>
+        <v>18.86000061035156</v>
       </c>
       <c r="E94">
-        <v>24.04000091552734</v>
+        <v>18.86000061035156</v>
       </c>
       <c r="F94">
-        <v>59505600</v>
+        <v>39361900</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>24.20999908447266</v>
+        <v>18.95999908447266</v>
       </c>
       <c r="B95">
-        <v>24.36000061035156</v>
+        <v>19.1200008392334</v>
       </c>
       <c r="C95">
-        <v>23.71999931335449</v>
+        <v>18.14999961853027</v>
       </c>
       <c r="D95">
-        <v>24.32999992370605</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="E95">
-        <v>24.32999992370605</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="F95">
-        <v>32778000</v>
+        <v>33950000</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>24.01000022888184</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="B96">
-        <v>24.04999923706055</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="C96">
-        <v>23.02000045776367</v>
+        <v>17.80999946594238</v>
       </c>
       <c r="D96">
-        <v>23.17000007629395</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="E96">
-        <v>23.17000007629395</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="F96">
-        <v>46789700</v>
+        <v>44325900</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>23.20999908447266</v>
+        <v>18.59000015258789</v>
       </c>
       <c r="B97">
-        <v>23.8799991607666</v>
+        <v>18.67000007629395</v>
       </c>
       <c r="C97">
-        <v>23.06999969482422</v>
+        <v>17.83499908447266</v>
       </c>
       <c r="D97">
-        <v>23.20999908447266</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="E97">
-        <v>23.20999908447266</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="F97">
-        <v>56574800</v>
+        <v>42265900</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>24.90999984741211</v>
+        <v>18.15999984741211</v>
       </c>
       <c r="B98">
-        <v>25.01000022888184</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="C98">
-        <v>23.35000038146973</v>
+        <v>18.10000038146973</v>
       </c>
       <c r="D98">
-        <v>23.57999992370605</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="E98">
-        <v>23.57999992370605</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="F98">
-        <v>125175700</v>
+        <v>33878600</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>23.70999908447266</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="B99">
-        <v>24.1299991607666</v>
+        <v>19.45000076293945</v>
       </c>
       <c r="C99">
-        <v>23.54000091552734</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="D99">
-        <v>23.72999954223633</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="E99">
-        <v>23.72999954223633</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="F99">
-        <v>38873700</v>
+        <v>33894200</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>23.86000061035156</v>
+        <v>18.85000038146973</v>
       </c>
       <c r="B100">
-        <v>24.09600067138672</v>
+        <v>19.13500022888184</v>
       </c>
       <c r="C100">
-        <v>23.11000061035156</v>
+        <v>18.71999931335449</v>
       </c>
       <c r="D100">
-        <v>23.5</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="E100">
-        <v>23.5</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="F100">
-        <v>39630400</v>
+        <v>24758300</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>23.26000022888184</v>
+        <v>18.78000068664551</v>
       </c>
       <c r="B101">
-        <v>23.97999954223633</v>
+        <v>19.25</v>
       </c>
       <c r="C101">
-        <v>23.26000022888184</v>
+        <v>18.78000068664551</v>
       </c>
       <c r="D101">
-        <v>23.53000068664551</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="E101">
-        <v>23.53000068664551</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="F101">
-        <v>23971700</v>
+        <v>21782000</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>23.54999923706055</v>
+        <v>18.88999938964844</v>
       </c>
       <c r="B102">
-        <v>23.80999946594238</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="C102">
-        <v>23.29000091552734</v>
+        <v>18.44000053405762</v>
       </c>
       <c r="D102">
-        <v>23.69000053405762</v>
+        <v>18.56999969482422</v>
       </c>
       <c r="E102">
-        <v>23.69000053405762</v>
+        <v>18.56999969482422</v>
       </c>
       <c r="F102">
-        <v>26280000</v>
+        <v>20518800</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>23.82999992370605</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="B103">
-        <v>24.30999946594238</v>
+        <v>18.60000038146973</v>
       </c>
       <c r="C103">
-        <v>23.79000091552734</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="D103">
-        <v>24.1299991607666</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="E103">
-        <v>24.1299991607666</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="F103">
-        <v>28494000</v>
+        <v>28217500</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>24.43000030517578</v>
+        <v>18.10000038146973</v>
       </c>
       <c r="B104">
-        <v>24.70999908447266</v>
+        <v>18.9950008392334</v>
       </c>
       <c r="C104">
-        <v>24.20499992370605</v>
+        <v>18.06999969482422</v>
       </c>
       <c r="D104">
-        <v>24.35000038146973</v>
+        <v>18.69000053405762</v>
       </c>
       <c r="E104">
-        <v>24.35000038146973</v>
+        <v>18.69000053405762</v>
       </c>
       <c r="F104">
-        <v>26106700</v>
+        <v>29285200</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>24.5</v>
+        <v>18.61000061035156</v>
       </c>
       <c r="B105">
-        <v>24.52000045776367</v>
+        <v>18.92000007629395</v>
       </c>
       <c r="C105">
-        <v>23.82999992370605</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="D105">
-        <v>24</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="E105">
-        <v>24</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="F105">
-        <v>24275000</v>
+        <v>23556000</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>24</v>
+        <v>18.36000061035156</v>
       </c>
       <c r="B106">
-        <v>24.38999938964844</v>
+        <v>18.56900024414062</v>
       </c>
       <c r="C106">
-        <v>23.92000007629395</v>
+        <v>17.86000061035156</v>
       </c>
       <c r="D106">
-        <v>24.26000022888184</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="E106">
-        <v>24.26000022888184</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="F106">
-        <v>25609900</v>
+        <v>34283600</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>24.5</v>
+        <v>18.61000061035156</v>
       </c>
       <c r="B107">
-        <v>25.20000076293945</v>
+        <v>18.84000015258789</v>
       </c>
       <c r="C107">
-        <v>24.36000061035156</v>
+        <v>17.79000091552734</v>
       </c>
       <c r="D107">
-        <v>24.69000053405762</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="E107">
-        <v>24.69000053405762</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="F107">
-        <v>29393900</v>
+        <v>39643200</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>24.79000091552734</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="B108">
-        <v>24.95999908447266</v>
+        <v>18.56800079345703</v>
       </c>
       <c r="C108">
-        <v>24.17000007629395</v>
+        <v>16.8700008392334</v>
       </c>
       <c r="D108">
-        <v>24.21999931335449</v>
+        <v>16.95999908447266</v>
       </c>
       <c r="E108">
-        <v>24.21999931335449</v>
+        <v>16.95999908447266</v>
       </c>
       <c r="F108">
-        <v>24248000</v>
+        <v>58445900</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>24.1299991607666</v>
+        <v>16.8700008392334</v>
       </c>
       <c r="B109">
-        <v>24.93000030517578</v>
+        <v>17.18000030517578</v>
       </c>
       <c r="C109">
-        <v>24.07999992370605</v>
+        <v>16.05500030517578</v>
       </c>
       <c r="D109">
-        <v>24.78000068664551</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="E109">
-        <v>24.78000068664551</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="F109">
-        <v>23976600</v>
+        <v>49737100</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>24.48999977111816</v>
+        <v>16.70000076293945</v>
       </c>
       <c r="B110">
-        <v>24.85000038146973</v>
+        <v>17.32999992370605</v>
       </c>
       <c r="C110">
-        <v>24.25</v>
+        <v>16.47500038146973</v>
       </c>
       <c r="D110">
-        <v>24.43000030517578</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="E110">
-        <v>24.43000030517578</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="F110">
-        <v>20166800</v>
+        <v>37696500</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>24.5</v>
+        <v>16.19000053405762</v>
       </c>
       <c r="B111">
-        <v>25.54000091552734</v>
+        <v>16.56999969482422</v>
       </c>
       <c r="C111">
-        <v>24.47999954223633</v>
+        <v>15.35000038146973</v>
       </c>
       <c r="D111">
-        <v>25.40999984741211</v>
+        <v>16.5</v>
       </c>
       <c r="E111">
-        <v>25.40999984741211</v>
+        <v>16.5</v>
       </c>
       <c r="F111">
-        <v>33962100</v>
+        <v>77649400</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>25.98999977111816</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="B112">
-        <v>26.75</v>
+        <v>17.25</v>
       </c>
       <c r="C112">
-        <v>25.25</v>
+        <v>16.31999969482422</v>
       </c>
       <c r="D112">
-        <v>25.52000045776367</v>
+        <v>16.88999938964844</v>
       </c>
       <c r="E112">
-        <v>25.52000045776367</v>
+        <v>16.88999938964844</v>
       </c>
       <c r="F112">
-        <v>56767000</v>
+        <v>47442600</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>25.63999938964844</v>
+        <v>17.15999984741211</v>
       </c>
       <c r="B113">
-        <v>25.89999961853027</v>
+        <v>17.45999908447266</v>
       </c>
       <c r="C113">
-        <v>25.02000045776367</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="D113">
-        <v>25.05999946594238</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="E113">
-        <v>25.05999946594238</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="F113">
-        <v>24157200</v>
+        <v>39784200</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>25.29999923706055</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="B114">
-        <v>25.79500007629395</v>
+        <v>16.81999969482422</v>
       </c>
       <c r="C114">
-        <v>25.1200008392334</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="D114">
-        <v>25.63999938964844</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E114">
-        <v>25.63999938964844</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="F114">
-        <v>21203000</v>
+        <v>35492200</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>25.5</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="B115">
-        <v>26.1200008392334</v>
+        <v>16.24900054931641</v>
       </c>
       <c r="C115">
-        <v>25.45000076293945</v>
+        <v>15.61999988555908</v>
       </c>
       <c r="D115">
-        <v>25.8799991607666</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E115">
-        <v>25.8799991607666</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="F115">
-        <v>21910300</v>
+        <v>35548200</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>26.11000061035156</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="B116">
-        <v>26.64500045776367</v>
+        <v>15.75</v>
       </c>
       <c r="C116">
-        <v>25.88299942016602</v>
+        <v>14.92000007629395</v>
       </c>
       <c r="D116">
-        <v>26.55999946594238</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="E116">
-        <v>26.55999946594238</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="F116">
-        <v>26684700</v>
+        <v>49067700</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>26.55999946594238</v>
+        <v>14.89999961853027</v>
       </c>
       <c r="B117">
-        <v>26.71999931335449</v>
+        <v>15.25</v>
       </c>
       <c r="C117">
-        <v>25.55500030517578</v>
+        <v>14.53999996185303</v>
       </c>
       <c r="D117">
-        <v>25.92000007629395</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="E117">
-        <v>25.92000007629395</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="F117">
-        <v>30794600</v>
+        <v>48049100</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>25.88999938964844</v>
+        <v>14.89000034332275</v>
       </c>
       <c r="B118">
-        <v>26.23500061035156</v>
+        <v>15.55000019073486</v>
       </c>
       <c r="C118">
-        <v>25.17000007629395</v>
+        <v>14.56999969482422</v>
       </c>
       <c r="D118">
-        <v>26.1200008392334</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="E118">
-        <v>26.1200008392334</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="F118">
-        <v>25244200</v>
+        <v>44690400</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>26.26000022888184</v>
+        <v>14.25</v>
       </c>
       <c r="B119">
-        <v>26.56999969482422</v>
+        <v>14.47799968719482</v>
       </c>
       <c r="C119">
-        <v>25.8700008392334</v>
+        <v>13.5</v>
       </c>
       <c r="D119">
-        <v>26.46999931335449</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="E119">
-        <v>26.46999931335449</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="F119">
-        <v>25029700</v>
+        <v>73031300</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>26.45000076293945</v>
+        <v>12.78999996185303</v>
       </c>
       <c r="B120">
-        <v>26.6299991607666</v>
+        <v>13.40999984741211</v>
       </c>
       <c r="C120">
-        <v>25.71999931335449</v>
+        <v>11.75</v>
       </c>
       <c r="D120">
-        <v>26</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="E120">
-        <v>26</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="F120">
-        <v>25929900</v>
+        <v>110518900</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>26.25</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="B121">
-        <v>27.11000061035156</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="C121">
-        <v>26.1200008392334</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="D121">
-        <v>26.75</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="E121">
-        <v>26.75</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="F121">
-        <v>41359600</v>
+        <v>47456600</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>25.89999961853027</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="B122">
-        <v>25.97999954223633</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="C122">
-        <v>23.95000076293945</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="D122">
-        <v>24.25</v>
+        <v>12.75</v>
       </c>
       <c r="E122">
-        <v>24.25</v>
+        <v>12.75</v>
       </c>
       <c r="F122">
-        <v>117540200</v>
+        <v>69949700</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>23.60000038146973</v>
+        <v>13.01000022888184</v>
       </c>
       <c r="B123">
-        <v>23.63999938964844</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="C123">
-        <v>22.1200008392334</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="D123">
-        <v>22.52000045776367</v>
+        <v>12.27999973297119</v>
       </c>
       <c r="E123">
-        <v>22.52000045776367</v>
+        <v>12.27999973297119</v>
       </c>
       <c r="F123">
-        <v>94860100</v>
+        <v>52622900</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>23.04000091552734</v>
+        <v>12.30000019073486</v>
       </c>
       <c r="B124">
-        <v>23.1299991607666</v>
+        <v>12.88000011444092</v>
       </c>
       <c r="C124">
-        <v>22.66500091552734</v>
+        <v>11.89000034332275</v>
       </c>
       <c r="D124">
-        <v>22.98999977111816</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="E124">
-        <v>22.98999977111816</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="F124">
-        <v>43381500</v>
+        <v>54887500</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>23.02000045776367</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="B125">
-        <v>23.22500038146973</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="C125">
-        <v>22.3799991607666</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="D125">
-        <v>22.82999992370605</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="E125">
-        <v>22.82999992370605</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="F125">
-        <v>53440300</v>
+        <v>51039300</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>23</v>
+        <v>14.22999954223633</v>
       </c>
       <c r="B126">
-        <v>23.52000045776367</v>
+        <v>14.36999988555908</v>
       </c>
       <c r="C126">
-        <v>22.95000076293945</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="D126">
-        <v>23.40999984741211</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="E126">
-        <v>23.40999984741211</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="F126">
-        <v>33225700</v>
+        <v>68847400</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>23.29000091552734</v>
+        <v>14.09000015258789</v>
       </c>
       <c r="B127">
-        <v>23.29000091552734</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="C127">
-        <v>22.61000061035156</v>
+        <v>13.1899995803833</v>
       </c>
       <c r="D127">
-        <v>23.1299991607666</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="E127">
-        <v>23.1299991607666</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="F127">
-        <v>31574800</v>
+        <v>47204300</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>23.04999923706055</v>
+        <v>12.94999980926514</v>
       </c>
       <c r="B128">
-        <v>23.2189998626709</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="C128">
-        <v>22.39999961853027</v>
+        <v>12.42000007629395</v>
       </c>
       <c r="D128">
-        <v>22.48999977111816</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="E128">
-        <v>22.48999977111816</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="F128">
-        <v>27994100</v>
+        <v>47236900</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>22.5</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="B129">
-        <v>22.54999923706055</v>
+        <v>13.09000015258789</v>
       </c>
       <c r="C129">
-        <v>21.34199905395508</v>
+        <v>12.26500034332275</v>
       </c>
       <c r="D129">
-        <v>21.5</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="E129">
-        <v>21.5</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="F129">
-        <v>51039900</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>21.60000038146973</v>
-      </c>
-      <c r="B130">
-        <v>21.95999908447266</v>
-      </c>
-      <c r="C130">
-        <v>21.29999923706055</v>
-      </c>
-      <c r="D130">
-        <v>21.40999984741211</v>
-      </c>
-      <c r="E130">
-        <v>21.40999984741211</v>
-      </c>
-      <c r="F130">
-        <v>29866300</v>
+        <v>38566039</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/PLTR/HighLow.xlsx
+++ b/Stocks/PLTR/HighLow.xlsx
@@ -2912,7 +2912,7 @@
         <v>14.19999980926514</v>
       </c>
       <c r="F126">
-        <v>68847400</v>
+        <v>69012900</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2972,7 +2972,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="F129">
-        <v>38566039</v>
+        <v>38843600</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/PLTR/HighLow.xlsx
+++ b/Stocks/PLTR/HighLow.xlsx
@@ -417,1533 +417,1533 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>22.21999931335449</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="B2">
-        <v>22.77000045776367</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="C2">
-        <v>22.02000045776367</v>
+        <v>23.58499908447266</v>
       </c>
       <c r="D2">
-        <v>22.52000045776367</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="E2">
-        <v>22.52000045776367</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="F2">
-        <v>18575200</v>
+        <v>189287200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>22.63999938964844</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>22.69000053405762</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="C3">
-        <v>21.79000091552734</v>
+        <v>24.30999946594238</v>
       </c>
       <c r="D3">
-        <v>21.81999969482422</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="E3">
-        <v>21.81999969482422</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="F3">
-        <v>24107900</v>
+        <v>52242400</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>21.85000038146973</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="B4">
-        <v>23.28000068664551</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="C4">
-        <v>21.79999923706055</v>
+        <v>23.77000045776367</v>
       </c>
       <c r="D4">
-        <v>22.93000030517578</v>
+        <v>24.5</v>
       </c>
       <c r="E4">
-        <v>22.93000030517578</v>
+        <v>24.5</v>
       </c>
       <c r="F4">
-        <v>35611100</v>
+        <v>45907300</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>23.01000022888184</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="B5">
-        <v>23.52000045776367</v>
+        <v>24.59000015258789</v>
       </c>
       <c r="C5">
-        <v>22.78000068664551</v>
+        <v>23.73999977111816</v>
       </c>
       <c r="D5">
-        <v>22.92000007629395</v>
+        <v>23.96999931335449</v>
       </c>
       <c r="E5">
-        <v>22.92000007629395</v>
+        <v>23.96999931335449</v>
       </c>
       <c r="F5">
-        <v>25947900</v>
+        <v>35348300</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>23.06999969482422</v>
+        <v>24.06999969482422</v>
       </c>
       <c r="B6">
-        <v>23.19000053405762</v>
+        <v>25.94000053405762</v>
       </c>
       <c r="C6">
-        <v>22.09000015258789</v>
+        <v>23.68000030517578</v>
       </c>
       <c r="D6">
-        <v>22.35000038146973</v>
+        <v>25.28000068664551</v>
       </c>
       <c r="E6">
-        <v>22.35000038146973</v>
+        <v>25.28000068664551</v>
       </c>
       <c r="F6">
-        <v>34679000</v>
+        <v>92065600</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>24.45000076293945</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="B7">
-        <v>25.76000022888184</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="C7">
-        <v>23.58499908447266</v>
+        <v>24.13999938964844</v>
       </c>
       <c r="D7">
-        <v>24.88999938964844</v>
+        <v>24.15999984741211</v>
       </c>
       <c r="E7">
-        <v>24.88999938964844</v>
+        <v>24.15999984741211</v>
       </c>
       <c r="F7">
-        <v>189287200</v>
+        <v>67605600</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>25</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="B8">
-        <v>25.10000038146973</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="C8">
-        <v>24.30999946594238</v>
+        <v>23.65999984741211</v>
       </c>
       <c r="D8">
-        <v>24.89999961853027</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="E8">
-        <v>24.89999961853027</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="F8">
-        <v>52242400</v>
+        <v>51982200</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>24.89999961853027</v>
+        <v>24.02000045776367</v>
       </c>
       <c r="B9">
-        <v>24.89999961853027</v>
+        <v>24.93000030517578</v>
       </c>
       <c r="C9">
-        <v>23.77000045776367</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="D9">
-        <v>24.5</v>
+        <v>24.81999969482422</v>
       </c>
       <c r="E9">
-        <v>24.5</v>
+        <v>24.81999969482422</v>
       </c>
       <c r="F9">
-        <v>45907300</v>
+        <v>35705300</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>23.89999961853027</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>24.59000015258789</v>
+        <v>25.35000038146973</v>
       </c>
       <c r="C10">
-        <v>23.73999977111816</v>
+        <v>24.76000022888184</v>
       </c>
       <c r="D10">
-        <v>23.96999931335449</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="E10">
-        <v>23.96999931335449</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="F10">
-        <v>35348300</v>
+        <v>37227400</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
+        <v>25.1200008392334</v>
+      </c>
+      <c r="B11">
+        <v>25.19000053405762</v>
+      </c>
+      <c r="C11">
         <v>24.06999969482422</v>
       </c>
-      <c r="B11">
-        <v>25.94000053405762</v>
-      </c>
-      <c r="C11">
-        <v>23.68000030517578</v>
-      </c>
       <c r="D11">
-        <v>25.28000068664551</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="E11">
-        <v>25.28000068664551</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="F11">
-        <v>92065600</v>
+        <v>54678500</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>25.01000022888184</v>
+        <v>24.39999961853027</v>
       </c>
       <c r="B12">
-        <v>25.63999938964844</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="C12">
-        <v>24.13999938964844</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="D12">
-        <v>24.15999984741211</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="E12">
-        <v>24.15999984741211</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="F12">
-        <v>67605600</v>
+        <v>46179400</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>24.21999931335449</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="B13">
-        <v>24.47999954223633</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="C13">
-        <v>23.65999984741211</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="D13">
-        <v>24.01000022888184</v>
+        <v>25.70999908447266</v>
       </c>
       <c r="E13">
-        <v>24.01000022888184</v>
+        <v>25.70999908447266</v>
       </c>
       <c r="F13">
-        <v>51982200</v>
+        <v>52186500</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>24.02000045776367</v>
+        <v>25.73999977111816</v>
       </c>
       <c r="B14">
-        <v>24.93000030517578</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="C14">
-        <v>23.89999961853027</v>
+        <v>25.6200008392334</v>
       </c>
       <c r="D14">
-        <v>24.81999969482422</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="E14">
-        <v>24.81999969482422</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="F14">
-        <v>35705300</v>
+        <v>44139300</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>25</v>
+        <v>25.79000091552734</v>
       </c>
       <c r="B15">
-        <v>25.35000038146973</v>
+        <v>26.36000061035156</v>
       </c>
       <c r="C15">
-        <v>24.76000022888184</v>
+        <v>25.65999984741211</v>
       </c>
       <c r="D15">
-        <v>25.10000038146973</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="E15">
-        <v>25.10000038146973</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="F15">
-        <v>37227400</v>
+        <v>93168600</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>25.1200008392334</v>
+        <v>26.45999908447266</v>
       </c>
       <c r="B16">
-        <v>25.19000053405762</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="C16">
-        <v>24.06999969482422</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="D16">
-        <v>24.35000038146973</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="E16">
-        <v>24.35000038146973</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="F16">
-        <v>54678500</v>
+        <v>34417200</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>24.39999961853027</v>
+        <v>26.20999908447266</v>
       </c>
       <c r="B17">
-        <v>25.40999984741211</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="C17">
-        <v>24.36000061035156</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="D17">
-        <v>24.8700008392334</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="E17">
-        <v>24.8700008392334</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="F17">
-        <v>46179400</v>
+        <v>38460100</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>25.04999923706055</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="B18">
-        <v>26.09000015258789</v>
+        <v>26.75</v>
       </c>
       <c r="C18">
-        <v>24.90999984741211</v>
+        <v>26.21999931335449</v>
       </c>
       <c r="D18">
-        <v>25.70999908447266</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="E18">
-        <v>25.70999908447266</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="F18">
-        <v>52186500</v>
+        <v>26609500</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>25.73999977111816</v>
+        <v>26.79000091552734</v>
       </c>
       <c r="B19">
-        <v>26.60000038146973</v>
+        <v>26.8799991607666</v>
       </c>
       <c r="C19">
-        <v>25.6200008392334</v>
+        <v>26.27000045776367</v>
       </c>
       <c r="D19">
-        <v>25.76000022888184</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="E19">
-        <v>25.76000022888184</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="F19">
-        <v>44139300</v>
+        <v>35835100</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>25.79000091552734</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="B20">
-        <v>26.36000061035156</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="C20">
-        <v>25.65999984741211</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="D20">
-        <v>26.34000015258789</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="E20">
-        <v>26.34000015258789</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="F20">
-        <v>93168600</v>
+        <v>54394400</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>26.45999908447266</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="B21">
-        <v>26.51000022888184</v>
+        <v>26.23999977111816</v>
       </c>
       <c r="C21">
-        <v>26.03000068664551</v>
+        <v>25.29000091552734</v>
       </c>
       <c r="D21">
-        <v>26.20000076293945</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="E21">
-        <v>26.20000076293945</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="F21">
-        <v>34417200</v>
+        <v>34190800</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>26.20999908447266</v>
+        <v>26.18000030517578</v>
       </c>
       <c r="B22">
-        <v>26.8700008392334</v>
+        <v>26.72999954223633</v>
       </c>
       <c r="C22">
-        <v>26.09000015258789</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="D22">
-        <v>26.51000022888184</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="E22">
-        <v>26.51000022888184</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="F22">
-        <v>38460100</v>
+        <v>37215800</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>26.48999977111816</v>
+        <v>26.14999961853027</v>
       </c>
       <c r="B23">
-        <v>26.75</v>
+        <v>26.23900032043457</v>
       </c>
       <c r="C23">
-        <v>26.21999931335449</v>
+        <v>25.03000068664551</v>
       </c>
       <c r="D23">
-        <v>26.63999938964844</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="E23">
-        <v>26.63999938964844</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="F23">
-        <v>26609500</v>
+        <v>42372300</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>26.79000091552734</v>
+        <v>25.96999931335449</v>
       </c>
       <c r="B24">
-        <v>26.8799991607666</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="C24">
-        <v>26.27000045776367</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="D24">
-        <v>26.70000076293945</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="E24">
-        <v>26.70000076293945</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="F24">
-        <v>35835100</v>
+        <v>34569000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>26.60000038146973</v>
+        <v>26.29999923706055</v>
       </c>
       <c r="B25">
-        <v>26.61000061035156</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="C25">
-        <v>24.95999908447266</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="D25">
-        <v>25.57999992370605</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="E25">
-        <v>25.57999992370605</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="F25">
-        <v>54394400</v>
+        <v>49555500</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>25.38999938964844</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="B26">
-        <v>26.23999977111816</v>
+        <v>28.79000091552734</v>
       </c>
       <c r="C26">
-        <v>25.29000091552734</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="D26">
-        <v>26.1299991607666</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="E26">
-        <v>26.1299991607666</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="F26">
-        <v>34190800</v>
+        <v>109992000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>26.18000030517578</v>
+        <v>28.65999984741211</v>
       </c>
       <c r="B27">
-        <v>26.72999954223633</v>
+        <v>29.29000091552734</v>
       </c>
       <c r="C27">
-        <v>26.17000007629395</v>
+        <v>28.06999969482422</v>
       </c>
       <c r="D27">
-        <v>26.28000068664551</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="E27">
-        <v>26.28000068664551</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="F27">
-        <v>37215800</v>
+        <v>182052600</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>26.14999961853027</v>
+        <v>27.56999969482422</v>
       </c>
       <c r="B28">
-        <v>26.23900032043457</v>
+        <v>28.10000038146973</v>
       </c>
       <c r="C28">
-        <v>25.03000068664551</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="D28">
-        <v>25.82999992370605</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="E28">
-        <v>25.82999992370605</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="F28">
-        <v>42372300</v>
+        <v>89413500</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>25.96999931335449</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="B29">
-        <v>26.70000076293945</v>
+        <v>27.14900016784668</v>
       </c>
       <c r="C29">
-        <v>25.89999961853027</v>
+        <v>26.07999992370605</v>
       </c>
       <c r="D29">
-        <v>26.26000022888184</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="E29">
-        <v>26.26000022888184</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="F29">
-        <v>34569000</v>
+        <v>50933600</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>26.29999923706055</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="B30">
-        <v>27.14999961853027</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="C30">
-        <v>26.03000068664551</v>
+        <v>26.58200073242188</v>
       </c>
       <c r="D30">
-        <v>27.07999992370605</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="E30">
-        <v>27.07999992370605</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="F30">
-        <v>49555500</v>
+        <v>44308100</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>27.20000076293945</v>
+        <v>27.70999908447266</v>
       </c>
       <c r="B31">
-        <v>28.79000091552734</v>
+        <v>29.19000053405762</v>
       </c>
       <c r="C31">
-        <v>27.02000045776367</v>
+        <v>27.67000007629395</v>
       </c>
       <c r="D31">
-        <v>28.6299991607666</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="E31">
-        <v>28.6299991607666</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="F31">
-        <v>109992000</v>
+        <v>60028600</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>28.65999984741211</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="B32">
-        <v>29.29000091552734</v>
+        <v>28.76000022888184</v>
       </c>
       <c r="C32">
-        <v>28.06999969482422</v>
+        <v>27.90099906921387</v>
       </c>
       <c r="D32">
-        <v>28.70999908447266</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="E32">
-        <v>28.70999908447266</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="F32">
-        <v>182052600</v>
+        <v>40309700</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>27.56999969482422</v>
+        <v>28.22999954223633</v>
       </c>
       <c r="B33">
-        <v>28.10000038146973</v>
+        <v>28.3799991607666</v>
       </c>
       <c r="C33">
-        <v>26.05999946594238</v>
+        <v>27.22999954223633</v>
       </c>
       <c r="D33">
-        <v>26.54999923706055</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="E33">
-        <v>26.54999923706055</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="F33">
-        <v>89413500</v>
+        <v>44102800</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>26.88999938964844</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="B34">
-        <v>27.14900016784668</v>
+        <v>27.1299991607666</v>
       </c>
       <c r="C34">
-        <v>26.07999992370605</v>
+        <v>25.20999908447266</v>
       </c>
       <c r="D34">
-        <v>26.6200008392334</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="E34">
-        <v>26.6200008392334</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="F34">
-        <v>50933600</v>
+        <v>64206200</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>26.61000061035156</v>
+        <v>25.61000061035156</v>
       </c>
       <c r="B35">
-        <v>27.77000045776367</v>
+        <v>25.70000076293945</v>
       </c>
       <c r="C35">
-        <v>26.58200073242188</v>
+        <v>24.42000007629395</v>
       </c>
       <c r="D35">
-        <v>27.43000030517578</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="E35">
-        <v>27.43000030517578</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="F35">
-        <v>44308100</v>
+        <v>46164500</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>27.70999908447266</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="B36">
-        <v>29.19000053405762</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="C36">
-        <v>27.67000007629395</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="D36">
-        <v>28.77000045776367</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="E36">
-        <v>28.77000045776367</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="F36">
-        <v>60028600</v>
+        <v>59505600</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>28.27000045776367</v>
+        <v>24.20999908447266</v>
       </c>
       <c r="B37">
-        <v>28.76000022888184</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="C37">
-        <v>27.90099906921387</v>
+        <v>23.71999931335449</v>
       </c>
       <c r="D37">
-        <v>28.55999946594238</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="E37">
-        <v>28.55999946594238</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="F37">
-        <v>40309700</v>
+        <v>32778000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>28.22999954223633</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="B38">
-        <v>28.3799991607666</v>
+        <v>24.04999923706055</v>
       </c>
       <c r="C38">
-        <v>27.22999954223633</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="D38">
-        <v>27.46999931335449</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="E38">
-        <v>27.46999931335449</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="F38">
-        <v>44102800</v>
+        <v>46789700</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>27.02000045776367</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="B39">
-        <v>27.1299991607666</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="C39">
-        <v>25.20999908447266</v>
+        <v>23.06999969482422</v>
       </c>
       <c r="D39">
-        <v>25.34000015258789</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="E39">
-        <v>25.34000015258789</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="F39">
-        <v>64206200</v>
+        <v>56574800</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>25.61000061035156</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="B40">
-        <v>25.70000076293945</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="C40">
-        <v>24.42000007629395</v>
+        <v>23.35000038146973</v>
       </c>
       <c r="D40">
-        <v>24.52000045776367</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="E40">
-        <v>24.52000045776367</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="F40">
-        <v>46164500</v>
+        <v>125175700</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>24.69000053405762</v>
+        <v>23.70999908447266</v>
       </c>
       <c r="B41">
-        <v>25.04999923706055</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="C41">
-        <v>23.8799991607666</v>
+        <v>23.54000091552734</v>
       </c>
       <c r="D41">
-        <v>24.04000091552734</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="E41">
-        <v>24.04000091552734</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="F41">
-        <v>59505600</v>
+        <v>38873700</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>24.20999908447266</v>
+        <v>23.86000061035156</v>
       </c>
       <c r="B42">
-        <v>24.36000061035156</v>
+        <v>24.09600067138672</v>
       </c>
       <c r="C42">
-        <v>23.71999931335449</v>
+        <v>23.11000061035156</v>
       </c>
       <c r="D42">
-        <v>24.32999992370605</v>
+        <v>23.5</v>
       </c>
       <c r="E42">
-        <v>24.32999992370605</v>
+        <v>23.5</v>
       </c>
       <c r="F42">
-        <v>32778000</v>
+        <v>39630400</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>24.01000022888184</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="B43">
-        <v>24.04999923706055</v>
+        <v>23.97999954223633</v>
       </c>
       <c r="C43">
-        <v>23.02000045776367</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="D43">
-        <v>23.17000007629395</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="E43">
-        <v>23.17000007629395</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="F43">
-        <v>46789700</v>
+        <v>23971700</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>23.20999908447266</v>
+        <v>23.54999923706055</v>
       </c>
       <c r="B44">
-        <v>23.8799991607666</v>
+        <v>23.80999946594238</v>
       </c>
       <c r="C44">
-        <v>23.06999969482422</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="D44">
-        <v>23.20999908447266</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="E44">
-        <v>23.20999908447266</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="F44">
-        <v>56574800</v>
+        <v>26280000</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>24.90999984741211</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="B45">
-        <v>25.01000022888184</v>
+        <v>24.30999946594238</v>
       </c>
       <c r="C45">
-        <v>23.35000038146973</v>
+        <v>23.79000091552734</v>
       </c>
       <c r="D45">
-        <v>23.57999992370605</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="E45">
-        <v>23.57999992370605</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="F45">
-        <v>125175700</v>
+        <v>28494000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>23.70999908447266</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="B46">
-        <v>24.1299991607666</v>
+        <v>24.70999908447266</v>
       </c>
       <c r="C46">
-        <v>23.54000091552734</v>
+        <v>24.20499992370605</v>
       </c>
       <c r="D46">
-        <v>23.72999954223633</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="E46">
-        <v>23.72999954223633</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="F46">
-        <v>38873700</v>
+        <v>26106700</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>23.86000061035156</v>
+        <v>24.5</v>
       </c>
       <c r="B47">
-        <v>24.09600067138672</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="C47">
-        <v>23.11000061035156</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="D47">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="E47">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="F47">
-        <v>39630400</v>
+        <v>24275000</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>23.26000022888184</v>
+        <v>24</v>
       </c>
       <c r="B48">
-        <v>23.97999954223633</v>
+        <v>24.38999938964844</v>
       </c>
       <c r="C48">
-        <v>23.26000022888184</v>
+        <v>23.92000007629395</v>
       </c>
       <c r="D48">
-        <v>23.53000068664551</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="E48">
-        <v>23.53000068664551</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="F48">
-        <v>23971700</v>
+        <v>25609900</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>23.54999923706055</v>
+        <v>24.5</v>
       </c>
       <c r="B49">
-        <v>23.80999946594238</v>
+        <v>25.20000076293945</v>
       </c>
       <c r="C49">
-        <v>23.29000091552734</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="D49">
-        <v>23.69000053405762</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="E49">
-        <v>23.69000053405762</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="F49">
-        <v>26280000</v>
+        <v>29393900</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>23.82999992370605</v>
+        <v>24.79000091552734</v>
       </c>
       <c r="B50">
-        <v>24.30999946594238</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="C50">
-        <v>23.79000091552734</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="D50">
-        <v>24.1299991607666</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="E50">
-        <v>24.1299991607666</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="F50">
-        <v>28494000</v>
+        <v>24248000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>24.43000030517578</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="B51">
-        <v>24.70999908447266</v>
+        <v>24.93000030517578</v>
       </c>
       <c r="C51">
-        <v>24.20499992370605</v>
+        <v>24.07999992370605</v>
       </c>
       <c r="D51">
-        <v>24.35000038146973</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="E51">
-        <v>24.35000038146973</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="F51">
-        <v>26106700</v>
+        <v>23976600</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>24.5</v>
+        <v>24.48999977111816</v>
       </c>
       <c r="B52">
-        <v>24.52000045776367</v>
+        <v>24.85000038146973</v>
       </c>
       <c r="C52">
-        <v>23.82999992370605</v>
+        <v>24.25</v>
       </c>
       <c r="D52">
-        <v>24</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="E52">
-        <v>24</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="F52">
-        <v>24275000</v>
+        <v>20166800</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="B53">
-        <v>24.38999938964844</v>
+        <v>25.54000091552734</v>
       </c>
       <c r="C53">
-        <v>23.92000007629395</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="D53">
-        <v>24.26000022888184</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="E53">
-        <v>24.26000022888184</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="F53">
-        <v>25609900</v>
+        <v>33962100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>24.5</v>
+        <v>25.98999977111816</v>
       </c>
       <c r="B54">
-        <v>25.20000076293945</v>
+        <v>26.75</v>
       </c>
       <c r="C54">
-        <v>24.36000061035156</v>
+        <v>25.25</v>
       </c>
       <c r="D54">
-        <v>24.69000053405762</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="E54">
-        <v>24.69000053405762</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="F54">
-        <v>29393900</v>
+        <v>56767000</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>24.79000091552734</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="B55">
-        <v>24.95999908447266</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="C55">
-        <v>24.17000007629395</v>
+        <v>25.02000045776367</v>
       </c>
       <c r="D55">
-        <v>24.21999931335449</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="E55">
-        <v>24.21999931335449</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="F55">
-        <v>24248000</v>
+        <v>24157200</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>24.1299991607666</v>
+        <v>25.29999923706055</v>
       </c>
       <c r="B56">
-        <v>24.93000030517578</v>
+        <v>25.79500007629395</v>
       </c>
       <c r="C56">
-        <v>24.07999992370605</v>
+        <v>25.1200008392334</v>
       </c>
       <c r="D56">
-        <v>24.78000068664551</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="E56">
-        <v>24.78000068664551</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="F56">
-        <v>23976600</v>
+        <v>21203000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>24.48999977111816</v>
+        <v>25.5</v>
       </c>
       <c r="B57">
-        <v>24.85000038146973</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="C57">
-        <v>24.25</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="D57">
-        <v>24.43000030517578</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="E57">
-        <v>24.43000030517578</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="F57">
-        <v>20166800</v>
+        <v>21910300</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>24.5</v>
+        <v>26.11000061035156</v>
       </c>
       <c r="B58">
-        <v>25.54000091552734</v>
+        <v>26.64500045776367</v>
       </c>
       <c r="C58">
-        <v>24.47999954223633</v>
+        <v>25.88299942016602</v>
       </c>
       <c r="D58">
-        <v>25.40999984741211</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="E58">
-        <v>25.40999984741211</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="F58">
-        <v>33962100</v>
+        <v>26684700</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>25.98999977111816</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="B59">
-        <v>26.75</v>
+        <v>26.71999931335449</v>
       </c>
       <c r="C59">
-        <v>25.25</v>
+        <v>25.55500030517578</v>
       </c>
       <c r="D59">
-        <v>25.52000045776367</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="E59">
-        <v>25.52000045776367</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="F59">
-        <v>56767000</v>
+        <v>30794600</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>25.63999938964844</v>
+        <v>25.88999938964844</v>
       </c>
       <c r="B60">
-        <v>25.89999961853027</v>
+        <v>26.23500061035156</v>
       </c>
       <c r="C60">
-        <v>25.02000045776367</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="D60">
-        <v>25.05999946594238</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="E60">
-        <v>25.05999946594238</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="F60">
-        <v>24157200</v>
+        <v>25244200</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>25.29999923706055</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="B61">
-        <v>25.79500007629395</v>
+        <v>26.56999969482422</v>
       </c>
       <c r="C61">
-        <v>25.1200008392334</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="D61">
-        <v>25.63999938964844</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="E61">
-        <v>25.63999938964844</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="F61">
-        <v>21203000</v>
+        <v>25029700</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>25.5</v>
+        <v>26.45000076293945</v>
       </c>
       <c r="B62">
-        <v>26.1200008392334</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="C62">
-        <v>25.45000076293945</v>
+        <v>25.71999931335449</v>
       </c>
       <c r="D62">
-        <v>25.8799991607666</v>
+        <v>26</v>
       </c>
       <c r="E62">
-        <v>25.8799991607666</v>
+        <v>26</v>
       </c>
       <c r="F62">
-        <v>21910300</v>
+        <v>25929900</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>26.11000061035156</v>
+        <v>26.25</v>
       </c>
       <c r="B63">
-        <v>26.64500045776367</v>
+        <v>27.11000061035156</v>
       </c>
       <c r="C63">
-        <v>25.88299942016602</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="D63">
-        <v>26.55999946594238</v>
+        <v>26.75</v>
       </c>
       <c r="E63">
-        <v>26.55999946594238</v>
+        <v>26.75</v>
       </c>
       <c r="F63">
-        <v>26684700</v>
+        <v>41359600</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>26.55999946594238</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="B64">
-        <v>26.71999931335449</v>
+        <v>25.97999954223633</v>
       </c>
       <c r="C64">
-        <v>25.55500030517578</v>
+        <v>23.95000076293945</v>
       </c>
       <c r="D64">
-        <v>25.92000007629395</v>
+        <v>24.25</v>
       </c>
       <c r="E64">
-        <v>25.92000007629395</v>
+        <v>24.25</v>
       </c>
       <c r="F64">
-        <v>30794600</v>
+        <v>117540200</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>25.88999938964844</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="B65">
-        <v>26.23500061035156</v>
+        <v>23.63999938964844</v>
       </c>
       <c r="C65">
-        <v>25.17000007629395</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="D65">
-        <v>26.1200008392334</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="E65">
-        <v>26.1200008392334</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="F65">
-        <v>25244200</v>
+        <v>94860100</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>26.26000022888184</v>
+        <v>23.04000091552734</v>
       </c>
       <c r="B66">
-        <v>26.56999969482422</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="C66">
-        <v>25.8700008392334</v>
+        <v>22.66500091552734</v>
       </c>
       <c r="D66">
-        <v>26.46999931335449</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="E66">
-        <v>26.46999931335449</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="F66">
-        <v>25029700</v>
+        <v>43381500</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>26.45000076293945</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="B67">
-        <v>26.6299991607666</v>
+        <v>23.22500038146973</v>
       </c>
       <c r="C67">
-        <v>25.71999931335449</v>
+        <v>22.3799991607666</v>
       </c>
       <c r="D67">
-        <v>26</v>
+        <v>22.82999992370605</v>
       </c>
       <c r="E67">
-        <v>26</v>
+        <v>22.82999992370605</v>
       </c>
       <c r="F67">
-        <v>25929900</v>
+        <v>53440300</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>26.25</v>
+        <v>23</v>
       </c>
       <c r="B68">
-        <v>27.11000061035156</v>
+        <v>23.52000045776367</v>
       </c>
       <c r="C68">
-        <v>26.1200008392334</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="D68">
-        <v>26.75</v>
+        <v>23.40999984741211</v>
       </c>
       <c r="E68">
-        <v>26.75</v>
+        <v>23.40999984741211</v>
       </c>
       <c r="F68">
-        <v>41359600</v>
+        <v>33225700</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>25.89999961853027</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="B69">
-        <v>25.97999954223633</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="C69">
-        <v>23.95000076293945</v>
+        <v>22.61000061035156</v>
       </c>
       <c r="D69">
-        <v>24.25</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="E69">
-        <v>24.25</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="F69">
-        <v>117540200</v>
+        <v>31574800</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>23.60000038146973</v>
+        <v>23.04999923706055</v>
       </c>
       <c r="B70">
-        <v>23.63999938964844</v>
+        <v>23.2189998626709</v>
       </c>
       <c r="C70">
-        <v>22.1200008392334</v>
+        <v>22.39999961853027</v>
       </c>
       <c r="D70">
-        <v>22.52000045776367</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="E70">
-        <v>22.52000045776367</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="F70">
-        <v>94860100</v>
+        <v>27994100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>23.04000091552734</v>
+        <v>22.5</v>
       </c>
       <c r="B71">
-        <v>23.1299991607666</v>
+        <v>22.54999923706055</v>
       </c>
       <c r="C71">
-        <v>22.66500091552734</v>
+        <v>21.34199905395508</v>
       </c>
       <c r="D71">
-        <v>22.98999977111816</v>
+        <v>21.5</v>
       </c>
       <c r="E71">
-        <v>22.98999977111816</v>
+        <v>21.5</v>
       </c>
       <c r="F71">
-        <v>43381500</v>
+        <v>51039900</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>23.02000045776367</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="B72">
-        <v>23.22500038146973</v>
+        <v>21.95999908447266</v>
       </c>
       <c r="C72">
-        <v>22.3799991607666</v>
+        <v>21.29999923706055</v>
       </c>
       <c r="D72">
-        <v>22.82999992370605</v>
+        <v>21.40999984741211</v>
       </c>
       <c r="E72">
-        <v>22.82999992370605</v>
+        <v>21.40999984741211</v>
       </c>
       <c r="F72">
-        <v>53440300</v>
+        <v>30013100</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>23</v>
+        <v>21.53000068664551</v>
       </c>
       <c r="B73">
-        <v>23.52000045776367</v>
+        <v>21.56999969482422</v>
       </c>
       <c r="C73">
-        <v>22.95000076293945</v>
+        <v>20.18000030517578</v>
       </c>
       <c r="D73">
-        <v>23.40999984741211</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="E73">
-        <v>23.40999984741211</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="F73">
-        <v>33225700</v>
+        <v>59899100</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>23.29000091552734</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="B74">
-        <v>23.29000091552734</v>
+        <v>21.04999923706055</v>
       </c>
       <c r="C74">
-        <v>22.61000061035156</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="D74">
-        <v>23.1299991607666</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="E74">
-        <v>23.1299991607666</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="F74">
-        <v>31574800</v>
+        <v>44588000</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>23.04999923706055</v>
+        <v>20.35000038146973</v>
       </c>
       <c r="B75">
-        <v>23.2189998626709</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="C75">
-        <v>22.39999961853027</v>
+        <v>20.05999946594238</v>
       </c>
       <c r="D75">
-        <v>22.48999977111816</v>
+        <v>21.11000061035156</v>
       </c>
       <c r="E75">
-        <v>22.48999977111816</v>
+        <v>21.11000061035156</v>
       </c>
       <c r="F75">
-        <v>27994100</v>
+        <v>35233900</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>22.5</v>
+        <v>20.40999984741211</v>
       </c>
       <c r="B76">
-        <v>22.54999923706055</v>
+        <v>21.09000015258789</v>
       </c>
       <c r="C76">
-        <v>21.34199905395508</v>
+        <v>20.34900093078613</v>
       </c>
       <c r="D76">
-        <v>21.5</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="E76">
-        <v>21.5</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="F76">
-        <v>51039900</v>
+        <v>20691200</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>21.60000038146973</v>
+        <v>21.19000053405762</v>
       </c>
       <c r="B77">
-        <v>21.95999908447266</v>
+        <v>21.39999961853027</v>
       </c>
       <c r="C77">
-        <v>21.29999923706055</v>
+        <v>20.55999946594238</v>
       </c>
       <c r="D77">
-        <v>21.40999984741211</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="E77">
-        <v>21.40999984741211</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="F77">
-        <v>30013100</v>
+        <v>29114000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>21.53000068664551</v>
+        <v>20.95000076293945</v>
       </c>
       <c r="B78">
-        <v>21.56999969482422</v>
+        <v>21.25</v>
       </c>
       <c r="C78">
-        <v>20.18000030517578</v>
+        <v>20.11000061035156</v>
       </c>
       <c r="D78">
         <v>20.64999961853027</v>
@@ -1952,1027 +1952,1027 @@
         <v>20.64999961853027</v>
       </c>
       <c r="F78">
-        <v>59899100</v>
+        <v>38196400</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>20.59000015258789</v>
+        <v>20.53000068664551</v>
       </c>
       <c r="B79">
-        <v>21.04999923706055</v>
+        <v>20.88999938964844</v>
       </c>
       <c r="C79">
-        <v>20.04999923706055</v>
+        <v>19.29000091552734</v>
       </c>
       <c r="D79">
-        <v>20.59000015258789</v>
+        <v>19.3799991607666</v>
       </c>
       <c r="E79">
-        <v>20.59000015258789</v>
+        <v>19.3799991607666</v>
       </c>
       <c r="F79">
-        <v>44588000</v>
+        <v>48283700</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>20.35000038146973</v>
+        <v>19.29999923706055</v>
       </c>
       <c r="B80">
-        <v>21.20000076293945</v>
+        <v>19.90999984741211</v>
       </c>
       <c r="C80">
-        <v>20.05999946594238</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="D80">
-        <v>21.11000061035156</v>
+        <v>19.69000053405762</v>
       </c>
       <c r="E80">
-        <v>21.11000061035156</v>
+        <v>19.69000053405762</v>
       </c>
       <c r="F80">
-        <v>35233900</v>
+        <v>45802900</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>20.40999984741211</v>
+        <v>19.5</v>
       </c>
       <c r="B81">
-        <v>21.09000015258789</v>
+        <v>19.53000068664551</v>
       </c>
       <c r="C81">
-        <v>20.34900093078613</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="D81">
-        <v>21.03000068664551</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="E81">
-        <v>21.03000068664551</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="F81">
-        <v>20691200</v>
+        <v>55926700</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>21.19000053405762</v>
+        <v>18.54000091552734</v>
       </c>
       <c r="B82">
-        <v>21.39999961853027</v>
+        <v>18.96999931335449</v>
       </c>
       <c r="C82">
-        <v>20.55999946594238</v>
+        <v>18.07500076293945</v>
       </c>
       <c r="D82">
-        <v>21.06999969482422</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="E82">
-        <v>21.06999969482422</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="F82">
-        <v>29114000</v>
+        <v>56459800</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>20.95000076293945</v>
+        <v>19.26000022888184</v>
       </c>
       <c r="B83">
-        <v>21.25</v>
+        <v>19.85499954223633</v>
       </c>
       <c r="C83">
-        <v>20.11000061035156</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="D83">
-        <v>20.64999961853027</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="E83">
-        <v>20.64999961853027</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="F83">
-        <v>38196400</v>
+        <v>35129000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>20.53000068664551</v>
+        <v>19.51000022888184</v>
       </c>
       <c r="B84">
-        <v>20.88999938964844</v>
+        <v>19.82500076293945</v>
       </c>
       <c r="C84">
-        <v>19.29000091552734</v>
+        <v>19.03000068664551</v>
       </c>
       <c r="D84">
-        <v>19.3799991607666</v>
+        <v>19.81999969482422</v>
       </c>
       <c r="E84">
-        <v>19.3799991607666</v>
+        <v>19.81999969482422</v>
       </c>
       <c r="F84">
-        <v>48283700</v>
+        <v>28425900</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19.29999923706055</v>
+        <v>19.95000076293945</v>
       </c>
       <c r="B85">
-        <v>19.90999984741211</v>
+        <v>20.14999961853027</v>
       </c>
       <c r="C85">
-        <v>19.05999946594238</v>
+        <v>19.04000091552734</v>
       </c>
       <c r="D85">
-        <v>19.69000053405762</v>
+        <v>19.20999908447266</v>
       </c>
       <c r="E85">
-        <v>19.69000053405762</v>
+        <v>19.20999908447266</v>
       </c>
       <c r="F85">
-        <v>45802900</v>
+        <v>30354700</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>19.5</v>
+        <v>19.28000068664551</v>
       </c>
       <c r="B86">
-        <v>19.53000068664551</v>
+        <v>19.57999992370605</v>
       </c>
       <c r="C86">
-        <v>18.39999961853027</v>
+        <v>18.70000076293945</v>
       </c>
       <c r="D86">
-        <v>18.97999954223633</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="E86">
-        <v>18.97999954223633</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="F86">
-        <v>55926700</v>
+        <v>27550300</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>18.54000091552734</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="B87">
-        <v>18.96999931335449</v>
+        <v>19.07500076293945</v>
       </c>
       <c r="C87">
-        <v>18.07500076293945</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="D87">
-        <v>18.79999923706055</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="E87">
-        <v>18.79999923706055</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="F87">
-        <v>56459800</v>
+        <v>38376000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>19.26000022888184</v>
+        <v>18</v>
       </c>
       <c r="B88">
-        <v>19.85499954223633</v>
+        <v>18.85899925231934</v>
       </c>
       <c r="C88">
-        <v>19.06999969482422</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="D88">
-        <v>19.45999908447266</v>
+        <v>18.63999938964844</v>
       </c>
       <c r="E88">
-        <v>19.45999908447266</v>
+        <v>18.63999938964844</v>
       </c>
       <c r="F88">
-        <v>35129000</v>
+        <v>38864800</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19.51000022888184</v>
+        <v>18.3700008392334</v>
       </c>
       <c r="B89">
-        <v>19.82500076293945</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="C89">
-        <v>19.03000068664551</v>
+        <v>17.9950008392334</v>
       </c>
       <c r="D89">
-        <v>19.81999969482422</v>
+        <v>18.86000061035156</v>
       </c>
       <c r="E89">
-        <v>19.81999969482422</v>
+        <v>18.86000061035156</v>
       </c>
       <c r="F89">
-        <v>28425900</v>
+        <v>39361900</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>19.95000076293945</v>
+        <v>18.95999908447266</v>
       </c>
       <c r="B90">
-        <v>20.14999961853027</v>
+        <v>19.1200008392334</v>
       </c>
       <c r="C90">
-        <v>19.04000091552734</v>
+        <v>18.14999961853027</v>
       </c>
       <c r="D90">
-        <v>19.20999908447266</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="E90">
-        <v>19.20999908447266</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="F90">
-        <v>30354700</v>
+        <v>33950000</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>19.28000068664551</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="B91">
-        <v>19.57999992370605</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="C91">
-        <v>18.70000076293945</v>
+        <v>17.80999946594238</v>
       </c>
       <c r="D91">
-        <v>18.94000053405762</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="E91">
-        <v>18.94000053405762</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="F91">
-        <v>27550300</v>
+        <v>44325900</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>18.79999923706055</v>
+        <v>18.59000015258789</v>
       </c>
       <c r="B92">
-        <v>19.07500076293945</v>
+        <v>18.67000007629395</v>
       </c>
       <c r="C92">
-        <v>18.17000007629395</v>
+        <v>17.83499908447266</v>
       </c>
       <c r="D92">
-        <v>18.39999961853027</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="E92">
-        <v>18.39999961853027</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="F92">
-        <v>38376000</v>
+        <v>42265900</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>18</v>
+        <v>18.15999984741211</v>
       </c>
       <c r="B93">
-        <v>18.85899925231934</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="C93">
-        <v>17.90999984741211</v>
+        <v>18.10000038146973</v>
       </c>
       <c r="D93">
-        <v>18.63999938964844</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="E93">
-        <v>18.63999938964844</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="F93">
-        <v>38864800</v>
+        <v>33878600</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>18.3700008392334</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="B94">
-        <v>18.94000053405762</v>
+        <v>19.45000076293945</v>
       </c>
       <c r="C94">
-        <v>17.9950008392334</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="D94">
-        <v>18.86000061035156</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="E94">
-        <v>18.86000061035156</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="F94">
-        <v>39361900</v>
+        <v>33894200</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>18.95999908447266</v>
+        <v>18.85000038146973</v>
       </c>
       <c r="B95">
-        <v>19.1200008392334</v>
+        <v>19.13500022888184</v>
       </c>
       <c r="C95">
-        <v>18.14999961853027</v>
+        <v>18.71999931335449</v>
       </c>
       <c r="D95">
-        <v>18.34000015258789</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="E95">
-        <v>18.34000015258789</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="F95">
-        <v>33950000</v>
+        <v>24758300</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>18.03000068664551</v>
+        <v>18.78000068664551</v>
       </c>
       <c r="B96">
-        <v>19.10000038146973</v>
+        <v>19.25</v>
       </c>
       <c r="C96">
-        <v>17.80999946594238</v>
+        <v>18.78000068664551</v>
       </c>
       <c r="D96">
-        <v>19.05999946594238</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="E96">
-        <v>19.05999946594238</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="F96">
-        <v>44325900</v>
+        <v>21782000</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>18.59000015258789</v>
+        <v>18.88999938964844</v>
       </c>
       <c r="B97">
-        <v>18.67000007629395</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="C97">
-        <v>17.83499908447266</v>
+        <v>18.44000053405762</v>
       </c>
       <c r="D97">
-        <v>17.95999908447266</v>
+        <v>18.56999969482422</v>
       </c>
       <c r="E97">
-        <v>17.95999908447266</v>
+        <v>18.56999969482422</v>
       </c>
       <c r="F97">
-        <v>42265900</v>
+        <v>20518800</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>18.15999984741211</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="B98">
-        <v>18.97999954223633</v>
+        <v>18.60000038146973</v>
       </c>
       <c r="C98">
-        <v>18.10000038146973</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="D98">
-        <v>18.89999961853027</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="E98">
-        <v>18.89999961853027</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="F98">
-        <v>33878600</v>
+        <v>28217500</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>18.64999961853027</v>
+        <v>18.10000038146973</v>
       </c>
       <c r="B99">
-        <v>19.45000076293945</v>
+        <v>18.9950008392334</v>
       </c>
       <c r="C99">
-        <v>18.64999961853027</v>
+        <v>18.06999969482422</v>
       </c>
       <c r="D99">
-        <v>18.8799991607666</v>
+        <v>18.69000053405762</v>
       </c>
       <c r="E99">
-        <v>18.8799991607666</v>
+        <v>18.69000053405762</v>
       </c>
       <c r="F99">
-        <v>33894200</v>
+        <v>29285200</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>18.85000038146973</v>
+        <v>18.61000061035156</v>
       </c>
       <c r="B100">
-        <v>19.13500022888184</v>
+        <v>18.92000007629395</v>
       </c>
       <c r="C100">
-        <v>18.71999931335449</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="D100">
-        <v>18.93000030517578</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="E100">
-        <v>18.93000030517578</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="F100">
-        <v>24758300</v>
+        <v>23556000</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>18.78000068664551</v>
+        <v>18.36000061035156</v>
       </c>
       <c r="B101">
-        <v>19.25</v>
+        <v>18.56900024414062</v>
       </c>
       <c r="C101">
-        <v>18.78000068664551</v>
+        <v>17.86000061035156</v>
       </c>
       <c r="D101">
-        <v>18.94000053405762</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="E101">
-        <v>18.94000053405762</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="F101">
-        <v>21782000</v>
+        <v>34283600</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>18.88999938964844</v>
+        <v>18.61000061035156</v>
       </c>
       <c r="B102">
-        <v>19.06999969482422</v>
+        <v>18.84000015258789</v>
       </c>
       <c r="C102">
-        <v>18.44000053405762</v>
+        <v>17.79000091552734</v>
       </c>
       <c r="D102">
-        <v>18.56999969482422</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="E102">
-        <v>18.56999969482422</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="F102">
-        <v>20518800</v>
+        <v>39643200</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>18.53000068664551</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="B103">
-        <v>18.60000038146973</v>
+        <v>18.56800079345703</v>
       </c>
       <c r="C103">
-        <v>17.90999984741211</v>
+        <v>16.8700008392334</v>
       </c>
       <c r="D103">
-        <v>18.17000007629395</v>
+        <v>16.95999908447266</v>
       </c>
       <c r="E103">
-        <v>18.17000007629395</v>
+        <v>16.95999908447266</v>
       </c>
       <c r="F103">
-        <v>28217500</v>
+        <v>58445900</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>18.10000038146973</v>
+        <v>16.8700008392334</v>
       </c>
       <c r="B104">
-        <v>18.9950008392334</v>
+        <v>17.18000030517578</v>
       </c>
       <c r="C104">
-        <v>18.06999969482422</v>
+        <v>16.05500030517578</v>
       </c>
       <c r="D104">
-        <v>18.69000053405762</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="E104">
-        <v>18.69000053405762</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="F104">
-        <v>29285200</v>
+        <v>49737100</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>18.61000061035156</v>
+        <v>16.70000076293945</v>
       </c>
       <c r="B105">
-        <v>18.92000007629395</v>
+        <v>17.32999992370605</v>
       </c>
       <c r="C105">
-        <v>18.20999908447266</v>
+        <v>16.47500038146973</v>
       </c>
       <c r="D105">
-        <v>18.20999908447266</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="E105">
-        <v>18.20999908447266</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="F105">
-        <v>23556000</v>
+        <v>37696500</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>18.36000061035156</v>
+        <v>16.19000053405762</v>
       </c>
       <c r="B106">
-        <v>18.56900024414062</v>
+        <v>16.56999969482422</v>
       </c>
       <c r="C106">
-        <v>17.86000061035156</v>
+        <v>15.35000038146973</v>
       </c>
       <c r="D106">
-        <v>18.53000068664551</v>
+        <v>16.5</v>
       </c>
       <c r="E106">
-        <v>18.53000068664551</v>
+        <v>16.5</v>
       </c>
       <c r="F106">
-        <v>34283600</v>
+        <v>77649400</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>18.61000061035156</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="B107">
-        <v>18.84000015258789</v>
+        <v>17.25</v>
       </c>
       <c r="C107">
-        <v>17.79000091552734</v>
+        <v>16.31999969482422</v>
       </c>
       <c r="D107">
-        <v>18.17000007629395</v>
+        <v>16.88999938964844</v>
       </c>
       <c r="E107">
-        <v>18.17000007629395</v>
+        <v>16.88999938964844</v>
       </c>
       <c r="F107">
-        <v>39643200</v>
+        <v>47442600</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>18.03000068664551</v>
+        <v>17.15999984741211</v>
       </c>
       <c r="B108">
-        <v>18.56800079345703</v>
+        <v>17.45999908447266</v>
       </c>
       <c r="C108">
-        <v>16.8700008392334</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="D108">
-        <v>16.95999908447266</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="E108">
-        <v>16.95999908447266</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="F108">
-        <v>58445900</v>
+        <v>39784200</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>16.8700008392334</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="B109">
-        <v>17.18000030517578</v>
+        <v>16.81999969482422</v>
       </c>
       <c r="C109">
-        <v>16.05500030517578</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="D109">
-        <v>16.73999977111816</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E109">
-        <v>16.73999977111816</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="F109">
-        <v>49737100</v>
+        <v>35492200</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>16.70000076293945</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="B110">
-        <v>17.32999992370605</v>
+        <v>16.24900054931641</v>
       </c>
       <c r="C110">
-        <v>16.47500038146973</v>
+        <v>15.61999988555908</v>
       </c>
       <c r="D110">
-        <v>16.55999946594238</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E110">
-        <v>16.55999946594238</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="F110">
-        <v>37696500</v>
+        <v>35548200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>16.19000053405762</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="B111">
-        <v>16.56999969482422</v>
+        <v>15.75</v>
       </c>
       <c r="C111">
-        <v>15.35000038146973</v>
+        <v>14.92000007629395</v>
       </c>
       <c r="D111">
-        <v>16.5</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="E111">
-        <v>16.5</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="F111">
-        <v>77649400</v>
+        <v>49067700</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>16.39999961853027</v>
+        <v>14.89999961853027</v>
       </c>
       <c r="B112">
-        <v>17.25</v>
+        <v>15.25</v>
       </c>
       <c r="C112">
-        <v>16.31999969482422</v>
+        <v>14.53999996185303</v>
       </c>
       <c r="D112">
-        <v>16.88999938964844</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="E112">
-        <v>16.88999938964844</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="F112">
-        <v>47442600</v>
+        <v>48049100</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>17.15999984741211</v>
+        <v>14.89000034332275</v>
       </c>
       <c r="B113">
-        <v>17.45999908447266</v>
+        <v>15.55000019073486</v>
       </c>
       <c r="C113">
-        <v>16.39999961853027</v>
+        <v>14.56999969482422</v>
       </c>
       <c r="D113">
-        <v>16.71999931335449</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="E113">
-        <v>16.71999931335449</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="F113">
-        <v>39784200</v>
+        <v>44690400</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>16.79999923706055</v>
+        <v>14.25</v>
       </c>
       <c r="B114">
-        <v>16.81999969482422</v>
+        <v>14.47799968719482</v>
       </c>
       <c r="C114">
-        <v>15.9399995803833</v>
+        <v>13.5</v>
       </c>
       <c r="D114">
-        <v>16.01000022888184</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="E114">
-        <v>16.01000022888184</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="F114">
-        <v>35492200</v>
+        <v>73031300</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>15.9399995803833</v>
+        <v>12.78999996185303</v>
       </c>
       <c r="B115">
-        <v>16.24900054931641</v>
+        <v>13.40999984741211</v>
       </c>
       <c r="C115">
-        <v>15.61999988555908</v>
+        <v>11.75</v>
       </c>
       <c r="D115">
-        <v>16.01000022888184</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="E115">
-        <v>16.01000022888184</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="F115">
-        <v>35548200</v>
+        <v>110518900</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>15.44999980926514</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="B116">
-        <v>15.75</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="C116">
-        <v>14.92000007629395</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="D116">
-        <v>14.97000026702881</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="E116">
-        <v>14.97000026702881</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="F116">
-        <v>49067700</v>
+        <v>47456600</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>14.89999961853027</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="B117">
-        <v>15.25</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="C117">
-        <v>14.53999996185303</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="D117">
-        <v>14.5600004196167</v>
+        <v>12.75</v>
       </c>
       <c r="E117">
-        <v>14.5600004196167</v>
+        <v>12.75</v>
       </c>
       <c r="F117">
-        <v>48049100</v>
+        <v>69949700</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>14.89000034332275</v>
+        <v>13.01000022888184</v>
       </c>
       <c r="B118">
-        <v>15.55000019073486</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="C118">
-        <v>14.56999969482422</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="D118">
-        <v>14.61999988555908</v>
+        <v>12.27999973297119</v>
       </c>
       <c r="E118">
-        <v>14.61999988555908</v>
+        <v>12.27999973297119</v>
       </c>
       <c r="F118">
-        <v>44690400</v>
+        <v>52622900</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>14.25</v>
+        <v>12.30000019073486</v>
       </c>
       <c r="B119">
-        <v>14.47799968719482</v>
+        <v>12.88000011444092</v>
       </c>
       <c r="C119">
-        <v>13.5</v>
+        <v>11.89000034332275</v>
       </c>
       <c r="D119">
-        <v>13.52999973297119</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="E119">
-        <v>13.52999973297119</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="F119">
-        <v>73031300</v>
+        <v>54887500</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>12.78999996185303</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="B120">
-        <v>13.40999984741211</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="C120">
-        <v>11.75</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="D120">
-        <v>13.39999961853027</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="E120">
-        <v>13.39999961853027</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="F120">
-        <v>110518900</v>
+        <v>51039300</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>13.11999988555908</v>
+        <v>14.22999954223633</v>
       </c>
       <c r="B121">
-        <v>13.60000038146973</v>
+        <v>14.36999988555908</v>
       </c>
       <c r="C121">
-        <v>12.82999992370605</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="D121">
-        <v>13.0600004196167</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="E121">
-        <v>13.0600004196167</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="F121">
-        <v>47456600</v>
+        <v>69012900</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>13.60000038146973</v>
+        <v>14.09000015258789</v>
       </c>
       <c r="B122">
-        <v>13.81999969482422</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="C122">
-        <v>12.68000030517578</v>
+        <v>13.1899995803833</v>
       </c>
       <c r="D122">
-        <v>12.75</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="E122">
-        <v>12.75</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="F122">
-        <v>69949700</v>
+        <v>47204300</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>13.01000022888184</v>
+        <v>12.94999980926514</v>
       </c>
       <c r="B123">
-        <v>13.0600004196167</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="C123">
-        <v>12.19999980926514</v>
+        <v>12.42000007629395</v>
       </c>
       <c r="D123">
-        <v>12.27999973297119</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="E123">
-        <v>12.27999973297119</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="F123">
-        <v>52622900</v>
+        <v>47236900</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>12.30000019073486</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="B124">
-        <v>12.88000011444092</v>
+        <v>13.09000015258789</v>
       </c>
       <c r="C124">
-        <v>11.89000034332275</v>
+        <v>12.26500034332275</v>
       </c>
       <c r="D124">
-        <v>12.71000003814697</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="E124">
-        <v>12.71000003814697</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="F124">
-        <v>54887500</v>
+        <v>38843600</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>12.77000045776367</v>
+        <v>13.02499961853027</v>
       </c>
       <c r="B125">
-        <v>13.73999977111816</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="C125">
-        <v>12.76000022888184</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="D125">
-        <v>13.71000003814697</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="E125">
-        <v>13.71000003814697</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="F125">
-        <v>51039300</v>
+        <v>45646100</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>14.22999954223633</v>
+        <v>12.75</v>
       </c>
       <c r="B126">
-        <v>14.36999988555908</v>
+        <v>13.18900012969971</v>
       </c>
       <c r="C126">
-        <v>13.5600004196167</v>
+        <v>12.61999988555908</v>
       </c>
       <c r="D126">
-        <v>14.19999980926514</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="E126">
-        <v>14.19999980926514</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="F126">
-        <v>69012900</v>
+        <v>30317100</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>14.09000015258789</v>
+        <v>13.28999996185303</v>
       </c>
       <c r="B127">
-        <v>14.19999980926514</v>
+        <v>13.89000034332275</v>
       </c>
       <c r="C127">
-        <v>13.1899995803833</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="D127">
-        <v>13.31999969482422</v>
+        <v>13.86999988555908</v>
       </c>
       <c r="E127">
-        <v>13.31999969482422</v>
+        <v>13.86999988555908</v>
       </c>
       <c r="F127">
-        <v>47204300</v>
+        <v>34451900</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>12.94999980926514</v>
+        <v>13.5</v>
       </c>
       <c r="B128">
-        <v>13.31999969482422</v>
+        <v>14.16499996185303</v>
       </c>
       <c r="C128">
-        <v>12.42000007629395</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="D128">
-        <v>12.44999980926514</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="E128">
-        <v>12.44999980926514</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="F128">
-        <v>47236900</v>
+        <v>41998200</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>12.47000026702881</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="B129">
-        <v>13.09000015258789</v>
+        <v>13.92000007629395</v>
       </c>
       <c r="C129">
-        <v>12.26500034332275</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="D129">
-        <v>12.9399995803833</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="E129">
-        <v>12.9399995803833</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="F129">
-        <v>38843600</v>
+        <v>41746500</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/PLTR/HighLow.xlsx
+++ b/Stocks/PLTR/HighLow.xlsx
@@ -417,1433 +417,1433 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>24.45000076293945</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="B2">
-        <v>25.76000022888184</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="C2">
-        <v>23.58499908447266</v>
+        <v>24.13999938964844</v>
       </c>
       <c r="D2">
-        <v>24.88999938964844</v>
+        <v>24.15999984741211</v>
       </c>
       <c r="E2">
-        <v>24.88999938964844</v>
+        <v>24.15999984741211</v>
       </c>
       <c r="F2">
-        <v>189287200</v>
+        <v>67605600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>25</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="B3">
-        <v>25.10000038146973</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="C3">
-        <v>24.30999946594238</v>
+        <v>23.65999984741211</v>
       </c>
       <c r="D3">
-        <v>24.89999961853027</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="E3">
-        <v>24.89999961853027</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="F3">
-        <v>52242400</v>
+        <v>51982200</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>24.89999961853027</v>
+        <v>24.02000045776367</v>
       </c>
       <c r="B4">
-        <v>24.89999961853027</v>
+        <v>24.93000030517578</v>
       </c>
       <c r="C4">
-        <v>23.77000045776367</v>
+        <v>23.89999961853027</v>
       </c>
       <c r="D4">
-        <v>24.5</v>
+        <v>24.81999969482422</v>
       </c>
       <c r="E4">
-        <v>24.5</v>
+        <v>24.81999969482422</v>
       </c>
       <c r="F4">
-        <v>45907300</v>
+        <v>35705300</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>23.89999961853027</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>24.59000015258789</v>
+        <v>25.35000038146973</v>
       </c>
       <c r="C5">
-        <v>23.73999977111816</v>
+        <v>24.76000022888184</v>
       </c>
       <c r="D5">
-        <v>23.96999931335449</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="E5">
-        <v>23.96999931335449</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="F5">
-        <v>35348300</v>
+        <v>37227400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
+        <v>25.1200008392334</v>
+      </c>
+      <c r="B6">
+        <v>25.19000053405762</v>
+      </c>
+      <c r="C6">
         <v>24.06999969482422</v>
       </c>
-      <c r="B6">
-        <v>25.94000053405762</v>
-      </c>
-      <c r="C6">
-        <v>23.68000030517578</v>
-      </c>
       <c r="D6">
-        <v>25.28000068664551</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="E6">
-        <v>25.28000068664551</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="F6">
-        <v>92065600</v>
+        <v>54678500</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>25.01000022888184</v>
+        <v>24.39999961853027</v>
       </c>
       <c r="B7">
-        <v>25.63999938964844</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="C7">
-        <v>24.13999938964844</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="D7">
-        <v>24.15999984741211</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="E7">
-        <v>24.15999984741211</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="F7">
-        <v>67605600</v>
+        <v>46179400</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>24.21999931335449</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="B8">
-        <v>24.47999954223633</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="C8">
-        <v>23.65999984741211</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="D8">
-        <v>24.01000022888184</v>
+        <v>25.70999908447266</v>
       </c>
       <c r="E8">
-        <v>24.01000022888184</v>
+        <v>25.70999908447266</v>
       </c>
       <c r="F8">
-        <v>51982200</v>
+        <v>52186500</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>24.02000045776367</v>
+        <v>25.73999977111816</v>
       </c>
       <c r="B9">
-        <v>24.93000030517578</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="C9">
-        <v>23.89999961853027</v>
+        <v>25.6200008392334</v>
       </c>
       <c r="D9">
-        <v>24.81999969482422</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="E9">
-        <v>24.81999969482422</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="F9">
-        <v>35705300</v>
+        <v>44139300</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>25</v>
+        <v>25.79000091552734</v>
       </c>
       <c r="B10">
-        <v>25.35000038146973</v>
+        <v>26.36000061035156</v>
       </c>
       <c r="C10">
-        <v>24.76000022888184</v>
+        <v>25.65999984741211</v>
       </c>
       <c r="D10">
-        <v>25.10000038146973</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="E10">
-        <v>25.10000038146973</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="F10">
-        <v>37227400</v>
+        <v>93168600</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>25.1200008392334</v>
+        <v>26.45999908447266</v>
       </c>
       <c r="B11">
-        <v>25.19000053405762</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="C11">
-        <v>24.06999969482422</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="D11">
-        <v>24.35000038146973</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="E11">
-        <v>24.35000038146973</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="F11">
-        <v>54678500</v>
+        <v>34417200</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>24.39999961853027</v>
+        <v>26.20999908447266</v>
       </c>
       <c r="B12">
-        <v>25.40999984741211</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="C12">
-        <v>24.36000061035156</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="D12">
-        <v>24.8700008392334</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="E12">
-        <v>24.8700008392334</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="F12">
-        <v>46179400</v>
+        <v>38460100</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>25.04999923706055</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="B13">
-        <v>26.09000015258789</v>
+        <v>26.75</v>
       </c>
       <c r="C13">
-        <v>24.90999984741211</v>
+        <v>26.21999931335449</v>
       </c>
       <c r="D13">
-        <v>25.70999908447266</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="E13">
-        <v>25.70999908447266</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="F13">
-        <v>52186500</v>
+        <v>26609500</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>25.73999977111816</v>
+        <v>26.79000091552734</v>
       </c>
       <c r="B14">
-        <v>26.60000038146973</v>
+        <v>26.8799991607666</v>
       </c>
       <c r="C14">
-        <v>25.6200008392334</v>
+        <v>26.27000045776367</v>
       </c>
       <c r="D14">
-        <v>25.76000022888184</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="E14">
-        <v>25.76000022888184</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="F14">
-        <v>44139300</v>
+        <v>35835100</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>25.79000091552734</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="B15">
-        <v>26.36000061035156</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="C15">
-        <v>25.65999984741211</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="D15">
-        <v>26.34000015258789</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="E15">
-        <v>26.34000015258789</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="F15">
-        <v>93168600</v>
+        <v>54394400</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>26.45999908447266</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="B16">
-        <v>26.51000022888184</v>
+        <v>26.23999977111816</v>
       </c>
       <c r="C16">
-        <v>26.03000068664551</v>
+        <v>25.29000091552734</v>
       </c>
       <c r="D16">
-        <v>26.20000076293945</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="E16">
-        <v>26.20000076293945</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="F16">
-        <v>34417200</v>
+        <v>34190800</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>26.20999908447266</v>
+        <v>26.18000030517578</v>
       </c>
       <c r="B17">
-        <v>26.8700008392334</v>
+        <v>26.72999954223633</v>
       </c>
       <c r="C17">
-        <v>26.09000015258789</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="D17">
-        <v>26.51000022888184</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="E17">
-        <v>26.51000022888184</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="F17">
-        <v>38460100</v>
+        <v>37215800</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>26.48999977111816</v>
+        <v>26.14999961853027</v>
       </c>
       <c r="B18">
-        <v>26.75</v>
+        <v>26.23900032043457</v>
       </c>
       <c r="C18">
-        <v>26.21999931335449</v>
+        <v>25.03000068664551</v>
       </c>
       <c r="D18">
-        <v>26.63999938964844</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="E18">
-        <v>26.63999938964844</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="F18">
-        <v>26609500</v>
+        <v>42372300</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>26.79000091552734</v>
+        <v>25.96999931335449</v>
       </c>
       <c r="B19">
-        <v>26.8799991607666</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="C19">
-        <v>26.27000045776367</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="D19">
-        <v>26.70000076293945</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="E19">
-        <v>26.70000076293945</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="F19">
-        <v>35835100</v>
+        <v>34569000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>26.60000038146973</v>
+        <v>26.29999923706055</v>
       </c>
       <c r="B20">
-        <v>26.61000061035156</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="C20">
-        <v>24.95999908447266</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="D20">
-        <v>25.57999992370605</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="E20">
-        <v>25.57999992370605</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="F20">
-        <v>54394400</v>
+        <v>49555500</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>25.38999938964844</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="B21">
-        <v>26.23999977111816</v>
+        <v>28.79000091552734</v>
       </c>
       <c r="C21">
-        <v>25.29000091552734</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="D21">
-        <v>26.1299991607666</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="E21">
-        <v>26.1299991607666</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="F21">
-        <v>34190800</v>
+        <v>109992000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>26.18000030517578</v>
+        <v>28.65999984741211</v>
       </c>
       <c r="B22">
-        <v>26.72999954223633</v>
+        <v>29.29000091552734</v>
       </c>
       <c r="C22">
-        <v>26.17000007629395</v>
+        <v>28.06999969482422</v>
       </c>
       <c r="D22">
-        <v>26.28000068664551</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="E22">
-        <v>26.28000068664551</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="F22">
-        <v>37215800</v>
+        <v>182052600</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>26.14999961853027</v>
+        <v>27.56999969482422</v>
       </c>
       <c r="B23">
-        <v>26.23900032043457</v>
+        <v>28.10000038146973</v>
       </c>
       <c r="C23">
-        <v>25.03000068664551</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="D23">
-        <v>25.82999992370605</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="E23">
-        <v>25.82999992370605</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="F23">
-        <v>42372300</v>
+        <v>89413500</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>25.96999931335449</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="B24">
-        <v>26.70000076293945</v>
+        <v>27.14900016784668</v>
       </c>
       <c r="C24">
-        <v>25.89999961853027</v>
+        <v>26.07999992370605</v>
       </c>
       <c r="D24">
-        <v>26.26000022888184</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="E24">
-        <v>26.26000022888184</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="F24">
-        <v>34569000</v>
+        <v>50933600</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>26.29999923706055</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="B25">
-        <v>27.14999961853027</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="C25">
-        <v>26.03000068664551</v>
+        <v>26.58200073242188</v>
       </c>
       <c r="D25">
-        <v>27.07999992370605</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="E25">
-        <v>27.07999992370605</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="F25">
-        <v>49555500</v>
+        <v>44308100</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>27.20000076293945</v>
+        <v>27.70999908447266</v>
       </c>
       <c r="B26">
-        <v>28.79000091552734</v>
+        <v>29.19000053405762</v>
       </c>
       <c r="C26">
-        <v>27.02000045776367</v>
+        <v>27.67000007629395</v>
       </c>
       <c r="D26">
-        <v>28.6299991607666</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="E26">
-        <v>28.6299991607666</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="F26">
-        <v>109992000</v>
+        <v>60028600</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>28.65999984741211</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="B27">
-        <v>29.29000091552734</v>
+        <v>28.76000022888184</v>
       </c>
       <c r="C27">
-        <v>28.06999969482422</v>
+        <v>27.90099906921387</v>
       </c>
       <c r="D27">
-        <v>28.70999908447266</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="E27">
-        <v>28.70999908447266</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="F27">
-        <v>182052600</v>
+        <v>40309700</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>27.56999969482422</v>
+        <v>28.22999954223633</v>
       </c>
       <c r="B28">
-        <v>28.10000038146973</v>
+        <v>28.3799991607666</v>
       </c>
       <c r="C28">
-        <v>26.05999946594238</v>
+        <v>27.22999954223633</v>
       </c>
       <c r="D28">
-        <v>26.54999923706055</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="E28">
-        <v>26.54999923706055</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="F28">
-        <v>89413500</v>
+        <v>44102800</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>26.88999938964844</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="B29">
-        <v>27.14900016784668</v>
+        <v>27.1299991607666</v>
       </c>
       <c r="C29">
-        <v>26.07999992370605</v>
+        <v>25.20999908447266</v>
       </c>
       <c r="D29">
-        <v>26.6200008392334</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="E29">
-        <v>26.6200008392334</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="F29">
-        <v>50933600</v>
+        <v>64206200</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>26.61000061035156</v>
+        <v>25.61000061035156</v>
       </c>
       <c r="B30">
-        <v>27.77000045776367</v>
+        <v>25.70000076293945</v>
       </c>
       <c r="C30">
-        <v>26.58200073242188</v>
+        <v>24.42000007629395</v>
       </c>
       <c r="D30">
-        <v>27.43000030517578</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="E30">
-        <v>27.43000030517578</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="F30">
-        <v>44308100</v>
+        <v>46164500</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>27.70999908447266</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="B31">
-        <v>29.19000053405762</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="C31">
-        <v>27.67000007629395</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="D31">
-        <v>28.77000045776367</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="E31">
-        <v>28.77000045776367</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="F31">
-        <v>60028600</v>
+        <v>59505600</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>28.27000045776367</v>
+        <v>24.20999908447266</v>
       </c>
       <c r="B32">
-        <v>28.76000022888184</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="C32">
-        <v>27.90099906921387</v>
+        <v>23.71999931335449</v>
       </c>
       <c r="D32">
-        <v>28.55999946594238</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="E32">
-        <v>28.55999946594238</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="F32">
-        <v>40309700</v>
+        <v>32778000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>28.22999954223633</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="B33">
-        <v>28.3799991607666</v>
+        <v>24.04999923706055</v>
       </c>
       <c r="C33">
-        <v>27.22999954223633</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="D33">
-        <v>27.46999931335449</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="E33">
-        <v>27.46999931335449</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="F33">
-        <v>44102800</v>
+        <v>46789700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>27.02000045776367</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="B34">
-        <v>27.1299991607666</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="C34">
-        <v>25.20999908447266</v>
+        <v>23.06999969482422</v>
       </c>
       <c r="D34">
-        <v>25.34000015258789</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="E34">
-        <v>25.34000015258789</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="F34">
-        <v>64206200</v>
+        <v>56574800</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>25.61000061035156</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="B35">
-        <v>25.70000076293945</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="C35">
-        <v>24.42000007629395</v>
+        <v>23.35000038146973</v>
       </c>
       <c r="D35">
-        <v>24.52000045776367</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="E35">
-        <v>24.52000045776367</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="F35">
-        <v>46164500</v>
+        <v>125175700</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>24.69000053405762</v>
+        <v>23.70999908447266</v>
       </c>
       <c r="B36">
-        <v>25.04999923706055</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="C36">
-        <v>23.8799991607666</v>
+        <v>23.54000091552734</v>
       </c>
       <c r="D36">
-        <v>24.04000091552734</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="E36">
-        <v>24.04000091552734</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="F36">
-        <v>59505600</v>
+        <v>38873700</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>24.20999908447266</v>
+        <v>23.86000061035156</v>
       </c>
       <c r="B37">
-        <v>24.36000061035156</v>
+        <v>24.09600067138672</v>
       </c>
       <c r="C37">
-        <v>23.71999931335449</v>
+        <v>23.11000061035156</v>
       </c>
       <c r="D37">
-        <v>24.32999992370605</v>
+        <v>23.5</v>
       </c>
       <c r="E37">
-        <v>24.32999992370605</v>
+        <v>23.5</v>
       </c>
       <c r="F37">
-        <v>32778000</v>
+        <v>39630400</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>24.01000022888184</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="B38">
-        <v>24.04999923706055</v>
+        <v>23.97999954223633</v>
       </c>
       <c r="C38">
-        <v>23.02000045776367</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="D38">
-        <v>23.17000007629395</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="E38">
-        <v>23.17000007629395</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="F38">
-        <v>46789700</v>
+        <v>23971700</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>23.20999908447266</v>
+        <v>23.54999923706055</v>
       </c>
       <c r="B39">
-        <v>23.8799991607666</v>
+        <v>23.80999946594238</v>
       </c>
       <c r="C39">
-        <v>23.06999969482422</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="D39">
-        <v>23.20999908447266</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="E39">
-        <v>23.20999908447266</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="F39">
-        <v>56574800</v>
+        <v>26280000</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>24.90999984741211</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="B40">
-        <v>25.01000022888184</v>
+        <v>24.30999946594238</v>
       </c>
       <c r="C40">
-        <v>23.35000038146973</v>
+        <v>23.79000091552734</v>
       </c>
       <c r="D40">
-        <v>23.57999992370605</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="E40">
-        <v>23.57999992370605</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="F40">
-        <v>125175700</v>
+        <v>28494000</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>23.70999908447266</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="B41">
-        <v>24.1299991607666</v>
+        <v>24.70999908447266</v>
       </c>
       <c r="C41">
-        <v>23.54000091552734</v>
+        <v>24.20499992370605</v>
       </c>
       <c r="D41">
-        <v>23.72999954223633</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="E41">
-        <v>23.72999954223633</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="F41">
-        <v>38873700</v>
+        <v>26106700</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>23.86000061035156</v>
+        <v>24.5</v>
       </c>
       <c r="B42">
-        <v>24.09600067138672</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="C42">
-        <v>23.11000061035156</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="D42">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="E42">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="F42">
-        <v>39630400</v>
+        <v>24275000</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>23.26000022888184</v>
+        <v>24</v>
       </c>
       <c r="B43">
-        <v>23.97999954223633</v>
+        <v>24.38999938964844</v>
       </c>
       <c r="C43">
-        <v>23.26000022888184</v>
+        <v>23.92000007629395</v>
       </c>
       <c r="D43">
-        <v>23.53000068664551</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="E43">
-        <v>23.53000068664551</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="F43">
-        <v>23971700</v>
+        <v>25609900</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>23.54999923706055</v>
+        <v>24.5</v>
       </c>
       <c r="B44">
-        <v>23.80999946594238</v>
+        <v>25.20000076293945</v>
       </c>
       <c r="C44">
-        <v>23.29000091552734</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="D44">
-        <v>23.69000053405762</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="E44">
-        <v>23.69000053405762</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="F44">
-        <v>26280000</v>
+        <v>29393900</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>23.82999992370605</v>
+        <v>24.79000091552734</v>
       </c>
       <c r="B45">
-        <v>24.30999946594238</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="C45">
-        <v>23.79000091552734</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="D45">
-        <v>24.1299991607666</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="E45">
-        <v>24.1299991607666</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="F45">
-        <v>28494000</v>
+        <v>24248000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>24.43000030517578</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="B46">
-        <v>24.70999908447266</v>
+        <v>24.93000030517578</v>
       </c>
       <c r="C46">
-        <v>24.20499992370605</v>
+        <v>24.07999992370605</v>
       </c>
       <c r="D46">
-        <v>24.35000038146973</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="E46">
-        <v>24.35000038146973</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="F46">
-        <v>26106700</v>
+        <v>23976600</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>24.5</v>
+        <v>24.48999977111816</v>
       </c>
       <c r="B47">
-        <v>24.52000045776367</v>
+        <v>24.85000038146973</v>
       </c>
       <c r="C47">
-        <v>23.82999992370605</v>
+        <v>24.25</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="E47">
-        <v>24</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="F47">
-        <v>24275000</v>
+        <v>20166800</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="B48">
-        <v>24.38999938964844</v>
+        <v>25.54000091552734</v>
       </c>
       <c r="C48">
-        <v>23.92000007629395</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="D48">
-        <v>24.26000022888184</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="E48">
-        <v>24.26000022888184</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="F48">
-        <v>25609900</v>
+        <v>33962100</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>24.5</v>
+        <v>25.98999977111816</v>
       </c>
       <c r="B49">
-        <v>25.20000076293945</v>
+        <v>26.75</v>
       </c>
       <c r="C49">
-        <v>24.36000061035156</v>
+        <v>25.25</v>
       </c>
       <c r="D49">
-        <v>24.69000053405762</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="E49">
-        <v>24.69000053405762</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="F49">
-        <v>29393900</v>
+        <v>56767000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>24.79000091552734</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="B50">
-        <v>24.95999908447266</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="C50">
-        <v>24.17000007629395</v>
+        <v>25.02000045776367</v>
       </c>
       <c r="D50">
-        <v>24.21999931335449</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="E50">
-        <v>24.21999931335449</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="F50">
-        <v>24248000</v>
+        <v>24157200</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>24.1299991607666</v>
+        <v>25.29999923706055</v>
       </c>
       <c r="B51">
-        <v>24.93000030517578</v>
+        <v>25.79500007629395</v>
       </c>
       <c r="C51">
-        <v>24.07999992370605</v>
+        <v>25.1200008392334</v>
       </c>
       <c r="D51">
-        <v>24.78000068664551</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="E51">
-        <v>24.78000068664551</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="F51">
-        <v>23976600</v>
+        <v>21203000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>24.48999977111816</v>
+        <v>25.5</v>
       </c>
       <c r="B52">
-        <v>24.85000038146973</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="C52">
-        <v>24.25</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="D52">
-        <v>24.43000030517578</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="E52">
-        <v>24.43000030517578</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="F52">
-        <v>20166800</v>
+        <v>21910300</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>24.5</v>
+        <v>26.11000061035156</v>
       </c>
       <c r="B53">
-        <v>25.54000091552734</v>
+        <v>26.64500045776367</v>
       </c>
       <c r="C53">
-        <v>24.47999954223633</v>
+        <v>25.88299942016602</v>
       </c>
       <c r="D53">
-        <v>25.40999984741211</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="E53">
-        <v>25.40999984741211</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="F53">
-        <v>33962100</v>
+        <v>26684700</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>25.98999977111816</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="B54">
-        <v>26.75</v>
+        <v>26.71999931335449</v>
       </c>
       <c r="C54">
-        <v>25.25</v>
+        <v>25.55500030517578</v>
       </c>
       <c r="D54">
-        <v>25.52000045776367</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="E54">
-        <v>25.52000045776367</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="F54">
-        <v>56767000</v>
+        <v>30794600</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>25.63999938964844</v>
+        <v>25.88999938964844</v>
       </c>
       <c r="B55">
-        <v>25.89999961853027</v>
+        <v>26.23500061035156</v>
       </c>
       <c r="C55">
-        <v>25.02000045776367</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="D55">
-        <v>25.05999946594238</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="E55">
-        <v>25.05999946594238</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="F55">
-        <v>24157200</v>
+        <v>25244200</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>25.29999923706055</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="B56">
-        <v>25.79500007629395</v>
+        <v>26.56999969482422</v>
       </c>
       <c r="C56">
-        <v>25.1200008392334</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="D56">
-        <v>25.63999938964844</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="E56">
-        <v>25.63999938964844</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="F56">
-        <v>21203000</v>
+        <v>25029700</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>25.5</v>
+        <v>26.45000076293945</v>
       </c>
       <c r="B57">
-        <v>26.1200008392334</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="C57">
-        <v>25.45000076293945</v>
+        <v>25.71999931335449</v>
       </c>
       <c r="D57">
-        <v>25.8799991607666</v>
+        <v>26</v>
       </c>
       <c r="E57">
-        <v>25.8799991607666</v>
+        <v>26</v>
       </c>
       <c r="F57">
-        <v>21910300</v>
+        <v>25929900</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>26.11000061035156</v>
+        <v>26.25</v>
       </c>
       <c r="B58">
-        <v>26.64500045776367</v>
+        <v>27.11000061035156</v>
       </c>
       <c r="C58">
-        <v>25.88299942016602</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="D58">
-        <v>26.55999946594238</v>
+        <v>26.75</v>
       </c>
       <c r="E58">
-        <v>26.55999946594238</v>
+        <v>26.75</v>
       </c>
       <c r="F58">
-        <v>26684700</v>
+        <v>41359600</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>26.55999946594238</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="B59">
-        <v>26.71999931335449</v>
+        <v>25.97999954223633</v>
       </c>
       <c r="C59">
-        <v>25.55500030517578</v>
+        <v>23.95000076293945</v>
       </c>
       <c r="D59">
-        <v>25.92000007629395</v>
+        <v>24.25</v>
       </c>
       <c r="E59">
-        <v>25.92000007629395</v>
+        <v>24.25</v>
       </c>
       <c r="F59">
-        <v>30794600</v>
+        <v>117540200</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>25.88999938964844</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="B60">
-        <v>26.23500061035156</v>
+        <v>23.63999938964844</v>
       </c>
       <c r="C60">
-        <v>25.17000007629395</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="D60">
-        <v>26.1200008392334</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="E60">
-        <v>26.1200008392334</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="F60">
-        <v>25244200</v>
+        <v>94860100</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>26.26000022888184</v>
+        <v>23.04000091552734</v>
       </c>
       <c r="B61">
-        <v>26.56999969482422</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="C61">
-        <v>25.8700008392334</v>
+        <v>22.66500091552734</v>
       </c>
       <c r="D61">
-        <v>26.46999931335449</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="E61">
-        <v>26.46999931335449</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="F61">
-        <v>25029700</v>
+        <v>43381500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>26.45000076293945</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="B62">
-        <v>26.6299991607666</v>
+        <v>23.22500038146973</v>
       </c>
       <c r="C62">
-        <v>25.71999931335449</v>
+        <v>22.3799991607666</v>
       </c>
       <c r="D62">
-        <v>26</v>
+        <v>22.82999992370605</v>
       </c>
       <c r="E62">
-        <v>26</v>
+        <v>22.82999992370605</v>
       </c>
       <c r="F62">
-        <v>25929900</v>
+        <v>53440300</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>26.25</v>
+        <v>23</v>
       </c>
       <c r="B63">
-        <v>27.11000061035156</v>
+        <v>23.52000045776367</v>
       </c>
       <c r="C63">
-        <v>26.1200008392334</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="D63">
-        <v>26.75</v>
+        <v>23.40999984741211</v>
       </c>
       <c r="E63">
-        <v>26.75</v>
+        <v>23.40999984741211</v>
       </c>
       <c r="F63">
-        <v>41359600</v>
+        <v>33225700</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>25.89999961853027</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="B64">
-        <v>25.97999954223633</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="C64">
-        <v>23.95000076293945</v>
+        <v>22.61000061035156</v>
       </c>
       <c r="D64">
-        <v>24.25</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="E64">
-        <v>24.25</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="F64">
-        <v>117540200</v>
+        <v>31574800</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>23.60000038146973</v>
+        <v>23.04999923706055</v>
       </c>
       <c r="B65">
-        <v>23.63999938964844</v>
+        <v>23.2189998626709</v>
       </c>
       <c r="C65">
-        <v>22.1200008392334</v>
+        <v>22.39999961853027</v>
       </c>
       <c r="D65">
-        <v>22.52000045776367</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="E65">
-        <v>22.52000045776367</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="F65">
-        <v>94860100</v>
+        <v>27994100</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>23.04000091552734</v>
+        <v>22.5</v>
       </c>
       <c r="B66">
-        <v>23.1299991607666</v>
+        <v>22.54999923706055</v>
       </c>
       <c r="C66">
-        <v>22.66500091552734</v>
+        <v>21.34199905395508</v>
       </c>
       <c r="D66">
-        <v>22.98999977111816</v>
+        <v>21.5</v>
       </c>
       <c r="E66">
-        <v>22.98999977111816</v>
+        <v>21.5</v>
       </c>
       <c r="F66">
-        <v>43381500</v>
+        <v>51039900</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>23.02000045776367</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="B67">
-        <v>23.22500038146973</v>
+        <v>21.95999908447266</v>
       </c>
       <c r="C67">
-        <v>22.3799991607666</v>
+        <v>21.29999923706055</v>
       </c>
       <c r="D67">
-        <v>22.82999992370605</v>
+        <v>21.40999984741211</v>
       </c>
       <c r="E67">
-        <v>22.82999992370605</v>
+        <v>21.40999984741211</v>
       </c>
       <c r="F67">
-        <v>53440300</v>
+        <v>30013100</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>23</v>
+        <v>21.53000068664551</v>
       </c>
       <c r="B68">
-        <v>23.52000045776367</v>
+        <v>21.56999969482422</v>
       </c>
       <c r="C68">
-        <v>22.95000076293945</v>
+        <v>20.18000030517578</v>
       </c>
       <c r="D68">
-        <v>23.40999984741211</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="E68">
-        <v>23.40999984741211</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="F68">
-        <v>33225700</v>
+        <v>59899100</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>23.29000091552734</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="B69">
-        <v>23.29000091552734</v>
+        <v>21.04999923706055</v>
       </c>
       <c r="C69">
-        <v>22.61000061035156</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="D69">
-        <v>23.1299991607666</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="E69">
-        <v>23.1299991607666</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="F69">
-        <v>31574800</v>
+        <v>44588000</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>23.04999923706055</v>
+        <v>20.35000038146973</v>
       </c>
       <c r="B70">
-        <v>23.2189998626709</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="C70">
-        <v>22.39999961853027</v>
+        <v>20.05999946594238</v>
       </c>
       <c r="D70">
-        <v>22.48999977111816</v>
+        <v>21.11000061035156</v>
       </c>
       <c r="E70">
-        <v>22.48999977111816</v>
+        <v>21.11000061035156</v>
       </c>
       <c r="F70">
-        <v>27994100</v>
+        <v>35233900</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>22.5</v>
+        <v>20.40999984741211</v>
       </c>
       <c r="B71">
-        <v>22.54999923706055</v>
+        <v>21.09000015258789</v>
       </c>
       <c r="C71">
-        <v>21.34199905395508</v>
+        <v>20.34900093078613</v>
       </c>
       <c r="D71">
-        <v>21.5</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="E71">
-        <v>21.5</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="F71">
-        <v>51039900</v>
+        <v>20691200</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>21.60000038146973</v>
+        <v>21.19000053405762</v>
       </c>
       <c r="B72">
-        <v>21.95999908447266</v>
+        <v>21.39999961853027</v>
       </c>
       <c r="C72">
-        <v>21.29999923706055</v>
+        <v>20.55999946594238</v>
       </c>
       <c r="D72">
-        <v>21.40999984741211</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="E72">
-        <v>21.40999984741211</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="F72">
-        <v>30013100</v>
+        <v>29114000</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>21.53000068664551</v>
+        <v>20.95000076293945</v>
       </c>
       <c r="B73">
-        <v>21.56999969482422</v>
+        <v>21.25</v>
       </c>
       <c r="C73">
-        <v>20.18000030517578</v>
+        <v>20.11000061035156</v>
       </c>
       <c r="D73">
         <v>20.64999961853027</v>
@@ -1852,1127 +1852,1127 @@
         <v>20.64999961853027</v>
       </c>
       <c r="F73">
-        <v>59899100</v>
+        <v>38196400</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>20.59000015258789</v>
+        <v>20.53000068664551</v>
       </c>
       <c r="B74">
-        <v>21.04999923706055</v>
+        <v>20.88999938964844</v>
       </c>
       <c r="C74">
-        <v>20.04999923706055</v>
+        <v>19.29000091552734</v>
       </c>
       <c r="D74">
-        <v>20.59000015258789</v>
+        <v>19.3799991607666</v>
       </c>
       <c r="E74">
-        <v>20.59000015258789</v>
+        <v>19.3799991607666</v>
       </c>
       <c r="F74">
-        <v>44588000</v>
+        <v>48283700</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>20.35000038146973</v>
+        <v>19.29999923706055</v>
       </c>
       <c r="B75">
-        <v>21.20000076293945</v>
+        <v>19.90999984741211</v>
       </c>
       <c r="C75">
-        <v>20.05999946594238</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="D75">
-        <v>21.11000061035156</v>
+        <v>19.69000053405762</v>
       </c>
       <c r="E75">
-        <v>21.11000061035156</v>
+        <v>19.69000053405762</v>
       </c>
       <c r="F75">
-        <v>35233900</v>
+        <v>45802900</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>20.40999984741211</v>
+        <v>19.5</v>
       </c>
       <c r="B76">
-        <v>21.09000015258789</v>
+        <v>19.53000068664551</v>
       </c>
       <c r="C76">
-        <v>20.34900093078613</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="D76">
-        <v>21.03000068664551</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="E76">
-        <v>21.03000068664551</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="F76">
-        <v>20691200</v>
+        <v>55926700</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>21.19000053405762</v>
+        <v>18.54000091552734</v>
       </c>
       <c r="B77">
-        <v>21.39999961853027</v>
+        <v>18.96999931335449</v>
       </c>
       <c r="C77">
-        <v>20.55999946594238</v>
+        <v>18.07500076293945</v>
       </c>
       <c r="D77">
-        <v>21.06999969482422</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="E77">
-        <v>21.06999969482422</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="F77">
-        <v>29114000</v>
+        <v>56459800</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>20.95000076293945</v>
+        <v>19.26000022888184</v>
       </c>
       <c r="B78">
-        <v>21.25</v>
+        <v>19.85499954223633</v>
       </c>
       <c r="C78">
-        <v>20.11000061035156</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="D78">
-        <v>20.64999961853027</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="E78">
-        <v>20.64999961853027</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="F78">
-        <v>38196400</v>
+        <v>35129000</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>20.53000068664551</v>
+        <v>19.51000022888184</v>
       </c>
       <c r="B79">
-        <v>20.88999938964844</v>
+        <v>19.82500076293945</v>
       </c>
       <c r="C79">
-        <v>19.29000091552734</v>
+        <v>19.03000068664551</v>
       </c>
       <c r="D79">
-        <v>19.3799991607666</v>
+        <v>19.81999969482422</v>
       </c>
       <c r="E79">
-        <v>19.3799991607666</v>
+        <v>19.81999969482422</v>
       </c>
       <c r="F79">
-        <v>48283700</v>
+        <v>28425900</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19.29999923706055</v>
+        <v>19.95000076293945</v>
       </c>
       <c r="B80">
-        <v>19.90999984741211</v>
+        <v>20.14999961853027</v>
       </c>
       <c r="C80">
-        <v>19.05999946594238</v>
+        <v>19.04000091552734</v>
       </c>
       <c r="D80">
-        <v>19.69000053405762</v>
+        <v>19.20999908447266</v>
       </c>
       <c r="E80">
-        <v>19.69000053405762</v>
+        <v>19.20999908447266</v>
       </c>
       <c r="F80">
-        <v>45802900</v>
+        <v>30354700</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19.5</v>
+        <v>19.28000068664551</v>
       </c>
       <c r="B81">
-        <v>19.53000068664551</v>
+        <v>19.57999992370605</v>
       </c>
       <c r="C81">
-        <v>18.39999961853027</v>
+        <v>18.70000076293945</v>
       </c>
       <c r="D81">
-        <v>18.97999954223633</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="E81">
-        <v>18.97999954223633</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="F81">
-        <v>55926700</v>
+        <v>27550300</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>18.54000091552734</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="B82">
-        <v>18.96999931335449</v>
+        <v>19.07500076293945</v>
       </c>
       <c r="C82">
-        <v>18.07500076293945</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="D82">
-        <v>18.79999923706055</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="E82">
-        <v>18.79999923706055</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="F82">
-        <v>56459800</v>
+        <v>38376000</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19.26000022888184</v>
+        <v>18</v>
       </c>
       <c r="B83">
-        <v>19.85499954223633</v>
+        <v>18.85899925231934</v>
       </c>
       <c r="C83">
-        <v>19.06999969482422</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="D83">
-        <v>19.45999908447266</v>
+        <v>18.63999938964844</v>
       </c>
       <c r="E83">
-        <v>19.45999908447266</v>
+        <v>18.63999938964844</v>
       </c>
       <c r="F83">
-        <v>35129000</v>
+        <v>38864800</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19.51000022888184</v>
+        <v>18.3700008392334</v>
       </c>
       <c r="B84">
-        <v>19.82500076293945</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="C84">
-        <v>19.03000068664551</v>
+        <v>17.9950008392334</v>
       </c>
       <c r="D84">
-        <v>19.81999969482422</v>
+        <v>18.86000061035156</v>
       </c>
       <c r="E84">
-        <v>19.81999969482422</v>
+        <v>18.86000061035156</v>
       </c>
       <c r="F84">
-        <v>28425900</v>
+        <v>39361900</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19.95000076293945</v>
+        <v>18.95999908447266</v>
       </c>
       <c r="B85">
-        <v>20.14999961853027</v>
+        <v>19.1200008392334</v>
       </c>
       <c r="C85">
-        <v>19.04000091552734</v>
+        <v>18.14999961853027</v>
       </c>
       <c r="D85">
-        <v>19.20999908447266</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="E85">
-        <v>19.20999908447266</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="F85">
-        <v>30354700</v>
+        <v>33950000</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>19.28000068664551</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="B86">
-        <v>19.57999992370605</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="C86">
-        <v>18.70000076293945</v>
+        <v>17.80999946594238</v>
       </c>
       <c r="D86">
-        <v>18.94000053405762</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="E86">
-        <v>18.94000053405762</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="F86">
-        <v>27550300</v>
+        <v>44325900</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>18.79999923706055</v>
+        <v>18.59000015258789</v>
       </c>
       <c r="B87">
-        <v>19.07500076293945</v>
+        <v>18.67000007629395</v>
       </c>
       <c r="C87">
-        <v>18.17000007629395</v>
+        <v>17.83499908447266</v>
       </c>
       <c r="D87">
-        <v>18.39999961853027</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="E87">
-        <v>18.39999961853027</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="F87">
-        <v>38376000</v>
+        <v>42265900</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>18</v>
+        <v>18.15999984741211</v>
       </c>
       <c r="B88">
-        <v>18.85899925231934</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="C88">
-        <v>17.90999984741211</v>
+        <v>18.10000038146973</v>
       </c>
       <c r="D88">
-        <v>18.63999938964844</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="E88">
-        <v>18.63999938964844</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="F88">
-        <v>38864800</v>
+        <v>33878600</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>18.3700008392334</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="B89">
-        <v>18.94000053405762</v>
+        <v>19.45000076293945</v>
       </c>
       <c r="C89">
-        <v>17.9950008392334</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="D89">
-        <v>18.86000061035156</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="E89">
-        <v>18.86000061035156</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="F89">
-        <v>39361900</v>
+        <v>33894200</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>18.95999908447266</v>
+        <v>18.85000038146973</v>
       </c>
       <c r="B90">
-        <v>19.1200008392334</v>
+        <v>19.13500022888184</v>
       </c>
       <c r="C90">
-        <v>18.14999961853027</v>
+        <v>18.71999931335449</v>
       </c>
       <c r="D90">
-        <v>18.34000015258789</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="E90">
-        <v>18.34000015258789</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="F90">
-        <v>33950000</v>
+        <v>24758300</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>18.03000068664551</v>
+        <v>18.78000068664551</v>
       </c>
       <c r="B91">
-        <v>19.10000038146973</v>
+        <v>19.25</v>
       </c>
       <c r="C91">
-        <v>17.80999946594238</v>
+        <v>18.78000068664551</v>
       </c>
       <c r="D91">
-        <v>19.05999946594238</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="E91">
-        <v>19.05999946594238</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="F91">
-        <v>44325900</v>
+        <v>21782000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>18.59000015258789</v>
+        <v>18.88999938964844</v>
       </c>
       <c r="B92">
-        <v>18.67000007629395</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="C92">
-        <v>17.83499908447266</v>
+        <v>18.44000053405762</v>
       </c>
       <c r="D92">
-        <v>17.95999908447266</v>
+        <v>18.56999969482422</v>
       </c>
       <c r="E92">
-        <v>17.95999908447266</v>
+        <v>18.56999969482422</v>
       </c>
       <c r="F92">
-        <v>42265900</v>
+        <v>20518800</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>18.15999984741211</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="B93">
-        <v>18.97999954223633</v>
+        <v>18.60000038146973</v>
       </c>
       <c r="C93">
-        <v>18.10000038146973</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="D93">
-        <v>18.89999961853027</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="E93">
-        <v>18.89999961853027</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="F93">
-        <v>33878600</v>
+        <v>28217500</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>18.64999961853027</v>
+        <v>18.10000038146973</v>
       </c>
       <c r="B94">
-        <v>19.45000076293945</v>
+        <v>18.9950008392334</v>
       </c>
       <c r="C94">
-        <v>18.64999961853027</v>
+        <v>18.06999969482422</v>
       </c>
       <c r="D94">
-        <v>18.8799991607666</v>
+        <v>18.69000053405762</v>
       </c>
       <c r="E94">
-        <v>18.8799991607666</v>
+        <v>18.69000053405762</v>
       </c>
       <c r="F94">
-        <v>33894200</v>
+        <v>29285200</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>18.85000038146973</v>
+        <v>18.61000061035156</v>
       </c>
       <c r="B95">
-        <v>19.13500022888184</v>
+        <v>18.92000007629395</v>
       </c>
       <c r="C95">
-        <v>18.71999931335449</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="D95">
-        <v>18.93000030517578</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="E95">
-        <v>18.93000030517578</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="F95">
-        <v>24758300</v>
+        <v>23556000</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>18.78000068664551</v>
+        <v>18.36000061035156</v>
       </c>
       <c r="B96">
-        <v>19.25</v>
+        <v>18.56900024414062</v>
       </c>
       <c r="C96">
-        <v>18.78000068664551</v>
+        <v>17.86000061035156</v>
       </c>
       <c r="D96">
-        <v>18.94000053405762</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="E96">
-        <v>18.94000053405762</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="F96">
-        <v>21782000</v>
+        <v>34283600</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>18.88999938964844</v>
+        <v>18.61000061035156</v>
       </c>
       <c r="B97">
-        <v>19.06999969482422</v>
+        <v>18.84000015258789</v>
       </c>
       <c r="C97">
-        <v>18.44000053405762</v>
+        <v>17.79000091552734</v>
       </c>
       <c r="D97">
-        <v>18.56999969482422</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="E97">
-        <v>18.56999969482422</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="F97">
-        <v>20518800</v>
+        <v>39643200</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>18.53000068664551</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="B98">
-        <v>18.60000038146973</v>
+        <v>18.56800079345703</v>
       </c>
       <c r="C98">
-        <v>17.90999984741211</v>
+        <v>16.8700008392334</v>
       </c>
       <c r="D98">
-        <v>18.17000007629395</v>
+        <v>16.95999908447266</v>
       </c>
       <c r="E98">
-        <v>18.17000007629395</v>
+        <v>16.95999908447266</v>
       </c>
       <c r="F98">
-        <v>28217500</v>
+        <v>58445900</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>18.10000038146973</v>
+        <v>16.8700008392334</v>
       </c>
       <c r="B99">
-        <v>18.9950008392334</v>
+        <v>17.18000030517578</v>
       </c>
       <c r="C99">
-        <v>18.06999969482422</v>
+        <v>16.05500030517578</v>
       </c>
       <c r="D99">
-        <v>18.69000053405762</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="E99">
-        <v>18.69000053405762</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="F99">
-        <v>29285200</v>
+        <v>49737100</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>18.61000061035156</v>
+        <v>16.70000076293945</v>
       </c>
       <c r="B100">
-        <v>18.92000007629395</v>
+        <v>17.32999992370605</v>
       </c>
       <c r="C100">
-        <v>18.20999908447266</v>
+        <v>16.47500038146973</v>
       </c>
       <c r="D100">
-        <v>18.20999908447266</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="E100">
-        <v>18.20999908447266</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="F100">
-        <v>23556000</v>
+        <v>37696500</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>18.36000061035156</v>
+        <v>16.19000053405762</v>
       </c>
       <c r="B101">
-        <v>18.56900024414062</v>
+        <v>16.56999969482422</v>
       </c>
       <c r="C101">
-        <v>17.86000061035156</v>
+        <v>15.35000038146973</v>
       </c>
       <c r="D101">
-        <v>18.53000068664551</v>
+        <v>16.5</v>
       </c>
       <c r="E101">
-        <v>18.53000068664551</v>
+        <v>16.5</v>
       </c>
       <c r="F101">
-        <v>34283600</v>
+        <v>77649400</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>18.61000061035156</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="B102">
-        <v>18.84000015258789</v>
+        <v>17.25</v>
       </c>
       <c r="C102">
-        <v>17.79000091552734</v>
+        <v>16.31999969482422</v>
       </c>
       <c r="D102">
-        <v>18.17000007629395</v>
+        <v>16.88999938964844</v>
       </c>
       <c r="E102">
-        <v>18.17000007629395</v>
+        <v>16.88999938964844</v>
       </c>
       <c r="F102">
-        <v>39643200</v>
+        <v>47442600</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>18.03000068664551</v>
+        <v>17.15999984741211</v>
       </c>
       <c r="B103">
-        <v>18.56800079345703</v>
+        <v>17.45999908447266</v>
       </c>
       <c r="C103">
-        <v>16.8700008392334</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="D103">
-        <v>16.95999908447266</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="E103">
-        <v>16.95999908447266</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="F103">
-        <v>58445900</v>
+        <v>39784200</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>16.8700008392334</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="B104">
-        <v>17.18000030517578</v>
+        <v>16.81999969482422</v>
       </c>
       <c r="C104">
-        <v>16.05500030517578</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="D104">
-        <v>16.73999977111816</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E104">
-        <v>16.73999977111816</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="F104">
-        <v>49737100</v>
+        <v>35492200</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>16.70000076293945</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="B105">
-        <v>17.32999992370605</v>
+        <v>16.24900054931641</v>
       </c>
       <c r="C105">
-        <v>16.47500038146973</v>
+        <v>15.61999988555908</v>
       </c>
       <c r="D105">
-        <v>16.55999946594238</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E105">
-        <v>16.55999946594238</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="F105">
-        <v>37696500</v>
+        <v>35548200</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>16.19000053405762</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="B106">
-        <v>16.56999969482422</v>
+        <v>15.75</v>
       </c>
       <c r="C106">
-        <v>15.35000038146973</v>
+        <v>14.92000007629395</v>
       </c>
       <c r="D106">
-        <v>16.5</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="E106">
-        <v>16.5</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="F106">
-        <v>77649400</v>
+        <v>49067700</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>16.39999961853027</v>
+        <v>14.89999961853027</v>
       </c>
       <c r="B107">
-        <v>17.25</v>
+        <v>15.25</v>
       </c>
       <c r="C107">
-        <v>16.31999969482422</v>
+        <v>14.53999996185303</v>
       </c>
       <c r="D107">
-        <v>16.88999938964844</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="E107">
-        <v>16.88999938964844</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="F107">
-        <v>47442600</v>
+        <v>48049100</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>17.15999984741211</v>
+        <v>14.89000034332275</v>
       </c>
       <c r="B108">
-        <v>17.45999908447266</v>
+        <v>15.55000019073486</v>
       </c>
       <c r="C108">
-        <v>16.39999961853027</v>
+        <v>14.56999969482422</v>
       </c>
       <c r="D108">
-        <v>16.71999931335449</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="E108">
-        <v>16.71999931335449</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="F108">
-        <v>39784200</v>
+        <v>44690400</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>16.79999923706055</v>
+        <v>14.25</v>
       </c>
       <c r="B109">
-        <v>16.81999969482422</v>
+        <v>14.47799968719482</v>
       </c>
       <c r="C109">
-        <v>15.9399995803833</v>
+        <v>13.5</v>
       </c>
       <c r="D109">
-        <v>16.01000022888184</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="E109">
-        <v>16.01000022888184</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="F109">
-        <v>35492200</v>
+        <v>73031300</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>15.9399995803833</v>
+        <v>12.78999996185303</v>
       </c>
       <c r="B110">
-        <v>16.24900054931641</v>
+        <v>13.40999984741211</v>
       </c>
       <c r="C110">
-        <v>15.61999988555908</v>
+        <v>11.75</v>
       </c>
       <c r="D110">
-        <v>16.01000022888184</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="E110">
-        <v>16.01000022888184</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="F110">
-        <v>35548200</v>
+        <v>110518900</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>15.44999980926514</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="B111">
-        <v>15.75</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="C111">
-        <v>14.92000007629395</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="D111">
-        <v>14.97000026702881</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="E111">
-        <v>14.97000026702881</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="F111">
-        <v>49067700</v>
+        <v>47456600</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>14.89999961853027</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="B112">
-        <v>15.25</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="C112">
-        <v>14.53999996185303</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="D112">
-        <v>14.5600004196167</v>
+        <v>12.75</v>
       </c>
       <c r="E112">
-        <v>14.5600004196167</v>
+        <v>12.75</v>
       </c>
       <c r="F112">
-        <v>48049100</v>
+        <v>69949700</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>14.89000034332275</v>
+        <v>13.01000022888184</v>
       </c>
       <c r="B113">
-        <v>15.55000019073486</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="C113">
-        <v>14.56999969482422</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="D113">
-        <v>14.61999988555908</v>
+        <v>12.27999973297119</v>
       </c>
       <c r="E113">
-        <v>14.61999988555908</v>
+        <v>12.27999973297119</v>
       </c>
       <c r="F113">
-        <v>44690400</v>
+        <v>52622900</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>14.25</v>
+        <v>12.30000019073486</v>
       </c>
       <c r="B114">
-        <v>14.47799968719482</v>
+        <v>12.88000011444092</v>
       </c>
       <c r="C114">
-        <v>13.5</v>
+        <v>11.89000034332275</v>
       </c>
       <c r="D114">
-        <v>13.52999973297119</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="E114">
-        <v>13.52999973297119</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="F114">
-        <v>73031300</v>
+        <v>54887500</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>12.78999996185303</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="B115">
-        <v>13.40999984741211</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="C115">
-        <v>11.75</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="D115">
-        <v>13.39999961853027</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="E115">
-        <v>13.39999961853027</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="F115">
-        <v>110518900</v>
+        <v>51039300</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>13.11999988555908</v>
+        <v>14.22999954223633</v>
       </c>
       <c r="B116">
-        <v>13.60000038146973</v>
+        <v>14.36999988555908</v>
       </c>
       <c r="C116">
-        <v>12.82999992370605</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="D116">
-        <v>13.0600004196167</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="E116">
-        <v>13.0600004196167</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="F116">
-        <v>47456600</v>
+        <v>69012900</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>13.60000038146973</v>
+        <v>14.09000015258789</v>
       </c>
       <c r="B117">
-        <v>13.81999969482422</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="C117">
-        <v>12.68000030517578</v>
+        <v>13.1899995803833</v>
       </c>
       <c r="D117">
-        <v>12.75</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="E117">
-        <v>12.75</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="F117">
-        <v>69949700</v>
+        <v>47204300</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>13.01000022888184</v>
+        <v>12.94999980926514</v>
       </c>
       <c r="B118">
-        <v>13.0600004196167</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="C118">
-        <v>12.19999980926514</v>
+        <v>12.42000007629395</v>
       </c>
       <c r="D118">
-        <v>12.27999973297119</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="E118">
-        <v>12.27999973297119</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="F118">
-        <v>52622900</v>
+        <v>47236900</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>12.30000019073486</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="B119">
-        <v>12.88000011444092</v>
+        <v>13.09000015258789</v>
       </c>
       <c r="C119">
-        <v>11.89000034332275</v>
+        <v>12.26500034332275</v>
       </c>
       <c r="D119">
-        <v>12.71000003814697</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="E119">
-        <v>12.71000003814697</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="F119">
-        <v>54887500</v>
+        <v>38843600</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>12.77000045776367</v>
+        <v>13.02499961853027</v>
       </c>
       <c r="B120">
-        <v>13.73999977111816</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="C120">
-        <v>12.76000022888184</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="D120">
-        <v>13.71000003814697</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="E120">
-        <v>13.71000003814697</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="F120">
-        <v>51039300</v>
+        <v>45646100</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>14.22999954223633</v>
+        <v>12.75</v>
       </c>
       <c r="B121">
-        <v>14.36999988555908</v>
+        <v>13.18900012969971</v>
       </c>
       <c r="C121">
-        <v>13.5600004196167</v>
+        <v>12.61999988555908</v>
       </c>
       <c r="D121">
-        <v>14.19999980926514</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="E121">
-        <v>14.19999980926514</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="F121">
-        <v>69012900</v>
+        <v>30317100</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>14.09000015258789</v>
+        <v>13.28999996185303</v>
       </c>
       <c r="B122">
-        <v>14.19999980926514</v>
+        <v>13.89000034332275</v>
       </c>
       <c r="C122">
-        <v>13.1899995803833</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="D122">
-        <v>13.31999969482422</v>
+        <v>13.86999988555908</v>
       </c>
       <c r="E122">
-        <v>13.31999969482422</v>
+        <v>13.86999988555908</v>
       </c>
       <c r="F122">
-        <v>47204300</v>
+        <v>34451900</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>12.94999980926514</v>
+        <v>13.5</v>
       </c>
       <c r="B123">
-        <v>13.31999969482422</v>
+        <v>14.16499996185303</v>
       </c>
       <c r="C123">
-        <v>12.42000007629395</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="D123">
-        <v>12.44999980926514</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="E123">
-        <v>12.44999980926514</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="F123">
-        <v>47236900</v>
+        <v>41998200</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>12.47000026702881</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="B124">
-        <v>13.09000015258789</v>
+        <v>13.92000007629395</v>
       </c>
       <c r="C124">
-        <v>12.26500034332275</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="D124">
-        <v>12.9399995803833</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="E124">
-        <v>12.9399995803833</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="F124">
-        <v>38843600</v>
+        <v>41746500</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>13.02499961853027</v>
+        <v>13.10000038146973</v>
       </c>
       <c r="B125">
-        <v>13.60000038146973</v>
+        <v>13.79500007629395</v>
       </c>
       <c r="C125">
-        <v>12.9399995803833</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="D125">
-        <v>12.97999954223633</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="E125">
-        <v>12.97999954223633</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="F125">
-        <v>45646100</v>
+        <v>40617900</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>12.75</v>
+        <v>13.52000045776367</v>
       </c>
       <c r="B126">
-        <v>13.18900012969971</v>
+        <v>14.1850004196167</v>
       </c>
       <c r="C126">
-        <v>12.61999988555908</v>
+        <v>13.40999984741211</v>
       </c>
       <c r="D126">
-        <v>13.14999961853027</v>
+        <v>14.17000007629395</v>
       </c>
       <c r="E126">
-        <v>13.14999961853027</v>
+        <v>14.17000007629395</v>
       </c>
       <c r="F126">
-        <v>30317100</v>
+        <v>48523700</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>13.28999996185303</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="B127">
-        <v>13.89000034332275</v>
+        <v>14.26000022888184</v>
       </c>
       <c r="C127">
-        <v>13.26000022888184</v>
+        <v>13.65999984741211</v>
       </c>
       <c r="D127">
-        <v>13.86999988555908</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="E127">
-        <v>13.86999988555908</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="F127">
-        <v>34451900</v>
+        <v>58624400</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>13.5</v>
+        <v>12.39000034332275</v>
       </c>
       <c r="B128">
-        <v>14.16499996185303</v>
+        <v>12.69999980926514</v>
       </c>
       <c r="C128">
-        <v>13.36999988555908</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="D128">
-        <v>13.5600004196167</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="E128">
-        <v>13.5600004196167</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="F128">
-        <v>41998200</v>
+        <v>151385400</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>13.44999980926514</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="B129">
-        <v>13.92000007629395</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="C129">
-        <v>12.97000026702881</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="D129">
-        <v>13.13000011444092</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="E129">
-        <v>13.13000011444092</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="F129">
-        <v>41746500</v>
+        <v>137525900</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/PLTR/HighLow.xlsx
+++ b/Stocks/PLTR/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,1333 +417,1333 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>25.01000022888184</v>
+        <v>24.39999961853027</v>
       </c>
       <c r="B2">
-        <v>25.63999938964844</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="C2">
-        <v>24.13999938964844</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="D2">
-        <v>24.15999984741211</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="E2">
-        <v>24.15999984741211</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="F2">
-        <v>67605600</v>
+        <v>46179400</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>24.21999931335449</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="B3">
-        <v>24.47999954223633</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="C3">
-        <v>23.65999984741211</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="D3">
-        <v>24.01000022888184</v>
+        <v>25.70999908447266</v>
       </c>
       <c r="E3">
-        <v>24.01000022888184</v>
+        <v>25.70999908447266</v>
       </c>
       <c r="F3">
-        <v>51982200</v>
+        <v>52186500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>24.02000045776367</v>
+        <v>25.73999977111816</v>
       </c>
       <c r="B4">
-        <v>24.93000030517578</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="C4">
-        <v>23.89999961853027</v>
+        <v>25.6200008392334</v>
       </c>
       <c r="D4">
-        <v>24.81999969482422</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="E4">
-        <v>24.81999969482422</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="F4">
-        <v>35705300</v>
+        <v>44139300</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>25</v>
+        <v>25.79000091552734</v>
       </c>
       <c r="B5">
-        <v>25.35000038146973</v>
+        <v>26.36000061035156</v>
       </c>
       <c r="C5">
-        <v>24.76000022888184</v>
+        <v>25.65999984741211</v>
       </c>
       <c r="D5">
-        <v>25.10000038146973</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="E5">
-        <v>25.10000038146973</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="F5">
-        <v>37227400</v>
+        <v>93168600</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>25.1200008392334</v>
+        <v>26.45999908447266</v>
       </c>
       <c r="B6">
-        <v>25.19000053405762</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="C6">
-        <v>24.06999969482422</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="D6">
-        <v>24.35000038146973</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="E6">
-        <v>24.35000038146973</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="F6">
-        <v>54678500</v>
+        <v>34417200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>24.39999961853027</v>
+        <v>26.20999908447266</v>
       </c>
       <c r="B7">
-        <v>25.40999984741211</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="C7">
-        <v>24.36000061035156</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="D7">
-        <v>24.8700008392334</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="E7">
-        <v>24.8700008392334</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="F7">
-        <v>46179400</v>
+        <v>38460100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>25.04999923706055</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="B8">
-        <v>26.09000015258789</v>
+        <v>26.75</v>
       </c>
       <c r="C8">
-        <v>24.90999984741211</v>
+        <v>26.21999931335449</v>
       </c>
       <c r="D8">
-        <v>25.70999908447266</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="E8">
-        <v>25.70999908447266</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="F8">
-        <v>52186500</v>
+        <v>26609500</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>25.73999977111816</v>
+        <v>26.79000091552734</v>
       </c>
       <c r="B9">
-        <v>26.60000038146973</v>
+        <v>26.8799991607666</v>
       </c>
       <c r="C9">
-        <v>25.6200008392334</v>
+        <v>26.27000045776367</v>
       </c>
       <c r="D9">
-        <v>25.76000022888184</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="E9">
-        <v>25.76000022888184</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="F9">
-        <v>44139300</v>
+        <v>35835100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>25.79000091552734</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="B10">
-        <v>26.36000061035156</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="C10">
-        <v>25.65999984741211</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="D10">
-        <v>26.34000015258789</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="E10">
-        <v>26.34000015258789</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="F10">
-        <v>93168600</v>
+        <v>54394400</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>26.45999908447266</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="B11">
-        <v>26.51000022888184</v>
+        <v>26.23999977111816</v>
       </c>
       <c r="C11">
-        <v>26.03000068664551</v>
+        <v>25.29000091552734</v>
       </c>
       <c r="D11">
-        <v>26.20000076293945</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="E11">
-        <v>26.20000076293945</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="F11">
-        <v>34417200</v>
+        <v>34190800</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>26.20999908447266</v>
+        <v>26.18000030517578</v>
       </c>
       <c r="B12">
-        <v>26.8700008392334</v>
+        <v>26.72999954223633</v>
       </c>
       <c r="C12">
-        <v>26.09000015258789</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="D12">
-        <v>26.51000022888184</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="E12">
-        <v>26.51000022888184</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="F12">
-        <v>38460100</v>
+        <v>37215800</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>26.48999977111816</v>
+        <v>26.14999961853027</v>
       </c>
       <c r="B13">
-        <v>26.75</v>
+        <v>26.23900032043457</v>
       </c>
       <c r="C13">
-        <v>26.21999931335449</v>
+        <v>25.03000068664551</v>
       </c>
       <c r="D13">
-        <v>26.63999938964844</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="E13">
-        <v>26.63999938964844</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="F13">
-        <v>26609500</v>
+        <v>42372300</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>26.79000091552734</v>
+        <v>25.96999931335449</v>
       </c>
       <c r="B14">
-        <v>26.8799991607666</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="C14">
-        <v>26.27000045776367</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="D14">
-        <v>26.70000076293945</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="E14">
-        <v>26.70000076293945</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="F14">
-        <v>35835100</v>
+        <v>34569000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>26.60000038146973</v>
+        <v>26.29999923706055</v>
       </c>
       <c r="B15">
-        <v>26.61000061035156</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="C15">
-        <v>24.95999908447266</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="D15">
-        <v>25.57999992370605</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="E15">
-        <v>25.57999992370605</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="F15">
-        <v>54394400</v>
+        <v>49555500</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>25.38999938964844</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="B16">
-        <v>26.23999977111816</v>
+        <v>28.79000091552734</v>
       </c>
       <c r="C16">
-        <v>25.29000091552734</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="D16">
-        <v>26.1299991607666</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="E16">
-        <v>26.1299991607666</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="F16">
-        <v>34190800</v>
+        <v>109992000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>26.18000030517578</v>
+        <v>28.65999984741211</v>
       </c>
       <c r="B17">
-        <v>26.72999954223633</v>
+        <v>29.29000091552734</v>
       </c>
       <c r="C17">
-        <v>26.17000007629395</v>
+        <v>28.06999969482422</v>
       </c>
       <c r="D17">
-        <v>26.28000068664551</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="E17">
-        <v>26.28000068664551</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="F17">
-        <v>37215800</v>
+        <v>182052600</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>26.14999961853027</v>
+        <v>27.56999969482422</v>
       </c>
       <c r="B18">
-        <v>26.23900032043457</v>
+        <v>28.10000038146973</v>
       </c>
       <c r="C18">
-        <v>25.03000068664551</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="D18">
-        <v>25.82999992370605</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="E18">
-        <v>25.82999992370605</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="F18">
-        <v>42372300</v>
+        <v>89413500</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>25.96999931335449</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="B19">
-        <v>26.70000076293945</v>
+        <v>27.14900016784668</v>
       </c>
       <c r="C19">
-        <v>25.89999961853027</v>
+        <v>26.07999992370605</v>
       </c>
       <c r="D19">
-        <v>26.26000022888184</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="E19">
-        <v>26.26000022888184</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="F19">
-        <v>34569000</v>
+        <v>50933600</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>26.29999923706055</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="B20">
-        <v>27.14999961853027</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="C20">
-        <v>26.03000068664551</v>
+        <v>26.58200073242188</v>
       </c>
       <c r="D20">
-        <v>27.07999992370605</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="E20">
-        <v>27.07999992370605</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="F20">
-        <v>49555500</v>
+        <v>44308100</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>27.20000076293945</v>
+        <v>27.70999908447266</v>
       </c>
       <c r="B21">
-        <v>28.79000091552734</v>
+        <v>29.19000053405762</v>
       </c>
       <c r="C21">
-        <v>27.02000045776367</v>
+        <v>27.67000007629395</v>
       </c>
       <c r="D21">
-        <v>28.6299991607666</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="E21">
-        <v>28.6299991607666</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="F21">
-        <v>109992000</v>
+        <v>60028600</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>28.65999984741211</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="B22">
-        <v>29.29000091552734</v>
+        <v>28.76000022888184</v>
       </c>
       <c r="C22">
-        <v>28.06999969482422</v>
+        <v>27.90099906921387</v>
       </c>
       <c r="D22">
-        <v>28.70999908447266</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="E22">
-        <v>28.70999908447266</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="F22">
-        <v>182052600</v>
+        <v>40309700</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>27.56999969482422</v>
+        <v>28.22999954223633</v>
       </c>
       <c r="B23">
-        <v>28.10000038146973</v>
+        <v>28.3799991607666</v>
       </c>
       <c r="C23">
-        <v>26.05999946594238</v>
+        <v>27.22999954223633</v>
       </c>
       <c r="D23">
-        <v>26.54999923706055</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="E23">
-        <v>26.54999923706055</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="F23">
-        <v>89413500</v>
+        <v>44102800</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>26.88999938964844</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="B24">
-        <v>27.14900016784668</v>
+        <v>27.1299991607666</v>
       </c>
       <c r="C24">
-        <v>26.07999992370605</v>
+        <v>25.20999908447266</v>
       </c>
       <c r="D24">
-        <v>26.6200008392334</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="E24">
-        <v>26.6200008392334</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="F24">
-        <v>50933600</v>
+        <v>64206200</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>26.61000061035156</v>
+        <v>25.61000061035156</v>
       </c>
       <c r="B25">
-        <v>27.77000045776367</v>
+        <v>25.70000076293945</v>
       </c>
       <c r="C25">
-        <v>26.58200073242188</v>
+        <v>24.42000007629395</v>
       </c>
       <c r="D25">
-        <v>27.43000030517578</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="E25">
-        <v>27.43000030517578</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="F25">
-        <v>44308100</v>
+        <v>46164500</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>27.70999908447266</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="B26">
-        <v>29.19000053405762</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="C26">
-        <v>27.67000007629395</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="D26">
-        <v>28.77000045776367</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="E26">
-        <v>28.77000045776367</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="F26">
-        <v>60028600</v>
+        <v>59505600</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>28.27000045776367</v>
+        <v>24.20999908447266</v>
       </c>
       <c r="B27">
-        <v>28.76000022888184</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="C27">
-        <v>27.90099906921387</v>
+        <v>23.71999931335449</v>
       </c>
       <c r="D27">
-        <v>28.55999946594238</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="E27">
-        <v>28.55999946594238</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="F27">
-        <v>40309700</v>
+        <v>32778000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>28.22999954223633</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="B28">
-        <v>28.3799991607666</v>
+        <v>24.04999923706055</v>
       </c>
       <c r="C28">
-        <v>27.22999954223633</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="D28">
-        <v>27.46999931335449</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="E28">
-        <v>27.46999931335449</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="F28">
-        <v>44102800</v>
+        <v>46789700</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>27.02000045776367</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="B29">
-        <v>27.1299991607666</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="C29">
-        <v>25.20999908447266</v>
+        <v>23.06999969482422</v>
       </c>
       <c r="D29">
-        <v>25.34000015258789</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="E29">
-        <v>25.34000015258789</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="F29">
-        <v>64206200</v>
+        <v>56574800</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>25.61000061035156</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="B30">
-        <v>25.70000076293945</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="C30">
-        <v>24.42000007629395</v>
+        <v>23.35000038146973</v>
       </c>
       <c r="D30">
-        <v>24.52000045776367</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="E30">
-        <v>24.52000045776367</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="F30">
-        <v>46164500</v>
+        <v>125175700</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>24.69000053405762</v>
+        <v>23.70999908447266</v>
       </c>
       <c r="B31">
-        <v>25.04999923706055</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="C31">
-        <v>23.8799991607666</v>
+        <v>23.54000091552734</v>
       </c>
       <c r="D31">
-        <v>24.04000091552734</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="E31">
-        <v>24.04000091552734</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="F31">
-        <v>59505600</v>
+        <v>38873700</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>24.20999908447266</v>
+        <v>23.86000061035156</v>
       </c>
       <c r="B32">
-        <v>24.36000061035156</v>
+        <v>24.09600067138672</v>
       </c>
       <c r="C32">
-        <v>23.71999931335449</v>
+        <v>23.11000061035156</v>
       </c>
       <c r="D32">
-        <v>24.32999992370605</v>
+        <v>23.5</v>
       </c>
       <c r="E32">
-        <v>24.32999992370605</v>
+        <v>23.5</v>
       </c>
       <c r="F32">
-        <v>32778000</v>
+        <v>39630400</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>24.01000022888184</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="B33">
-        <v>24.04999923706055</v>
+        <v>23.97999954223633</v>
       </c>
       <c r="C33">
-        <v>23.02000045776367</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="D33">
-        <v>23.17000007629395</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="E33">
-        <v>23.17000007629395</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="F33">
-        <v>46789700</v>
+        <v>23971700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>23.20999908447266</v>
+        <v>23.54999923706055</v>
       </c>
       <c r="B34">
-        <v>23.8799991607666</v>
+        <v>23.80999946594238</v>
       </c>
       <c r="C34">
-        <v>23.06999969482422</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="D34">
-        <v>23.20999908447266</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="E34">
-        <v>23.20999908447266</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="F34">
-        <v>56574800</v>
+        <v>26280000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>24.90999984741211</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="B35">
-        <v>25.01000022888184</v>
+        <v>24.30999946594238</v>
       </c>
       <c r="C35">
-        <v>23.35000038146973</v>
+        <v>23.79000091552734</v>
       </c>
       <c r="D35">
-        <v>23.57999992370605</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="E35">
-        <v>23.57999992370605</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="F35">
-        <v>125175700</v>
+        <v>28494000</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>23.70999908447266</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="B36">
-        <v>24.1299991607666</v>
+        <v>24.70999908447266</v>
       </c>
       <c r="C36">
-        <v>23.54000091552734</v>
+        <v>24.20499992370605</v>
       </c>
       <c r="D36">
-        <v>23.72999954223633</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="E36">
-        <v>23.72999954223633</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="F36">
-        <v>38873700</v>
+        <v>26106700</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>23.86000061035156</v>
+        <v>24.5</v>
       </c>
       <c r="B37">
-        <v>24.09600067138672</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="C37">
-        <v>23.11000061035156</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="D37">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="E37">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="F37">
-        <v>39630400</v>
+        <v>24275000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>23.26000022888184</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>23.97999954223633</v>
+        <v>24.38999938964844</v>
       </c>
       <c r="C38">
-        <v>23.26000022888184</v>
+        <v>23.92000007629395</v>
       </c>
       <c r="D38">
-        <v>23.53000068664551</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="E38">
-        <v>23.53000068664551</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="F38">
-        <v>23971700</v>
+        <v>25609900</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>23.54999923706055</v>
+        <v>24.5</v>
       </c>
       <c r="B39">
-        <v>23.80999946594238</v>
+        <v>25.20000076293945</v>
       </c>
       <c r="C39">
-        <v>23.29000091552734</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="D39">
-        <v>23.69000053405762</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="E39">
-        <v>23.69000053405762</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="F39">
-        <v>26280000</v>
+        <v>29393900</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>23.82999992370605</v>
+        <v>24.79000091552734</v>
       </c>
       <c r="B40">
-        <v>24.30999946594238</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="C40">
-        <v>23.79000091552734</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="D40">
-        <v>24.1299991607666</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="E40">
-        <v>24.1299991607666</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="F40">
-        <v>28494000</v>
+        <v>24248000</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>24.43000030517578</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="B41">
-        <v>24.70999908447266</v>
+        <v>24.93000030517578</v>
       </c>
       <c r="C41">
-        <v>24.20499992370605</v>
+        <v>24.07999992370605</v>
       </c>
       <c r="D41">
-        <v>24.35000038146973</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="E41">
-        <v>24.35000038146973</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="F41">
-        <v>26106700</v>
+        <v>23976600</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>24.5</v>
+        <v>24.48999977111816</v>
       </c>
       <c r="B42">
-        <v>24.52000045776367</v>
+        <v>24.85000038146973</v>
       </c>
       <c r="C42">
-        <v>23.82999992370605</v>
+        <v>24.25</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="E42">
-        <v>24</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="F42">
-        <v>24275000</v>
+        <v>20166800</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="B43">
-        <v>24.38999938964844</v>
+        <v>25.54000091552734</v>
       </c>
       <c r="C43">
-        <v>23.92000007629395</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="D43">
-        <v>24.26000022888184</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="E43">
-        <v>24.26000022888184</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="F43">
-        <v>25609900</v>
+        <v>33962100</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>24.5</v>
+        <v>25.98999977111816</v>
       </c>
       <c r="B44">
-        <v>25.20000076293945</v>
+        <v>26.75</v>
       </c>
       <c r="C44">
-        <v>24.36000061035156</v>
+        <v>25.25</v>
       </c>
       <c r="D44">
-        <v>24.69000053405762</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="E44">
-        <v>24.69000053405762</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="F44">
-        <v>29393900</v>
+        <v>56767000</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>24.79000091552734</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="B45">
-        <v>24.95999908447266</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="C45">
-        <v>24.17000007629395</v>
+        <v>25.02000045776367</v>
       </c>
       <c r="D45">
-        <v>24.21999931335449</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="E45">
-        <v>24.21999931335449</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="F45">
-        <v>24248000</v>
+        <v>24157200</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>24.1299991607666</v>
+        <v>25.29999923706055</v>
       </c>
       <c r="B46">
-        <v>24.93000030517578</v>
+        <v>25.79500007629395</v>
       </c>
       <c r="C46">
-        <v>24.07999992370605</v>
+        <v>25.1200008392334</v>
       </c>
       <c r="D46">
-        <v>24.78000068664551</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="E46">
-        <v>24.78000068664551</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="F46">
-        <v>23976600</v>
+        <v>21203000</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>24.48999977111816</v>
+        <v>25.5</v>
       </c>
       <c r="B47">
-        <v>24.85000038146973</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="C47">
-        <v>24.25</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="D47">
-        <v>24.43000030517578</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="E47">
-        <v>24.43000030517578</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="F47">
-        <v>20166800</v>
+        <v>21910300</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>24.5</v>
+        <v>26.11000061035156</v>
       </c>
       <c r="B48">
-        <v>25.54000091552734</v>
+        <v>26.64500045776367</v>
       </c>
       <c r="C48">
-        <v>24.47999954223633</v>
+        <v>25.88299942016602</v>
       </c>
       <c r="D48">
-        <v>25.40999984741211</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="E48">
-        <v>25.40999984741211</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="F48">
-        <v>33962100</v>
+        <v>26684700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>25.98999977111816</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="B49">
-        <v>26.75</v>
+        <v>26.71999931335449</v>
       </c>
       <c r="C49">
-        <v>25.25</v>
+        <v>25.55500030517578</v>
       </c>
       <c r="D49">
-        <v>25.52000045776367</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="E49">
-        <v>25.52000045776367</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="F49">
-        <v>56767000</v>
+        <v>30794600</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>25.63999938964844</v>
+        <v>25.88999938964844</v>
       </c>
       <c r="B50">
-        <v>25.89999961853027</v>
+        <v>26.23500061035156</v>
       </c>
       <c r="C50">
-        <v>25.02000045776367</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="D50">
-        <v>25.05999946594238</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="E50">
-        <v>25.05999946594238</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="F50">
-        <v>24157200</v>
+        <v>25244200</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>25.29999923706055</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="B51">
-        <v>25.79500007629395</v>
+        <v>26.56999969482422</v>
       </c>
       <c r="C51">
-        <v>25.1200008392334</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="D51">
-        <v>25.63999938964844</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="E51">
-        <v>25.63999938964844</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="F51">
-        <v>21203000</v>
+        <v>25029700</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>25.5</v>
+        <v>26.45000076293945</v>
       </c>
       <c r="B52">
-        <v>26.1200008392334</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="C52">
-        <v>25.45000076293945</v>
+        <v>25.71999931335449</v>
       </c>
       <c r="D52">
-        <v>25.8799991607666</v>
+        <v>26</v>
       </c>
       <c r="E52">
-        <v>25.8799991607666</v>
+        <v>26</v>
       </c>
       <c r="F52">
-        <v>21910300</v>
+        <v>25929900</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>26.11000061035156</v>
+        <v>26.25</v>
       </c>
       <c r="B53">
-        <v>26.64500045776367</v>
+        <v>27.11000061035156</v>
       </c>
       <c r="C53">
-        <v>25.88299942016602</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="D53">
-        <v>26.55999946594238</v>
+        <v>26.75</v>
       </c>
       <c r="E53">
-        <v>26.55999946594238</v>
+        <v>26.75</v>
       </c>
       <c r="F53">
-        <v>26684700</v>
+        <v>41359600</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>26.55999946594238</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="B54">
-        <v>26.71999931335449</v>
+        <v>25.97999954223633</v>
       </c>
       <c r="C54">
-        <v>25.55500030517578</v>
+        <v>23.95000076293945</v>
       </c>
       <c r="D54">
-        <v>25.92000007629395</v>
+        <v>24.25</v>
       </c>
       <c r="E54">
-        <v>25.92000007629395</v>
+        <v>24.25</v>
       </c>
       <c r="F54">
-        <v>30794600</v>
+        <v>117540200</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>25.88999938964844</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="B55">
-        <v>26.23500061035156</v>
+        <v>23.63999938964844</v>
       </c>
       <c r="C55">
-        <v>25.17000007629395</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="D55">
-        <v>26.1200008392334</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="E55">
-        <v>26.1200008392334</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="F55">
-        <v>25244200</v>
+        <v>94860100</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>26.26000022888184</v>
+        <v>23.04000091552734</v>
       </c>
       <c r="B56">
-        <v>26.56999969482422</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="C56">
-        <v>25.8700008392334</v>
+        <v>22.66500091552734</v>
       </c>
       <c r="D56">
-        <v>26.46999931335449</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="E56">
-        <v>26.46999931335449</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="F56">
-        <v>25029700</v>
+        <v>43381500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>26.45000076293945</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="B57">
-        <v>26.6299991607666</v>
+        <v>23.22500038146973</v>
       </c>
       <c r="C57">
-        <v>25.71999931335449</v>
+        <v>22.3799991607666</v>
       </c>
       <c r="D57">
-        <v>26</v>
+        <v>22.82999992370605</v>
       </c>
       <c r="E57">
-        <v>26</v>
+        <v>22.82999992370605</v>
       </c>
       <c r="F57">
-        <v>25929900</v>
+        <v>53440300</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>26.25</v>
+        <v>23</v>
       </c>
       <c r="B58">
-        <v>27.11000061035156</v>
+        <v>23.52000045776367</v>
       </c>
       <c r="C58">
-        <v>26.1200008392334</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="D58">
-        <v>26.75</v>
+        <v>23.40999984741211</v>
       </c>
       <c r="E58">
-        <v>26.75</v>
+        <v>23.40999984741211</v>
       </c>
       <c r="F58">
-        <v>41359600</v>
+        <v>33225700</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>25.89999961853027</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="B59">
-        <v>25.97999954223633</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="C59">
-        <v>23.95000076293945</v>
+        <v>22.61000061035156</v>
       </c>
       <c r="D59">
-        <v>24.25</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="E59">
-        <v>24.25</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="F59">
-        <v>117540200</v>
+        <v>31574800</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>23.60000038146973</v>
+        <v>23.04999923706055</v>
       </c>
       <c r="B60">
-        <v>23.63999938964844</v>
+        <v>23.2189998626709</v>
       </c>
       <c r="C60">
-        <v>22.1200008392334</v>
+        <v>22.39999961853027</v>
       </c>
       <c r="D60">
-        <v>22.52000045776367</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="E60">
-        <v>22.52000045776367</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="F60">
-        <v>94860100</v>
+        <v>27994100</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>23.04000091552734</v>
+        <v>22.5</v>
       </c>
       <c r="B61">
-        <v>23.1299991607666</v>
+        <v>22.54999923706055</v>
       </c>
       <c r="C61">
-        <v>22.66500091552734</v>
+        <v>21.34199905395508</v>
       </c>
       <c r="D61">
-        <v>22.98999977111816</v>
+        <v>21.5</v>
       </c>
       <c r="E61">
-        <v>22.98999977111816</v>
+        <v>21.5</v>
       </c>
       <c r="F61">
-        <v>43381500</v>
+        <v>51039900</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>23.02000045776367</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="B62">
-        <v>23.22500038146973</v>
+        <v>21.95999908447266</v>
       </c>
       <c r="C62">
-        <v>22.3799991607666</v>
+        <v>21.29999923706055</v>
       </c>
       <c r="D62">
-        <v>22.82999992370605</v>
+        <v>21.40999984741211</v>
       </c>
       <c r="E62">
-        <v>22.82999992370605</v>
+        <v>21.40999984741211</v>
       </c>
       <c r="F62">
-        <v>53440300</v>
+        <v>30013100</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>23</v>
+        <v>21.53000068664551</v>
       </c>
       <c r="B63">
-        <v>23.52000045776367</v>
+        <v>21.56999969482422</v>
       </c>
       <c r="C63">
-        <v>22.95000076293945</v>
+        <v>20.18000030517578</v>
       </c>
       <c r="D63">
-        <v>23.40999984741211</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="E63">
-        <v>23.40999984741211</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="F63">
-        <v>33225700</v>
+        <v>59899100</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>23.29000091552734</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="B64">
-        <v>23.29000091552734</v>
+        <v>21.04999923706055</v>
       </c>
       <c r="C64">
-        <v>22.61000061035156</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="D64">
-        <v>23.1299991607666</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="E64">
-        <v>23.1299991607666</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="F64">
-        <v>31574800</v>
+        <v>44588000</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>23.04999923706055</v>
+        <v>20.35000038146973</v>
       </c>
       <c r="B65">
-        <v>23.2189998626709</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="C65">
-        <v>22.39999961853027</v>
+        <v>20.05999946594238</v>
       </c>
       <c r="D65">
-        <v>22.48999977111816</v>
+        <v>21.11000061035156</v>
       </c>
       <c r="E65">
-        <v>22.48999977111816</v>
+        <v>21.11000061035156</v>
       </c>
       <c r="F65">
-        <v>27994100</v>
+        <v>35233900</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>22.5</v>
+        <v>20.40999984741211</v>
       </c>
       <c r="B66">
-        <v>22.54999923706055</v>
+        <v>21.09000015258789</v>
       </c>
       <c r="C66">
-        <v>21.34199905395508</v>
+        <v>20.34900093078613</v>
       </c>
       <c r="D66">
-        <v>21.5</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="E66">
-        <v>21.5</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="F66">
-        <v>51039900</v>
+        <v>20691200</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>21.60000038146973</v>
+        <v>21.19000053405762</v>
       </c>
       <c r="B67">
-        <v>21.95999908447266</v>
+        <v>21.39999961853027</v>
       </c>
       <c r="C67">
-        <v>21.29999923706055</v>
+        <v>20.55999946594238</v>
       </c>
       <c r="D67">
-        <v>21.40999984741211</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="E67">
-        <v>21.40999984741211</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="F67">
-        <v>30013100</v>
+        <v>29114000</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>21.53000068664551</v>
+        <v>20.95000076293945</v>
       </c>
       <c r="B68">
-        <v>21.56999969482422</v>
+        <v>21.25</v>
       </c>
       <c r="C68">
-        <v>20.18000030517578</v>
+        <v>20.11000061035156</v>
       </c>
       <c r="D68">
         <v>20.64999961853027</v>
@@ -1752,1227 +1752,1207 @@
         <v>20.64999961853027</v>
       </c>
       <c r="F68">
-        <v>59899100</v>
+        <v>38196400</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>20.59000015258789</v>
+        <v>20.53000068664551</v>
       </c>
       <c r="B69">
-        <v>21.04999923706055</v>
+        <v>20.88999938964844</v>
       </c>
       <c r="C69">
-        <v>20.04999923706055</v>
+        <v>19.29000091552734</v>
       </c>
       <c r="D69">
-        <v>20.59000015258789</v>
+        <v>19.3799991607666</v>
       </c>
       <c r="E69">
-        <v>20.59000015258789</v>
+        <v>19.3799991607666</v>
       </c>
       <c r="F69">
-        <v>44588000</v>
+        <v>48283700</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>20.35000038146973</v>
+        <v>19.29999923706055</v>
       </c>
       <c r="B70">
-        <v>21.20000076293945</v>
+        <v>19.90999984741211</v>
       </c>
       <c r="C70">
-        <v>20.05999946594238</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="D70">
-        <v>21.11000061035156</v>
+        <v>19.69000053405762</v>
       </c>
       <c r="E70">
-        <v>21.11000061035156</v>
+        <v>19.69000053405762</v>
       </c>
       <c r="F70">
-        <v>35233900</v>
+        <v>45802900</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>20.40999984741211</v>
+        <v>19.5</v>
       </c>
       <c r="B71">
-        <v>21.09000015258789</v>
+        <v>19.53000068664551</v>
       </c>
       <c r="C71">
-        <v>20.34900093078613</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="D71">
-        <v>21.03000068664551</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="E71">
-        <v>21.03000068664551</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="F71">
-        <v>20691200</v>
+        <v>55926700</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>21.19000053405762</v>
+        <v>18.54000091552734</v>
       </c>
       <c r="B72">
-        <v>21.39999961853027</v>
+        <v>18.96999931335449</v>
       </c>
       <c r="C72">
-        <v>20.55999946594238</v>
+        <v>18.07500076293945</v>
       </c>
       <c r="D72">
-        <v>21.06999969482422</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="E72">
-        <v>21.06999969482422</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="F72">
-        <v>29114000</v>
+        <v>56459800</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>20.95000076293945</v>
+        <v>19.26000022888184</v>
       </c>
       <c r="B73">
-        <v>21.25</v>
+        <v>19.85499954223633</v>
       </c>
       <c r="C73">
-        <v>20.11000061035156</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="D73">
-        <v>20.64999961853027</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="E73">
-        <v>20.64999961853027</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="F73">
-        <v>38196400</v>
+        <v>35129000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>20.53000068664551</v>
+        <v>19.51000022888184</v>
       </c>
       <c r="B74">
-        <v>20.88999938964844</v>
+        <v>19.82500076293945</v>
       </c>
       <c r="C74">
-        <v>19.29000091552734</v>
+        <v>19.03000068664551</v>
       </c>
       <c r="D74">
-        <v>19.3799991607666</v>
+        <v>19.81999969482422</v>
       </c>
       <c r="E74">
-        <v>19.3799991607666</v>
+        <v>19.81999969482422</v>
       </c>
       <c r="F74">
-        <v>48283700</v>
+        <v>28425900</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19.29999923706055</v>
+        <v>19.95000076293945</v>
       </c>
       <c r="B75">
-        <v>19.90999984741211</v>
+        <v>20.14999961853027</v>
       </c>
       <c r="C75">
-        <v>19.05999946594238</v>
+        <v>19.04000091552734</v>
       </c>
       <c r="D75">
-        <v>19.69000053405762</v>
+        <v>19.20999908447266</v>
       </c>
       <c r="E75">
-        <v>19.69000053405762</v>
+        <v>19.20999908447266</v>
       </c>
       <c r="F75">
-        <v>45802900</v>
+        <v>30354700</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19.5</v>
+        <v>19.28000068664551</v>
       </c>
       <c r="B76">
-        <v>19.53000068664551</v>
+        <v>19.57999992370605</v>
       </c>
       <c r="C76">
-        <v>18.39999961853027</v>
+        <v>18.70000076293945</v>
       </c>
       <c r="D76">
-        <v>18.97999954223633</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="E76">
-        <v>18.97999954223633</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="F76">
-        <v>55926700</v>
+        <v>27550300</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>18.54000091552734</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="B77">
-        <v>18.96999931335449</v>
+        <v>19.07500076293945</v>
       </c>
       <c r="C77">
-        <v>18.07500076293945</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="D77">
-        <v>18.79999923706055</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="E77">
-        <v>18.79999923706055</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="F77">
-        <v>56459800</v>
+        <v>38376000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19.26000022888184</v>
+        <v>18</v>
       </c>
       <c r="B78">
-        <v>19.85499954223633</v>
+        <v>18.85899925231934</v>
       </c>
       <c r="C78">
-        <v>19.06999969482422</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="D78">
-        <v>19.45999908447266</v>
+        <v>18.63999938964844</v>
       </c>
       <c r="E78">
-        <v>19.45999908447266</v>
+        <v>18.63999938964844</v>
       </c>
       <c r="F78">
-        <v>35129000</v>
+        <v>38864800</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19.51000022888184</v>
+        <v>18.3700008392334</v>
       </c>
       <c r="B79">
-        <v>19.82500076293945</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="C79">
-        <v>19.03000068664551</v>
+        <v>17.9950008392334</v>
       </c>
       <c r="D79">
-        <v>19.81999969482422</v>
+        <v>18.86000061035156</v>
       </c>
       <c r="E79">
-        <v>19.81999969482422</v>
+        <v>18.86000061035156</v>
       </c>
       <c r="F79">
-        <v>28425900</v>
+        <v>39361900</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19.95000076293945</v>
+        <v>18.95999908447266</v>
       </c>
       <c r="B80">
-        <v>20.14999961853027</v>
+        <v>19.1200008392334</v>
       </c>
       <c r="C80">
-        <v>19.04000091552734</v>
+        <v>18.14999961853027</v>
       </c>
       <c r="D80">
-        <v>19.20999908447266</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="E80">
-        <v>19.20999908447266</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="F80">
-        <v>30354700</v>
+        <v>33950000</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19.28000068664551</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="B81">
-        <v>19.57999992370605</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="C81">
-        <v>18.70000076293945</v>
+        <v>17.80999946594238</v>
       </c>
       <c r="D81">
-        <v>18.94000053405762</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="E81">
-        <v>18.94000053405762</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="F81">
-        <v>27550300</v>
+        <v>44325900</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>18.79999923706055</v>
+        <v>18.59000015258789</v>
       </c>
       <c r="B82">
-        <v>19.07500076293945</v>
+        <v>18.67000007629395</v>
       </c>
       <c r="C82">
-        <v>18.17000007629395</v>
+        <v>17.83499908447266</v>
       </c>
       <c r="D82">
-        <v>18.39999961853027</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="E82">
-        <v>18.39999961853027</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="F82">
-        <v>38376000</v>
+        <v>42265900</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>18</v>
+        <v>18.15999984741211</v>
       </c>
       <c r="B83">
-        <v>18.85899925231934</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="C83">
-        <v>17.90999984741211</v>
+        <v>18.10000038146973</v>
       </c>
       <c r="D83">
-        <v>18.63999938964844</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="E83">
-        <v>18.63999938964844</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="F83">
-        <v>38864800</v>
+        <v>33878600</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>18.3700008392334</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="B84">
-        <v>18.94000053405762</v>
+        <v>19.45000076293945</v>
       </c>
       <c r="C84">
-        <v>17.9950008392334</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="D84">
-        <v>18.86000061035156</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="E84">
-        <v>18.86000061035156</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="F84">
-        <v>39361900</v>
+        <v>33894200</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>18.95999908447266</v>
+        <v>18.85000038146973</v>
       </c>
       <c r="B85">
-        <v>19.1200008392334</v>
+        <v>19.13500022888184</v>
       </c>
       <c r="C85">
-        <v>18.14999961853027</v>
+        <v>18.71999931335449</v>
       </c>
       <c r="D85">
-        <v>18.34000015258789</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="E85">
-        <v>18.34000015258789</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="F85">
-        <v>33950000</v>
+        <v>24758300</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>18.03000068664551</v>
+        <v>18.78000068664551</v>
       </c>
       <c r="B86">
-        <v>19.10000038146973</v>
+        <v>19.25</v>
       </c>
       <c r="C86">
-        <v>17.80999946594238</v>
+        <v>18.78000068664551</v>
       </c>
       <c r="D86">
-        <v>19.05999946594238</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="E86">
-        <v>19.05999946594238</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="F86">
-        <v>44325900</v>
+        <v>21782000</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>18.59000015258789</v>
+        <v>18.88999938964844</v>
       </c>
       <c r="B87">
-        <v>18.67000007629395</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="C87">
-        <v>17.83499908447266</v>
+        <v>18.44000053405762</v>
       </c>
       <c r="D87">
-        <v>17.95999908447266</v>
+        <v>18.56999969482422</v>
       </c>
       <c r="E87">
-        <v>17.95999908447266</v>
+        <v>18.56999969482422</v>
       </c>
       <c r="F87">
-        <v>42265900</v>
+        <v>20518800</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>18.15999984741211</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="B88">
-        <v>18.97999954223633</v>
+        <v>18.60000038146973</v>
       </c>
       <c r="C88">
-        <v>18.10000038146973</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="D88">
-        <v>18.89999961853027</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="E88">
-        <v>18.89999961853027</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="F88">
-        <v>33878600</v>
+        <v>28217500</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>18.64999961853027</v>
+        <v>18.10000038146973</v>
       </c>
       <c r="B89">
-        <v>19.45000076293945</v>
+        <v>18.9950008392334</v>
       </c>
       <c r="C89">
-        <v>18.64999961853027</v>
+        <v>18.06999969482422</v>
       </c>
       <c r="D89">
-        <v>18.8799991607666</v>
+        <v>18.69000053405762</v>
       </c>
       <c r="E89">
-        <v>18.8799991607666</v>
+        <v>18.69000053405762</v>
       </c>
       <c r="F89">
-        <v>33894200</v>
+        <v>29285200</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>18.85000038146973</v>
+        <v>18.61000061035156</v>
       </c>
       <c r="B90">
-        <v>19.13500022888184</v>
+        <v>18.92000007629395</v>
       </c>
       <c r="C90">
-        <v>18.71999931335449</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="D90">
-        <v>18.93000030517578</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="E90">
-        <v>18.93000030517578</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="F90">
-        <v>24758300</v>
+        <v>23556000</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>18.78000068664551</v>
+        <v>18.36000061035156</v>
       </c>
       <c r="B91">
-        <v>19.25</v>
+        <v>18.56900024414062</v>
       </c>
       <c r="C91">
-        <v>18.78000068664551</v>
+        <v>17.86000061035156</v>
       </c>
       <c r="D91">
-        <v>18.94000053405762</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="E91">
-        <v>18.94000053405762</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="F91">
-        <v>21782000</v>
+        <v>34283600</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>18.88999938964844</v>
+        <v>18.61000061035156</v>
       </c>
       <c r="B92">
-        <v>19.06999969482422</v>
+        <v>18.84000015258789</v>
       </c>
       <c r="C92">
-        <v>18.44000053405762</v>
+        <v>17.79000091552734</v>
       </c>
       <c r="D92">
-        <v>18.56999969482422</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="E92">
-        <v>18.56999969482422</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="F92">
-        <v>20518800</v>
+        <v>39643200</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>18.53000068664551</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="B93">
-        <v>18.60000038146973</v>
+        <v>18.56800079345703</v>
       </c>
       <c r="C93">
-        <v>17.90999984741211</v>
+        <v>16.8700008392334</v>
       </c>
       <c r="D93">
-        <v>18.17000007629395</v>
+        <v>16.95999908447266</v>
       </c>
       <c r="E93">
-        <v>18.17000007629395</v>
+        <v>16.95999908447266</v>
       </c>
       <c r="F93">
-        <v>28217500</v>
+        <v>58445900</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>18.10000038146973</v>
+        <v>16.8700008392334</v>
       </c>
       <c r="B94">
-        <v>18.9950008392334</v>
+        <v>17.18000030517578</v>
       </c>
       <c r="C94">
-        <v>18.06999969482422</v>
+        <v>16.05500030517578</v>
       </c>
       <c r="D94">
-        <v>18.69000053405762</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="E94">
-        <v>18.69000053405762</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="F94">
-        <v>29285200</v>
+        <v>49737100</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>18.61000061035156</v>
+        <v>16.70000076293945</v>
       </c>
       <c r="B95">
-        <v>18.92000007629395</v>
+        <v>17.32999992370605</v>
       </c>
       <c r="C95">
-        <v>18.20999908447266</v>
+        <v>16.47500038146973</v>
       </c>
       <c r="D95">
-        <v>18.20999908447266</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="E95">
-        <v>18.20999908447266</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="F95">
-        <v>23556000</v>
+        <v>37696500</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>18.36000061035156</v>
+        <v>16.19000053405762</v>
       </c>
       <c r="B96">
-        <v>18.56900024414062</v>
+        <v>16.56999969482422</v>
       </c>
       <c r="C96">
-        <v>17.86000061035156</v>
+        <v>15.35000038146973</v>
       </c>
       <c r="D96">
-        <v>18.53000068664551</v>
+        <v>16.5</v>
       </c>
       <c r="E96">
-        <v>18.53000068664551</v>
+        <v>16.5</v>
       </c>
       <c r="F96">
-        <v>34283600</v>
+        <v>77649400</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>18.61000061035156</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="B97">
-        <v>18.84000015258789</v>
+        <v>17.25</v>
       </c>
       <c r="C97">
-        <v>17.79000091552734</v>
+        <v>16.31999969482422</v>
       </c>
       <c r="D97">
-        <v>18.17000007629395</v>
+        <v>16.88999938964844</v>
       </c>
       <c r="E97">
-        <v>18.17000007629395</v>
+        <v>16.88999938964844</v>
       </c>
       <c r="F97">
-        <v>39643200</v>
+        <v>47442600</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>18.03000068664551</v>
+        <v>17.15999984741211</v>
       </c>
       <c r="B98">
-        <v>18.56800079345703</v>
+        <v>17.45999908447266</v>
       </c>
       <c r="C98">
-        <v>16.8700008392334</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="D98">
-        <v>16.95999908447266</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="E98">
-        <v>16.95999908447266</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="F98">
-        <v>58445900</v>
+        <v>39784200</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>16.8700008392334</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="B99">
-        <v>17.18000030517578</v>
+        <v>16.81999969482422</v>
       </c>
       <c r="C99">
-        <v>16.05500030517578</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="D99">
-        <v>16.73999977111816</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E99">
-        <v>16.73999977111816</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="F99">
-        <v>49737100</v>
+        <v>35492200</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>16.70000076293945</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="B100">
-        <v>17.32999992370605</v>
+        <v>16.24900054931641</v>
       </c>
       <c r="C100">
-        <v>16.47500038146973</v>
+        <v>15.61999988555908</v>
       </c>
       <c r="D100">
-        <v>16.55999946594238</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E100">
-        <v>16.55999946594238</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="F100">
-        <v>37696500</v>
+        <v>35548200</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>16.19000053405762</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="B101">
-        <v>16.56999969482422</v>
+        <v>15.75</v>
       </c>
       <c r="C101">
-        <v>15.35000038146973</v>
+        <v>14.92000007629395</v>
       </c>
       <c r="D101">
-        <v>16.5</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="E101">
-        <v>16.5</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="F101">
-        <v>77649400</v>
+        <v>49067700</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>16.39999961853027</v>
+        <v>14.89999961853027</v>
       </c>
       <c r="B102">
-        <v>17.25</v>
+        <v>15.25</v>
       </c>
       <c r="C102">
-        <v>16.31999969482422</v>
+        <v>14.53999996185303</v>
       </c>
       <c r="D102">
-        <v>16.88999938964844</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="E102">
-        <v>16.88999938964844</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="F102">
-        <v>47442600</v>
+        <v>48049100</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>17.15999984741211</v>
+        <v>14.89000034332275</v>
       </c>
       <c r="B103">
-        <v>17.45999908447266</v>
+        <v>15.55000019073486</v>
       </c>
       <c r="C103">
-        <v>16.39999961853027</v>
+        <v>14.56999969482422</v>
       </c>
       <c r="D103">
-        <v>16.71999931335449</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="E103">
-        <v>16.71999931335449</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="F103">
-        <v>39784200</v>
+        <v>44690400</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>16.79999923706055</v>
+        <v>14.25</v>
       </c>
       <c r="B104">
-        <v>16.81999969482422</v>
+        <v>14.47799968719482</v>
       </c>
       <c r="C104">
-        <v>15.9399995803833</v>
+        <v>13.5</v>
       </c>
       <c r="D104">
-        <v>16.01000022888184</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="E104">
-        <v>16.01000022888184</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="F104">
-        <v>35492200</v>
+        <v>73031300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>15.9399995803833</v>
+        <v>12.78999996185303</v>
       </c>
       <c r="B105">
-        <v>16.24900054931641</v>
+        <v>13.40999984741211</v>
       </c>
       <c r="C105">
-        <v>15.61999988555908</v>
+        <v>11.75</v>
       </c>
       <c r="D105">
-        <v>16.01000022888184</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="E105">
-        <v>16.01000022888184</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="F105">
-        <v>35548200</v>
+        <v>110518900</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>15.44999980926514</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="B106">
-        <v>15.75</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="C106">
-        <v>14.92000007629395</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="D106">
-        <v>14.97000026702881</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="E106">
-        <v>14.97000026702881</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="F106">
-        <v>49067700</v>
+        <v>47456600</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>14.89999961853027</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="B107">
-        <v>15.25</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="C107">
-        <v>14.53999996185303</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="D107">
-        <v>14.5600004196167</v>
+        <v>12.75</v>
       </c>
       <c r="E107">
-        <v>14.5600004196167</v>
+        <v>12.75</v>
       </c>
       <c r="F107">
-        <v>48049100</v>
+        <v>69949700</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>14.89000034332275</v>
+        <v>13.01000022888184</v>
       </c>
       <c r="B108">
-        <v>15.55000019073486</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="C108">
-        <v>14.56999969482422</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="D108">
-        <v>14.61999988555908</v>
+        <v>12.27999973297119</v>
       </c>
       <c r="E108">
-        <v>14.61999988555908</v>
+        <v>12.27999973297119</v>
       </c>
       <c r="F108">
-        <v>44690400</v>
+        <v>52622900</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>14.25</v>
+        <v>12.30000019073486</v>
       </c>
       <c r="B109">
-        <v>14.47799968719482</v>
+        <v>12.88000011444092</v>
       </c>
       <c r="C109">
-        <v>13.5</v>
+        <v>11.89000034332275</v>
       </c>
       <c r="D109">
-        <v>13.52999973297119</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="E109">
-        <v>13.52999973297119</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="F109">
-        <v>73031300</v>
+        <v>54887500</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>12.78999996185303</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="B110">
-        <v>13.40999984741211</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="C110">
-        <v>11.75</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="D110">
-        <v>13.39999961853027</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="E110">
-        <v>13.39999961853027</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="F110">
-        <v>110518900</v>
+        <v>51039300</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>13.11999988555908</v>
+        <v>14.22999954223633</v>
       </c>
       <c r="B111">
-        <v>13.60000038146973</v>
+        <v>14.36999988555908</v>
       </c>
       <c r="C111">
-        <v>12.82999992370605</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="D111">
-        <v>13.0600004196167</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="E111">
-        <v>13.0600004196167</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="F111">
-        <v>47456600</v>
+        <v>69012900</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>13.60000038146973</v>
+        <v>14.09000015258789</v>
       </c>
       <c r="B112">
-        <v>13.81999969482422</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="C112">
-        <v>12.68000030517578</v>
+        <v>13.1899995803833</v>
       </c>
       <c r="D112">
-        <v>12.75</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="E112">
-        <v>12.75</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="F112">
-        <v>69949700</v>
+        <v>47204300</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>13.01000022888184</v>
+        <v>12.94999980926514</v>
       </c>
       <c r="B113">
-        <v>13.0600004196167</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="C113">
-        <v>12.19999980926514</v>
+        <v>12.42000007629395</v>
       </c>
       <c r="D113">
-        <v>12.27999973297119</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="E113">
-        <v>12.27999973297119</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="F113">
-        <v>52622900</v>
+        <v>47236900</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>12.30000019073486</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="B114">
-        <v>12.88000011444092</v>
+        <v>13.09000015258789</v>
       </c>
       <c r="C114">
-        <v>11.89000034332275</v>
+        <v>12.26500034332275</v>
       </c>
       <c r="D114">
-        <v>12.71000003814697</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="E114">
-        <v>12.71000003814697</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="F114">
-        <v>54887500</v>
+        <v>38843600</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>12.77000045776367</v>
+        <v>13.02499961853027</v>
       </c>
       <c r="B115">
-        <v>13.73999977111816</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="C115">
-        <v>12.76000022888184</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="D115">
-        <v>13.71000003814697</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="E115">
-        <v>13.71000003814697</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="F115">
-        <v>51039300</v>
+        <v>45646100</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>14.22999954223633</v>
+        <v>12.75</v>
       </c>
       <c r="B116">
-        <v>14.36999988555908</v>
+        <v>13.18900012969971</v>
       </c>
       <c r="C116">
-        <v>13.5600004196167</v>
+        <v>12.61999988555908</v>
       </c>
       <c r="D116">
-        <v>14.19999980926514</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="E116">
-        <v>14.19999980926514</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="F116">
-        <v>69012900</v>
+        <v>30317100</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>14.09000015258789</v>
+        <v>13.28999996185303</v>
       </c>
       <c r="B117">
-        <v>14.19999980926514</v>
+        <v>13.89000034332275</v>
       </c>
       <c r="C117">
-        <v>13.1899995803833</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="D117">
-        <v>13.31999969482422</v>
+        <v>13.86999988555908</v>
       </c>
       <c r="E117">
-        <v>13.31999969482422</v>
+        <v>13.86999988555908</v>
       </c>
       <c r="F117">
-        <v>47204300</v>
+        <v>34451900</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>12.94999980926514</v>
+        <v>13.5</v>
       </c>
       <c r="B118">
-        <v>13.31999969482422</v>
+        <v>14.16499996185303</v>
       </c>
       <c r="C118">
-        <v>12.42000007629395</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="D118">
-        <v>12.44999980926514</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="E118">
-        <v>12.44999980926514</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="F118">
-        <v>47236900</v>
+        <v>41998200</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>12.47000026702881</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="B119">
-        <v>13.09000015258789</v>
+        <v>13.92000007629395</v>
       </c>
       <c r="C119">
-        <v>12.26500034332275</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="D119">
-        <v>12.9399995803833</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="E119">
-        <v>12.9399995803833</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="F119">
-        <v>38843600</v>
+        <v>41746500</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>13.02499961853027</v>
+        <v>13.10000038146973</v>
       </c>
       <c r="B120">
-        <v>13.60000038146973</v>
+        <v>13.79500007629395</v>
       </c>
       <c r="C120">
-        <v>12.9399995803833</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="D120">
-        <v>12.97999954223633</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="E120">
-        <v>12.97999954223633</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="F120">
-        <v>45646100</v>
+        <v>40617900</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>12.75</v>
+        <v>13.52000045776367</v>
       </c>
       <c r="B121">
-        <v>13.18900012969971</v>
+        <v>14.1850004196167</v>
       </c>
       <c r="C121">
-        <v>12.61999988555908</v>
+        <v>13.40999984741211</v>
       </c>
       <c r="D121">
-        <v>13.14999961853027</v>
+        <v>14.17000007629395</v>
       </c>
       <c r="E121">
-        <v>13.14999961853027</v>
+        <v>14.17000007629395</v>
       </c>
       <c r="F121">
-        <v>30317100</v>
+        <v>48523700</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>13.28999996185303</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="B122">
-        <v>13.89000034332275</v>
+        <v>14.26000022888184</v>
       </c>
       <c r="C122">
-        <v>13.26000022888184</v>
+        <v>13.65999984741211</v>
       </c>
       <c r="D122">
-        <v>13.86999988555908</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="E122">
-        <v>13.86999988555908</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="F122">
-        <v>34451900</v>
+        <v>58624400</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>13.5</v>
+        <v>12.39000034332275</v>
       </c>
       <c r="B123">
-        <v>14.16499996185303</v>
+        <v>12.69999980926514</v>
       </c>
       <c r="C123">
-        <v>13.36999988555908</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="D123">
-        <v>13.5600004196167</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="E123">
-        <v>13.5600004196167</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="F123">
-        <v>41998200</v>
+        <v>151385400</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>13.44999980926514</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="B124">
-        <v>13.92000007629395</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="C124">
-        <v>12.97000026702881</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="D124">
-        <v>13.13000011444092</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="E124">
-        <v>13.13000011444092</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="F124">
-        <v>41746500</v>
+        <v>137525900</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>13.10000038146973</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="B125">
-        <v>13.79500007629395</v>
+        <v>11.1850004196167</v>
       </c>
       <c r="C125">
-        <v>12.97999954223633</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="D125">
-        <v>13.26000022888184</v>
+        <v>10.47999954223633</v>
       </c>
       <c r="E125">
-        <v>13.26000022888184</v>
+        <v>10.47999954223633</v>
       </c>
       <c r="F125">
-        <v>40617900</v>
+        <v>104501500</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>13.52000045776367</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="B126">
-        <v>14.1850004196167</v>
+        <v>11.26000022888184</v>
       </c>
       <c r="C126">
-        <v>13.40999984741211</v>
+        <v>10.39999961853027</v>
       </c>
       <c r="D126">
-        <v>14.17000007629395</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="E126">
-        <v>14.17000007629395</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="F126">
-        <v>48523700</v>
+        <v>93964500</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>13.90999984741211</v>
+        <v>9.75</v>
       </c>
       <c r="B127">
-        <v>14.26000022888184</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="C127">
-        <v>13.65999984741211</v>
+        <v>9.739999771118164</v>
       </c>
       <c r="D127">
-        <v>13.97000026702881</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="E127">
-        <v>13.97000026702881</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="F127">
-        <v>58624400</v>
+        <v>118793000</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>12.39000034332275</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="B128">
-        <v>12.69999980926514</v>
+        <v>11.89000034332275</v>
       </c>
       <c r="C128">
-        <v>11.69999980926514</v>
+        <v>11</v>
       </c>
       <c r="D128">
-        <v>11.77000045776367</v>
+        <v>11.47000026702881</v>
       </c>
       <c r="E128">
-        <v>11.77000045776367</v>
+        <v>11.47000026702881</v>
       </c>
       <c r="F128">
-        <v>151385400</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>11.92000007629395</v>
-      </c>
-      <c r="B129">
-        <v>12.01000022888184</v>
-      </c>
-      <c r="C129">
-        <v>10.56999969482422</v>
-      </c>
-      <c r="D129">
-        <v>11.02000045776367</v>
-      </c>
-      <c r="E129">
-        <v>11.02000045776367</v>
-      </c>
-      <c r="F129">
-        <v>137525900</v>
+        <v>75346700</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/PLTR/HighLow.xlsx
+++ b/Stocks/PLTR/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2542 +417,2502 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>24.39999961853027</v>
+        <v>26.79000091552734</v>
       </c>
       <c r="B2">
-        <v>25.40999984741211</v>
+        <v>26.8799991607666</v>
       </c>
       <c r="C2">
-        <v>24.36000061035156</v>
+        <v>26.27000045776367</v>
       </c>
       <c r="D2">
-        <v>24.8700008392334</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="E2">
-        <v>24.8700008392334</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="F2">
-        <v>46179400</v>
+        <v>35835100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>25.04999923706055</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="B3">
-        <v>26.09000015258789</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="C3">
-        <v>24.90999984741211</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="D3">
-        <v>25.70999908447266</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="E3">
-        <v>25.70999908447266</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="F3">
-        <v>52186500</v>
+        <v>54394400</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>25.73999977111816</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="B4">
-        <v>26.60000038146973</v>
+        <v>26.23999977111816</v>
       </c>
       <c r="C4">
-        <v>25.6200008392334</v>
+        <v>25.29000091552734</v>
       </c>
       <c r="D4">
-        <v>25.76000022888184</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="E4">
-        <v>25.76000022888184</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="F4">
-        <v>44139300</v>
+        <v>34190800</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>25.79000091552734</v>
+        <v>26.18000030517578</v>
       </c>
       <c r="B5">
-        <v>26.36000061035156</v>
+        <v>26.72999954223633</v>
       </c>
       <c r="C5">
-        <v>25.65999984741211</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="D5">
-        <v>26.34000015258789</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="E5">
-        <v>26.34000015258789</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="F5">
-        <v>93168600</v>
+        <v>37215800</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>26.45999908447266</v>
+        <v>26.14999961853027</v>
       </c>
       <c r="B6">
-        <v>26.51000022888184</v>
+        <v>26.23900032043457</v>
       </c>
       <c r="C6">
-        <v>26.03000068664551</v>
+        <v>25.03000068664551</v>
       </c>
       <c r="D6">
-        <v>26.20000076293945</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="E6">
-        <v>26.20000076293945</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="F6">
-        <v>34417200</v>
+        <v>42372300</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>26.20999908447266</v>
+        <v>25.96999931335449</v>
       </c>
       <c r="B7">
-        <v>26.8700008392334</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="C7">
-        <v>26.09000015258789</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="D7">
-        <v>26.51000022888184</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="E7">
-        <v>26.51000022888184</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="F7">
-        <v>38460100</v>
+        <v>34569000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>26.48999977111816</v>
+        <v>26.29999923706055</v>
       </c>
       <c r="B8">
-        <v>26.75</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="C8">
-        <v>26.21999931335449</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="D8">
-        <v>26.63999938964844</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="E8">
-        <v>26.63999938964844</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="F8">
-        <v>26609500</v>
+        <v>49555500</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>26.79000091552734</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="B9">
-        <v>26.8799991607666</v>
+        <v>28.79000091552734</v>
       </c>
       <c r="C9">
-        <v>26.27000045776367</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="D9">
-        <v>26.70000076293945</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="E9">
-        <v>26.70000076293945</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="F9">
-        <v>35835100</v>
+        <v>109992000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>26.60000038146973</v>
+        <v>28.65999984741211</v>
       </c>
       <c r="B10">
-        <v>26.61000061035156</v>
+        <v>29.29000091552734</v>
       </c>
       <c r="C10">
-        <v>24.95999908447266</v>
+        <v>28.06999969482422</v>
       </c>
       <c r="D10">
-        <v>25.57999992370605</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="E10">
-        <v>25.57999992370605</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="F10">
-        <v>54394400</v>
+        <v>182052600</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>25.38999938964844</v>
+        <v>27.56999969482422</v>
       </c>
       <c r="B11">
-        <v>26.23999977111816</v>
+        <v>28.10000038146973</v>
       </c>
       <c r="C11">
-        <v>25.29000091552734</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="D11">
-        <v>26.1299991607666</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="E11">
-        <v>26.1299991607666</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="F11">
-        <v>34190800</v>
+        <v>89413500</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>26.18000030517578</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="B12">
-        <v>26.72999954223633</v>
+        <v>27.14900016784668</v>
       </c>
       <c r="C12">
-        <v>26.17000007629395</v>
+        <v>26.07999992370605</v>
       </c>
       <c r="D12">
-        <v>26.28000068664551</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="E12">
-        <v>26.28000068664551</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="F12">
-        <v>37215800</v>
+        <v>50933600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>26.14999961853027</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="B13">
-        <v>26.23900032043457</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="C13">
-        <v>25.03000068664551</v>
+        <v>26.58200073242188</v>
       </c>
       <c r="D13">
-        <v>25.82999992370605</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="E13">
-        <v>25.82999992370605</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="F13">
-        <v>42372300</v>
+        <v>44308100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>25.96999931335449</v>
+        <v>27.70999908447266</v>
       </c>
       <c r="B14">
-        <v>26.70000076293945</v>
+        <v>29.19000053405762</v>
       </c>
       <c r="C14">
-        <v>25.89999961853027</v>
+        <v>27.67000007629395</v>
       </c>
       <c r="D14">
-        <v>26.26000022888184</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="E14">
-        <v>26.26000022888184</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="F14">
-        <v>34569000</v>
+        <v>60028600</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>26.29999923706055</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="B15">
-        <v>27.14999961853027</v>
+        <v>28.76000022888184</v>
       </c>
       <c r="C15">
-        <v>26.03000068664551</v>
+        <v>27.90099906921387</v>
       </c>
       <c r="D15">
-        <v>27.07999992370605</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="E15">
-        <v>27.07999992370605</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="F15">
-        <v>49555500</v>
+        <v>40309700</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>27.20000076293945</v>
+        <v>28.22999954223633</v>
       </c>
       <c r="B16">
-        <v>28.79000091552734</v>
+        <v>28.3799991607666</v>
       </c>
       <c r="C16">
-        <v>27.02000045776367</v>
+        <v>27.22999954223633</v>
       </c>
       <c r="D16">
-        <v>28.6299991607666</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="E16">
-        <v>28.6299991607666</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="F16">
-        <v>109992000</v>
+        <v>44102800</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>28.65999984741211</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="B17">
-        <v>29.29000091552734</v>
+        <v>27.1299991607666</v>
       </c>
       <c r="C17">
-        <v>28.06999969482422</v>
+        <v>25.20999908447266</v>
       </c>
       <c r="D17">
-        <v>28.70999908447266</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="E17">
-        <v>28.70999908447266</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="F17">
-        <v>182052600</v>
+        <v>64206200</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>27.56999969482422</v>
+        <v>25.61000061035156</v>
       </c>
       <c r="B18">
-        <v>28.10000038146973</v>
+        <v>25.70000076293945</v>
       </c>
       <c r="C18">
-        <v>26.05999946594238</v>
+        <v>24.42000007629395</v>
       </c>
       <c r="D18">
-        <v>26.54999923706055</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="E18">
-        <v>26.54999923706055</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="F18">
-        <v>89413500</v>
+        <v>46164500</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>26.88999938964844</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="B19">
-        <v>27.14900016784668</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="C19">
-        <v>26.07999992370605</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="D19">
-        <v>26.6200008392334</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="E19">
-        <v>26.6200008392334</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="F19">
-        <v>50933600</v>
+        <v>59505600</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>26.61000061035156</v>
+        <v>24.20999908447266</v>
       </c>
       <c r="B20">
-        <v>27.77000045776367</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="C20">
-        <v>26.58200073242188</v>
+        <v>23.71999931335449</v>
       </c>
       <c r="D20">
-        <v>27.43000030517578</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="E20">
-        <v>27.43000030517578</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="F20">
-        <v>44308100</v>
+        <v>32778000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>27.70999908447266</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="B21">
-        <v>29.19000053405762</v>
+        <v>24.04999923706055</v>
       </c>
       <c r="C21">
-        <v>27.67000007629395</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="D21">
-        <v>28.77000045776367</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="E21">
-        <v>28.77000045776367</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="F21">
-        <v>60028600</v>
+        <v>46789700</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>28.27000045776367</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="B22">
-        <v>28.76000022888184</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="C22">
-        <v>27.90099906921387</v>
+        <v>23.06999969482422</v>
       </c>
       <c r="D22">
-        <v>28.55999946594238</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="E22">
-        <v>28.55999946594238</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="F22">
-        <v>40309700</v>
+        <v>56574800</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>28.22999954223633</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="B23">
-        <v>28.3799991607666</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="C23">
-        <v>27.22999954223633</v>
+        <v>23.35000038146973</v>
       </c>
       <c r="D23">
-        <v>27.46999931335449</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="E23">
-        <v>27.46999931335449</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="F23">
-        <v>44102800</v>
+        <v>125175700</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>27.02000045776367</v>
+        <v>23.70999908447266</v>
       </c>
       <c r="B24">
-        <v>27.1299991607666</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="C24">
-        <v>25.20999908447266</v>
+        <v>23.54000091552734</v>
       </c>
       <c r="D24">
-        <v>25.34000015258789</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="E24">
-        <v>25.34000015258789</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="F24">
-        <v>64206200</v>
+        <v>38873700</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>25.61000061035156</v>
+        <v>23.86000061035156</v>
       </c>
       <c r="B25">
-        <v>25.70000076293945</v>
+        <v>24.09600067138672</v>
       </c>
       <c r="C25">
-        <v>24.42000007629395</v>
+        <v>23.11000061035156</v>
       </c>
       <c r="D25">
-        <v>24.52000045776367</v>
+        <v>23.5</v>
       </c>
       <c r="E25">
-        <v>24.52000045776367</v>
+        <v>23.5</v>
       </c>
       <c r="F25">
-        <v>46164500</v>
+        <v>39630400</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>24.69000053405762</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="B26">
-        <v>25.04999923706055</v>
+        <v>23.97999954223633</v>
       </c>
       <c r="C26">
-        <v>23.8799991607666</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="D26">
-        <v>24.04000091552734</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="E26">
-        <v>24.04000091552734</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="F26">
-        <v>59505600</v>
+        <v>23971700</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>24.20999908447266</v>
+        <v>23.54999923706055</v>
       </c>
       <c r="B27">
-        <v>24.36000061035156</v>
+        <v>23.80999946594238</v>
       </c>
       <c r="C27">
-        <v>23.71999931335449</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="D27">
-        <v>24.32999992370605</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="E27">
-        <v>24.32999992370605</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="F27">
-        <v>32778000</v>
+        <v>26280000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>24.01000022888184</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="B28">
-        <v>24.04999923706055</v>
+        <v>24.30999946594238</v>
       </c>
       <c r="C28">
-        <v>23.02000045776367</v>
+        <v>23.79000091552734</v>
       </c>
       <c r="D28">
-        <v>23.17000007629395</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="E28">
-        <v>23.17000007629395</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="F28">
-        <v>46789700</v>
+        <v>28494000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>23.20999908447266</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="B29">
-        <v>23.8799991607666</v>
+        <v>24.70999908447266</v>
       </c>
       <c r="C29">
-        <v>23.06999969482422</v>
+        <v>24.20499992370605</v>
       </c>
       <c r="D29">
-        <v>23.20999908447266</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="E29">
-        <v>23.20999908447266</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="F29">
-        <v>56574800</v>
+        <v>26106700</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>24.90999984741211</v>
+        <v>24.5</v>
       </c>
       <c r="B30">
-        <v>25.01000022888184</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="C30">
-        <v>23.35000038146973</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="D30">
-        <v>23.57999992370605</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>23.57999992370605</v>
+        <v>24</v>
       </c>
       <c r="F30">
-        <v>125175700</v>
+        <v>24275000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>23.70999908447266</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>24.1299991607666</v>
+        <v>24.38999938964844</v>
       </c>
       <c r="C31">
-        <v>23.54000091552734</v>
+        <v>23.92000007629395</v>
       </c>
       <c r="D31">
-        <v>23.72999954223633</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="E31">
-        <v>23.72999954223633</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="F31">
-        <v>38873700</v>
+        <v>25609900</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>23.86000061035156</v>
+        <v>24.5</v>
       </c>
       <c r="B32">
-        <v>24.09600067138672</v>
+        <v>25.20000076293945</v>
       </c>
       <c r="C32">
-        <v>23.11000061035156</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="D32">
-        <v>23.5</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="E32">
-        <v>23.5</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="F32">
-        <v>39630400</v>
+        <v>29393900</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>23.26000022888184</v>
+        <v>24.79000091552734</v>
       </c>
       <c r="B33">
-        <v>23.97999954223633</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="C33">
-        <v>23.26000022888184</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="D33">
-        <v>23.53000068664551</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="E33">
-        <v>23.53000068664551</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="F33">
-        <v>23971700</v>
+        <v>24248000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>23.54999923706055</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="B34">
-        <v>23.80999946594238</v>
+        <v>24.93000030517578</v>
       </c>
       <c r="C34">
-        <v>23.29000091552734</v>
+        <v>24.07999992370605</v>
       </c>
       <c r="D34">
-        <v>23.69000053405762</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="E34">
-        <v>23.69000053405762</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="F34">
-        <v>26280000</v>
+        <v>23976600</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>23.82999992370605</v>
+        <v>24.48999977111816</v>
       </c>
       <c r="B35">
-        <v>24.30999946594238</v>
+        <v>24.85000038146973</v>
       </c>
       <c r="C35">
-        <v>23.79000091552734</v>
+        <v>24.25</v>
       </c>
       <c r="D35">
-        <v>24.1299991607666</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="E35">
-        <v>24.1299991607666</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="F35">
-        <v>28494000</v>
+        <v>20166800</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>24.43000030517578</v>
+        <v>24.5</v>
       </c>
       <c r="B36">
-        <v>24.70999908447266</v>
+        <v>25.54000091552734</v>
       </c>
       <c r="C36">
-        <v>24.20499992370605</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="D36">
-        <v>24.35000038146973</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="E36">
-        <v>24.35000038146973</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="F36">
-        <v>26106700</v>
+        <v>33962100</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>24.5</v>
+        <v>25.98999977111816</v>
       </c>
       <c r="B37">
-        <v>24.52000045776367</v>
+        <v>26.75</v>
       </c>
       <c r="C37">
-        <v>23.82999992370605</v>
+        <v>25.25</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="E37">
-        <v>24</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="F37">
-        <v>24275000</v>
+        <v>56767000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>24</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="B38">
-        <v>24.38999938964844</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="C38">
-        <v>23.92000007629395</v>
+        <v>25.02000045776367</v>
       </c>
       <c r="D38">
-        <v>24.26000022888184</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="E38">
-        <v>24.26000022888184</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="F38">
-        <v>25609900</v>
+        <v>24157200</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>24.5</v>
+        <v>25.29999923706055</v>
       </c>
       <c r="B39">
-        <v>25.20000076293945</v>
+        <v>25.79500007629395</v>
       </c>
       <c r="C39">
-        <v>24.36000061035156</v>
+        <v>25.1200008392334</v>
       </c>
       <c r="D39">
-        <v>24.69000053405762</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="E39">
-        <v>24.69000053405762</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="F39">
-        <v>29393900</v>
+        <v>21203000</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>24.79000091552734</v>
+        <v>25.5</v>
       </c>
       <c r="B40">
-        <v>24.95999908447266</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="C40">
-        <v>24.17000007629395</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="D40">
-        <v>24.21999931335449</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="E40">
-        <v>24.21999931335449</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="F40">
-        <v>24248000</v>
+        <v>21910300</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>24.1299991607666</v>
+        <v>26.11000061035156</v>
       </c>
       <c r="B41">
-        <v>24.93000030517578</v>
+        <v>26.64500045776367</v>
       </c>
       <c r="C41">
-        <v>24.07999992370605</v>
+        <v>25.88299942016602</v>
       </c>
       <c r="D41">
-        <v>24.78000068664551</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="E41">
-        <v>24.78000068664551</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="F41">
-        <v>23976600</v>
+        <v>26684700</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>24.48999977111816</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="B42">
-        <v>24.85000038146973</v>
+        <v>26.71999931335449</v>
       </c>
       <c r="C42">
-        <v>24.25</v>
+        <v>25.55500030517578</v>
       </c>
       <c r="D42">
-        <v>24.43000030517578</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="E42">
-        <v>24.43000030517578</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="F42">
-        <v>20166800</v>
+        <v>30794600</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>24.5</v>
+        <v>25.88999938964844</v>
       </c>
       <c r="B43">
-        <v>25.54000091552734</v>
+        <v>26.23500061035156</v>
       </c>
       <c r="C43">
-        <v>24.47999954223633</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="D43">
-        <v>25.40999984741211</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="E43">
-        <v>25.40999984741211</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="F43">
-        <v>33962100</v>
+        <v>25244200</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>25.98999977111816</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="B44">
-        <v>26.75</v>
+        <v>26.56999969482422</v>
       </c>
       <c r="C44">
-        <v>25.25</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="D44">
-        <v>25.52000045776367</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="E44">
-        <v>25.52000045776367</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="F44">
-        <v>56767000</v>
+        <v>25029700</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>25.63999938964844</v>
+        <v>26.45000076293945</v>
       </c>
       <c r="B45">
-        <v>25.89999961853027</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="C45">
-        <v>25.02000045776367</v>
+        <v>25.71999931335449</v>
       </c>
       <c r="D45">
-        <v>25.05999946594238</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>25.05999946594238</v>
+        <v>26</v>
       </c>
       <c r="F45">
-        <v>24157200</v>
+        <v>25929900</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>25.29999923706055</v>
+        <v>26.25</v>
       </c>
       <c r="B46">
-        <v>25.79500007629395</v>
+        <v>27.11000061035156</v>
       </c>
       <c r="C46">
-        <v>25.1200008392334</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="D46">
-        <v>25.63999938964844</v>
+        <v>26.75</v>
       </c>
       <c r="E46">
-        <v>25.63999938964844</v>
+        <v>26.75</v>
       </c>
       <c r="F46">
-        <v>21203000</v>
+        <v>41359600</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>25.5</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="B47">
-        <v>26.1200008392334</v>
+        <v>25.97999954223633</v>
       </c>
       <c r="C47">
-        <v>25.45000076293945</v>
+        <v>23.95000076293945</v>
       </c>
       <c r="D47">
-        <v>25.8799991607666</v>
+        <v>24.25</v>
       </c>
       <c r="E47">
-        <v>25.8799991607666</v>
+        <v>24.25</v>
       </c>
       <c r="F47">
-        <v>21910300</v>
+        <v>117540200</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>26.11000061035156</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="B48">
-        <v>26.64500045776367</v>
+        <v>23.63999938964844</v>
       </c>
       <c r="C48">
-        <v>25.88299942016602</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="D48">
-        <v>26.55999946594238</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="E48">
-        <v>26.55999946594238</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="F48">
-        <v>26684700</v>
+        <v>94860100</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>26.55999946594238</v>
+        <v>23.04000091552734</v>
       </c>
       <c r="B49">
-        <v>26.71999931335449</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="C49">
-        <v>25.55500030517578</v>
+        <v>22.66500091552734</v>
       </c>
       <c r="D49">
-        <v>25.92000007629395</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="E49">
-        <v>25.92000007629395</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="F49">
-        <v>30794600</v>
+        <v>43381500</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>25.88999938964844</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="B50">
-        <v>26.23500061035156</v>
+        <v>23.22500038146973</v>
       </c>
       <c r="C50">
-        <v>25.17000007629395</v>
+        <v>22.3799991607666</v>
       </c>
       <c r="D50">
-        <v>26.1200008392334</v>
+        <v>22.82999992370605</v>
       </c>
       <c r="E50">
-        <v>26.1200008392334</v>
+        <v>22.82999992370605</v>
       </c>
       <c r="F50">
-        <v>25244200</v>
+        <v>53440300</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>26.26000022888184</v>
+        <v>23</v>
       </c>
       <c r="B51">
-        <v>26.56999969482422</v>
+        <v>23.52000045776367</v>
       </c>
       <c r="C51">
-        <v>25.8700008392334</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="D51">
-        <v>26.46999931335449</v>
+        <v>23.40999984741211</v>
       </c>
       <c r="E51">
-        <v>26.46999931335449</v>
+        <v>23.40999984741211</v>
       </c>
       <c r="F51">
-        <v>25029700</v>
+        <v>33225700</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>26.45000076293945</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="B52">
-        <v>26.6299991607666</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="C52">
-        <v>25.71999931335449</v>
+        <v>22.61000061035156</v>
       </c>
       <c r="D52">
-        <v>26</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="E52">
-        <v>26</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="F52">
-        <v>25929900</v>
+        <v>31574800</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>26.25</v>
+        <v>23.04999923706055</v>
       </c>
       <c r="B53">
-        <v>27.11000061035156</v>
+        <v>23.2189998626709</v>
       </c>
       <c r="C53">
-        <v>26.1200008392334</v>
+        <v>22.39999961853027</v>
       </c>
       <c r="D53">
-        <v>26.75</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="E53">
-        <v>26.75</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="F53">
-        <v>41359600</v>
+        <v>27994100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>25.89999961853027</v>
+        <v>22.5</v>
       </c>
       <c r="B54">
-        <v>25.97999954223633</v>
+        <v>22.54999923706055</v>
       </c>
       <c r="C54">
-        <v>23.95000076293945</v>
+        <v>21.34199905395508</v>
       </c>
       <c r="D54">
-        <v>24.25</v>
+        <v>21.5</v>
       </c>
       <c r="E54">
-        <v>24.25</v>
+        <v>21.5</v>
       </c>
       <c r="F54">
-        <v>117540200</v>
+        <v>51039900</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>23.60000038146973</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="B55">
-        <v>23.63999938964844</v>
+        <v>21.95999908447266</v>
       </c>
       <c r="C55">
-        <v>22.1200008392334</v>
+        <v>21.29999923706055</v>
       </c>
       <c r="D55">
-        <v>22.52000045776367</v>
+        <v>21.40999984741211</v>
       </c>
       <c r="E55">
-        <v>22.52000045776367</v>
+        <v>21.40999984741211</v>
       </c>
       <c r="F55">
-        <v>94860100</v>
+        <v>30013100</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>23.04000091552734</v>
+        <v>21.53000068664551</v>
       </c>
       <c r="B56">
-        <v>23.1299991607666</v>
+        <v>21.56999969482422</v>
       </c>
       <c r="C56">
-        <v>22.66500091552734</v>
+        <v>20.18000030517578</v>
       </c>
       <c r="D56">
-        <v>22.98999977111816</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="E56">
-        <v>22.98999977111816</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="F56">
-        <v>43381500</v>
+        <v>59899100</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>23.02000045776367</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="B57">
-        <v>23.22500038146973</v>
+        <v>21.04999923706055</v>
       </c>
       <c r="C57">
-        <v>22.3799991607666</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="D57">
-        <v>22.82999992370605</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="E57">
-        <v>22.82999992370605</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="F57">
-        <v>53440300</v>
+        <v>44588000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>23</v>
+        <v>20.35000038146973</v>
       </c>
       <c r="B58">
-        <v>23.52000045776367</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="C58">
-        <v>22.95000076293945</v>
+        <v>20.05999946594238</v>
       </c>
       <c r="D58">
-        <v>23.40999984741211</v>
+        <v>21.11000061035156</v>
       </c>
       <c r="E58">
-        <v>23.40999984741211</v>
+        <v>21.11000061035156</v>
       </c>
       <c r="F58">
-        <v>33225700</v>
+        <v>35233900</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>23.29000091552734</v>
+        <v>20.40999984741211</v>
       </c>
       <c r="B59">
-        <v>23.29000091552734</v>
+        <v>21.09000015258789</v>
       </c>
       <c r="C59">
-        <v>22.61000061035156</v>
+        <v>20.34900093078613</v>
       </c>
       <c r="D59">
-        <v>23.1299991607666</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="E59">
-        <v>23.1299991607666</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="F59">
-        <v>31574800</v>
+        <v>20691200</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>23.04999923706055</v>
+        <v>21.19000053405762</v>
       </c>
       <c r="B60">
-        <v>23.2189998626709</v>
+        <v>21.39999961853027</v>
       </c>
       <c r="C60">
-        <v>22.39999961853027</v>
+        <v>20.55999946594238</v>
       </c>
       <c r="D60">
-        <v>22.48999977111816</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="E60">
-        <v>22.48999977111816</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="F60">
-        <v>27994100</v>
+        <v>29114000</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>22.5</v>
+        <v>20.95000076293945</v>
       </c>
       <c r="B61">
-        <v>22.54999923706055</v>
+        <v>21.25</v>
       </c>
       <c r="C61">
-        <v>21.34199905395508</v>
+        <v>20.11000061035156</v>
       </c>
       <c r="D61">
-        <v>21.5</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="E61">
-        <v>21.5</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="F61">
-        <v>51039900</v>
+        <v>38196400</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>21.60000038146973</v>
+        <v>20.53000068664551</v>
       </c>
       <c r="B62">
-        <v>21.95999908447266</v>
+        <v>20.88999938964844</v>
       </c>
       <c r="C62">
-        <v>21.29999923706055</v>
+        <v>19.29000091552734</v>
       </c>
       <c r="D62">
-        <v>21.40999984741211</v>
+        <v>19.3799991607666</v>
       </c>
       <c r="E62">
-        <v>21.40999984741211</v>
+        <v>19.3799991607666</v>
       </c>
       <c r="F62">
-        <v>30013100</v>
+        <v>48283700</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>21.53000068664551</v>
+        <v>19.29999923706055</v>
       </c>
       <c r="B63">
-        <v>21.56999969482422</v>
+        <v>19.90999984741211</v>
       </c>
       <c r="C63">
-        <v>20.18000030517578</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="D63">
-        <v>20.64999961853027</v>
+        <v>19.69000053405762</v>
       </c>
       <c r="E63">
-        <v>20.64999961853027</v>
+        <v>19.69000053405762</v>
       </c>
       <c r="F63">
-        <v>59899100</v>
+        <v>45802900</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>20.59000015258789</v>
+        <v>19.5</v>
       </c>
       <c r="B64">
-        <v>21.04999923706055</v>
+        <v>19.53000068664551</v>
       </c>
       <c r="C64">
-        <v>20.04999923706055</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="D64">
-        <v>20.59000015258789</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="E64">
-        <v>20.59000015258789</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="F64">
-        <v>44588000</v>
+        <v>55926700</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20.35000038146973</v>
+        <v>18.54000091552734</v>
       </c>
       <c r="B65">
-        <v>21.20000076293945</v>
+        <v>18.96999931335449</v>
       </c>
       <c r="C65">
-        <v>20.05999946594238</v>
+        <v>18.07500076293945</v>
       </c>
       <c r="D65">
-        <v>21.11000061035156</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="E65">
-        <v>21.11000061035156</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="F65">
-        <v>35233900</v>
+        <v>56459800</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>20.40999984741211</v>
+        <v>19.26000022888184</v>
       </c>
       <c r="B66">
-        <v>21.09000015258789</v>
+        <v>19.85499954223633</v>
       </c>
       <c r="C66">
-        <v>20.34900093078613</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="D66">
-        <v>21.03000068664551</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="E66">
-        <v>21.03000068664551</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="F66">
-        <v>20691200</v>
+        <v>35129000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>21.19000053405762</v>
+        <v>19.51000022888184</v>
       </c>
       <c r="B67">
-        <v>21.39999961853027</v>
+        <v>19.82500076293945</v>
       </c>
       <c r="C67">
-        <v>20.55999946594238</v>
+        <v>19.03000068664551</v>
       </c>
       <c r="D67">
-        <v>21.06999969482422</v>
+        <v>19.81999969482422</v>
       </c>
       <c r="E67">
-        <v>21.06999969482422</v>
+        <v>19.81999969482422</v>
       </c>
       <c r="F67">
-        <v>29114000</v>
+        <v>28425900</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>20.95000076293945</v>
+        <v>19.95000076293945</v>
       </c>
       <c r="B68">
-        <v>21.25</v>
+        <v>20.14999961853027</v>
       </c>
       <c r="C68">
-        <v>20.11000061035156</v>
+        <v>19.04000091552734</v>
       </c>
       <c r="D68">
-        <v>20.64999961853027</v>
+        <v>19.20999908447266</v>
       </c>
       <c r="E68">
-        <v>20.64999961853027</v>
+        <v>19.20999908447266</v>
       </c>
       <c r="F68">
-        <v>38196400</v>
+        <v>30354700</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>20.53000068664551</v>
+        <v>19.28000068664551</v>
       </c>
       <c r="B69">
-        <v>20.88999938964844</v>
+        <v>19.57999992370605</v>
       </c>
       <c r="C69">
-        <v>19.29000091552734</v>
+        <v>18.70000076293945</v>
       </c>
       <c r="D69">
-        <v>19.3799991607666</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="E69">
-        <v>19.3799991607666</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="F69">
-        <v>48283700</v>
+        <v>27550300</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19.29999923706055</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="B70">
-        <v>19.90999984741211</v>
+        <v>19.07500076293945</v>
       </c>
       <c r="C70">
-        <v>19.05999946594238</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="D70">
-        <v>19.69000053405762</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="E70">
-        <v>19.69000053405762</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="F70">
-        <v>45802900</v>
+        <v>38376000</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="B71">
-        <v>19.53000068664551</v>
+        <v>18.85899925231934</v>
       </c>
       <c r="C71">
-        <v>18.39999961853027</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="D71">
-        <v>18.97999954223633</v>
+        <v>18.63999938964844</v>
       </c>
       <c r="E71">
-        <v>18.97999954223633</v>
+        <v>18.63999938964844</v>
       </c>
       <c r="F71">
-        <v>55926700</v>
+        <v>38864800</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>18.54000091552734</v>
+        <v>18.3700008392334</v>
       </c>
       <c r="B72">
-        <v>18.96999931335449</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="C72">
-        <v>18.07500076293945</v>
+        <v>17.9950008392334</v>
       </c>
       <c r="D72">
-        <v>18.79999923706055</v>
+        <v>18.86000061035156</v>
       </c>
       <c r="E72">
-        <v>18.79999923706055</v>
+        <v>18.86000061035156</v>
       </c>
       <c r="F72">
-        <v>56459800</v>
+        <v>39361900</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19.26000022888184</v>
+        <v>18.95999908447266</v>
       </c>
       <c r="B73">
-        <v>19.85499954223633</v>
+        <v>19.1200008392334</v>
       </c>
       <c r="C73">
-        <v>19.06999969482422</v>
+        <v>18.14999961853027</v>
       </c>
       <c r="D73">
-        <v>19.45999908447266</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="E73">
-        <v>19.45999908447266</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="F73">
-        <v>35129000</v>
+        <v>33950000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19.51000022888184</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="B74">
-        <v>19.82500076293945</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="C74">
-        <v>19.03000068664551</v>
+        <v>17.80999946594238</v>
       </c>
       <c r="D74">
-        <v>19.81999969482422</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="E74">
-        <v>19.81999969482422</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="F74">
-        <v>28425900</v>
+        <v>44325900</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19.95000076293945</v>
+        <v>18.59000015258789</v>
       </c>
       <c r="B75">
-        <v>20.14999961853027</v>
+        <v>18.67000007629395</v>
       </c>
       <c r="C75">
-        <v>19.04000091552734</v>
+        <v>17.83499908447266</v>
       </c>
       <c r="D75">
-        <v>19.20999908447266</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="E75">
-        <v>19.20999908447266</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="F75">
-        <v>30354700</v>
+        <v>42265900</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19.28000068664551</v>
+        <v>18.15999984741211</v>
       </c>
       <c r="B76">
-        <v>19.57999992370605</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="C76">
-        <v>18.70000076293945</v>
+        <v>18.10000038146973</v>
       </c>
       <c r="D76">
-        <v>18.94000053405762</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="E76">
-        <v>18.94000053405762</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="F76">
-        <v>27550300</v>
+        <v>33878600</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>18.79999923706055</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="B77">
-        <v>19.07500076293945</v>
+        <v>19.45000076293945</v>
       </c>
       <c r="C77">
-        <v>18.17000007629395</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="D77">
-        <v>18.39999961853027</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="E77">
-        <v>18.39999961853027</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="F77">
-        <v>38376000</v>
+        <v>33894200</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>18</v>
+        <v>18.85000038146973</v>
       </c>
       <c r="B78">
-        <v>18.85899925231934</v>
+        <v>19.13500022888184</v>
       </c>
       <c r="C78">
-        <v>17.90999984741211</v>
+        <v>18.71999931335449</v>
       </c>
       <c r="D78">
-        <v>18.63999938964844</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="E78">
-        <v>18.63999938964844</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="F78">
-        <v>38864800</v>
+        <v>24758300</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>18.3700008392334</v>
+        <v>18.78000068664551</v>
       </c>
       <c r="B79">
+        <v>19.25</v>
+      </c>
+      <c r="C79">
+        <v>18.78000068664551</v>
+      </c>
+      <c r="D79">
         <v>18.94000053405762</v>
       </c>
-      <c r="C79">
-        <v>17.9950008392334</v>
-      </c>
-      <c r="D79">
-        <v>18.86000061035156</v>
-      </c>
       <c r="E79">
-        <v>18.86000061035156</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="F79">
-        <v>39361900</v>
+        <v>21782000</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>18.95999908447266</v>
+        <v>18.88999938964844</v>
       </c>
       <c r="B80">
-        <v>19.1200008392334</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="C80">
-        <v>18.14999961853027</v>
+        <v>18.44000053405762</v>
       </c>
       <c r="D80">
-        <v>18.34000015258789</v>
+        <v>18.56999969482422</v>
       </c>
       <c r="E80">
-        <v>18.34000015258789</v>
+        <v>18.56999969482422</v>
       </c>
       <c r="F80">
-        <v>33950000</v>
+        <v>20518800</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>18.03000068664551</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="B81">
-        <v>19.10000038146973</v>
+        <v>18.60000038146973</v>
       </c>
       <c r="C81">
-        <v>17.80999946594238</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="D81">
-        <v>19.05999946594238</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="E81">
-        <v>19.05999946594238</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="F81">
-        <v>44325900</v>
+        <v>28217500</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>18.59000015258789</v>
+        <v>18.10000038146973</v>
       </c>
       <c r="B82">
-        <v>18.67000007629395</v>
+        <v>18.9950008392334</v>
       </c>
       <c r="C82">
-        <v>17.83499908447266</v>
+        <v>18.06999969482422</v>
       </c>
       <c r="D82">
-        <v>17.95999908447266</v>
+        <v>18.69000053405762</v>
       </c>
       <c r="E82">
-        <v>17.95999908447266</v>
+        <v>18.69000053405762</v>
       </c>
       <c r="F82">
-        <v>42265900</v>
+        <v>29285200</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>18.15999984741211</v>
+        <v>18.61000061035156</v>
       </c>
       <c r="B83">
-        <v>18.97999954223633</v>
+        <v>18.92000007629395</v>
       </c>
       <c r="C83">
-        <v>18.10000038146973</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="D83">
-        <v>18.89999961853027</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="E83">
-        <v>18.89999961853027</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="F83">
-        <v>33878600</v>
+        <v>23556000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>18.64999961853027</v>
+        <v>18.36000061035156</v>
       </c>
       <c r="B84">
-        <v>19.45000076293945</v>
+        <v>18.56900024414062</v>
       </c>
       <c r="C84">
-        <v>18.64999961853027</v>
+        <v>17.86000061035156</v>
       </c>
       <c r="D84">
-        <v>18.8799991607666</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="E84">
-        <v>18.8799991607666</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="F84">
-        <v>33894200</v>
+        <v>34283600</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>18.85000038146973</v>
+        <v>18.61000061035156</v>
       </c>
       <c r="B85">
-        <v>19.13500022888184</v>
+        <v>18.84000015258789</v>
       </c>
       <c r="C85">
-        <v>18.71999931335449</v>
+        <v>17.79000091552734</v>
       </c>
       <c r="D85">
-        <v>18.93000030517578</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="E85">
-        <v>18.93000030517578</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="F85">
-        <v>24758300</v>
+        <v>39643200</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>18.78000068664551</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="B86">
-        <v>19.25</v>
+        <v>18.56800079345703</v>
       </c>
       <c r="C86">
-        <v>18.78000068664551</v>
+        <v>16.8700008392334</v>
       </c>
       <c r="D86">
-        <v>18.94000053405762</v>
+        <v>16.95999908447266</v>
       </c>
       <c r="E86">
-        <v>18.94000053405762</v>
+        <v>16.95999908447266</v>
       </c>
       <c r="F86">
-        <v>21782000</v>
+        <v>58445900</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>18.88999938964844</v>
+        <v>16.8700008392334</v>
       </c>
       <c r="B87">
-        <v>19.06999969482422</v>
+        <v>17.18000030517578</v>
       </c>
       <c r="C87">
-        <v>18.44000053405762</v>
+        <v>16.05500030517578</v>
       </c>
       <c r="D87">
-        <v>18.56999969482422</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="E87">
-        <v>18.56999969482422</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="F87">
-        <v>20518800</v>
+        <v>49737100</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>18.53000068664551</v>
+        <v>16.70000076293945</v>
       </c>
       <c r="B88">
-        <v>18.60000038146973</v>
+        <v>17.32999992370605</v>
       </c>
       <c r="C88">
-        <v>17.90999984741211</v>
+        <v>16.47500038146973</v>
       </c>
       <c r="D88">
-        <v>18.17000007629395</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="E88">
-        <v>18.17000007629395</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="F88">
-        <v>28217500</v>
+        <v>37696500</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>18.10000038146973</v>
+        <v>16.19000053405762</v>
       </c>
       <c r="B89">
-        <v>18.9950008392334</v>
+        <v>16.56999969482422</v>
       </c>
       <c r="C89">
-        <v>18.06999969482422</v>
+        <v>15.35000038146973</v>
       </c>
       <c r="D89">
-        <v>18.69000053405762</v>
+        <v>16.5</v>
       </c>
       <c r="E89">
-        <v>18.69000053405762</v>
+        <v>16.5</v>
       </c>
       <c r="F89">
-        <v>29285200</v>
+        <v>77649400</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>18.61000061035156</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="B90">
-        <v>18.92000007629395</v>
+        <v>17.25</v>
       </c>
       <c r="C90">
-        <v>18.20999908447266</v>
+        <v>16.31999969482422</v>
       </c>
       <c r="D90">
-        <v>18.20999908447266</v>
+        <v>16.88999938964844</v>
       </c>
       <c r="E90">
-        <v>18.20999908447266</v>
+        <v>16.88999938964844</v>
       </c>
       <c r="F90">
-        <v>23556000</v>
+        <v>47442600</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>18.36000061035156</v>
+        <v>17.15999984741211</v>
       </c>
       <c r="B91">
-        <v>18.56900024414062</v>
+        <v>17.45999908447266</v>
       </c>
       <c r="C91">
-        <v>17.86000061035156</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="D91">
-        <v>18.53000068664551</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="E91">
-        <v>18.53000068664551</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="F91">
-        <v>34283600</v>
+        <v>39784200</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>18.61000061035156</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="B92">
-        <v>18.84000015258789</v>
+        <v>16.81999969482422</v>
       </c>
       <c r="C92">
-        <v>17.79000091552734</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="D92">
-        <v>18.17000007629395</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E92">
-        <v>18.17000007629395</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="F92">
-        <v>39643200</v>
+        <v>35492200</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>18.03000068664551</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="B93">
-        <v>18.56800079345703</v>
+        <v>16.24900054931641</v>
       </c>
       <c r="C93">
-        <v>16.8700008392334</v>
+        <v>15.61999988555908</v>
       </c>
       <c r="D93">
-        <v>16.95999908447266</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E93">
-        <v>16.95999908447266</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="F93">
-        <v>58445900</v>
+        <v>35548200</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>16.8700008392334</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="B94">
-        <v>17.18000030517578</v>
+        <v>15.75</v>
       </c>
       <c r="C94">
-        <v>16.05500030517578</v>
+        <v>14.92000007629395</v>
       </c>
       <c r="D94">
-        <v>16.73999977111816</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="E94">
-        <v>16.73999977111816</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="F94">
-        <v>49737100</v>
+        <v>49067700</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>16.70000076293945</v>
+        <v>14.89999961853027</v>
       </c>
       <c r="B95">
-        <v>17.32999992370605</v>
+        <v>15.25</v>
       </c>
       <c r="C95">
-        <v>16.47500038146973</v>
+        <v>14.53999996185303</v>
       </c>
       <c r="D95">
-        <v>16.55999946594238</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="E95">
-        <v>16.55999946594238</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="F95">
-        <v>37696500</v>
+        <v>48049100</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>16.19000053405762</v>
+        <v>14.89000034332275</v>
       </c>
       <c r="B96">
-        <v>16.56999969482422</v>
+        <v>15.55000019073486</v>
       </c>
       <c r="C96">
-        <v>15.35000038146973</v>
+        <v>14.56999969482422</v>
       </c>
       <c r="D96">
-        <v>16.5</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="E96">
-        <v>16.5</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="F96">
-        <v>77649400</v>
+        <v>44690400</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>16.39999961853027</v>
+        <v>14.25</v>
       </c>
       <c r="B97">
-        <v>17.25</v>
+        <v>14.47799968719482</v>
       </c>
       <c r="C97">
-        <v>16.31999969482422</v>
+        <v>13.5</v>
       </c>
       <c r="D97">
-        <v>16.88999938964844</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="E97">
-        <v>16.88999938964844</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="F97">
-        <v>47442600</v>
+        <v>73031300</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>17.15999984741211</v>
+        <v>12.78999996185303</v>
       </c>
       <c r="B98">
-        <v>17.45999908447266</v>
+        <v>13.40999984741211</v>
       </c>
       <c r="C98">
-        <v>16.39999961853027</v>
+        <v>11.75</v>
       </c>
       <c r="D98">
-        <v>16.71999931335449</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="E98">
-        <v>16.71999931335449</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="F98">
-        <v>39784200</v>
+        <v>110518900</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>16.79999923706055</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="B99">
-        <v>16.81999969482422</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="C99">
-        <v>15.9399995803833</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="D99">
-        <v>16.01000022888184</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="E99">
-        <v>16.01000022888184</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="F99">
-        <v>35492200</v>
+        <v>47456600</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>15.9399995803833</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="B100">
-        <v>16.24900054931641</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="C100">
-        <v>15.61999988555908</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="D100">
-        <v>16.01000022888184</v>
+        <v>12.75</v>
       </c>
       <c r="E100">
-        <v>16.01000022888184</v>
+        <v>12.75</v>
       </c>
       <c r="F100">
-        <v>35548200</v>
+        <v>69949700</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>15.44999980926514</v>
+        <v>13.01000022888184</v>
       </c>
       <c r="B101">
-        <v>15.75</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="C101">
-        <v>14.92000007629395</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="D101">
-        <v>14.97000026702881</v>
+        <v>12.27999973297119</v>
       </c>
       <c r="E101">
-        <v>14.97000026702881</v>
+        <v>12.27999973297119</v>
       </c>
       <c r="F101">
-        <v>49067700</v>
+        <v>52622900</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>14.89999961853027</v>
+        <v>12.30000019073486</v>
       </c>
       <c r="B102">
-        <v>15.25</v>
+        <v>12.88000011444092</v>
       </c>
       <c r="C102">
-        <v>14.53999996185303</v>
+        <v>11.89000034332275</v>
       </c>
       <c r="D102">
-        <v>14.5600004196167</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="E102">
-        <v>14.5600004196167</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="F102">
-        <v>48049100</v>
+        <v>54887500</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>14.89000034332275</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="B103">
-        <v>15.55000019073486</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="C103">
-        <v>14.56999969482422</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="D103">
-        <v>14.61999988555908</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="E103">
-        <v>14.61999988555908</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="F103">
-        <v>44690400</v>
+        <v>51039300</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>14.25</v>
+        <v>14.22999954223633</v>
       </c>
       <c r="B104">
-        <v>14.47799968719482</v>
+        <v>14.36999988555908</v>
       </c>
       <c r="C104">
-        <v>13.5</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="D104">
-        <v>13.52999973297119</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="E104">
-        <v>13.52999973297119</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="F104">
-        <v>73031300</v>
+        <v>69012900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>12.78999996185303</v>
+        <v>14.09000015258789</v>
       </c>
       <c r="B105">
-        <v>13.40999984741211</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="C105">
-        <v>11.75</v>
+        <v>13.1899995803833</v>
       </c>
       <c r="D105">
-        <v>13.39999961853027</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="E105">
-        <v>13.39999961853027</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="F105">
-        <v>110518900</v>
+        <v>47204300</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>13.11999988555908</v>
+        <v>12.94999980926514</v>
       </c>
       <c r="B106">
-        <v>13.60000038146973</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="C106">
-        <v>12.82999992370605</v>
+        <v>12.42000007629395</v>
       </c>
       <c r="D106">
-        <v>13.0600004196167</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="E106">
-        <v>13.0600004196167</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="F106">
-        <v>47456600</v>
+        <v>47236900</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>13.60000038146973</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="B107">
-        <v>13.81999969482422</v>
+        <v>13.09000015258789</v>
       </c>
       <c r="C107">
-        <v>12.68000030517578</v>
+        <v>12.26500034332275</v>
       </c>
       <c r="D107">
-        <v>12.75</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="E107">
-        <v>12.75</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="F107">
-        <v>69949700</v>
+        <v>38843600</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>13.01000022888184</v>
+        <v>13.02499961853027</v>
       </c>
       <c r="B108">
-        <v>13.0600004196167</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="C108">
-        <v>12.19999980926514</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="D108">
-        <v>12.27999973297119</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="E108">
-        <v>12.27999973297119</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="F108">
-        <v>52622900</v>
+        <v>45646100</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>12.30000019073486</v>
+        <v>12.75</v>
       </c>
       <c r="B109">
-        <v>12.88000011444092</v>
+        <v>13.18900012969971</v>
       </c>
       <c r="C109">
-        <v>11.89000034332275</v>
+        <v>12.61999988555908</v>
       </c>
       <c r="D109">
-        <v>12.71000003814697</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="E109">
-        <v>12.71000003814697</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="F109">
-        <v>54887500</v>
+        <v>30317100</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>12.77000045776367</v>
+        <v>13.28999996185303</v>
       </c>
       <c r="B110">
-        <v>13.73999977111816</v>
+        <v>13.89000034332275</v>
       </c>
       <c r="C110">
-        <v>12.76000022888184</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="D110">
-        <v>13.71000003814697</v>
+        <v>13.86999988555908</v>
       </c>
       <c r="E110">
-        <v>13.71000003814697</v>
+        <v>13.86999988555908</v>
       </c>
       <c r="F110">
-        <v>51039300</v>
+        <v>34451900</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>14.22999954223633</v>
+        <v>13.5</v>
       </c>
       <c r="B111">
-        <v>14.36999988555908</v>
+        <v>14.16499996185303</v>
       </c>
       <c r="C111">
+        <v>13.36999988555908</v>
+      </c>
+      <c r="D111">
         <v>13.5600004196167</v>
       </c>
-      <c r="D111">
-        <v>14.19999980926514</v>
-      </c>
       <c r="E111">
-        <v>14.19999980926514</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="F111">
-        <v>69012900</v>
+        <v>41998200</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>14.09000015258789</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="B112">
-        <v>14.19999980926514</v>
+        <v>13.92000007629395</v>
       </c>
       <c r="C112">
-        <v>13.1899995803833</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="D112">
-        <v>13.31999969482422</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="E112">
-        <v>13.31999969482422</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="F112">
-        <v>47204300</v>
+        <v>41746500</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>12.94999980926514</v>
+        <v>13.10000038146973</v>
       </c>
       <c r="B113">
-        <v>13.31999969482422</v>
+        <v>13.79500007629395</v>
       </c>
       <c r="C113">
-        <v>12.42000007629395</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="D113">
-        <v>12.44999980926514</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="E113">
-        <v>12.44999980926514</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="F113">
-        <v>47236900</v>
+        <v>40617900</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>12.47000026702881</v>
+        <v>13.52000045776367</v>
       </c>
       <c r="B114">
-        <v>13.09000015258789</v>
+        <v>14.1850004196167</v>
       </c>
       <c r="C114">
-        <v>12.26500034332275</v>
+        <v>13.40999984741211</v>
       </c>
       <c r="D114">
-        <v>12.9399995803833</v>
+        <v>14.17000007629395</v>
       </c>
       <c r="E114">
-        <v>12.9399995803833</v>
+        <v>14.17000007629395</v>
       </c>
       <c r="F114">
-        <v>38843600</v>
+        <v>48523700</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>13.02499961853027</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="B115">
-        <v>13.60000038146973</v>
+        <v>14.26000022888184</v>
       </c>
       <c r="C115">
-        <v>12.9399995803833</v>
+        <v>13.65999984741211</v>
       </c>
       <c r="D115">
-        <v>12.97999954223633</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="E115">
-        <v>12.97999954223633</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="F115">
-        <v>45646100</v>
+        <v>58624400</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>12.75</v>
+        <v>12.39000034332275</v>
       </c>
       <c r="B116">
-        <v>13.18900012969971</v>
+        <v>12.69999980926514</v>
       </c>
       <c r="C116">
-        <v>12.61999988555908</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="D116">
-        <v>13.14999961853027</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="E116">
-        <v>13.14999961853027</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="F116">
-        <v>30317100</v>
+        <v>151385400</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>13.28999996185303</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="B117">
-        <v>13.89000034332275</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="C117">
-        <v>13.26000022888184</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="D117">
-        <v>13.86999988555908</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="E117">
-        <v>13.86999988555908</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="F117">
-        <v>34451900</v>
+        <v>137808100</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>13.5</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="B118">
-        <v>14.16499996185303</v>
+        <v>11.1850004196167</v>
       </c>
       <c r="C118">
-        <v>13.36999988555908</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="D118">
-        <v>13.5600004196167</v>
+        <v>10.47999954223633</v>
       </c>
       <c r="E118">
-        <v>13.5600004196167</v>
+        <v>10.47999954223633</v>
       </c>
       <c r="F118">
-        <v>41998200</v>
+        <v>104501500</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>13.44999980926514</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="B119">
-        <v>13.92000007629395</v>
+        <v>11.26000022888184</v>
       </c>
       <c r="C119">
-        <v>12.97000026702881</v>
+        <v>10.39999961853027</v>
       </c>
       <c r="D119">
-        <v>13.13000011444092</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="E119">
-        <v>13.13000011444092</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="F119">
-        <v>41746500</v>
+        <v>93964500</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>13.10000038146973</v>
+        <v>9.75</v>
       </c>
       <c r="B120">
-        <v>13.79500007629395</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="C120">
-        <v>12.97999954223633</v>
+        <v>9.739999771118164</v>
       </c>
       <c r="D120">
-        <v>13.26000022888184</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="E120">
-        <v>13.26000022888184</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="F120">
-        <v>40617900</v>
+        <v>118793000</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>13.52000045776367</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="B121">
-        <v>14.1850004196167</v>
+        <v>11.89000034332275</v>
       </c>
       <c r="C121">
-        <v>13.40999984741211</v>
+        <v>11</v>
       </c>
       <c r="D121">
-        <v>14.17000007629395</v>
+        <v>11.47000026702881</v>
       </c>
       <c r="E121">
-        <v>14.17000007629395</v>
+        <v>11.47000026702881</v>
       </c>
       <c r="F121">
-        <v>48523700</v>
+        <v>75433700</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>13.90999984741211</v>
+        <v>11.96000003814697</v>
       </c>
       <c r="B122">
-        <v>14.26000022888184</v>
+        <v>12.18000030517578</v>
       </c>
       <c r="C122">
-        <v>13.65999984741211</v>
+        <v>11.39000034332275</v>
       </c>
       <c r="D122">
-        <v>13.97000026702881</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="E122">
-        <v>13.97000026702881</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="F122">
-        <v>58624400</v>
+        <v>75390500</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>12.39000034332275</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="B123">
-        <v>12.69999980926514</v>
+        <v>12.52000045776367</v>
       </c>
       <c r="C123">
-        <v>11.69999980926514</v>
+        <v>11.71000003814697</v>
       </c>
       <c r="D123">
-        <v>11.77000045776367</v>
+        <v>12.18000030517578</v>
       </c>
       <c r="E123">
-        <v>11.77000045776367</v>
+        <v>12.18000030517578</v>
       </c>
       <c r="F123">
-        <v>151385400</v>
+        <v>64867200</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>11.92000007629395</v>
+        <v>12.21000003814697</v>
       </c>
       <c r="B124">
-        <v>12.01000022888184</v>
+        <v>12.21000003814697</v>
       </c>
       <c r="C124">
-        <v>10.56999969482422</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="D124">
-        <v>11.02000045776367</v>
+        <v>12.0600004196167</v>
       </c>
       <c r="E124">
-        <v>11.02000045776367</v>
+        <v>12.0600004196167</v>
       </c>
       <c r="F124">
-        <v>137525900</v>
+        <v>56698300</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>10.69999980926514</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="B125">
-        <v>11.1850004196167</v>
+        <v>12.05500030517578</v>
       </c>
       <c r="C125">
-        <v>10.30000019073486</v>
+        <v>11.23499965667725</v>
       </c>
       <c r="D125">
-        <v>10.47999954223633</v>
+        <v>11.34000015258789</v>
       </c>
       <c r="E125">
-        <v>10.47999954223633</v>
+        <v>11.34000015258789</v>
       </c>
       <c r="F125">
-        <v>104501500</v>
+        <v>45943000</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>10.82999992370605</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="B126">
-        <v>11.26000022888184</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C126">
-        <v>10.39999961853027</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="D126">
-        <v>10.43000030517578</v>
+        <v>10.96000003814697</v>
       </c>
       <c r="E126">
-        <v>10.43000030517578</v>
+        <v>10.96000003814697</v>
       </c>
       <c r="F126">
-        <v>93964500</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>9.75</v>
-      </c>
-      <c r="B127">
-        <v>11.86999988555908</v>
-      </c>
-      <c r="C127">
-        <v>9.739999771118164</v>
-      </c>
-      <c r="D127">
-        <v>11.82999992370605</v>
-      </c>
-      <c r="E127">
-        <v>11.82999992370605</v>
-      </c>
-      <c r="F127">
-        <v>118793000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>11.59000015258789</v>
-      </c>
-      <c r="B128">
-        <v>11.89000034332275</v>
-      </c>
-      <c r="C128">
-        <v>11</v>
-      </c>
-      <c r="D128">
-        <v>11.47000026702881</v>
-      </c>
-      <c r="E128">
-        <v>11.47000026702881</v>
-      </c>
-      <c r="F128">
-        <v>75346700</v>
+        <v>43318206</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/PLTR/HighLow.xlsx
+++ b/Stocks/PLTR/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,602 +417,602 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>26.79000091552734</v>
+        <v>26.14999961853027</v>
       </c>
       <c r="B2">
-        <v>26.8799991607666</v>
+        <v>26.23900032043457</v>
       </c>
       <c r="C2">
-        <v>26.27000045776367</v>
+        <v>25.03000068664551</v>
       </c>
       <c r="D2">
-        <v>26.70000076293945</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="E2">
-        <v>26.70000076293945</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="F2">
-        <v>35835100</v>
+        <v>42372300</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>26.60000038146973</v>
+        <v>25.96999931335449</v>
       </c>
       <c r="B3">
-        <v>26.61000061035156</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="C3">
-        <v>24.95999908447266</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="D3">
-        <v>25.57999992370605</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="E3">
-        <v>25.57999992370605</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="F3">
-        <v>54394400</v>
+        <v>34569000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>25.38999938964844</v>
+        <v>26.29999923706055</v>
       </c>
       <c r="B4">
-        <v>26.23999977111816</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="C4">
-        <v>25.29000091552734</v>
+        <v>26.03000068664551</v>
       </c>
       <c r="D4">
-        <v>26.1299991607666</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="E4">
-        <v>26.1299991607666</v>
+        <v>27.07999992370605</v>
       </c>
       <c r="F4">
-        <v>34190800</v>
+        <v>49555500</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>26.18000030517578</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="B5">
-        <v>26.72999954223633</v>
+        <v>28.79000091552734</v>
       </c>
       <c r="C5">
-        <v>26.17000007629395</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="D5">
-        <v>26.28000068664551</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="E5">
-        <v>26.28000068664551</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="F5">
-        <v>37215800</v>
+        <v>109992000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>26.14999961853027</v>
+        <v>28.65999984741211</v>
       </c>
       <c r="B6">
-        <v>26.23900032043457</v>
+        <v>29.29000091552734</v>
       </c>
       <c r="C6">
-        <v>25.03000068664551</v>
+        <v>28.06999969482422</v>
       </c>
       <c r="D6">
-        <v>25.82999992370605</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="E6">
-        <v>25.82999992370605</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="F6">
-        <v>42372300</v>
+        <v>182052600</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>25.96999931335449</v>
+        <v>27.56999969482422</v>
       </c>
       <c r="B7">
-        <v>26.70000076293945</v>
+        <v>28.10000038146973</v>
       </c>
       <c r="C7">
-        <v>25.89999961853027</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="D7">
-        <v>26.26000022888184</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="E7">
-        <v>26.26000022888184</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="F7">
-        <v>34569000</v>
+        <v>89413500</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>26.29999923706055</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="B8">
-        <v>27.14999961853027</v>
+        <v>27.14900016784668</v>
       </c>
       <c r="C8">
-        <v>26.03000068664551</v>
+        <v>26.07999992370605</v>
       </c>
       <c r="D8">
-        <v>27.07999992370605</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="E8">
-        <v>27.07999992370605</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="F8">
-        <v>49555500</v>
+        <v>50933600</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>27.20000076293945</v>
+        <v>26.61000061035156</v>
       </c>
       <c r="B9">
-        <v>28.79000091552734</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="C9">
-        <v>27.02000045776367</v>
+        <v>26.58200073242188</v>
       </c>
       <c r="D9">
-        <v>28.6299991607666</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="E9">
-        <v>28.6299991607666</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="F9">
-        <v>109992000</v>
+        <v>44308100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>28.65999984741211</v>
+        <v>27.70999908447266</v>
       </c>
       <c r="B10">
-        <v>29.29000091552734</v>
+        <v>29.19000053405762</v>
       </c>
       <c r="C10">
-        <v>28.06999969482422</v>
+        <v>27.67000007629395</v>
       </c>
       <c r="D10">
-        <v>28.70999908447266</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="E10">
-        <v>28.70999908447266</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="F10">
-        <v>182052600</v>
+        <v>60028600</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>27.56999969482422</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="B11">
-        <v>28.10000038146973</v>
+        <v>28.76000022888184</v>
       </c>
       <c r="C11">
-        <v>26.05999946594238</v>
+        <v>27.90099906921387</v>
       </c>
       <c r="D11">
-        <v>26.54999923706055</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="E11">
-        <v>26.54999923706055</v>
+        <v>28.55999946594238</v>
       </c>
       <c r="F11">
-        <v>89413500</v>
+        <v>40309700</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>26.88999938964844</v>
+        <v>28.22999954223633</v>
       </c>
       <c r="B12">
-        <v>27.14900016784668</v>
+        <v>28.3799991607666</v>
       </c>
       <c r="C12">
-        <v>26.07999992370605</v>
+        <v>27.22999954223633</v>
       </c>
       <c r="D12">
-        <v>26.6200008392334</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="E12">
-        <v>26.6200008392334</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="F12">
-        <v>50933600</v>
+        <v>44102800</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>26.61000061035156</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="B13">
-        <v>27.77000045776367</v>
+        <v>27.1299991607666</v>
       </c>
       <c r="C13">
-        <v>26.58200073242188</v>
+        <v>25.20999908447266</v>
       </c>
       <c r="D13">
-        <v>27.43000030517578</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="E13">
-        <v>27.43000030517578</v>
+        <v>25.34000015258789</v>
       </c>
       <c r="F13">
-        <v>44308100</v>
+        <v>64206200</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>27.70999908447266</v>
+        <v>25.61000061035156</v>
       </c>
       <c r="B14">
-        <v>29.19000053405762</v>
+        <v>25.70000076293945</v>
       </c>
       <c r="C14">
-        <v>27.67000007629395</v>
+        <v>24.42000007629395</v>
       </c>
       <c r="D14">
-        <v>28.77000045776367</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="E14">
-        <v>28.77000045776367</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="F14">
-        <v>60028600</v>
+        <v>46164500</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>28.27000045776367</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="B15">
-        <v>28.76000022888184</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="C15">
-        <v>27.90099906921387</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="D15">
-        <v>28.55999946594238</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="E15">
-        <v>28.55999946594238</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="F15">
-        <v>40309700</v>
+        <v>59505600</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>28.22999954223633</v>
+        <v>24.20999908447266</v>
       </c>
       <c r="B16">
-        <v>28.3799991607666</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="C16">
-        <v>27.22999954223633</v>
+        <v>23.71999931335449</v>
       </c>
       <c r="D16">
-        <v>27.46999931335449</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="E16">
-        <v>27.46999931335449</v>
+        <v>24.32999992370605</v>
       </c>
       <c r="F16">
-        <v>44102800</v>
+        <v>32778000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>27.02000045776367</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="B17">
-        <v>27.1299991607666</v>
+        <v>24.04999923706055</v>
       </c>
       <c r="C17">
-        <v>25.20999908447266</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="D17">
-        <v>25.34000015258789</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="E17">
-        <v>25.34000015258789</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="F17">
-        <v>64206200</v>
+        <v>46789700</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>25.61000061035156</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="B18">
-        <v>25.70000076293945</v>
+        <v>23.8799991607666</v>
       </c>
       <c r="C18">
-        <v>24.42000007629395</v>
+        <v>23.06999969482422</v>
       </c>
       <c r="D18">
-        <v>24.52000045776367</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="E18">
-        <v>24.52000045776367</v>
+        <v>23.20999908447266</v>
       </c>
       <c r="F18">
-        <v>46164500</v>
+        <v>56574800</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>24.69000053405762</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="B19">
-        <v>25.04999923706055</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="C19">
-        <v>23.8799991607666</v>
+        <v>23.35000038146973</v>
       </c>
       <c r="D19">
-        <v>24.04000091552734</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="E19">
-        <v>24.04000091552734</v>
+        <v>23.57999992370605</v>
       </c>
       <c r="F19">
-        <v>59505600</v>
+        <v>125175700</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>24.20999908447266</v>
+        <v>23.70999908447266</v>
       </c>
       <c r="B20">
-        <v>24.36000061035156</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="C20">
-        <v>23.71999931335449</v>
+        <v>23.54000091552734</v>
       </c>
       <c r="D20">
-        <v>24.32999992370605</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="E20">
-        <v>24.32999992370605</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="F20">
-        <v>32778000</v>
+        <v>38873700</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>24.01000022888184</v>
+        <v>23.86000061035156</v>
       </c>
       <c r="B21">
-        <v>24.04999923706055</v>
+        <v>24.09600067138672</v>
       </c>
       <c r="C21">
-        <v>23.02000045776367</v>
+        <v>23.11000061035156</v>
       </c>
       <c r="D21">
-        <v>23.17000007629395</v>
+        <v>23.5</v>
       </c>
       <c r="E21">
-        <v>23.17000007629395</v>
+        <v>23.5</v>
       </c>
       <c r="F21">
-        <v>46789700</v>
+        <v>39630400</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>23.20999908447266</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="B22">
-        <v>23.8799991607666</v>
+        <v>23.97999954223633</v>
       </c>
       <c r="C22">
-        <v>23.06999969482422</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="D22">
-        <v>23.20999908447266</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="E22">
-        <v>23.20999908447266</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="F22">
-        <v>56574800</v>
+        <v>23971700</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>24.90999984741211</v>
+        <v>23.54999923706055</v>
       </c>
       <c r="B23">
-        <v>25.01000022888184</v>
+        <v>23.80999946594238</v>
       </c>
       <c r="C23">
-        <v>23.35000038146973</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="D23">
-        <v>23.57999992370605</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="E23">
-        <v>23.57999992370605</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="F23">
-        <v>125175700</v>
+        <v>26280000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>23.70999908447266</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="B24">
+        <v>24.30999946594238</v>
+      </c>
+      <c r="C24">
+        <v>23.79000091552734</v>
+      </c>
+      <c r="D24">
         <v>24.1299991607666</v>
       </c>
-      <c r="C24">
-        <v>23.54000091552734</v>
-      </c>
-      <c r="D24">
-        <v>23.72999954223633</v>
-      </c>
       <c r="E24">
-        <v>23.72999954223633</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="F24">
-        <v>38873700</v>
+        <v>28494000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>23.86000061035156</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="B25">
-        <v>24.09600067138672</v>
+        <v>24.70999908447266</v>
       </c>
       <c r="C25">
-        <v>23.11000061035156</v>
+        <v>24.20499992370605</v>
       </c>
       <c r="D25">
-        <v>23.5</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="E25">
-        <v>23.5</v>
+        <v>24.35000038146973</v>
       </c>
       <c r="F25">
-        <v>39630400</v>
+        <v>26106700</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>23.26000022888184</v>
+        <v>24.5</v>
       </c>
       <c r="B26">
-        <v>23.97999954223633</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="C26">
-        <v>23.26000022888184</v>
+        <v>23.82999992370605</v>
       </c>
       <c r="D26">
-        <v>23.53000068664551</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>23.53000068664551</v>
+        <v>24</v>
       </c>
       <c r="F26">
-        <v>23971700</v>
+        <v>24275000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>23.54999923706055</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>23.80999946594238</v>
+        <v>24.38999938964844</v>
       </c>
       <c r="C27">
-        <v>23.29000091552734</v>
+        <v>23.92000007629395</v>
       </c>
       <c r="D27">
-        <v>23.69000053405762</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="E27">
-        <v>23.69000053405762</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="F27">
-        <v>26280000</v>
+        <v>25609900</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>23.82999992370605</v>
+        <v>24.5</v>
       </c>
       <c r="B28">
-        <v>24.30999946594238</v>
+        <v>25.20000076293945</v>
       </c>
       <c r="C28">
-        <v>23.79000091552734</v>
+        <v>24.36000061035156</v>
       </c>
       <c r="D28">
-        <v>24.1299991607666</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="E28">
-        <v>24.1299991607666</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="F28">
-        <v>28494000</v>
+        <v>29393900</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>24.43000030517578</v>
+        <v>24.79000091552734</v>
       </c>
       <c r="B29">
-        <v>24.70999908447266</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="C29">
-        <v>24.20499992370605</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="D29">
-        <v>24.35000038146973</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="E29">
-        <v>24.35000038146973</v>
+        <v>24.21999931335449</v>
       </c>
       <c r="F29">
-        <v>26106700</v>
+        <v>24248000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>24.5</v>
+        <v>24.1299991607666</v>
       </c>
       <c r="B30">
-        <v>24.52000045776367</v>
+        <v>24.93000030517578</v>
       </c>
       <c r="C30">
-        <v>23.82999992370605</v>
+        <v>24.07999992370605</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="E30">
-        <v>24</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="F30">
-        <v>24275000</v>
+        <v>23976600</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>24</v>
+        <v>24.48999977111816</v>
       </c>
       <c r="B31">
-        <v>24.38999938964844</v>
+        <v>24.85000038146973</v>
       </c>
       <c r="C31">
-        <v>23.92000007629395</v>
+        <v>24.25</v>
       </c>
       <c r="D31">
-        <v>24.26000022888184</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="E31">
-        <v>24.26000022888184</v>
+        <v>24.43000030517578</v>
       </c>
       <c r="F31">
-        <v>25609900</v>
+        <v>20166800</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1020,990 +1020,990 @@
         <v>24.5</v>
       </c>
       <c r="B32">
-        <v>25.20000076293945</v>
+        <v>25.54000091552734</v>
       </c>
       <c r="C32">
-        <v>24.36000061035156</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="D32">
-        <v>24.69000053405762</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="E32">
-        <v>24.69000053405762</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="F32">
-        <v>29393900</v>
+        <v>33962100</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>24.79000091552734</v>
+        <v>25.98999977111816</v>
       </c>
       <c r="B33">
-        <v>24.95999908447266</v>
+        <v>26.75</v>
       </c>
       <c r="C33">
-        <v>24.17000007629395</v>
+        <v>25.25</v>
       </c>
       <c r="D33">
-        <v>24.21999931335449</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="E33">
-        <v>24.21999931335449</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="F33">
-        <v>24248000</v>
+        <v>56767000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>24.1299991607666</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="B34">
-        <v>24.93000030517578</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="C34">
-        <v>24.07999992370605</v>
+        <v>25.02000045776367</v>
       </c>
       <c r="D34">
-        <v>24.78000068664551</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="E34">
-        <v>24.78000068664551</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="F34">
-        <v>23976600</v>
+        <v>24157200</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>24.48999977111816</v>
+        <v>25.29999923706055</v>
       </c>
       <c r="B35">
-        <v>24.85000038146973</v>
+        <v>25.79500007629395</v>
       </c>
       <c r="C35">
-        <v>24.25</v>
+        <v>25.1200008392334</v>
       </c>
       <c r="D35">
-        <v>24.43000030517578</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="E35">
-        <v>24.43000030517578</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="F35">
-        <v>20166800</v>
+        <v>21203000</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="B36">
-        <v>25.54000091552734</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="C36">
-        <v>24.47999954223633</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="D36">
-        <v>25.40999984741211</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="E36">
-        <v>25.40999984741211</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="F36">
-        <v>33962100</v>
+        <v>21910300</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>25.98999977111816</v>
+        <v>26.11000061035156</v>
       </c>
       <c r="B37">
-        <v>26.75</v>
+        <v>26.64500045776367</v>
       </c>
       <c r="C37">
-        <v>25.25</v>
+        <v>25.88299942016602</v>
       </c>
       <c r="D37">
-        <v>25.52000045776367</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="E37">
-        <v>25.52000045776367</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="F37">
-        <v>56767000</v>
+        <v>26684700</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>25.63999938964844</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="B38">
-        <v>25.89999961853027</v>
+        <v>26.71999931335449</v>
       </c>
       <c r="C38">
-        <v>25.02000045776367</v>
+        <v>25.55500030517578</v>
       </c>
       <c r="D38">
-        <v>25.05999946594238</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="E38">
-        <v>25.05999946594238</v>
+        <v>25.92000007629395</v>
       </c>
       <c r="F38">
-        <v>24157200</v>
+        <v>30794600</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>25.29999923706055</v>
+        <v>25.88999938964844</v>
       </c>
       <c r="B39">
-        <v>25.79500007629395</v>
+        <v>26.23500061035156</v>
       </c>
       <c r="C39">
-        <v>25.1200008392334</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="D39">
-        <v>25.63999938964844</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="E39">
-        <v>25.63999938964844</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="F39">
-        <v>21203000</v>
+        <v>25244200</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>25.5</v>
+        <v>26.26000022888184</v>
       </c>
       <c r="B40">
-        <v>26.1200008392334</v>
+        <v>26.56999969482422</v>
       </c>
       <c r="C40">
-        <v>25.45000076293945</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="D40">
-        <v>25.8799991607666</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="E40">
-        <v>25.8799991607666</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="F40">
-        <v>21910300</v>
+        <v>25029700</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>26.11000061035156</v>
+        <v>26.45000076293945</v>
       </c>
       <c r="B41">
-        <v>26.64500045776367</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="C41">
-        <v>25.88299942016602</v>
+        <v>25.71999931335449</v>
       </c>
       <c r="D41">
-        <v>26.55999946594238</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>26.55999946594238</v>
+        <v>26</v>
       </c>
       <c r="F41">
-        <v>26684700</v>
+        <v>25929900</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>26.55999946594238</v>
+        <v>26.25</v>
       </c>
       <c r="B42">
-        <v>26.71999931335449</v>
+        <v>27.11000061035156</v>
       </c>
       <c r="C42">
-        <v>25.55500030517578</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="D42">
-        <v>25.92000007629395</v>
+        <v>26.75</v>
       </c>
       <c r="E42">
-        <v>25.92000007629395</v>
+        <v>26.75</v>
       </c>
       <c r="F42">
-        <v>30794600</v>
+        <v>41359600</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>25.88999938964844</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="B43">
-        <v>26.23500061035156</v>
+        <v>25.97999954223633</v>
       </c>
       <c r="C43">
-        <v>25.17000007629395</v>
+        <v>23.95000076293945</v>
       </c>
       <c r="D43">
-        <v>26.1200008392334</v>
+        <v>24.25</v>
       </c>
       <c r="E43">
-        <v>26.1200008392334</v>
+        <v>24.25</v>
       </c>
       <c r="F43">
-        <v>25244200</v>
+        <v>117540200</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>26.26000022888184</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="B44">
-        <v>26.56999969482422</v>
+        <v>23.63999938964844</v>
       </c>
       <c r="C44">
-        <v>25.8700008392334</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="D44">
-        <v>26.46999931335449</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="E44">
-        <v>26.46999931335449</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="F44">
-        <v>25029700</v>
+        <v>94860100</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>26.45000076293945</v>
+        <v>23.04000091552734</v>
       </c>
       <c r="B45">
-        <v>26.6299991607666</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="C45">
-        <v>25.71999931335449</v>
+        <v>22.66500091552734</v>
       </c>
       <c r="D45">
-        <v>26</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="E45">
-        <v>26</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="F45">
-        <v>25929900</v>
+        <v>43381500</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>26.25</v>
+        <v>23.02000045776367</v>
       </c>
       <c r="B46">
-        <v>27.11000061035156</v>
+        <v>23.22500038146973</v>
       </c>
       <c r="C46">
-        <v>26.1200008392334</v>
+        <v>22.3799991607666</v>
       </c>
       <c r="D46">
-        <v>26.75</v>
+        <v>22.82999992370605</v>
       </c>
       <c r="E46">
-        <v>26.75</v>
+        <v>22.82999992370605</v>
       </c>
       <c r="F46">
-        <v>41359600</v>
+        <v>53440300</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>25.89999961853027</v>
+        <v>23</v>
       </c>
       <c r="B47">
-        <v>25.97999954223633</v>
+        <v>23.52000045776367</v>
       </c>
       <c r="C47">
-        <v>23.95000076293945</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="D47">
-        <v>24.25</v>
+        <v>23.40999984741211</v>
       </c>
       <c r="E47">
-        <v>24.25</v>
+        <v>23.40999984741211</v>
       </c>
       <c r="F47">
-        <v>117540200</v>
+        <v>33225700</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>23.60000038146973</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="B48">
-        <v>23.63999938964844</v>
+        <v>23.29000091552734</v>
       </c>
       <c r="C48">
-        <v>22.1200008392334</v>
+        <v>22.61000061035156</v>
       </c>
       <c r="D48">
-        <v>22.52000045776367</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="E48">
-        <v>22.52000045776367</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="F48">
-        <v>94860100</v>
+        <v>31574800</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>23.04000091552734</v>
+        <v>23.04999923706055</v>
       </c>
       <c r="B49">
-        <v>23.1299991607666</v>
+        <v>23.2189998626709</v>
       </c>
       <c r="C49">
-        <v>22.66500091552734</v>
+        <v>22.39999961853027</v>
       </c>
       <c r="D49">
-        <v>22.98999977111816</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="E49">
-        <v>22.98999977111816</v>
+        <v>22.48999977111816</v>
       </c>
       <c r="F49">
-        <v>43381500</v>
+        <v>27994100</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>23.02000045776367</v>
+        <v>22.5</v>
       </c>
       <c r="B50">
-        <v>23.22500038146973</v>
+        <v>22.54999923706055</v>
       </c>
       <c r="C50">
-        <v>22.3799991607666</v>
+        <v>21.34199905395508</v>
       </c>
       <c r="D50">
-        <v>22.82999992370605</v>
+        <v>21.5</v>
       </c>
       <c r="E50">
-        <v>22.82999992370605</v>
+        <v>21.5</v>
       </c>
       <c r="F50">
-        <v>53440300</v>
+        <v>51039900</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>23</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="B51">
-        <v>23.52000045776367</v>
+        <v>21.95999908447266</v>
       </c>
       <c r="C51">
-        <v>22.95000076293945</v>
+        <v>21.29999923706055</v>
       </c>
       <c r="D51">
-        <v>23.40999984741211</v>
+        <v>21.40999984741211</v>
       </c>
       <c r="E51">
-        <v>23.40999984741211</v>
+        <v>21.40999984741211</v>
       </c>
       <c r="F51">
-        <v>33225700</v>
+        <v>30013100</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>23.29000091552734</v>
+        <v>21.53000068664551</v>
       </c>
       <c r="B52">
-        <v>23.29000091552734</v>
+        <v>21.56999969482422</v>
       </c>
       <c r="C52">
-        <v>22.61000061035156</v>
+        <v>20.18000030517578</v>
       </c>
       <c r="D52">
-        <v>23.1299991607666</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="E52">
-        <v>23.1299991607666</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="F52">
-        <v>31574800</v>
+        <v>59899100</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>23.04999923706055</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="B53">
-        <v>23.2189998626709</v>
+        <v>21.04999923706055</v>
       </c>
       <c r="C53">
-        <v>22.39999961853027</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="D53">
-        <v>22.48999977111816</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="E53">
-        <v>22.48999977111816</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="F53">
-        <v>27994100</v>
+        <v>44588000</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>22.5</v>
+        <v>20.35000038146973</v>
       </c>
       <c r="B54">
-        <v>22.54999923706055</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="C54">
-        <v>21.34199905395508</v>
+        <v>20.05999946594238</v>
       </c>
       <c r="D54">
-        <v>21.5</v>
+        <v>21.11000061035156</v>
       </c>
       <c r="E54">
-        <v>21.5</v>
+        <v>21.11000061035156</v>
       </c>
       <c r="F54">
-        <v>51039900</v>
+        <v>35233900</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>21.60000038146973</v>
+        <v>20.40999984741211</v>
       </c>
       <c r="B55">
-        <v>21.95999908447266</v>
+        <v>21.09000015258789</v>
       </c>
       <c r="C55">
-        <v>21.29999923706055</v>
+        <v>20.34900093078613</v>
       </c>
       <c r="D55">
-        <v>21.40999984741211</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="E55">
-        <v>21.40999984741211</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="F55">
-        <v>30013100</v>
+        <v>20691200</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>21.53000068664551</v>
+        <v>21.19000053405762</v>
       </c>
       <c r="B56">
-        <v>21.56999969482422</v>
+        <v>21.39999961853027</v>
       </c>
       <c r="C56">
-        <v>20.18000030517578</v>
+        <v>20.55999946594238</v>
       </c>
       <c r="D56">
-        <v>20.64999961853027</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="E56">
-        <v>20.64999961853027</v>
+        <v>21.06999969482422</v>
       </c>
       <c r="F56">
-        <v>59899100</v>
+        <v>29114000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20.59000015258789</v>
+        <v>20.95000076293945</v>
       </c>
       <c r="B57">
-        <v>21.04999923706055</v>
+        <v>21.25</v>
       </c>
       <c r="C57">
-        <v>20.04999923706055</v>
+        <v>20.11000061035156</v>
       </c>
       <c r="D57">
-        <v>20.59000015258789</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="E57">
-        <v>20.59000015258789</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="F57">
-        <v>44588000</v>
+        <v>38196400</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20.35000038146973</v>
+        <v>20.53000068664551</v>
       </c>
       <c r="B58">
-        <v>21.20000076293945</v>
+        <v>20.88999938964844</v>
       </c>
       <c r="C58">
-        <v>20.05999946594238</v>
+        <v>19.29000091552734</v>
       </c>
       <c r="D58">
-        <v>21.11000061035156</v>
+        <v>19.3799991607666</v>
       </c>
       <c r="E58">
-        <v>21.11000061035156</v>
+        <v>19.3799991607666</v>
       </c>
       <c r="F58">
-        <v>35233900</v>
+        <v>48283700</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20.40999984741211</v>
+        <v>19.29999923706055</v>
       </c>
       <c r="B59">
-        <v>21.09000015258789</v>
+        <v>19.90999984741211</v>
       </c>
       <c r="C59">
-        <v>20.34900093078613</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="D59">
-        <v>21.03000068664551</v>
+        <v>19.69000053405762</v>
       </c>
       <c r="E59">
-        <v>21.03000068664551</v>
+        <v>19.69000053405762</v>
       </c>
       <c r="F59">
-        <v>20691200</v>
+        <v>45802900</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>21.19000053405762</v>
+        <v>19.5</v>
       </c>
       <c r="B60">
-        <v>21.39999961853027</v>
+        <v>19.53000068664551</v>
       </c>
       <c r="C60">
-        <v>20.55999946594238</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="D60">
-        <v>21.06999969482422</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="E60">
-        <v>21.06999969482422</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="F60">
-        <v>29114000</v>
+        <v>55926700</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20.95000076293945</v>
+        <v>18.54000091552734</v>
       </c>
       <c r="B61">
-        <v>21.25</v>
+        <v>18.96999931335449</v>
       </c>
       <c r="C61">
-        <v>20.11000061035156</v>
+        <v>18.07500076293945</v>
       </c>
       <c r="D61">
-        <v>20.64999961853027</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="E61">
-        <v>20.64999961853027</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="F61">
-        <v>38196400</v>
+        <v>56459800</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20.53000068664551</v>
+        <v>19.26000022888184</v>
       </c>
       <c r="B62">
-        <v>20.88999938964844</v>
+        <v>19.85499954223633</v>
       </c>
       <c r="C62">
-        <v>19.29000091552734</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="D62">
-        <v>19.3799991607666</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="E62">
-        <v>19.3799991607666</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="F62">
-        <v>48283700</v>
+        <v>35129000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19.29999923706055</v>
+        <v>19.51000022888184</v>
       </c>
       <c r="B63">
-        <v>19.90999984741211</v>
+        <v>19.82500076293945</v>
       </c>
       <c r="C63">
-        <v>19.05999946594238</v>
+        <v>19.03000068664551</v>
       </c>
       <c r="D63">
-        <v>19.69000053405762</v>
+        <v>19.81999969482422</v>
       </c>
       <c r="E63">
-        <v>19.69000053405762</v>
+        <v>19.81999969482422</v>
       </c>
       <c r="F63">
-        <v>45802900</v>
+        <v>28425900</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19.5</v>
+        <v>19.95000076293945</v>
       </c>
       <c r="B64">
-        <v>19.53000068664551</v>
+        <v>20.14999961853027</v>
       </c>
       <c r="C64">
-        <v>18.39999961853027</v>
+        <v>19.04000091552734</v>
       </c>
       <c r="D64">
-        <v>18.97999954223633</v>
+        <v>19.20999908447266</v>
       </c>
       <c r="E64">
-        <v>18.97999954223633</v>
+        <v>19.20999908447266</v>
       </c>
       <c r="F64">
-        <v>55926700</v>
+        <v>30354700</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>18.54000091552734</v>
+        <v>19.28000068664551</v>
       </c>
       <c r="B65">
-        <v>18.96999931335449</v>
+        <v>19.57999992370605</v>
       </c>
       <c r="C65">
-        <v>18.07500076293945</v>
+        <v>18.70000076293945</v>
       </c>
       <c r="D65">
-        <v>18.79999923706055</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="E65">
-        <v>18.79999923706055</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="F65">
-        <v>56459800</v>
+        <v>27550300</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19.26000022888184</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="B66">
-        <v>19.85499954223633</v>
+        <v>19.07500076293945</v>
       </c>
       <c r="C66">
-        <v>19.06999969482422</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="D66">
-        <v>19.45999908447266</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="E66">
-        <v>19.45999908447266</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="F66">
-        <v>35129000</v>
+        <v>38376000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19.51000022888184</v>
+        <v>18</v>
       </c>
       <c r="B67">
-        <v>19.82500076293945</v>
+        <v>18.85899925231934</v>
       </c>
       <c r="C67">
-        <v>19.03000068664551</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="D67">
-        <v>19.81999969482422</v>
+        <v>18.63999938964844</v>
       </c>
       <c r="E67">
-        <v>19.81999969482422</v>
+        <v>18.63999938964844</v>
       </c>
       <c r="F67">
-        <v>28425900</v>
+        <v>38864800</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19.95000076293945</v>
+        <v>18.3700008392334</v>
       </c>
       <c r="B68">
-        <v>20.14999961853027</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="C68">
-        <v>19.04000091552734</v>
+        <v>17.9950008392334</v>
       </c>
       <c r="D68">
-        <v>19.20999908447266</v>
+        <v>18.86000061035156</v>
       </c>
       <c r="E68">
-        <v>19.20999908447266</v>
+        <v>18.86000061035156</v>
       </c>
       <c r="F68">
-        <v>30354700</v>
+        <v>39361900</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19.28000068664551</v>
+        <v>18.95999908447266</v>
       </c>
       <c r="B69">
-        <v>19.57999992370605</v>
+        <v>19.1200008392334</v>
       </c>
       <c r="C69">
-        <v>18.70000076293945</v>
+        <v>18.14999961853027</v>
       </c>
       <c r="D69">
-        <v>18.94000053405762</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="E69">
-        <v>18.94000053405762</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="F69">
-        <v>27550300</v>
+        <v>33950000</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>18.79999923706055</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="B70">
-        <v>19.07500076293945</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="C70">
-        <v>18.17000007629395</v>
+        <v>17.80999946594238</v>
       </c>
       <c r="D70">
-        <v>18.39999961853027</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="E70">
-        <v>18.39999961853027</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="F70">
-        <v>38376000</v>
+        <v>44325900</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>18</v>
+        <v>18.59000015258789</v>
       </c>
       <c r="B71">
-        <v>18.85899925231934</v>
+        <v>18.67000007629395</v>
       </c>
       <c r="C71">
-        <v>17.90999984741211</v>
+        <v>17.83499908447266</v>
       </c>
       <c r="D71">
-        <v>18.63999938964844</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="E71">
-        <v>18.63999938964844</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="F71">
-        <v>38864800</v>
+        <v>42265900</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>18.3700008392334</v>
+        <v>18.15999984741211</v>
       </c>
       <c r="B72">
-        <v>18.94000053405762</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="C72">
-        <v>17.9950008392334</v>
+        <v>18.10000038146973</v>
       </c>
       <c r="D72">
-        <v>18.86000061035156</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="E72">
-        <v>18.86000061035156</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="F72">
-        <v>39361900</v>
+        <v>33878600</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>18.95999908447266</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="B73">
-        <v>19.1200008392334</v>
+        <v>19.45000076293945</v>
       </c>
       <c r="C73">
-        <v>18.14999961853027</v>
+        <v>18.64999961853027</v>
       </c>
       <c r="D73">
-        <v>18.34000015258789</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="E73">
-        <v>18.34000015258789</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="F73">
-        <v>33950000</v>
+        <v>33894200</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>18.03000068664551</v>
+        <v>18.85000038146973</v>
       </c>
       <c r="B74">
-        <v>19.10000038146973</v>
+        <v>19.13500022888184</v>
       </c>
       <c r="C74">
-        <v>17.80999946594238</v>
+        <v>18.71999931335449</v>
       </c>
       <c r="D74">
-        <v>19.05999946594238</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="E74">
-        <v>19.05999946594238</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="F74">
-        <v>44325900</v>
+        <v>24758300</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>18.59000015258789</v>
+        <v>18.78000068664551</v>
       </c>
       <c r="B75">
-        <v>18.67000007629395</v>
+        <v>19.25</v>
       </c>
       <c r="C75">
-        <v>17.83499908447266</v>
+        <v>18.78000068664551</v>
       </c>
       <c r="D75">
-        <v>17.95999908447266</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="E75">
-        <v>17.95999908447266</v>
+        <v>18.94000053405762</v>
       </c>
       <c r="F75">
-        <v>42265900</v>
+        <v>21782000</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>18.15999984741211</v>
+        <v>18.88999938964844</v>
       </c>
       <c r="B76">
-        <v>18.97999954223633</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="C76">
-        <v>18.10000038146973</v>
+        <v>18.44000053405762</v>
       </c>
       <c r="D76">
-        <v>18.89999961853027</v>
+        <v>18.56999969482422</v>
       </c>
       <c r="E76">
-        <v>18.89999961853027</v>
+        <v>18.56999969482422</v>
       </c>
       <c r="F76">
-        <v>33878600</v>
+        <v>20518800</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>18.64999961853027</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="B77">
-        <v>19.45000076293945</v>
+        <v>18.60000038146973</v>
       </c>
       <c r="C77">
-        <v>18.64999961853027</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="D77">
-        <v>18.8799991607666</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="E77">
-        <v>18.8799991607666</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="F77">
-        <v>33894200</v>
+        <v>28217500</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>18.85000038146973</v>
+        <v>18.10000038146973</v>
       </c>
       <c r="B78">
-        <v>19.13500022888184</v>
+        <v>18.9950008392334</v>
       </c>
       <c r="C78">
-        <v>18.71999931335449</v>
+        <v>18.06999969482422</v>
       </c>
       <c r="D78">
-        <v>18.93000030517578</v>
+        <v>18.69000053405762</v>
       </c>
       <c r="E78">
-        <v>18.93000030517578</v>
+        <v>18.69000053405762</v>
       </c>
       <c r="F78">
-        <v>24758300</v>
+        <v>29285200</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>18.78000068664551</v>
+        <v>18.61000061035156</v>
       </c>
       <c r="B79">
-        <v>19.25</v>
+        <v>18.92000007629395</v>
       </c>
       <c r="C79">
-        <v>18.78000068664551</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="D79">
-        <v>18.94000053405762</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="E79">
-        <v>18.94000053405762</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="F79">
-        <v>21782000</v>
+        <v>23556000</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>18.88999938964844</v>
+        <v>18.36000061035156</v>
       </c>
       <c r="B80">
-        <v>19.06999969482422</v>
+        <v>18.56900024414062</v>
       </c>
       <c r="C80">
-        <v>18.44000053405762</v>
+        <v>17.86000061035156</v>
       </c>
       <c r="D80">
-        <v>18.56999969482422</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="E80">
-        <v>18.56999969482422</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="F80">
-        <v>20518800</v>
+        <v>34283600</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>18.53000068664551</v>
+        <v>18.61000061035156</v>
       </c>
       <c r="B81">
-        <v>18.60000038146973</v>
+        <v>18.84000015258789</v>
       </c>
       <c r="C81">
-        <v>17.90999984741211</v>
+        <v>17.79000091552734</v>
       </c>
       <c r="D81">
         <v>18.17000007629395</v>
@@ -2012,907 +2012,927 @@
         <v>18.17000007629395</v>
       </c>
       <c r="F81">
-        <v>28217500</v>
+        <v>39643200</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>18.10000038146973</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="B82">
-        <v>18.9950008392334</v>
+        <v>18.56800079345703</v>
       </c>
       <c r="C82">
-        <v>18.06999969482422</v>
+        <v>16.8700008392334</v>
       </c>
       <c r="D82">
-        <v>18.69000053405762</v>
+        <v>16.95999908447266</v>
       </c>
       <c r="E82">
-        <v>18.69000053405762</v>
+        <v>16.95999908447266</v>
       </c>
       <c r="F82">
-        <v>29285200</v>
+        <v>58445900</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>18.61000061035156</v>
+        <v>16.8700008392334</v>
       </c>
       <c r="B83">
-        <v>18.92000007629395</v>
+        <v>17.18000030517578</v>
       </c>
       <c r="C83">
-        <v>18.20999908447266</v>
+        <v>16.05500030517578</v>
       </c>
       <c r="D83">
-        <v>18.20999908447266</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="E83">
-        <v>18.20999908447266</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="F83">
-        <v>23556000</v>
+        <v>49737100</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>18.36000061035156</v>
+        <v>16.70000076293945</v>
       </c>
       <c r="B84">
-        <v>18.56900024414062</v>
+        <v>17.32999992370605</v>
       </c>
       <c r="C84">
-        <v>17.86000061035156</v>
+        <v>16.47500038146973</v>
       </c>
       <c r="D84">
-        <v>18.53000068664551</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="E84">
-        <v>18.53000068664551</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="F84">
-        <v>34283600</v>
+        <v>37696500</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>18.61000061035156</v>
+        <v>16.19000053405762</v>
       </c>
       <c r="B85">
-        <v>18.84000015258789</v>
+        <v>16.56999969482422</v>
       </c>
       <c r="C85">
-        <v>17.79000091552734</v>
+        <v>15.35000038146973</v>
       </c>
       <c r="D85">
-        <v>18.17000007629395</v>
+        <v>16.5</v>
       </c>
       <c r="E85">
-        <v>18.17000007629395</v>
+        <v>16.5</v>
       </c>
       <c r="F85">
-        <v>39643200</v>
+        <v>77649400</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>18.03000068664551</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="B86">
-        <v>18.56800079345703</v>
+        <v>17.25</v>
       </c>
       <c r="C86">
-        <v>16.8700008392334</v>
+        <v>16.31999969482422</v>
       </c>
       <c r="D86">
-        <v>16.95999908447266</v>
+        <v>16.88999938964844</v>
       </c>
       <c r="E86">
-        <v>16.95999908447266</v>
+        <v>16.88999938964844</v>
       </c>
       <c r="F86">
-        <v>58445900</v>
+        <v>47442600</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>16.8700008392334</v>
+        <v>17.15999984741211</v>
       </c>
       <c r="B87">
-        <v>17.18000030517578</v>
+        <v>17.45999908447266</v>
       </c>
       <c r="C87">
-        <v>16.05500030517578</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="D87">
-        <v>16.73999977111816</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="E87">
-        <v>16.73999977111816</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="F87">
-        <v>49737100</v>
+        <v>39784200</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>16.70000076293945</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="B88">
-        <v>17.32999992370605</v>
+        <v>16.81999969482422</v>
       </c>
       <c r="C88">
-        <v>16.47500038146973</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="D88">
-        <v>16.55999946594238</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E88">
-        <v>16.55999946594238</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="F88">
-        <v>37696500</v>
+        <v>35492200</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>16.19000053405762</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="B89">
-        <v>16.56999969482422</v>
+        <v>16.24900054931641</v>
       </c>
       <c r="C89">
-        <v>15.35000038146973</v>
+        <v>15.61999988555908</v>
       </c>
       <c r="D89">
-        <v>16.5</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E89">
-        <v>16.5</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="F89">
-        <v>77649400</v>
+        <v>35548200</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>16.39999961853027</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="B90">
-        <v>17.25</v>
+        <v>15.75</v>
       </c>
       <c r="C90">
-        <v>16.31999969482422</v>
+        <v>14.92000007629395</v>
       </c>
       <c r="D90">
-        <v>16.88999938964844</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="E90">
-        <v>16.88999938964844</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="F90">
-        <v>47442600</v>
+        <v>49067700</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>17.15999984741211</v>
+        <v>14.89999961853027</v>
       </c>
       <c r="B91">
-        <v>17.45999908447266</v>
+        <v>15.25</v>
       </c>
       <c r="C91">
-        <v>16.39999961853027</v>
+        <v>14.53999996185303</v>
       </c>
       <c r="D91">
-        <v>16.71999931335449</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="E91">
-        <v>16.71999931335449</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="F91">
-        <v>39784200</v>
+        <v>48049100</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>16.79999923706055</v>
+        <v>14.89000034332275</v>
       </c>
       <c r="B92">
-        <v>16.81999969482422</v>
+        <v>15.55000019073486</v>
       </c>
       <c r="C92">
-        <v>15.9399995803833</v>
+        <v>14.56999969482422</v>
       </c>
       <c r="D92">
-        <v>16.01000022888184</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="E92">
-        <v>16.01000022888184</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="F92">
-        <v>35492200</v>
+        <v>44690400</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>15.9399995803833</v>
+        <v>14.25</v>
       </c>
       <c r="B93">
-        <v>16.24900054931641</v>
+        <v>14.47799968719482</v>
       </c>
       <c r="C93">
-        <v>15.61999988555908</v>
+        <v>13.5</v>
       </c>
       <c r="D93">
-        <v>16.01000022888184</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="E93">
-        <v>16.01000022888184</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="F93">
-        <v>35548200</v>
+        <v>73031300</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>15.44999980926514</v>
+        <v>12.78999996185303</v>
       </c>
       <c r="B94">
-        <v>15.75</v>
+        <v>13.40999984741211</v>
       </c>
       <c r="C94">
-        <v>14.92000007629395</v>
+        <v>11.75</v>
       </c>
       <c r="D94">
-        <v>14.97000026702881</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="E94">
-        <v>14.97000026702881</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="F94">
-        <v>49067700</v>
+        <v>110518900</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>14.89999961853027</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="B95">
-        <v>15.25</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="C95">
-        <v>14.53999996185303</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="D95">
-        <v>14.5600004196167</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="E95">
-        <v>14.5600004196167</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="F95">
-        <v>48049100</v>
+        <v>47456600</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>14.89000034332275</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="B96">
-        <v>15.55000019073486</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="C96">
-        <v>14.56999969482422</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="D96">
-        <v>14.61999988555908</v>
+        <v>12.75</v>
       </c>
       <c r="E96">
-        <v>14.61999988555908</v>
+        <v>12.75</v>
       </c>
       <c r="F96">
-        <v>44690400</v>
+        <v>69949700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>14.25</v>
+        <v>13.01000022888184</v>
       </c>
       <c r="B97">
-        <v>14.47799968719482</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="C97">
-        <v>13.5</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="D97">
-        <v>13.52999973297119</v>
+        <v>12.27999973297119</v>
       </c>
       <c r="E97">
-        <v>13.52999973297119</v>
+        <v>12.27999973297119</v>
       </c>
       <c r="F97">
-        <v>73031300</v>
+        <v>52622900</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>12.78999996185303</v>
+        <v>12.30000019073486</v>
       </c>
       <c r="B98">
-        <v>13.40999984741211</v>
+        <v>12.88000011444092</v>
       </c>
       <c r="C98">
-        <v>11.75</v>
+        <v>11.89000034332275</v>
       </c>
       <c r="D98">
-        <v>13.39999961853027</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="E98">
-        <v>13.39999961853027</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="F98">
-        <v>110518900</v>
+        <v>54887500</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>13.11999988555908</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="B99">
-        <v>13.60000038146973</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="C99">
-        <v>12.82999992370605</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="D99">
-        <v>13.0600004196167</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="E99">
-        <v>13.0600004196167</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="F99">
-        <v>47456600</v>
+        <v>51039300</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>13.60000038146973</v>
+        <v>14.22999954223633</v>
       </c>
       <c r="B100">
-        <v>13.81999969482422</v>
+        <v>14.36999988555908</v>
       </c>
       <c r="C100">
-        <v>12.68000030517578</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="D100">
-        <v>12.75</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="E100">
-        <v>12.75</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="F100">
-        <v>69949700</v>
+        <v>69012900</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>13.01000022888184</v>
+        <v>14.09000015258789</v>
       </c>
       <c r="B101">
-        <v>13.0600004196167</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="C101">
-        <v>12.19999980926514</v>
+        <v>13.1899995803833</v>
       </c>
       <c r="D101">
-        <v>12.27999973297119</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="E101">
-        <v>12.27999973297119</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="F101">
-        <v>52622900</v>
+        <v>47204300</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>12.30000019073486</v>
+        <v>12.94999980926514</v>
       </c>
       <c r="B102">
-        <v>12.88000011444092</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="C102">
-        <v>11.89000034332275</v>
+        <v>12.42000007629395</v>
       </c>
       <c r="D102">
-        <v>12.71000003814697</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="E102">
-        <v>12.71000003814697</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="F102">
-        <v>54887500</v>
+        <v>47236900</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>12.77000045776367</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="B103">
-        <v>13.73999977111816</v>
+        <v>13.09000015258789</v>
       </c>
       <c r="C103">
-        <v>12.76000022888184</v>
+        <v>12.26500034332275</v>
       </c>
       <c r="D103">
-        <v>13.71000003814697</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="E103">
-        <v>13.71000003814697</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="F103">
-        <v>51039300</v>
+        <v>38843600</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>14.22999954223633</v>
+        <v>13.02499961853027</v>
       </c>
       <c r="B104">
-        <v>14.36999988555908</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="C104">
-        <v>13.5600004196167</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="D104">
-        <v>14.19999980926514</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="E104">
-        <v>14.19999980926514</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="F104">
-        <v>69012900</v>
+        <v>45646100</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>14.09000015258789</v>
+        <v>12.75</v>
       </c>
       <c r="B105">
-        <v>14.19999980926514</v>
+        <v>13.18900012969971</v>
       </c>
       <c r="C105">
-        <v>13.1899995803833</v>
+        <v>12.61999988555908</v>
       </c>
       <c r="D105">
-        <v>13.31999969482422</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="E105">
-        <v>13.31999969482422</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="F105">
-        <v>47204300</v>
+        <v>30317100</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>12.94999980926514</v>
+        <v>13.28999996185303</v>
       </c>
       <c r="B106">
-        <v>13.31999969482422</v>
+        <v>13.89000034332275</v>
       </c>
       <c r="C106">
-        <v>12.42000007629395</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="D106">
-        <v>12.44999980926514</v>
+        <v>13.86999988555908</v>
       </c>
       <c r="E106">
-        <v>12.44999980926514</v>
+        <v>13.86999988555908</v>
       </c>
       <c r="F106">
-        <v>47236900</v>
+        <v>34451900</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>12.47000026702881</v>
+        <v>13.5</v>
       </c>
       <c r="B107">
-        <v>13.09000015258789</v>
+        <v>14.16499996185303</v>
       </c>
       <c r="C107">
-        <v>12.26500034332275</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="D107">
-        <v>12.9399995803833</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="E107">
-        <v>12.9399995803833</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="F107">
-        <v>38843600</v>
+        <v>41998200</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>13.02499961853027</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="B108">
-        <v>13.60000038146973</v>
+        <v>13.92000007629395</v>
       </c>
       <c r="C108">
-        <v>12.9399995803833</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="D108">
-        <v>12.97999954223633</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="E108">
-        <v>12.97999954223633</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="F108">
-        <v>45646100</v>
+        <v>41746500</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>12.75</v>
+        <v>13.10000038146973</v>
       </c>
       <c r="B109">
-        <v>13.18900012969971</v>
+        <v>13.79500007629395</v>
       </c>
       <c r="C109">
-        <v>12.61999988555908</v>
+        <v>12.97999954223633</v>
       </c>
       <c r="D109">
-        <v>13.14999961853027</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="E109">
-        <v>13.14999961853027</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="F109">
-        <v>30317100</v>
+        <v>40617900</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>13.28999996185303</v>
+        <v>13.52000045776367</v>
       </c>
       <c r="B110">
-        <v>13.89000034332275</v>
+        <v>14.1850004196167</v>
       </c>
       <c r="C110">
-        <v>13.26000022888184</v>
+        <v>13.40999984741211</v>
       </c>
       <c r="D110">
-        <v>13.86999988555908</v>
+        <v>14.17000007629395</v>
       </c>
       <c r="E110">
-        <v>13.86999988555908</v>
+        <v>14.17000007629395</v>
       </c>
       <c r="F110">
-        <v>34451900</v>
+        <v>48523700</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>13.5</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="B111">
-        <v>14.16499996185303</v>
+        <v>14.26000022888184</v>
       </c>
       <c r="C111">
-        <v>13.36999988555908</v>
+        <v>13.65999984741211</v>
       </c>
       <c r="D111">
-        <v>13.5600004196167</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="E111">
-        <v>13.5600004196167</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="F111">
-        <v>41998200</v>
+        <v>58624400</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>13.44999980926514</v>
+        <v>12.39000034332275</v>
       </c>
       <c r="B112">
-        <v>13.92000007629395</v>
+        <v>12.69999980926514</v>
       </c>
       <c r="C112">
-        <v>12.97000026702881</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="D112">
-        <v>13.13000011444092</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="E112">
-        <v>13.13000011444092</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="F112">
-        <v>41746500</v>
+        <v>151385400</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>13.10000038146973</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="B113">
-        <v>13.79500007629395</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="C113">
-        <v>12.97999954223633</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="D113">
-        <v>13.26000022888184</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="E113">
-        <v>13.26000022888184</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="F113">
-        <v>40617900</v>
+        <v>137808100</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>13.52000045776367</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="B114">
-        <v>14.1850004196167</v>
+        <v>11.1850004196167</v>
       </c>
       <c r="C114">
-        <v>13.40999984741211</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="D114">
-        <v>14.17000007629395</v>
+        <v>10.47999954223633</v>
       </c>
       <c r="E114">
-        <v>14.17000007629395</v>
+        <v>10.47999954223633</v>
       </c>
       <c r="F114">
-        <v>48523700</v>
+        <v>104501500</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>13.90999984741211</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="B115">
-        <v>14.26000022888184</v>
+        <v>11.26000022888184</v>
       </c>
       <c r="C115">
-        <v>13.65999984741211</v>
+        <v>10.39999961853027</v>
       </c>
       <c r="D115">
-        <v>13.97000026702881</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="E115">
-        <v>13.97000026702881</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="F115">
-        <v>58624400</v>
+        <v>93964500</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>12.39000034332275</v>
+        <v>9.75</v>
       </c>
       <c r="B116">
-        <v>12.69999980926514</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="C116">
-        <v>11.69999980926514</v>
+        <v>9.739999771118164</v>
       </c>
       <c r="D116">
-        <v>11.77000045776367</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="E116">
-        <v>11.77000045776367</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="F116">
-        <v>151385400</v>
+        <v>118793000</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>11.92000007629395</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="B117">
-        <v>12.01000022888184</v>
+        <v>11.89000034332275</v>
       </c>
       <c r="C117">
-        <v>10.56999969482422</v>
+        <v>11</v>
       </c>
       <c r="D117">
-        <v>11.02000045776367</v>
+        <v>11.47000026702881</v>
       </c>
       <c r="E117">
-        <v>11.02000045776367</v>
+        <v>11.47000026702881</v>
       </c>
       <c r="F117">
-        <v>137808100</v>
+        <v>75433700</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>10.69999980926514</v>
+        <v>11.96000003814697</v>
       </c>
       <c r="B118">
-        <v>11.1850004196167</v>
+        <v>12.18000030517578</v>
       </c>
       <c r="C118">
-        <v>10.30000019073486</v>
+        <v>11.39000034332275</v>
       </c>
       <c r="D118">
-        <v>10.47999954223633</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="E118">
-        <v>10.47999954223633</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="F118">
-        <v>104501500</v>
+        <v>75390500</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>10.82999992370605</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="B119">
-        <v>11.26000022888184</v>
+        <v>12.52000045776367</v>
       </c>
       <c r="C119">
-        <v>10.39999961853027</v>
+        <v>11.71000003814697</v>
       </c>
       <c r="D119">
-        <v>10.43000030517578</v>
+        <v>12.18000030517578</v>
       </c>
       <c r="E119">
-        <v>10.43000030517578</v>
+        <v>12.18000030517578</v>
       </c>
       <c r="F119">
-        <v>93964500</v>
+        <v>64867200</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>9.75</v>
+        <v>12.21000003814697</v>
       </c>
       <c r="B120">
-        <v>11.86999988555908</v>
+        <v>12.21000003814697</v>
       </c>
       <c r="C120">
-        <v>9.739999771118164</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="D120">
-        <v>11.82999992370605</v>
+        <v>12.0600004196167</v>
       </c>
       <c r="E120">
-        <v>11.82999992370605</v>
+        <v>12.0600004196167</v>
       </c>
       <c r="F120">
-        <v>118793000</v>
+        <v>56698300</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>11.59000015258789</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="B121">
-        <v>11.89000034332275</v>
+        <v>12.05500030517578</v>
       </c>
       <c r="C121">
-        <v>11</v>
+        <v>11.23499965667725</v>
       </c>
       <c r="D121">
-        <v>11.47000026702881</v>
+        <v>11.34000015258789</v>
       </c>
       <c r="E121">
-        <v>11.47000026702881</v>
+        <v>11.34000015258789</v>
       </c>
       <c r="F121">
-        <v>75433700</v>
+        <v>46172000</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>11.96000003814697</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="B122">
-        <v>12.18000030517578</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C122">
-        <v>11.39000034332275</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="D122">
-        <v>11.85000038146973</v>
+        <v>10.96000003814697</v>
       </c>
       <c r="E122">
-        <v>11.85000038146973</v>
+        <v>10.96000003814697</v>
       </c>
       <c r="F122">
-        <v>75390500</v>
+        <v>43502200</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>11.98999977111816</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="B123">
-        <v>12.52000045776367</v>
+        <v>11.75</v>
       </c>
       <c r="C123">
-        <v>11.71000003814697</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="D123">
-        <v>12.18000030517578</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="E123">
-        <v>12.18000030517578</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="F123">
-        <v>64867200</v>
+        <v>63070600</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>12.21000003814697</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="B124">
-        <v>12.21000003814697</v>
+        <v>11.39000034332275</v>
       </c>
       <c r="C124">
-        <v>11.42000007629395</v>
+        <v>10.7189998626709</v>
       </c>
       <c r="D124">
-        <v>12.0600004196167</v>
+        <v>11.03999996185303</v>
       </c>
       <c r="E124">
-        <v>12.0600004196167</v>
+        <v>11.03999996185303</v>
       </c>
       <c r="F124">
-        <v>56698300</v>
+        <v>49279600</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>12.01000022888184</v>
+        <v>11.40999984741211</v>
       </c>
       <c r="B125">
-        <v>12.05500030517578</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="C125">
-        <v>11.23499965667725</v>
+        <v>11.27000045776367</v>
       </c>
       <c r="D125">
-        <v>11.34000015258789</v>
+        <v>11.64999961853027</v>
       </c>
       <c r="E125">
-        <v>11.34000015258789</v>
+        <v>11.64999961853027</v>
       </c>
       <c r="F125">
-        <v>45943000</v>
+        <v>43591400</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>11.69999980926514</v>
+        <v>11.38000011444092</v>
       </c>
       <c r="B126">
-        <v>11.77000045776367</v>
+        <v>11.97000026702881</v>
       </c>
       <c r="C126">
-        <v>10.73999977111816</v>
+        <v>11.31999969482422</v>
       </c>
       <c r="D126">
-        <v>10.96000003814697</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="E126">
-        <v>10.96000003814697</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="F126">
-        <v>43318206</v>
+        <v>52295400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>11.85999965667725</v>
+      </c>
+      <c r="B127">
+        <v>12.00500011444092</v>
+      </c>
+      <c r="C127">
+        <v>11.36999988555908</v>
+      </c>
+      <c r="D127">
+        <v>11.39000034332275</v>
+      </c>
+      <c r="E127">
+        <v>11.39000034332275</v>
+      </c>
+      <c r="F127">
+        <v>37195114</v>
       </c>
     </row>
   </sheetData>
